--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eu\Projeto-II-Estrutura-de-Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22899140\Documents\GitHub\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCF148-5D83-4675-9D7C-B5CA9E6CE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB906E-4A3F-40C7-9F7B-57B3FA5F6917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
   <si>
     <t>Metodo</t>
   </si>
@@ -86,9 +75,6 @@
     <t>Merge</t>
   </si>
   <si>
-    <t>Quick</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -111,6 +97,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Quick - Early</t>
+  </si>
+  <si>
+    <t>Quick - End</t>
+  </si>
+  <si>
+    <t>Quick - Middle</t>
   </si>
 </sst>
 </file>
@@ -221,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -340,11 +335,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -368,33 +372,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,6 +382,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -721,58 +728,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E61052-186C-4165-A01B-4F4A6CE64FEA}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72:E72"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -806,8 +825,20 @@
       <c r="K3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -833,8 +864,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -860,8 +895,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -887,8 +926,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -914,8 +957,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -941,8 +988,12 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -968,8 +1019,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -995,8 +1050,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1022,8 +1081,12 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1049,8 +1112,12 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1076,10 +1143,14 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>24</v>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="12">
         <f t="shared" ref="B14" si="0">SUM(B4:B13)</f>
@@ -1110,64 +1181,94 @@
         <v>0</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" ref="I14" si="5">SUM(I4:I13)</f>
+        <f>SUM(I4:I13)</f>
         <v>0</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" ref="J14" si="6">SUM(J4:J13)</f>
+        <f>SUM(J4:J13)</f>
         <v>0</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" ref="K14" si="7">SUM(K4:K13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13">
-        <f t="shared" ref="B15" si="8">SUM(B14:C14)</f>
+        <f>SUM(K4:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <f>SUM(L4:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <f>SUM(M4:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <f>SUM(N4:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <f>SUM(O4:O13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23">
+        <f t="shared" ref="B15" si="5">SUM(B14:C14)</f>
         <v>2132</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13">
-        <f t="shared" ref="D15" si="9">SUM(D14:E14)</f>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23">
+        <f t="shared" ref="D15" si="6">SUM(D14:E14)</f>
         <v>7030</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13">
+      <c r="E15" s="24"/>
+      <c r="F15" s="23">
         <f>SUM(F14:G14)</f>
         <v>14</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13">
-        <f t="shared" ref="H15" si="10">SUM(H14:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13">
-        <f t="shared" ref="J15" si="11">SUM(J14:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="24"/>
+      <c r="H15" s="23">
+        <f t="shared" ref="H15" si="7">SUM(H14:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="23">
+        <f>SUM(J14:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="23">
+        <f t="shared" ref="L15" si="8">SUM(L14:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23">
+        <f t="shared" ref="N15" si="9">SUM(N14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -1201,8 +1302,20 @@
       <c r="K17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1228,8 +1341,12 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1372,12 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1282,8 +1403,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1309,8 +1434,12 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1336,8 +1465,12 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1363,8 +1496,12 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1390,8 +1527,12 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1417,8 +1558,12 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1444,8 +1589,12 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1471,25 +1620,29 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>24</v>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="12">
-        <f t="shared" ref="B28:E28" si="12">SUM(B18:B27)</f>
+        <f t="shared" ref="B28:E28" si="10">SUM(B18:B27)</f>
         <v>17675</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>36148</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>101203</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>84109</v>
       </c>
       <c r="F28" s="12">
@@ -1501,68 +1654,98 @@
         <v>27</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" ref="H28:K28" si="13">SUM(H18:H27)</f>
+        <f t="shared" ref="H28:K28" si="11">SUM(H18:H27)</f>
         <v>0</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13">
-        <f t="shared" ref="B29" si="14">SUM(B28:C28)</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <f>SUM(L18:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <f>SUM(M18:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <f>SUM(N18:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <f>SUM(O18:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23">
+        <f t="shared" ref="B29" si="12">SUM(B28:C28)</f>
         <v>53823</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13">
-        <f t="shared" ref="D29" si="15">SUM(D28:E28)</f>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23">
+        <f t="shared" ref="D29" si="13">SUM(D28:E28)</f>
         <v>185312</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13">
+      <c r="E29" s="24"/>
+      <c r="F29" s="23">
         <f>SUM(F28:G28)</f>
         <v>128</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13">
-        <f t="shared" ref="H29" si="16">SUM(H28:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13">
-        <f t="shared" ref="J29" si="17">SUM(J28:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" s="24"/>
+      <c r="H29" s="23">
+        <f t="shared" ref="H29" si="14">SUM(H28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="23">
+        <f t="shared" ref="J29" si="15">SUM(J28:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="23">
+        <f t="shared" ref="L29" si="16">SUM(L28:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23">
+        <f t="shared" ref="N29" si="17">SUM(N28:O28)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="24"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>1</v>
       </c>
@@ -1596,8 +1779,20 @@
       <c r="K31" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1623,8 +1818,12 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1849,12 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1677,8 +1880,12 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1704,8 +1911,12 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1731,8 +1942,12 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1758,8 +1973,12 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1785,8 +2004,12 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1812,8 +2035,12 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1839,8 +2066,12 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1866,10 +2097,14 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>24</v>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B42" s="12">
         <f t="shared" ref="B42" si="18">SUM(B32:B41)</f>
@@ -1911,53 +2146,83 @@
         <f t="shared" ref="K42" si="25">SUM(K32:K41)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="13">
+      <c r="L42" s="12">
+        <f>SUM(L32:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
+        <f>SUM(M32:M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="12">
+        <f>SUM(N32:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="12">
+        <f>SUM(O32:O41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23">
         <f t="shared" ref="B43" si="26">SUM(B42:C42)</f>
         <v>318101</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13">
+      <c r="C43" s="24"/>
+      <c r="D43" s="23">
         <f t="shared" ref="D43" si="27">SUM(D42:E42)</f>
         <v>826906</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13">
+      <c r="E43" s="24"/>
+      <c r="F43" s="23">
         <f>SUM(F42:G42)</f>
         <v>347</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13">
+      <c r="G43" s="24"/>
+      <c r="H43" s="23">
         <f t="shared" ref="H43" si="28">SUM(H42:I42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="13">
+      <c r="I43" s="24"/>
+      <c r="J43" s="23">
         <f t="shared" ref="J43" si="29">SUM(J42:K42)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="24"/>
+      <c r="L43" s="23">
+        <f t="shared" ref="L43" si="30">SUM(L42:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23">
+        <f t="shared" ref="N43" si="31">SUM(N42:O42)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="24"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>1</v>
       </c>
@@ -1991,8 +2256,20 @@
       <c r="K45" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>2</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2018,8 +2295,12 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2045,8 +2326,12 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2072,8 +2357,12 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2388,12 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2126,8 +2419,12 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2153,8 +2450,12 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2180,8 +2481,12 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2207,8 +2512,12 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2234,8 +2543,12 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2261,25 +2574,29 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>24</v>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" ref="B56" si="30">SUM(B46:B55)</f>
+        <f t="shared" ref="B56" si="32">SUM(B46:B55)</f>
         <v>3180205</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" ref="C56" si="31">SUM(C46:C55)</f>
+        <f t="shared" ref="C56" si="33">SUM(C46:C55)</f>
         <v>6364754</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" ref="D56" si="32">SUM(D46:D55)</f>
+        <f t="shared" ref="D56" si="34">SUM(D46:D55)</f>
         <v>13134032</v>
       </c>
       <c r="E56" s="12">
-        <f t="shared" ref="E56" si="33">SUM(E46:E55)</f>
+        <f t="shared" ref="E56" si="35">SUM(E46:E55)</f>
         <v>12448836</v>
       </c>
       <c r="F56" s="12">
@@ -2291,68 +2608,98 @@
         <v>549</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" ref="H56" si="34">SUM(H46:H55)</f>
+        <f t="shared" ref="H56" si="36">SUM(H46:H55)</f>
         <v>0</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" ref="I56" si="35">SUM(I46:I55)</f>
+        <f t="shared" ref="I56" si="37">SUM(I46:I55)</f>
         <v>0</v>
       </c>
       <c r="J56" s="12">
-        <f t="shared" ref="J56" si="36">SUM(J46:J55)</f>
+        <f t="shared" ref="J56" si="38">SUM(J46:J55)</f>
         <v>0</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" ref="K56" si="37">SUM(K46:K55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="13">
-        <f t="shared" ref="B57" si="38">SUM(B56:C56)</f>
+        <f t="shared" ref="K56" si="39">SUM(K46:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <f>SUM(L46:L55)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="12">
+        <f>SUM(M46:M55)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="12">
+        <f>SUM(N46:N55)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <f>SUM(O46:O55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23">
+        <f t="shared" ref="B57" si="40">SUM(B56:C56)</f>
         <v>9544959</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13">
-        <f t="shared" ref="D57" si="39">SUM(D56:E56)</f>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23">
+        <f t="shared" ref="D57" si="41">SUM(D56:E56)</f>
         <v>25582868</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="13">
+      <c r="E57" s="24"/>
+      <c r="F57" s="23">
         <f>SUM(F56:G56)</f>
         <v>2465</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="13">
-        <f t="shared" ref="H57" si="40">SUM(H56:I56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="13">
-        <f t="shared" ref="J57" si="41">SUM(J56:K56)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G57" s="24"/>
+      <c r="H57" s="23">
+        <f t="shared" ref="H57" si="42">SUM(H56:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="23">
+        <f t="shared" ref="J57" si="43">SUM(J56:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="24"/>
+      <c r="L57" s="23">
+        <f t="shared" ref="L57" si="44">SUM(L56:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="24"/>
+      <c r="N57" s="23">
+        <f t="shared" ref="N57" si="45">SUM(N56:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="24"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2386,8 +2733,20 @@
       <c r="K59" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
+        <v>2</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2411,8 +2770,12 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2799,12 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2461,8 +2828,12 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2486,8 +2857,12 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2511,8 +2886,12 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2536,8 +2915,12 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2561,8 +2944,12 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2586,8 +2973,12 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2609,8 +3000,12 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2632,25 +3027,29 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>24</v>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" ref="B70" si="42">SUM(B60:B69)</f>
+        <f t="shared" ref="B70" si="46">SUM(B60:B69)</f>
         <v>12861228</v>
       </c>
       <c r="C70" s="12">
-        <f t="shared" ref="C70" si="43">SUM(C60:C69)</f>
+        <f t="shared" ref="C70" si="47">SUM(C60:C69)</f>
         <v>26235291</v>
       </c>
       <c r="D70" s="12">
-        <f t="shared" ref="D70" si="44">SUM(D60:D69)</f>
+        <f t="shared" ref="D70" si="48">SUM(D60:D69)</f>
         <v>41671144</v>
       </c>
       <c r="E70" s="12">
-        <f t="shared" ref="E70" si="45">SUM(E60:E69)</f>
+        <f t="shared" ref="E70" si="49">SUM(E60:E69)</f>
         <v>0</v>
       </c>
       <c r="F70" s="12">
@@ -2662,98 +3061,146 @@
         <v>1139</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" ref="H70" si="46">SUM(H60:H69)</f>
+        <f t="shared" ref="H70" si="50">SUM(H60:H69)</f>
         <v>0</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" ref="I70" si="47">SUM(I60:I69)</f>
+        <f t="shared" ref="I70" si="51">SUM(I60:I69)</f>
         <v>0</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" ref="J70" si="48">SUM(J60:J69)</f>
+        <f t="shared" ref="J70" si="52">SUM(J60:J69)</f>
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" ref="K70" si="49">SUM(K60:K69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="13">
-        <f t="shared" ref="B71" si="50">SUM(B70:C70)</f>
+        <f t="shared" ref="K70" si="53">SUM(K60:K69)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="12">
+        <f>SUM(L60:L69)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="12">
+        <f>SUM(M60:M69)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="12">
+        <f>SUM(N60:N69)</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f>SUM(O60:O69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23">
+        <f t="shared" ref="B71" si="54">SUM(B70:C70)</f>
         <v>39096519</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13">
-        <f t="shared" ref="D71" si="51">SUM(D70:E70)</f>
+      <c r="C71" s="24"/>
+      <c r="D71" s="23">
+        <f t="shared" ref="D71" si="55">SUM(D70:E70)</f>
         <v>41671144</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="13">
+      <c r="E71" s="24"/>
+      <c r="F71" s="23">
         <f>SUM(F70:G70)</f>
         <v>5452</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="13">
-        <f t="shared" ref="H71" si="52">SUM(H70:I70)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="13">
-        <f t="shared" ref="J71" si="53">SUM(J70:K70)</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="14"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G71" s="24"/>
+      <c r="H71" s="23">
+        <f t="shared" ref="H71" si="56">SUM(H70:I70)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="24"/>
+      <c r="J71" s="23">
+        <f t="shared" ref="J71" si="57">SUM(J70:K70)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="24"/>
+      <c r="L71" s="23">
+        <f t="shared" ref="L71" si="58">SUM(L70:M70)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="24"/>
+      <c r="N71" s="23">
+        <f t="shared" ref="N71" si="59">SUM(N70:O70)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="24"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="20">
+        <v>22</v>
+      </c>
+      <c r="B72" s="17">
         <f>SUM(B71+B57+B43+B29+B15)</f>
         <v>49015534</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="20">
-        <f t="shared" ref="D72" si="54">SUM(D71+D57+D43+D29+D15)</f>
+      <c r="C72" s="18"/>
+      <c r="D72" s="17">
+        <f t="shared" ref="D72" si="60">SUM(D71+D57+D43+D29+D15)</f>
         <v>68273260</v>
       </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="20">
+      <c r="E72" s="18"/>
+      <c r="F72" s="17">
         <f>SUM(F71+F57+F43+F29+F15)</f>
         <v>8406</v>
       </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="20">
-        <f t="shared" ref="H72" si="55">SUM(H71+H57+H43+H29+H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="21"/>
-      <c r="J72" s="20">
-        <f t="shared" ref="J72" si="56">SUM(J71+J57+J43+J29+J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="21"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="17">
+        <f t="shared" ref="H72" si="61">SUM(H71+H57+H43+H29+H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="18"/>
+      <c r="J72" s="17">
+        <f t="shared" ref="J72:N72" si="62">SUM(J71+J57+J43+J29+J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="18"/>
+      <c r="L72" s="17">
+        <f>SUM(L71+L57+L43+L29+L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="45">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B58:K58"/>
+  <mergeCells count="59">
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B44:O44"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="J57:K57"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="A28:A29"/>
@@ -2762,33 +3209,35 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L43:M43"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="B28:L28 A14:XFD15 A42:XFD43 A56:XFD57 A70:XFD71" formulaRange="1"/>
+    <ignoredError sqref="B28:K28 A15:I15 A42:K43 A56:K57 A70:K71 P14:XFD15 A14:H14 K15 P42:XFD43 P56:XFD57 P70:XFD71" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eu\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCF148-5D83-4675-9D7C-B5CA9E6CE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E77ABA5-6339-43D8-916B-35379251E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Metodo</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Merge</t>
   </si>
   <si>
-    <t>Quick</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -111,6 +108,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Cocktail</t>
+  </si>
+  <si>
+    <t>Quick 1</t>
+  </si>
+  <si>
+    <t>Quick 2</t>
+  </si>
+  <si>
+    <t>Quick 3</t>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -368,17 +377,17 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +416,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,16 +731,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E61052-186C-4165-A01B-4F4A6CE64FEA}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72:E72"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -751,16 +761,28 @@
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -770,9 +792,15 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -806,25 +834,39 @@
       <c r="K3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1">
         <v>139</v>
       </c>
-      <c r="D4" s="1">
-        <v>358</v>
-      </c>
-      <c r="E4" s="1">
-        <v>333</v>
-      </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -833,25 +875,31 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>70</v>
       </c>
-      <c r="C5" s="1">
-        <v>146</v>
-      </c>
-      <c r="D5" s="1">
-        <v>360</v>
-      </c>
       <c r="E5" s="1">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -860,103 +908,127 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1">
-        <v>142</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>71</v>
       </c>
-      <c r="C7" s="1">
-        <v>139</v>
-      </c>
-      <c r="D7" s="1">
-        <v>360</v>
-      </c>
       <c r="E7" s="1">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1">
-        <v>139</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1">
-        <v>355</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1">
-        <v>148</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>369</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -968,22 +1040,28 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1">
-        <v>143</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -995,115 +1073,143 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1">
-        <v>140</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>339</v>
+        <v>141</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1">
-        <v>147</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
-        <v>338</v>
+        <v>141</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
         <v>71</v>
       </c>
-      <c r="C13" s="1">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1">
-        <v>363</v>
-      </c>
       <c r="E13" s="1">
-        <v>339</v>
+        <v>141</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>24</v>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="12">
         <f t="shared" ref="B14" si="0">SUM(B4:B13)</f>
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" ref="C14" si="1">SUM(C4:C13)</f>
-        <v>1422</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" ref="D14" si="2">SUM(D4:D13)</f>
-        <v>3631</v>
+        <v>726</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" ref="E14" si="3">SUM(E4:E13)</f>
-        <v>3399</v>
+        <v>1413</v>
       </c>
       <c r="F14" s="12">
         <f>SUM(F4:F13)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(G4:G13)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" s="12">
         <f t="shared" ref="H14" si="4">SUM(H4:H13)</f>
@@ -1114,48 +1220,87 @@
         <v>0</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" ref="J14" si="6">SUM(J4:J13)</f>
+        <f t="shared" ref="J14:L14" si="6">SUM(J4:J13)</f>
         <v>0</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" ref="K14" si="7">SUM(K4:K13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13">
-        <f t="shared" ref="B15" si="8">SUM(B14:C14)</f>
-        <v>2132</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13">
-        <f t="shared" ref="D15" si="9">SUM(D14:E14)</f>
-        <v>7030</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13">
+        <f t="shared" ref="K14:N14" si="7">SUM(K4:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" ref="O14:Q14" si="8">SUM(O4:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="8"/>
+        <v>721</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="8"/>
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" ref="B15" si="9">SUM(B14:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15" si="10">SUM(D14:E14)</f>
+        <v>2139</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15">
         <f>SUM(F14:G14)</f>
-        <v>14</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13">
-        <f t="shared" ref="H15" si="10">SUM(H14:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13">
-        <f t="shared" ref="J15" si="11">SUM(J14:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15">
+        <f t="shared" ref="H15" si="11">SUM(H14:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15">
+        <f t="shared" ref="J15:L15" si="12">SUM(J14:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15">
+        <f t="shared" ref="N15:O15" si="13">SUM(N14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="15">
+        <f t="shared" ref="P15:Q15" si="14">SUM(P14:Q14)</f>
+        <v>2156</v>
+      </c>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1165,9 +1310,15 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -1201,79 +1352,105 @@
       <c r="K17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
-        <v>1771</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3550</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>10155</v>
+        <v>1770</v>
       </c>
       <c r="E18" s="1">
-        <v>8417</v>
+        <v>3541</v>
       </c>
       <c r="F18" s="1">
         <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>1787</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
         <v>1757</v>
       </c>
-      <c r="C19" s="1">
-        <v>3676</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10170</v>
-      </c>
       <c r="E19" s="1">
-        <v>8494</v>
+        <v>3527</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>1766</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
-        <v>1777</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3666</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>10089</v>
+        <v>1770</v>
       </c>
       <c r="E20" s="1">
-        <v>8477</v>
+        <v>3518</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -1282,103 +1459,127 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
+        <v>1775</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
-        <v>1776</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3719</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>10132</v>
+        <v>1755</v>
       </c>
       <c r="E21" s="1">
-        <v>8359</v>
+        <v>3520</v>
       </c>
       <c r="F21" s="1">
         <v>10</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
+        <v>1757</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
-        <v>1759</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3579</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>10091</v>
+        <v>1771</v>
       </c>
       <c r="E22" s="1">
-        <v>8397</v>
+        <v>3514</v>
       </c>
       <c r="F22" s="1">
         <v>10</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
+        <v>1751</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1">
-        <v>1783</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3608</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>10124</v>
+        <v>1758</v>
       </c>
       <c r="E23" s="1">
-        <v>8374</v>
+        <v>3523</v>
       </c>
       <c r="F23" s="1">
         <v>10</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
+        <v>1750</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
-        <v>1773</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3617</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>10110</v>
+        <v>1757</v>
       </c>
       <c r="E24" s="1">
-        <v>8437</v>
+        <v>3529</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
@@ -1390,25 +1591,31 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
+        <v>1769</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="1">
-        <v>1759</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3530</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <v>10105</v>
+        <v>1752</v>
       </c>
       <c r="E25" s="1">
-        <v>8392</v>
+        <v>3537</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>
@@ -1417,140 +1624,201 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
+        <v>1758</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1">
-        <v>1763</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3587</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>10105</v>
+        <v>1772</v>
       </c>
       <c r="E26" s="1">
-        <v>8389</v>
+        <v>3514</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
       </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
+        <v>1774</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="2">
-        <v>1757</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3616</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>10122</v>
+        <v>1759</v>
       </c>
       <c r="E27" s="2">
-        <v>8373</v>
+        <v>3531</v>
       </c>
       <c r="F27" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>24</v>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2">
+        <v>1755</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="12">
-        <f t="shared" ref="B28:E28" si="12">SUM(B18:B27)</f>
-        <v>17675</v>
+        <f t="shared" ref="B28:E28" si="15">SUM(B18:B27)</f>
+        <v>0</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="12"/>
-        <v>36148</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="12"/>
-        <v>101203</v>
+        <f t="shared" si="15"/>
+        <v>17621</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="12"/>
-        <v>84109</v>
+        <f t="shared" si="15"/>
+        <v>35254</v>
       </c>
       <c r="F28" s="12">
         <f>SUM(F18:F27)</f>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G28" s="12">
         <f>SUM(G18:G27)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" ref="H28:K28" si="13">SUM(H18:H27)</f>
+        <f t="shared" ref="H28:K28" si="16">SUM(H18:H27)</f>
         <v>0</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13">
-        <f t="shared" ref="B29" si="14">SUM(B28:C28)</f>
-        <v>53823</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13">
-        <f t="shared" ref="D29" si="15">SUM(D28:E28)</f>
-        <v>185312</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" ref="L28:Q28" si="17">SUM(L18:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="17"/>
+        <v>17642</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="17"/>
+        <v>35220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15">
+        <f t="shared" ref="B29" si="18">SUM(B28:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29" si="19">SUM(D28:E28)</f>
+        <v>52875</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15">
         <f>SUM(F28:G28)</f>
-        <v>128</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13">
-        <f t="shared" ref="H29" si="16">SUM(H28:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13">
-        <f t="shared" ref="J29" si="17">SUM(J28:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="15">
+        <f t="shared" ref="H29" si="20">SUM(H28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15">
+        <f t="shared" ref="J29:L29" si="21">SUM(J28:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="15">
+        <f t="shared" ref="N29:O29" si="22">SUM(N28:O28)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="15">
+        <f t="shared" ref="P29:Q29" si="23">SUM(P28:Q28)</f>
+        <v>52862</v>
+      </c>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1560,9 +1828,15 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>1</v>
       </c>
@@ -1596,25 +1870,39 @@
       <c r="K31" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="10">
+        <v>1</v>
+      </c>
+      <c r="M31" s="11">
+        <v>2</v>
+      </c>
+      <c r="N31" s="10">
+        <v>1</v>
+      </c>
+      <c r="O31" s="11">
+        <v>2</v>
+      </c>
+      <c r="P31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="1">
-        <v>13354</v>
-      </c>
-      <c r="C32" s="1">
-        <v>27553</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <v>41806</v>
+        <v>13160</v>
       </c>
       <c r="E32" s="1">
-        <v>42394</v>
+        <v>14073</v>
       </c>
       <c r="F32" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G32" s="1">
         <v>8</v>
@@ -1623,329 +1911,432 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1">
+        <v>13428</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>17427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
-        <v>11748</v>
-      </c>
-      <c r="C33" s="1">
-        <v>27132</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1">
-        <v>41875</v>
+        <v>9033</v>
       </c>
       <c r="E33" s="1">
-        <v>33701</v>
+        <v>26782</v>
       </c>
       <c r="F33" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
+        <v>7037</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>16658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1">
-        <v>11501</v>
-      </c>
-      <c r="C34" s="1">
-        <v>21876</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <v>47737</v>
+        <v>8173</v>
       </c>
       <c r="E34" s="1">
-        <v>41433</v>
+        <v>15749</v>
       </c>
       <c r="F34" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1">
+        <v>7109</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>15521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
-        <v>13475</v>
-      </c>
-      <c r="C35" s="1">
-        <v>26113</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1">
-        <v>43284</v>
+        <v>7010</v>
       </c>
       <c r="E35" s="1">
-        <v>33562</v>
+        <v>18961</v>
       </c>
       <c r="F35" s="1">
         <v>29</v>
       </c>
       <c r="G35" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1">
+        <v>7027</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>26883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
-        <v>13301</v>
-      </c>
-      <c r="C36" s="1">
-        <v>14542</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1">
-        <v>44102</v>
+        <v>13256</v>
       </c>
       <c r="E36" s="1">
-        <v>33958</v>
+        <v>17372</v>
       </c>
       <c r="F36" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G36" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1">
+        <v>12157</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>26839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="1">
-        <v>7177</v>
-      </c>
-      <c r="C37" s="1">
-        <v>15081</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1">
-        <v>41700</v>
+        <v>10364</v>
       </c>
       <c r="E37" s="1">
-        <v>33587</v>
+        <v>26799</v>
       </c>
       <c r="F37" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1">
+        <v>7041</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>22437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="1">
-        <v>7412</v>
-      </c>
-      <c r="C38" s="1">
-        <v>25289</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="1">
-        <v>51275</v>
+        <v>8114</v>
       </c>
       <c r="E38" s="1">
-        <v>33567</v>
+        <v>17655</v>
       </c>
       <c r="F38" s="1">
         <v>29</v>
       </c>
       <c r="G38" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1">
+        <v>9575</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>16991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="1">
-        <v>7387</v>
-      </c>
-      <c r="C39" s="1">
-        <v>14685</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1">
-        <v>41537</v>
+        <v>12805</v>
       </c>
       <c r="E39" s="1">
-        <v>33483</v>
+        <v>23745</v>
       </c>
       <c r="F39" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G39" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1">
+        <v>7033</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>16842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="1">
-        <v>7233</v>
-      </c>
-      <c r="C40" s="1">
-        <v>14750</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1">
-        <v>41664</v>
+        <v>10943</v>
       </c>
       <c r="E40" s="1">
-        <v>46273</v>
+        <v>18580</v>
       </c>
       <c r="F40" s="1">
         <v>27</v>
       </c>
       <c r="G40" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1">
+        <v>7033</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>19906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="2">
-        <v>11478</v>
-      </c>
-      <c r="C41" s="2">
-        <v>27014</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <v>49564</v>
+        <v>7976</v>
       </c>
       <c r="E41" s="2">
-        <v>50404</v>
+        <v>25990</v>
       </c>
       <c r="F41" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G41" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>24</v>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2">
+        <v>7006</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>19842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B42" s="12">
-        <f t="shared" ref="B42" si="18">SUM(B32:B41)</f>
-        <v>104066</v>
+        <f t="shared" ref="B42" si="24">SUM(B32:B41)</f>
+        <v>0</v>
       </c>
       <c r="C42" s="12">
-        <f t="shared" ref="C42" si="19">SUM(C32:C41)</f>
-        <v>214035</v>
+        <f t="shared" ref="C42" si="25">SUM(C32:C41)</f>
+        <v>0</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" ref="D42" si="20">SUM(D32:D41)</f>
-        <v>444544</v>
+        <f t="shared" ref="D42" si="26">SUM(D32:D41)</f>
+        <v>100834</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" ref="E42" si="21">SUM(E32:E41)</f>
-        <v>382362</v>
+        <f t="shared" ref="E42" si="27">SUM(E32:E41)</f>
+        <v>205706</v>
       </c>
       <c r="F42" s="12">
         <f>SUM(F32:F41)</f>
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="G42" s="12">
         <f>SUM(G32:G41)</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" ref="H42" si="22">SUM(H32:H41)</f>
+        <f t="shared" ref="H42" si="28">SUM(H32:H41)</f>
         <v>0</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" ref="I42" si="23">SUM(I32:I41)</f>
+        <f t="shared" ref="I42" si="29">SUM(I32:I41)</f>
         <v>0</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" ref="J42" si="24">SUM(J32:J41)</f>
+        <f t="shared" ref="J42:L42" si="30">SUM(J32:J41)</f>
         <v>0</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" ref="K42" si="25">SUM(K32:K41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="13">
-        <f t="shared" ref="B43" si="26">SUM(B42:C42)</f>
-        <v>318101</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13">
-        <f t="shared" ref="D43" si="27">SUM(D42:E42)</f>
-        <v>826906</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13">
+        <f t="shared" ref="K42:N42" si="31">SUM(K32:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" ref="O42:Q42" si="32">SUM(O32:O41)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="12">
+        <f t="shared" si="32"/>
+        <v>84446</v>
+      </c>
+      <c r="Q42" s="12">
+        <f t="shared" si="32"/>
+        <v>199346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" ref="B43" si="33">SUM(B42:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15">
+        <f t="shared" ref="D43" si="34">SUM(D42:E42)</f>
+        <v>306540</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15">
         <f>SUM(F42:G42)</f>
-        <v>347</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13">
-        <f t="shared" ref="H43" si="28">SUM(H42:I42)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="13">
-        <f t="shared" ref="J43" si="29">SUM(J42:K42)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="15">
+        <f t="shared" ref="H43" si="35">SUM(H42:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="15">
+        <f t="shared" ref="J43:L43" si="36">SUM(J42:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="16"/>
+      <c r="N43" s="15">
+        <f t="shared" ref="N43:O43" si="37">SUM(N42:O42)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="16"/>
+      <c r="P43" s="15">
+        <f t="shared" ref="P43:Q43" si="38">SUM(P42:Q42)</f>
+        <v>283792</v>
+      </c>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -1955,9 +2346,15 @@
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="19"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>1</v>
       </c>
@@ -1991,241 +2388,303 @@
       <c r="K45" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="10">
+        <v>1</v>
+      </c>
+      <c r="M45" s="11">
+        <v>2</v>
+      </c>
+      <c r="N45" s="10">
+        <v>1</v>
+      </c>
+      <c r="O45" s="11">
+        <v>2</v>
+      </c>
+      <c r="P45" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="1">
-        <v>330719</v>
-      </c>
-      <c r="C46" s="1">
-        <v>671530</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>1317729</v>
+        <v>331332</v>
       </c>
       <c r="E46" s="1">
-        <v>1235658</v>
+        <v>670383</v>
       </c>
       <c r="F46" s="1">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G46" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1">
+        <v>309890</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>666070</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="1">
-        <v>329880</v>
-      </c>
-      <c r="C47" s="1">
-        <v>550800</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <v>1308589</v>
+        <v>332772</v>
       </c>
       <c r="E47" s="1">
-        <v>1307176</v>
+        <v>660959</v>
       </c>
       <c r="F47" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G47" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1">
+        <v>336220</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>660863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="1">
-        <v>303746</v>
-      </c>
-      <c r="C48" s="1">
-        <v>673312</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1">
-        <v>1271745</v>
+        <v>331711</v>
       </c>
       <c r="E48" s="1">
-        <v>1237759</v>
+        <v>661672</v>
       </c>
       <c r="F48" s="1">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="G48" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1">
+        <v>332312</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>657846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="1">
-        <v>334382</v>
-      </c>
-      <c r="C49" s="1">
-        <v>655139</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="1">
-        <v>1309610</v>
+        <v>335206</v>
       </c>
       <c r="E49" s="1">
-        <v>1303500</v>
+        <v>673342</v>
       </c>
       <c r="F49" s="1">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G49" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1">
+        <v>325752</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>671543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="1">
-        <v>333339</v>
-      </c>
-      <c r="C50" s="1">
-        <v>655985</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1">
-        <v>1297648</v>
+        <v>336280</v>
       </c>
       <c r="E50" s="1">
-        <v>1250128</v>
+        <v>670308</v>
       </c>
       <c r="F50" s="1">
         <v>197</v>
       </c>
       <c r="G50" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1">
+        <v>330349</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>664073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="1">
-        <v>310384</v>
-      </c>
-      <c r="C51" s="1">
-        <v>512936</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1">
-        <v>1329938</v>
+        <v>334285</v>
       </c>
       <c r="E51" s="1">
-        <v>1282814</v>
+        <v>663296</v>
       </c>
       <c r="F51" s="1">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G51" s="1">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1">
+        <v>330009</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>660065</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="1">
-        <v>290411</v>
-      </c>
-      <c r="C52" s="1">
-        <v>658887</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="1">
-        <v>1322316</v>
+        <v>333411</v>
       </c>
       <c r="E52" s="1">
-        <v>1317602</v>
+        <v>668134</v>
       </c>
       <c r="F52" s="1">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G52" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1">
+        <v>329896</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>672891</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="1">
-        <v>312593</v>
-      </c>
-      <c r="C53" s="1">
-        <v>657043</v>
-      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>1329131</v>
+        <v>335939</v>
       </c>
       <c r="E53" s="1">
-        <v>979746</v>
+        <v>671798</v>
       </c>
       <c r="F53" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G53" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1">
+        <v>331276</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>664044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="1">
-        <v>317525</v>
-      </c>
-      <c r="C54" s="1">
-        <v>665789</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="1">
-        <v>1319504</v>
+        <v>334882</v>
       </c>
       <c r="E54" s="1">
-        <v>1275369</v>
+        <v>661289</v>
       </c>
       <c r="F54" s="1">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G54" s="1">
         <v>54</v>
@@ -2234,113 +2693,168 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1">
+        <v>328403</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>655986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="2">
-        <v>317226</v>
-      </c>
-      <c r="C55" s="2">
-        <v>663333</v>
-      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2">
-        <v>1327822</v>
+        <v>335567</v>
       </c>
       <c r="E55" s="2">
-        <v>1259084</v>
+        <v>661528</v>
       </c>
       <c r="F55" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G55" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>24</v>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
+        <v>333268</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>659056</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" ref="B56" si="30">SUM(B46:B55)</f>
-        <v>3180205</v>
+        <f t="shared" ref="B56" si="39">SUM(B46:B55)</f>
+        <v>0</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" ref="C56" si="31">SUM(C46:C55)</f>
-        <v>6364754</v>
+        <f t="shared" ref="C56" si="40">SUM(C46:C55)</f>
+        <v>0</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" ref="D56" si="32">SUM(D46:D55)</f>
-        <v>13134032</v>
+        <f t="shared" ref="D56" si="41">SUM(D46:D55)</f>
+        <v>3341385</v>
       </c>
       <c r="E56" s="12">
-        <f t="shared" ref="E56" si="33">SUM(E46:E55)</f>
-        <v>12448836</v>
+        <f>SUM(E46:E55)</f>
+        <v>6662709</v>
       </c>
       <c r="F56" s="12">
         <f>SUM(F46:F55)</f>
-        <v>1916</v>
+        <v>1972</v>
       </c>
       <c r="G56" s="12">
         <f>SUM(G46:G55)</f>
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" ref="H56" si="34">SUM(H46:H55)</f>
+        <f t="shared" ref="H56" si="42">SUM(H46:H55)</f>
         <v>0</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" ref="I56" si="35">SUM(I46:I55)</f>
+        <f t="shared" ref="I56" si="43">SUM(I46:I55)</f>
         <v>0</v>
       </c>
       <c r="J56" s="12">
-        <f t="shared" ref="J56" si="36">SUM(J46:J55)</f>
+        <f t="shared" ref="J56:L56" si="44">SUM(J46:J55)</f>
         <v>0</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" ref="K56" si="37">SUM(K46:K55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="13">
-        <f t="shared" ref="B57" si="38">SUM(B56:C56)</f>
-        <v>9544959</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13">
-        <f t="shared" ref="D57" si="39">SUM(D56:E56)</f>
-        <v>25582868</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="13">
+        <f t="shared" ref="K56:N56" si="45">SUM(K46:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <f t="shared" ref="O56:Q56" si="46">SUM(O46:O55)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="12">
+        <f t="shared" si="46"/>
+        <v>3287375</v>
+      </c>
+      <c r="Q56" s="12">
+        <f t="shared" si="46"/>
+        <v>6632437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" ref="B57" si="47">SUM(B56:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15">
+        <f t="shared" ref="D57" si="48">SUM(D56:E56)</f>
+        <v>10004094</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="15">
         <f>SUM(F56:G56)</f>
-        <v>2465</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="13">
-        <f t="shared" ref="H57" si="40">SUM(H56:I56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="13">
-        <f t="shared" ref="J57" si="41">SUM(J56:K56)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2525</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="15">
+        <f t="shared" ref="H57" si="49">SUM(H56:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="15">
+        <f t="shared" ref="J57:L57" si="50">SUM(J56:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="16"/>
+      <c r="L57" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="16"/>
+      <c r="N57" s="15">
+        <f t="shared" ref="N57:O57" si="51">SUM(N56:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="16"/>
+      <c r="P57" s="15">
+        <f t="shared" ref="P57:Q57" si="52">SUM(P56:Q56)</f>
+        <v>9919812</v>
+      </c>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -2350,9 +2864,15 @@
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="19"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2386,359 +2906,521 @@
       <c r="K59" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="10">
+        <v>1</v>
+      </c>
+      <c r="M59" s="11">
+        <v>2</v>
+      </c>
+      <c r="N59" s="10">
+        <v>1</v>
+      </c>
+      <c r="O59" s="11">
+        <v>2</v>
+      </c>
+      <c r="P59" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="1">
-        <v>1309731</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2730267</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="1">
-        <v>5240801</v>
-      </c>
-      <c r="E60" s="1"/>
+        <v>1320917</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2684348</v>
+      </c>
       <c r="F60" s="1">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G60" s="1">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1">
+        <v>1340548</v>
+      </c>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="1">
-        <v>1288468</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2681550</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="1">
-        <v>5210580</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>1342177</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2688027</v>
+      </c>
       <c r="F61" s="1">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G61" s="1">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1">
+        <v>1332427</v>
+      </c>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="1">
-        <v>1107074</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2565023</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="1">
-        <v>5227973</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>1325116</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2671920</v>
+      </c>
       <c r="F62" s="1">
         <v>433</v>
       </c>
       <c r="G62" s="1">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1">
+        <v>1338976</v>
+      </c>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="1">
-        <v>1139399</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2624508</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <v>5219242</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>1341078</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2679338</v>
+      </c>
       <c r="F63" s="1">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G63" s="1">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1">
+        <v>1328453</v>
+      </c>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="1">
-        <v>1291448</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2626346</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
       <c r="D64" s="1">
-        <v>5269724</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>1341708</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2690758</v>
+      </c>
       <c r="F64" s="1">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G64" s="1">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1">
+        <v>1328453</v>
+      </c>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="1">
-        <v>1321282</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2587072</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>5273003</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>1333741</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2682723</v>
+      </c>
       <c r="F65" s="1">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G65" s="1">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1">
+        <v>1339202</v>
+      </c>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="1">
-        <v>1324815</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2611299</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
       <c r="D66" s="1">
-        <v>5139916</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>1343762</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2679809</v>
+      </c>
       <c r="F66" s="1">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="G66" s="1">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1">
+        <v>1346042</v>
+      </c>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="1">
-        <v>1364612</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2547447</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="1">
-        <v>5089905</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>1339994</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2680013</v>
+      </c>
       <c r="F67" s="1">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G67" s="1">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1">
+        <v>1318693</v>
+      </c>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="1">
-        <v>1347071</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2623444</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1">
+        <v>1338383</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2688639</v>
+      </c>
       <c r="F68" s="1">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="G68" s="1">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1">
+        <v>1321979</v>
+      </c>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="1">
-        <v>1367328</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2638335</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1">
+        <v>1340001</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2687791</v>
+      </c>
       <c r="F69" s="1">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G69" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>24</v>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1">
+        <v>1278971</v>
+      </c>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" ref="B70" si="42">SUM(B60:B69)</f>
-        <v>12861228</v>
+        <f t="shared" ref="B70" si="53">SUM(B60:B69)</f>
+        <v>0</v>
       </c>
       <c r="C70" s="12">
-        <f t="shared" ref="C70" si="43">SUM(C60:C69)</f>
-        <v>26235291</v>
+        <f t="shared" ref="C70" si="54">SUM(C60:C69)</f>
+        <v>0</v>
       </c>
       <c r="D70" s="12">
-        <f t="shared" ref="D70" si="44">SUM(D60:D69)</f>
-        <v>41671144</v>
+        <f t="shared" ref="D70" si="55">SUM(D60:D69)</f>
+        <v>13366877</v>
       </c>
       <c r="E70" s="12">
-        <f t="shared" ref="E70" si="45">SUM(E60:E69)</f>
-        <v>0</v>
+        <f t="shared" ref="E70" si="56">SUM(E60:E69)</f>
+        <v>26833366</v>
       </c>
       <c r="F70" s="12">
         <f>SUM(F60:F69)</f>
-        <v>4313</v>
+        <v>4357</v>
       </c>
       <c r="G70" s="12">
         <f>SUM(G60:G69)</f>
-        <v>1139</v>
+        <v>1211</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" ref="H70" si="46">SUM(H60:H69)</f>
+        <f t="shared" ref="H70" si="57">SUM(H60:H69)</f>
         <v>0</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" ref="I70" si="47">SUM(I60:I69)</f>
+        <f t="shared" ref="I70" si="58">SUM(I60:I69)</f>
         <v>0</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" ref="J70" si="48">SUM(J60:J69)</f>
+        <f t="shared" ref="J70:L70" si="59">SUM(J60:J69)</f>
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" ref="K70" si="49">SUM(K60:K69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="13">
-        <f t="shared" ref="B71" si="50">SUM(B70:C70)</f>
-        <v>39096519</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13">
-        <f t="shared" ref="D71" si="51">SUM(D70:E70)</f>
-        <v>41671144</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="13">
+        <f t="shared" ref="K70:N70" si="60">SUM(K60:K69)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="12">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="12">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" ref="O70:Q70" si="61">SUM(O60:O69)</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="12">
+        <f t="shared" si="61"/>
+        <v>13273744</v>
+      </c>
+      <c r="Q70" s="12">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15">
+        <f t="shared" ref="B71" si="62">SUM(B70:C70)</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="15">
+        <f t="shared" ref="D71" si="63">SUM(D70:E70)</f>
+        <v>40200243</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="15">
         <f>SUM(F70:G70)</f>
-        <v>5452</v>
-      </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="13">
-        <f t="shared" ref="H71" si="52">SUM(H70:I70)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="13">
-        <f t="shared" ref="J71" si="53">SUM(J70:K70)</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="14"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5568</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="15">
+        <f t="shared" ref="H71" si="64">SUM(H70:I70)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="16"/>
+      <c r="J71" s="15">
+        <f t="shared" ref="J71:L71" si="65">SUM(J70:K70)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="16"/>
+      <c r="L71" s="15">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="16"/>
+      <c r="N71" s="15">
+        <f t="shared" ref="N71:O71" si="66">SUM(N70:O70)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="16"/>
+      <c r="P71" s="15">
+        <f t="shared" ref="P71:Q71" si="67">SUM(P70:Q70)</f>
+        <v>13273744</v>
+      </c>
+      <c r="Q71" s="16"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="20">
         <f>SUM(B71+B57+B43+B29+B15)</f>
-        <v>49015534</v>
+        <v>0</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="20">
-        <f t="shared" ref="D72" si="54">SUM(D71+D57+D43+D29+D15)</f>
-        <v>68273260</v>
+        <f t="shared" ref="D72" si="68">SUM(D71+D57+D43+D29+D15)</f>
+        <v>50565891</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="20">
         <f>SUM(F71+F57+F43+F29+F15)</f>
-        <v>8406</v>
+        <v>8615</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="20">
-        <f t="shared" ref="H72" si="55">SUM(H71+H57+H43+H29+H15)</f>
+        <f t="shared" ref="H72" si="69">SUM(H71+H57+H43+H29+H15)</f>
         <v>0</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="20">
-        <f t="shared" ref="J72" si="56">SUM(J71+J57+J43+J29+J15)</f>
+        <f t="shared" ref="J72:L72" si="70">SUM(J71+J57+J43+J29+J15)</f>
         <v>0</v>
       </c>
       <c r="K72" s="21"/>
+      <c r="L72" s="20">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="21"/>
+      <c r="N72" s="20">
+        <f t="shared" ref="N72:O72" si="71">SUM(N71+N57+N43+N29+N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="21"/>
+      <c r="P72" s="20">
+        <f t="shared" ref="P72:Q72" si="72">SUM(P71+P57+P43+P29+P15)</f>
+        <v>23532366</v>
+      </c>
+      <c r="Q72" s="21"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="45">
+  <mergeCells count="66">
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L57:M57"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -2749,11 +3431,12 @@
     <mergeCell ref="J72:K72"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="A28:A29"/>
@@ -2762,33 +3445,27 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="J71:K71"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="J57:K57"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="H71:I71"/>
     <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="B28:L28 A14:XFD15 A42:XFD43 A56:XFD57 A70:XFD71" formulaRange="1"/>
+    <ignoredError sqref="A14:A15 A42:K43 A57:K57 A70:K71 A56:D56 F56:K56 R14:XFD15 R42:XFD43 R57:XFD57 R70:XFD71 R56:XFD56 B14:K15 B28:K28 B16:Q17 L28:Q28 L14:Q15 L42:Q42 L56:Q56 L70:Q70 B27:O27 B18:O18 B19:O19 B20:O20 B21:O21 B22:O22 B23:O23 B24:O24 B25:O25 B26:O26" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eu\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B5DB6-71B6-432C-BD16-2F67A55D0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562E4B6-1372-4937-B097-393347C6ED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="42">
   <si>
     <t>Metodo</t>
   </si>
@@ -111,15 +111,6 @@
     <t>Cocktail</t>
   </si>
   <si>
-    <t>Quick 1</t>
-  </si>
-  <si>
-    <t>Quick 2</t>
-  </si>
-  <si>
-    <t>Quick 3</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -163,6 +154,15 @@
   </si>
   <si>
     <t>Bubble</t>
+  </si>
+  <si>
+    <t>Quick LS</t>
+  </si>
+  <si>
+    <t>Quick LI</t>
+  </si>
+  <si>
+    <t>Quick LM</t>
   </si>
 </sst>
 </file>
@@ -501,28 +501,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,23 +522,23 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,10 +546,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,19 +573,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -911,8 +911,8 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K89" sqref="K89:L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,60 +921,60 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="33" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="34"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1052,10 +1052,18 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>108</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1089,10 +1097,18 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>106</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1126,10 +1142,18 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>108</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1163,10 +1187,18 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>108</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1200,10 +1232,18 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>110</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1237,10 +1277,18 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>111</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1274,10 +1322,18 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>116</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1311,10 +1367,18 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>131</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1348,10 +1412,18 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>117</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1385,10 +1457,18 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>107</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1402,7 +1482,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="12">
         <f>SMALL(B4:B13,1)</f>
@@ -1428,21 +1508,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="12" t="e">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I14" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J14" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K14" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>106</v>
       </c>
       <c r="L14" s="12" t="e">
         <f t="shared" si="0"/>
@@ -1471,7 +1551,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="12">
         <f>LARGE(B4:B13, 1)</f>
@@ -1497,21 +1577,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="12" t="e">
+      <c r="H15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I15" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="I15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J15" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K15" s="12" t="e">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>131</v>
       </c>
       <c r="L15" s="12" t="e">
         <f t="shared" si="1"/>
@@ -1540,7 +1620,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="12">
         <f>AVERAGE(B4:B13)</f>
@@ -1566,21 +1646,21 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H16" s="12" t="e">
+      <c r="H16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="12" t="e">
+        <v>1.7</v>
+      </c>
+      <c r="I16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="12" t="e">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>112.2</v>
       </c>
       <c r="L16" s="12" t="e">
         <f t="shared" si="2"/>
@@ -1608,7 +1688,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="12">
@@ -1637,19 +1717,19 @@
       </c>
       <c r="H17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="L17" s="12">
         <f t="shared" si="3"/>
@@ -1677,70 +1757,70 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29">
+      <c r="A18" s="39"/>
+      <c r="B18" s="27">
         <f>SUM(B17:C17)</f>
         <v>4570</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29">
+      <c r="C18" s="28"/>
+      <c r="D18" s="27">
         <f>SUM(D17:E17)</f>
         <v>2139</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29">
+      <c r="E18" s="28"/>
+      <c r="F18" s="27">
         <f>SUM(F17:G17)</f>
         <v>18</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="29">
+      <c r="G18" s="28"/>
+      <c r="H18" s="27">
         <f>SUM(H17:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29">
+        <v>27</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27">
         <f>SUM(J17:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="29">
+        <v>1137</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="27">
         <f>SUM(L17:M17)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="29">
+      <c r="M18" s="28"/>
+      <c r="N18" s="27">
         <f>SUM(N17:O17)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="29">
+      <c r="O18" s="28"/>
+      <c r="P18" s="27">
         <f>SUM(P17:Q17)</f>
         <v>2156</v>
       </c>
-      <c r="Q18" s="30"/>
+      <c r="Q18" s="28"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1817,10 +1897,18 @@
       <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="H21" s="1">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2655</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1854,10 +1942,18 @@
       <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="H22" s="1">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2657</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1891,10 +1987,18 @@
       <c r="G23" s="1">
         <v>3</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="H23" s="1">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2674</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1928,10 +2032,18 @@
       <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="H24" s="1">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2691</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1965,10 +2077,18 @@
       <c r="G25" s="1">
         <v>3</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2648</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2002,10 +2122,18 @@
       <c r="G26" s="1">
         <v>4</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2715</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2039,10 +2167,18 @@
       <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="H27" s="1">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2691</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2076,10 +2212,18 @@
       <c r="G28" s="1">
         <v>3</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="H28" s="1">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>8</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2723</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2113,10 +2257,18 @@
       <c r="G29" s="1">
         <v>2</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="1">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2767</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2150,10 +2302,18 @@
       <c r="G30" s="2">
         <v>3</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="H30" s="2">
+        <v>9</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2">
+        <v>7</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2701</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2167,7 +2327,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="12">
         <f>SMALL(B21:B30,1)</f>
@@ -2193,319 +2353,318 @@
         <f t="shared" ref="G31" si="8">SMALL(G21:G30,1)</f>
         <v>2</v>
       </c>
-      <c r="H31" s="12" t="e">
+      <c r="H31" s="12">
         <f t="shared" ref="H31" si="9">SMALL(H21:H30,1)</f>
+        <v>8</v>
+      </c>
+      <c r="I31" s="12">
+        <v>5</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" ref="J31" si="10">SMALL(J21:J30,1)</f>
+        <v>7</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" ref="K31" si="11">SMALL(K21:K30,1)</f>
+        <v>2648</v>
+      </c>
+      <c r="L31" s="12" t="e">
+        <f t="shared" ref="L31" si="12">SMALL(L21:L30,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I31" s="12" t="e">
-        <f t="shared" ref="I31" si="10">SMALL(I21:I30,1)</f>
+      <c r="M31" s="12" t="e">
+        <f t="shared" ref="M31" si="13">SMALL(M21:M30,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J31" s="12" t="e">
-        <f t="shared" ref="J31" si="11">SMALL(J21:J30,1)</f>
+      <c r="N31" s="12" t="e">
+        <f t="shared" ref="N31" si="14">SMALL(N21:N30,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K31" s="12" t="e">
-        <f t="shared" ref="K31" si="12">SMALL(K21:K30,1)</f>
+      <c r="O31" s="12" t="e">
+        <f t="shared" ref="O31" si="15">SMALL(O21:O30,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L31" s="12" t="e">
-        <f t="shared" ref="L31" si="13">SMALL(L21:L30,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M31" s="12" t="e">
-        <f t="shared" ref="M31" si="14">SMALL(M21:M30,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N31" s="12" t="e">
-        <f t="shared" ref="N31" si="15">SMALL(N21:N30,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O31" s="12" t="e">
-        <f t="shared" ref="O31" si="16">SMALL(O21:O30,1)</f>
-        <v>#NUM!</v>
-      </c>
       <c r="P31" s="12">
-        <f t="shared" ref="P31" si="17">SMALL(P21:P30,1)</f>
+        <f t="shared" ref="P31" si="16">SMALL(P21:P30,1)</f>
         <v>1750</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" ref="Q31" si="18">SMALL(Q21:Q30,1)</f>
+        <f t="shared" ref="Q31" si="17">SMALL(Q21:Q30,1)</f>
         <v>3499</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="12">
         <f>LARGE(B21:B30, 1)</f>
         <v>7959</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:Q32" si="19">LARGE(C21:C30, 1)</f>
+        <f t="shared" ref="C32:Q32" si="18">LARGE(C21:C30, 1)</f>
         <v>7202</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1772</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3541</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="H32" s="12" t="e">
-        <f t="shared" si="19"/>
+      <c r="H32" s="12">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="18"/>
+        <v>2767</v>
+      </c>
+      <c r="L32" s="12" t="e">
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="I32" s="12" t="e">
-        <f t="shared" si="19"/>
+      <c r="M32" s="12" t="e">
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="J32" s="12" t="e">
-        <f t="shared" si="19"/>
+      <c r="N32" s="12" t="e">
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="K32" s="12" t="e">
-        <f t="shared" si="19"/>
+      <c r="O32" s="12" t="e">
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
-      <c r="L32" s="12" t="e">
-        <f t="shared" si="19"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M32" s="12" t="e">
-        <f t="shared" si="19"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" s="12" t="e">
-        <f t="shared" si="19"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O32" s="12" t="e">
-        <f t="shared" si="19"/>
-        <v>#NUM!</v>
-      </c>
       <c r="P32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1787</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3555</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="12">
         <f>AVERAGE(B21:B30)</f>
         <v>7883</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33" si="20">AVERAGE(C21:C30)</f>
+        <f t="shared" ref="C33" si="19">AVERAGE(C21:C30)</f>
         <v>7056.2</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" ref="D33" si="21">AVERAGE(D21:D30)</f>
+        <f t="shared" ref="D33" si="20">AVERAGE(D21:D30)</f>
         <v>1762.1</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" ref="E33" si="22">AVERAGE(E21:E30)</f>
+        <f t="shared" ref="E33" si="21">AVERAGE(E21:E30)</f>
         <v>3525.4</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" ref="F33" si="23">AVERAGE(F21:F30)</f>
+        <f t="shared" ref="F33" si="22">AVERAGE(F21:F30)</f>
         <v>9.9</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" ref="G33" si="24">AVERAGE(G21:G30)</f>
+        <f t="shared" ref="G33" si="23">AVERAGE(G21:G30)</f>
         <v>2.8</v>
       </c>
-      <c r="H33" s="12" t="e">
-        <f t="shared" ref="H33" si="25">AVERAGE(H21:H30)</f>
+      <c r="H33" s="12">
+        <f t="shared" ref="H33" si="24">AVERAGE(H21:H30)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" ref="I33" si="25">AVERAGE(I21:I30)</f>
+        <v>6.4</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" ref="J33" si="26">AVERAGE(J21:J30)</f>
+        <v>7.4</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" ref="K33" si="27">AVERAGE(K21:K30)</f>
+        <v>2692.2</v>
+      </c>
+      <c r="L33" s="12" t="e">
+        <f t="shared" ref="L33" si="28">AVERAGE(L21:L30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="12" t="e">
-        <f t="shared" ref="I33" si="26">AVERAGE(I21:I30)</f>
+      <c r="M33" s="12" t="e">
+        <f t="shared" ref="M33" si="29">AVERAGE(M21:M30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="12" t="e">
-        <f t="shared" ref="J33" si="27">AVERAGE(J21:J30)</f>
+      <c r="N33" s="12" t="e">
+        <f t="shared" ref="N33" si="30">AVERAGE(N21:N30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="12" t="e">
-        <f t="shared" ref="K33" si="28">AVERAGE(K21:K30)</f>
+      <c r="O33" s="12" t="e">
+        <f t="shared" ref="O33" si="31">AVERAGE(O21:O30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="12" t="e">
-        <f t="shared" ref="L33" si="29">AVERAGE(L21:L30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="12" t="e">
-        <f t="shared" ref="M33" si="30">AVERAGE(M21:M30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="12" t="e">
-        <f t="shared" ref="N33" si="31">AVERAGE(N21:N30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="12" t="e">
-        <f t="shared" ref="O33" si="32">AVERAGE(O21:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="P33" s="12">
-        <f t="shared" ref="P33" si="33">AVERAGE(P21:P30)</f>
+        <f t="shared" ref="P33" si="32">AVERAGE(P21:P30)</f>
         <v>1764.2</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" ref="Q33" si="34">AVERAGE(Q21:Q30)</f>
+        <f t="shared" ref="Q33" si="33">AVERAGE(Q21:Q30)</f>
         <v>3522</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="12">
-        <f t="shared" ref="B34:K34" si="35">SUM(B21:B30)</f>
+        <f t="shared" ref="B34:K34" si="34">SUM(B21:B30)</f>
         <v>78830</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>70562</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>17621</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>35254</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>99</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>28</v>
       </c>
       <c r="H34" s="12">
+        <f t="shared" si="34"/>
+        <v>88</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="34"/>
+        <v>64</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="34"/>
+        <v>26922</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" ref="L34:Q34" si="35">SUM(L21:L30)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I34" s="12">
+      <c r="N34" s="12">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J34" s="12">
+      <c r="O34" s="12">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K34" s="12">
+      <c r="P34" s="12">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="12">
-        <f t="shared" ref="L34:Q34" si="36">SUM(L21:L30)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="12">
-        <f t="shared" si="36"/>
         <v>17642</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>35220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29">
+      <c r="A35" s="39"/>
+      <c r="B35" s="27">
         <f>SUM(B34:C34)</f>
         <v>149392</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="29">
+      <c r="C35" s="28"/>
+      <c r="D35" s="27">
         <f>SUM(D34:E34)</f>
         <v>52875</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29">
+      <c r="E35" s="28"/>
+      <c r="F35" s="27">
         <f>SUM(F34:G34)</f>
         <v>127</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="29">
+      <c r="G35" s="28"/>
+      <c r="H35" s="27">
         <f>SUM(H34:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29">
+        <v>152</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27">
         <f>SUM(J34:K34)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="29">
+        <v>26996</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="L35" s="27">
         <f>SUM(L34:M34)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="29">
+      <c r="M35" s="28"/>
+      <c r="N35" s="27">
         <f>SUM(N34:O34)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="29">
+      <c r="O35" s="28"/>
+      <c r="P35" s="27">
         <f>SUM(P34:Q34)</f>
         <v>52862</v>
       </c>
-      <c r="Q35" s="30"/>
+      <c r="Q35" s="28"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="39"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -2582,10 +2741,18 @@
       <c r="G38" s="1">
         <v>8</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="H38" s="1">
+        <v>19</v>
+      </c>
+      <c r="I38" s="1">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1">
+        <v>10884</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2619,10 +2786,18 @@
       <c r="G39" s="1">
         <v>7</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="H39" s="1">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1">
+        <v>11</v>
+      </c>
+      <c r="J39" s="1">
+        <v>15</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10615</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2656,10 +2831,18 @@
       <c r="G40" s="1">
         <v>10</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="H40" s="1">
+        <v>20</v>
+      </c>
+      <c r="I40" s="1">
+        <v>11</v>
+      </c>
+      <c r="J40" s="1">
+        <v>15</v>
+      </c>
+      <c r="K40" s="1">
+        <v>10630</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -2693,10 +2876,18 @@
       <c r="G41" s="1">
         <v>10</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="H41" s="1">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1">
+        <v>11</v>
+      </c>
+      <c r="J41" s="1">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1">
+        <v>10644</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -2730,10 +2921,18 @@
       <c r="G42" s="1">
         <v>9</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="H42" s="1">
+        <v>19</v>
+      </c>
+      <c r="I42" s="1">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1">
+        <v>10956</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2767,10 +2966,18 @@
       <c r="G43" s="1">
         <v>9</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="H43" s="1">
+        <v>18</v>
+      </c>
+      <c r="I43" s="1">
+        <v>11</v>
+      </c>
+      <c r="J43" s="1">
+        <v>15</v>
+      </c>
+      <c r="K43" s="1">
+        <v>10932</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2804,10 +3011,18 @@
       <c r="G44" s="1">
         <v>9</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="H44" s="1">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1">
+        <v>11</v>
+      </c>
+      <c r="J44" s="1">
+        <v>15</v>
+      </c>
+      <c r="K44" s="1">
+        <v>10750</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2841,10 +3056,18 @@
       <c r="G45" s="1">
         <v>10</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="H45" s="1">
+        <v>22</v>
+      </c>
+      <c r="I45" s="1">
+        <v>11</v>
+      </c>
+      <c r="J45" s="1">
+        <v>15</v>
+      </c>
+      <c r="K45" s="1">
+        <v>10792</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2878,10 +3101,18 @@
       <c r="G46" s="1">
         <v>8</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="H46" s="1">
+        <v>19</v>
+      </c>
+      <c r="I46" s="1">
+        <v>11</v>
+      </c>
+      <c r="J46" s="1">
+        <v>15</v>
+      </c>
+      <c r="K46" s="1">
+        <v>10750</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2915,10 +3146,18 @@
       <c r="G47" s="2">
         <v>11</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="H47" s="2">
+        <v>22</v>
+      </c>
+      <c r="I47" s="2">
+        <v>13</v>
+      </c>
+      <c r="J47" s="2">
+        <v>15</v>
+      </c>
+      <c r="K47" s="2">
+        <v>10545</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -2932,145 +3171,145 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B48" s="12">
         <f>SMALL(B38:B47,1)</f>
         <v>28648</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" ref="C48" si="37">SMALL(C38:C47,1)</f>
+        <f t="shared" ref="C48" si="36">SMALL(C38:C47,1)</f>
         <v>30192</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" ref="D48" si="38">SMALL(D38:D47,1)</f>
+        <f t="shared" ref="D48" si="37">SMALL(D38:D47,1)</f>
         <v>7010</v>
       </c>
       <c r="E48" s="12">
-        <f t="shared" ref="E48" si="39">SMALL(E38:E47,1)</f>
+        <f t="shared" ref="E48" si="38">SMALL(E38:E47,1)</f>
         <v>14073</v>
       </c>
       <c r="F48" s="12">
-        <f t="shared" ref="F48" si="40">SMALL(F38:F47,1)</f>
+        <f t="shared" ref="F48" si="39">SMALL(F38:F47,1)</f>
         <v>27</v>
       </c>
       <c r="G48" s="12">
-        <f t="shared" ref="G48" si="41">SMALL(G38:G47,1)</f>
+        <f t="shared" ref="G48" si="40">SMALL(G38:G47,1)</f>
         <v>7</v>
       </c>
-      <c r="H48" s="12" t="e">
-        <f t="shared" ref="H48" si="42">SMALL(H38:H47,1)</f>
+      <c r="H48" s="12">
+        <f t="shared" ref="H48" si="41">SMALL(H38:H47,1)</f>
+        <v>18</v>
+      </c>
+      <c r="I48" s="12">
+        <f t="shared" ref="I48" si="42">SMALL(I38:I47,1)</f>
+        <v>11</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" ref="J48" si="43">SMALL(J38:J47,1)</f>
+        <v>14</v>
+      </c>
+      <c r="K48" s="12">
+        <f t="shared" ref="K48" si="44">SMALL(K38:K47,1)</f>
+        <v>10545</v>
+      </c>
+      <c r="L48" s="12" t="e">
+        <f t="shared" ref="L48" si="45">SMALL(L38:L47,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I48" s="12" t="e">
-        <f t="shared" ref="I48" si="43">SMALL(I38:I47,1)</f>
+      <c r="M48" s="12" t="e">
+        <f t="shared" ref="M48" si="46">SMALL(M38:M47,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J48" s="12" t="e">
-        <f t="shared" ref="J48" si="44">SMALL(J38:J47,1)</f>
+      <c r="N48" s="12" t="e">
+        <f t="shared" ref="N48" si="47">SMALL(N38:N47,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K48" s="12" t="e">
-        <f t="shared" ref="K48" si="45">SMALL(K38:K47,1)</f>
+      <c r="O48" s="12" t="e">
+        <f t="shared" ref="O48" si="48">SMALL(O38:O47,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L48" s="12" t="e">
-        <f t="shared" ref="L48" si="46">SMALL(L38:L47,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M48" s="12" t="e">
-        <f t="shared" ref="M48" si="47">SMALL(M38:M47,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N48" s="12" t="e">
-        <f t="shared" ref="N48" si="48">SMALL(N38:N47,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O48" s="12" t="e">
-        <f t="shared" ref="O48" si="49">SMALL(O38:O47,1)</f>
-        <v>#NUM!</v>
-      </c>
       <c r="P48" s="12">
-        <f t="shared" ref="P48" si="50">SMALL(P38:P47,1)</f>
+        <f t="shared" ref="P48" si="49">SMALL(P38:P47,1)</f>
         <v>7006</v>
       </c>
       <c r="Q48" s="12">
-        <f t="shared" ref="Q48" si="51">SMALL(Q38:Q47,1)</f>
+        <f t="shared" ref="Q48" si="50">SMALL(Q38:Q47,1)</f>
         <v>15521</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B49" s="12">
         <f>LARGE(B38:B47, 1)</f>
         <v>37417</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" ref="C49:Q49" si="52">LARGE(C38:C47, 1)</f>
+        <f t="shared" ref="C49:Q49" si="51">LARGE(C38:C47, 1)</f>
         <v>41171</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>13256</v>
       </c>
       <c r="E49" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>26799</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>30</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
-      <c r="H49" s="12" t="e">
-        <f t="shared" si="52"/>
+      <c r="H49" s="12">
+        <f t="shared" si="51"/>
+        <v>22</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="51"/>
+        <v>13</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="51"/>
+        <v>16</v>
+      </c>
+      <c r="K49" s="12">
+        <f t="shared" si="51"/>
+        <v>10956</v>
+      </c>
+      <c r="L49" s="12" t="e">
+        <f t="shared" si="51"/>
         <v>#NUM!</v>
       </c>
-      <c r="I49" s="12" t="e">
-        <f t="shared" si="52"/>
+      <c r="M49" s="12" t="e">
+        <f t="shared" si="51"/>
         <v>#NUM!</v>
       </c>
-      <c r="J49" s="12" t="e">
-        <f t="shared" si="52"/>
+      <c r="N49" s="12" t="e">
+        <f t="shared" si="51"/>
         <v>#NUM!</v>
       </c>
-      <c r="K49" s="12" t="e">
-        <f t="shared" si="52"/>
+      <c r="O49" s="12" t="e">
+        <f t="shared" si="51"/>
         <v>#NUM!</v>
       </c>
-      <c r="L49" s="12" t="e">
-        <f t="shared" si="52"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M49" s="12" t="e">
-        <f t="shared" si="52"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N49" s="12" t="e">
-        <f t="shared" si="52"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O49" s="12" t="e">
-        <f t="shared" si="52"/>
-        <v>#NUM!</v>
-      </c>
       <c r="P49" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>13428</v>
       </c>
       <c r="Q49" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>26883</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B50" s="12">
         <f>AVERAGE(B38:B47)</f>
@@ -3081,196 +3320,196 @@
         <v>33893.599999999999</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" ref="D50" si="53">AVERAGE(D38:D47)</f>
+        <f t="shared" ref="D50" si="52">AVERAGE(D38:D47)</f>
         <v>10083.4</v>
       </c>
       <c r="E50" s="12">
-        <f t="shared" ref="E50" si="54">AVERAGE(E38:E47)</f>
+        <f t="shared" ref="E50" si="53">AVERAGE(E38:E47)</f>
         <v>20570.599999999999</v>
       </c>
       <c r="F50" s="12">
-        <f t="shared" ref="F50" si="55">AVERAGE(F38:F47)</f>
+        <f t="shared" ref="F50" si="54">AVERAGE(F38:F47)</f>
         <v>28.6</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" ref="G50" si="56">AVERAGE(G38:G47)</f>
+        <f t="shared" ref="G50" si="55">AVERAGE(G38:G47)</f>
         <v>9.1</v>
       </c>
-      <c r="H50" s="12" t="e">
-        <f t="shared" ref="H50" si="57">AVERAGE(H38:H47)</f>
+      <c r="H50" s="12">
+        <f t="shared" ref="H50" si="56">AVERAGE(H38:H47)</f>
+        <v>19.3</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" ref="I50" si="57">AVERAGE(I38:I47)</f>
+        <v>11.4</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" ref="J50" si="58">AVERAGE(J38:J47)</f>
+        <v>15.1</v>
+      </c>
+      <c r="K50" s="12">
+        <f t="shared" ref="K50" si="59">AVERAGE(K38:K47)</f>
+        <v>10749.8</v>
+      </c>
+      <c r="L50" s="12" t="e">
+        <f t="shared" ref="L50" si="60">AVERAGE(L38:L47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" s="12" t="e">
-        <f t="shared" ref="I50" si="58">AVERAGE(I38:I47)</f>
+      <c r="M50" s="12" t="e">
+        <f t="shared" ref="M50" si="61">AVERAGE(M38:M47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="12" t="e">
-        <f t="shared" ref="J50" si="59">AVERAGE(J38:J47)</f>
+      <c r="N50" s="12" t="e">
+        <f t="shared" ref="N50" si="62">AVERAGE(N38:N47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="12" t="e">
-        <f t="shared" ref="K50" si="60">AVERAGE(K38:K47)</f>
+      <c r="O50" s="12" t="e">
+        <f t="shared" ref="O50" si="63">AVERAGE(O38:O47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="12" t="e">
-        <f t="shared" ref="L50" si="61">AVERAGE(L38:L47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="12" t="e">
-        <f t="shared" ref="M50" si="62">AVERAGE(M38:M47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="12" t="e">
-        <f t="shared" ref="N50" si="63">AVERAGE(N38:N47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="12" t="e">
-        <f t="shared" ref="O50" si="64">AVERAGE(O38:O47)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="P50" s="12">
-        <f t="shared" ref="P50" si="65">AVERAGE(P38:P47)</f>
+        <f t="shared" ref="P50" si="64">AVERAGE(P38:P47)</f>
         <v>8444.6</v>
       </c>
       <c r="Q50" s="12">
-        <f t="shared" ref="Q50" si="66">AVERAGE(Q38:Q47)</f>
+        <f t="shared" ref="Q50" si="65">AVERAGE(Q38:Q47)</f>
         <v>19934.599999999999</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" ref="B51:Q51" si="67">SUM(B38:B47)</f>
+        <f t="shared" ref="B51:Q51" si="66">SUM(B38:B47)</f>
         <v>344836</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>338936</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>100834</v>
       </c>
       <c r="E51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>205706</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>286</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>91</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
+        <v>193</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="66"/>
+        <v>114</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="66"/>
+        <v>151</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="66"/>
+        <v>107498</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="I51" s="12">
-        <f t="shared" si="67"/>
+      <c r="M51" s="12">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="J51" s="12">
-        <f t="shared" si="67"/>
+      <c r="N51" s="12">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="K51" s="12">
-        <f t="shared" si="67"/>
+      <c r="O51" s="12">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="L51" s="12">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="12">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="12">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="12">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
       <c r="P51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>84446</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>199346</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29">
+      <c r="A52" s="39"/>
+      <c r="B52" s="27">
         <f>SUM(B51:C51)</f>
         <v>683772</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="29">
+      <c r="C52" s="28"/>
+      <c r="D52" s="27">
         <f>SUM(D51:E51)</f>
         <v>306540</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="29">
+      <c r="E52" s="28"/>
+      <c r="F52" s="27">
         <f>SUM(F51:G51)</f>
         <v>377</v>
       </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29">
+      <c r="G52" s="28"/>
+      <c r="H52" s="27">
         <f>SUM(H51:I51)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="29">
+        <v>307</v>
+      </c>
+      <c r="I52" s="28"/>
+      <c r="J52" s="27">
         <f>SUM(J51:K51)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="29">
+        <v>107649</v>
+      </c>
+      <c r="K52" s="28"/>
+      <c r="L52" s="27">
         <f>SUM(L51:M51)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="30"/>
-      <c r="N52" s="29">
+      <c r="M52" s="28"/>
+      <c r="N52" s="27">
         <f>SUM(N51:O51)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="30"/>
-      <c r="P52" s="29">
+      <c r="O52" s="28"/>
+      <c r="P52" s="27">
         <f>SUM(P51:Q51)</f>
         <v>283792</v>
       </c>
-      <c r="Q52" s="30"/>
+      <c r="Q52" s="28"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="39"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -3347,10 +3586,18 @@
       <c r="G55" s="1">
         <v>56</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="H55" s="1">
+        <v>110</v>
+      </c>
+      <c r="I55" s="1">
+        <v>74</v>
+      </c>
+      <c r="J55" s="1">
+        <v>84</v>
+      </c>
+      <c r="K55" s="1">
+        <v>267501</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3384,10 +3631,18 @@
       <c r="G56" s="1">
         <v>60</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="H56" s="1">
+        <v>108</v>
+      </c>
+      <c r="I56" s="1">
+        <v>77</v>
+      </c>
+      <c r="J56" s="1">
+        <v>80</v>
+      </c>
+      <c r="K56" s="1">
+        <v>268306</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3421,10 +3676,18 @@
       <c r="G57" s="1">
         <v>59</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="H57" s="1">
+        <v>108</v>
+      </c>
+      <c r="I57" s="1">
+        <v>70</v>
+      </c>
+      <c r="J57" s="1">
+        <v>81</v>
+      </c>
+      <c r="K57" s="1">
+        <v>272012</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3458,10 +3721,18 @@
       <c r="G58" s="1">
         <v>53</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="H58" s="1">
+        <v>114</v>
+      </c>
+      <c r="I58" s="1">
+        <v>74</v>
+      </c>
+      <c r="J58" s="1">
+        <v>82</v>
+      </c>
+      <c r="K58" s="1">
+        <v>269535</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3495,10 +3766,18 @@
       <c r="G59" s="1">
         <v>52</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="H59" s="1">
+        <v>104</v>
+      </c>
+      <c r="I59" s="1">
+        <v>82</v>
+      </c>
+      <c r="J59" s="1">
+        <v>83</v>
+      </c>
+      <c r="K59" s="1">
+        <v>273029</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3532,10 +3811,18 @@
       <c r="G60" s="1">
         <v>49</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="H60" s="1">
+        <v>106</v>
+      </c>
+      <c r="I60" s="1">
+        <v>78</v>
+      </c>
+      <c r="J60" s="1">
+        <v>85</v>
+      </c>
+      <c r="K60" s="1">
+        <v>265883</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -3569,10 +3856,18 @@
       <c r="G61" s="1">
         <v>53</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="H61" s="1">
+        <v>103</v>
+      </c>
+      <c r="I61" s="1">
+        <v>72</v>
+      </c>
+      <c r="J61" s="1">
+        <v>84</v>
+      </c>
+      <c r="K61" s="1">
+        <v>264132</v>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -3606,10 +3901,18 @@
       <c r="G62" s="1">
         <v>55</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="H62" s="1">
+        <v>107</v>
+      </c>
+      <c r="I62" s="1">
+        <v>78</v>
+      </c>
+      <c r="J62" s="1">
+        <v>81</v>
+      </c>
+      <c r="K62" s="1">
+        <v>266422</v>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -3643,10 +3946,18 @@
       <c r="G63" s="1">
         <v>54</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="H63" s="1">
+        <v>110</v>
+      </c>
+      <c r="I63" s="1">
+        <v>75</v>
+      </c>
+      <c r="J63" s="1">
+        <v>82</v>
+      </c>
+      <c r="K63" s="1">
+        <v>268300</v>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3680,10 +3991,18 @@
       <c r="G64" s="2">
         <v>62</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="H64" s="2">
+        <v>110</v>
+      </c>
+      <c r="I64" s="2">
+        <v>75</v>
+      </c>
+      <c r="J64" s="2">
+        <v>83</v>
+      </c>
+      <c r="K64" s="2">
+        <v>269211</v>
+      </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -3697,145 +4016,145 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B65" s="12">
         <f>SMALL(B55:B64,1)</f>
         <v>890598</v>
       </c>
       <c r="C65" s="12">
-        <f t="shared" ref="C65" si="68">SMALL(C55:C64,1)</f>
+        <f t="shared" ref="C65" si="67">SMALL(C55:C64,1)</f>
         <v>910417</v>
       </c>
       <c r="D65" s="12">
-        <f t="shared" ref="D65" si="69">SMALL(D55:D64,1)</f>
+        <f t="shared" ref="D65" si="68">SMALL(D55:D64,1)</f>
         <v>331332</v>
       </c>
       <c r="E65" s="12">
-        <f t="shared" ref="E65" si="70">SMALL(E55:E64,1)</f>
+        <f t="shared" ref="E65" si="69">SMALL(E55:E64,1)</f>
         <v>660959</v>
       </c>
       <c r="F65" s="12">
-        <f t="shared" ref="F65" si="71">SMALL(F55:F64,1)</f>
+        <f t="shared" ref="F65" si="70">SMALL(F55:F64,1)</f>
         <v>184</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" ref="G65" si="72">SMALL(G55:G64,1)</f>
+        <f t="shared" ref="G65" si="71">SMALL(G55:G64,1)</f>
         <v>49</v>
       </c>
-      <c r="H65" s="12" t="e">
-        <f t="shared" ref="H65" si="73">SMALL(H55:H64,1)</f>
+      <c r="H65" s="12">
+        <f t="shared" ref="H65" si="72">SMALL(H55:H64,1)</f>
+        <v>103</v>
+      </c>
+      <c r="I65" s="12">
+        <f t="shared" ref="I65" si="73">SMALL(I55:I64,1)</f>
+        <v>70</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" ref="J65" si="74">SMALL(J55:J64,1)</f>
+        <v>80</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" ref="K65" si="75">SMALL(K55:K64,1)</f>
+        <v>264132</v>
+      </c>
+      <c r="L65" s="12" t="e">
+        <f t="shared" ref="L65" si="76">SMALL(L55:L64,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I65" s="12" t="e">
-        <f t="shared" ref="I65" si="74">SMALL(I55:I64,1)</f>
+      <c r="M65" s="12" t="e">
+        <f t="shared" ref="M65" si="77">SMALL(M55:M64,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J65" s="12" t="e">
-        <f t="shared" ref="J65" si="75">SMALL(J55:J64,1)</f>
+      <c r="N65" s="12" t="e">
+        <f t="shared" ref="N65" si="78">SMALL(N55:N64,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K65" s="12" t="e">
-        <f t="shared" ref="K65" si="76">SMALL(K55:K64,1)</f>
+      <c r="O65" s="12" t="e">
+        <f t="shared" ref="O65" si="79">SMALL(O55:O64,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L65" s="12" t="e">
-        <f t="shared" ref="L65" si="77">SMALL(L55:L64,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M65" s="12" t="e">
-        <f t="shared" ref="M65" si="78">SMALL(M55:M64,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N65" s="12" t="e">
-        <f t="shared" ref="N65" si="79">SMALL(N55:N64,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O65" s="12" t="e">
-        <f t="shared" ref="O65" si="80">SMALL(O55:O64,1)</f>
-        <v>#NUM!</v>
-      </c>
       <c r="P65" s="12">
-        <f t="shared" ref="P65" si="81">SMALL(P55:P64,1)</f>
+        <f t="shared" ref="P65" si="80">SMALL(P55:P64,1)</f>
         <v>309890</v>
       </c>
       <c r="Q65" s="12">
-        <f t="shared" ref="Q65" si="82">SMALL(Q55:Q64,1)</f>
+        <f t="shared" ref="Q65" si="81">SMALL(Q55:Q64,1)</f>
         <v>655986</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B66" s="12">
         <f>LARGE(B55:B64, 1)</f>
         <v>962663</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" ref="C66:Q66" si="83">LARGE(C55:C64, 1)</f>
+        <f t="shared" ref="C66:Q66" si="82">LARGE(C55:C64, 1)</f>
         <v>963311</v>
       </c>
       <c r="D66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>336280</v>
       </c>
       <c r="E66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>673342</v>
       </c>
       <c r="F66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>209</v>
       </c>
       <c r="G66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>62</v>
       </c>
-      <c r="H66" s="12" t="e">
-        <f t="shared" si="83"/>
+      <c r="H66" s="12">
+        <f t="shared" si="82"/>
+        <v>114</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="82"/>
+        <v>82</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="82"/>
+        <v>85</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="82"/>
+        <v>273029</v>
+      </c>
+      <c r="L66" s="12" t="e">
+        <f t="shared" si="82"/>
         <v>#NUM!</v>
       </c>
-      <c r="I66" s="12" t="e">
-        <f t="shared" si="83"/>
+      <c r="M66" s="12" t="e">
+        <f t="shared" si="82"/>
         <v>#NUM!</v>
       </c>
-      <c r="J66" s="12" t="e">
-        <f t="shared" si="83"/>
+      <c r="N66" s="12" t="e">
+        <f t="shared" si="82"/>
         <v>#NUM!</v>
       </c>
-      <c r="K66" s="12" t="e">
-        <f t="shared" si="83"/>
+      <c r="O66" s="12" t="e">
+        <f t="shared" si="82"/>
         <v>#NUM!</v>
       </c>
-      <c r="L66" s="12" t="e">
-        <f t="shared" si="83"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M66" s="12" t="e">
-        <f t="shared" si="83"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N66" s="12" t="e">
-        <f t="shared" si="83"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O66" s="12" t="e">
-        <f t="shared" si="83"/>
-        <v>#NUM!</v>
-      </c>
       <c r="P66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>336220</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>672891</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B67" s="12">
         <f>AVERAGE(B55:B64)</f>
@@ -3846,196 +4165,196 @@
         <v>942715</v>
       </c>
       <c r="D67" s="12">
-        <f t="shared" ref="D67" si="84">AVERAGE(D55:D64)</f>
+        <f t="shared" ref="D67" si="83">AVERAGE(D55:D64)</f>
         <v>334138.5</v>
       </c>
       <c r="E67" s="12">
-        <f t="shared" ref="E67" si="85">AVERAGE(E55:E64)</f>
+        <f t="shared" ref="E67" si="84">AVERAGE(E55:E64)</f>
         <v>666270.9</v>
       </c>
       <c r="F67" s="12">
-        <f t="shared" ref="F67" si="86">AVERAGE(F55:F64)</f>
+        <f t="shared" ref="F67" si="85">AVERAGE(F55:F64)</f>
         <v>197.2</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" ref="G67" si="87">AVERAGE(G55:G64)</f>
+        <f t="shared" ref="G67" si="86">AVERAGE(G55:G64)</f>
         <v>55.3</v>
       </c>
-      <c r="H67" s="12" t="e">
-        <f t="shared" ref="H67" si="88">AVERAGE(H55:H64)</f>
+      <c r="H67" s="12">
+        <f t="shared" ref="H67" si="87">AVERAGE(H55:H64)</f>
+        <v>108</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" ref="I67" si="88">AVERAGE(I55:I64)</f>
+        <v>75.5</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" ref="J67" si="89">AVERAGE(J55:J64)</f>
+        <v>82.5</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" ref="K67" si="90">AVERAGE(K55:K64)</f>
+        <v>268433.09999999998</v>
+      </c>
+      <c r="L67" s="12" t="e">
+        <f t="shared" ref="L67" si="91">AVERAGE(L55:L64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" s="12" t="e">
-        <f t="shared" ref="I67" si="89">AVERAGE(I55:I64)</f>
+      <c r="M67" s="12" t="e">
+        <f t="shared" ref="M67" si="92">AVERAGE(M55:M64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J67" s="12" t="e">
-        <f t="shared" ref="J67" si="90">AVERAGE(J55:J64)</f>
+      <c r="N67" s="12" t="e">
+        <f t="shared" ref="N67" si="93">AVERAGE(N55:N64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K67" s="12" t="e">
-        <f t="shared" ref="K67" si="91">AVERAGE(K55:K64)</f>
+      <c r="O67" s="12" t="e">
+        <f t="shared" ref="O67" si="94">AVERAGE(O55:O64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L67" s="12" t="e">
-        <f t="shared" ref="L67" si="92">AVERAGE(L55:L64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" s="12" t="e">
-        <f t="shared" ref="M67" si="93">AVERAGE(M55:M64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N67" s="12" t="e">
-        <f t="shared" ref="N67" si="94">AVERAGE(N55:N64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="12" t="e">
-        <f t="shared" ref="O67" si="95">AVERAGE(O55:O64)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="P67" s="12">
-        <f t="shared" ref="P67" si="96">AVERAGE(P55:P64)</f>
+        <f t="shared" ref="P67" si="95">AVERAGE(P55:P64)</f>
         <v>328737.5</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" ref="Q67" si="97">AVERAGE(Q55:Q64)</f>
+        <f t="shared" ref="Q67" si="96">AVERAGE(Q55:Q64)</f>
         <v>663243.69999999995</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" ref="B68:Q68" si="98">SUM(B55:B64)</f>
+        <f t="shared" ref="B68:Q68" si="97">SUM(B55:B64)</f>
         <v>9381916</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>9427150</v>
       </c>
       <c r="D68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>3341385</v>
       </c>
       <c r="E68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6662709</v>
       </c>
       <c r="F68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>1972</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>553</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
+        <v>1080</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="97"/>
+        <v>755</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="97"/>
+        <v>825</v>
+      </c>
+      <c r="K68" s="12">
+        <f t="shared" si="97"/>
+        <v>2684331</v>
+      </c>
+      <c r="L68" s="12">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="I68" s="12">
-        <f t="shared" si="98"/>
+      <c r="M68" s="12">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="J68" s="12">
-        <f t="shared" si="98"/>
+      <c r="N68" s="12">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="K68" s="12">
-        <f t="shared" si="98"/>
+      <c r="O68" s="12">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="L68" s="12">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="12">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="12">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="12">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
       <c r="P68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>3287375</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6632437</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29">
+      <c r="A69" s="39"/>
+      <c r="B69" s="27">
         <f>SUM(B68:C68)</f>
         <v>18809066</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="29">
+      <c r="C69" s="28"/>
+      <c r="D69" s="27">
         <f>SUM(D68:E68)</f>
         <v>10004094</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29">
+      <c r="E69" s="28"/>
+      <c r="F69" s="27">
         <f>SUM(F68:G68)</f>
         <v>2525</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29">
+      <c r="G69" s="28"/>
+      <c r="H69" s="27">
         <f>SUM(H68:I68)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="29">
+        <v>1835</v>
+      </c>
+      <c r="I69" s="28"/>
+      <c r="J69" s="27">
         <f>SUM(J68:K68)</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="29">
+        <v>2685156</v>
+      </c>
+      <c r="K69" s="28"/>
+      <c r="L69" s="27">
         <f>SUM(L68:M68)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="30"/>
-      <c r="N69" s="29">
+      <c r="M69" s="28"/>
+      <c r="N69" s="27">
         <f>SUM(N68:O68)</f>
         <v>0</v>
       </c>
-      <c r="O69" s="30"/>
-      <c r="P69" s="29">
+      <c r="O69" s="28"/>
+      <c r="P69" s="27">
         <f>SUM(P68:Q68)</f>
         <v>9919812</v>
       </c>
-      <c r="Q69" s="30"/>
+      <c r="Q69" s="28"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="39"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -4112,10 +4431,18 @@
       <c r="G72" s="1">
         <v>125</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="H72" s="1">
+        <v>225</v>
+      </c>
+      <c r="I72" s="1">
+        <v>153</v>
+      </c>
+      <c r="J72" s="1">
+        <v>212</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1093307</v>
+      </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -4149,10 +4476,18 @@
       <c r="G73" s="1">
         <v>127</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="H73" s="1">
+        <v>230</v>
+      </c>
+      <c r="I73" s="1">
+        <v>148</v>
+      </c>
+      <c r="J73" s="1">
+        <v>206</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1081610</v>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4186,10 +4521,18 @@
       <c r="G74" s="1">
         <v>128</v>
       </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="H74" s="1">
+        <v>226</v>
+      </c>
+      <c r="I74" s="1">
+        <v>154</v>
+      </c>
+      <c r="J74" s="1">
+        <v>195</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1051374</v>
+      </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -4223,10 +4566,18 @@
       <c r="G75" s="1">
         <v>117</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="H75" s="1">
+        <v>222</v>
+      </c>
+      <c r="I75" s="1">
+        <v>147</v>
+      </c>
+      <c r="J75" s="1">
+        <v>191</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1051198</v>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4260,10 +4611,18 @@
       <c r="G76" s="1">
         <v>123</v>
       </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="H76" s="1">
+        <v>222</v>
+      </c>
+      <c r="I76" s="1">
+        <v>150</v>
+      </c>
+      <c r="J76" s="1">
+        <v>196</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1051442</v>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4297,10 +4656,18 @@
       <c r="G77" s="1">
         <v>123</v>
       </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="H77" s="1">
+        <v>235</v>
+      </c>
+      <c r="I77" s="1">
+        <v>133</v>
+      </c>
+      <c r="J77" s="1">
+        <v>188</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1075605</v>
+      </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -4334,10 +4701,18 @@
       <c r="G78" s="1">
         <v>114</v>
       </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="H78" s="1">
+        <v>228</v>
+      </c>
+      <c r="I78" s="1">
+        <v>143</v>
+      </c>
+      <c r="J78" s="1">
+        <v>193</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1061300</v>
+      </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -4371,10 +4746,18 @@
       <c r="G79" s="1">
         <v>122</v>
       </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="H79" s="1">
+        <v>238</v>
+      </c>
+      <c r="I79" s="1">
+        <v>146</v>
+      </c>
+      <c r="J79" s="1">
+        <v>192</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1045863</v>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4408,10 +4791,18 @@
       <c r="G80" s="1">
         <v>116</v>
       </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="H80" s="1">
+        <v>220</v>
+      </c>
+      <c r="I80" s="1">
+        <v>137</v>
+      </c>
+      <c r="J80" s="1">
+        <v>185</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1044306</v>
+      </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -4445,10 +4836,18 @@
       <c r="G81" s="1">
         <v>116</v>
       </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="H81" s="1">
+        <v>237</v>
+      </c>
+      <c r="I81" s="1">
+        <v>152</v>
+      </c>
+      <c r="J81" s="1">
+        <v>189</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1044287</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -4462,145 +4861,145 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B82" s="12">
         <f>SMALL(B72:B81,1)</f>
         <v>3736997</v>
       </c>
       <c r="C82" s="12">
-        <f t="shared" ref="C82" si="99">SMALL(C72:C81,1)</f>
+        <f t="shared" ref="C82" si="98">SMALL(C72:C81,1)</f>
         <v>3821318</v>
       </c>
       <c r="D82" s="12">
-        <f t="shared" ref="D82" si="100">SMALL(D72:D81,1)</f>
+        <f t="shared" ref="D82" si="99">SMALL(D72:D81,1)</f>
         <v>1320917</v>
       </c>
       <c r="E82" s="12">
-        <f t="shared" ref="E82" si="101">SMALL(E72:E81,1)</f>
+        <f t="shared" ref="E82" si="100">SMALL(E72:E81,1)</f>
         <v>2671920</v>
       </c>
       <c r="F82" s="12">
-        <f t="shared" ref="F82" si="102">SMALL(F72:F81,1)</f>
+        <f t="shared" ref="F82" si="101">SMALL(F72:F81,1)</f>
         <v>422</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" ref="G82" si="103">SMALL(G72:G81,1)</f>
+        <f t="shared" ref="G82" si="102">SMALL(G72:G81,1)</f>
         <v>114</v>
       </c>
-      <c r="H82" s="12" t="e">
-        <f t="shared" ref="H82" si="104">SMALL(H72:H81,1)</f>
+      <c r="H82" s="12">
+        <f>SMALL(H72:H81,1)</f>
+        <v>220</v>
+      </c>
+      <c r="I82" s="12">
+        <f>SMALL(I72:I81,1)</f>
+        <v>133</v>
+      </c>
+      <c r="J82" s="12">
+        <f t="shared" ref="J82" si="103">SMALL(J72:J81,1)</f>
+        <v>185</v>
+      </c>
+      <c r="K82" s="12">
+        <f t="shared" ref="K82" si="104">SMALL(K72:K81,1)</f>
+        <v>1044287</v>
+      </c>
+      <c r="L82" s="12" t="e">
+        <f t="shared" ref="L82" si="105">SMALL(L72:L81,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I82" s="12" t="e">
-        <f t="shared" ref="I82" si="105">SMALL(I72:I81,1)</f>
+      <c r="M82" s="12" t="e">
+        <f t="shared" ref="M82" si="106">SMALL(M72:M81,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J82" s="12" t="e">
-        <f t="shared" ref="J82" si="106">SMALL(J72:J81,1)</f>
+      <c r="N82" s="12" t="e">
+        <f t="shared" ref="N82" si="107">SMALL(N72:N81,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K82" s="12" t="e">
-        <f t="shared" ref="K82" si="107">SMALL(K72:K81,1)</f>
+      <c r="O82" s="12" t="e">
+        <f t="shared" ref="O82" si="108">SMALL(O72:O81,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L82" s="12" t="e">
-        <f t="shared" ref="L82" si="108">SMALL(L72:L81,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M82" s="12" t="e">
-        <f t="shared" ref="M82" si="109">SMALL(M72:M81,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N82" s="12" t="e">
-        <f t="shared" ref="N82" si="110">SMALL(N72:N81,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O82" s="12" t="e">
-        <f t="shared" ref="O82" si="111">SMALL(O72:O81,1)</f>
-        <v>#NUM!</v>
-      </c>
       <c r="P82" s="12">
-        <f t="shared" ref="P82" si="112">SMALL(P72:P81,1)</f>
+        <f t="shared" ref="P82" si="109">SMALL(P72:P81,1)</f>
         <v>1278971</v>
       </c>
       <c r="Q82" s="12">
-        <f t="shared" ref="Q82" si="113">SMALL(Q72:Q81,1)</f>
+        <f t="shared" ref="Q82" si="110">SMALL(Q72:Q81,1)</f>
         <v>2289705</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B83" s="12">
         <f>LARGE(B72:B81, 1)</f>
         <v>3785998</v>
       </c>
       <c r="C83" s="12">
-        <f t="shared" ref="C83:Q83" si="114">LARGE(C72:C81, 1)</f>
+        <f t="shared" ref="C83:Q83" si="111">LARGE(C72:C81, 1)</f>
         <v>3928046</v>
       </c>
       <c r="D83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>1343762</v>
       </c>
       <c r="E83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>2690758</v>
       </c>
       <c r="F83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>454</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>128</v>
       </c>
-      <c r="H83" s="12" t="e">
-        <f t="shared" si="114"/>
+      <c r="H83" s="12">
+        <f>LARGE(H72:H81, 1)</f>
+        <v>238</v>
+      </c>
+      <c r="I83" s="12">
+        <f>LARGE(I72:I81, 1)</f>
+        <v>154</v>
+      </c>
+      <c r="J83" s="12">
+        <f t="shared" si="111"/>
+        <v>212</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="111"/>
+        <v>1093307</v>
+      </c>
+      <c r="L83" s="12" t="e">
+        <f t="shared" si="111"/>
         <v>#NUM!</v>
       </c>
-      <c r="I83" s="12" t="e">
-        <f t="shared" si="114"/>
+      <c r="M83" s="12" t="e">
+        <f t="shared" si="111"/>
         <v>#NUM!</v>
       </c>
-      <c r="J83" s="12" t="e">
-        <f t="shared" si="114"/>
+      <c r="N83" s="12" t="e">
+        <f t="shared" si="111"/>
         <v>#NUM!</v>
       </c>
-      <c r="K83" s="12" t="e">
-        <f t="shared" si="114"/>
+      <c r="O83" s="12" t="e">
+        <f t="shared" si="111"/>
         <v>#NUM!</v>
       </c>
-      <c r="L83" s="12" t="e">
-        <f t="shared" si="114"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M83" s="12" t="e">
-        <f t="shared" si="114"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N83" s="12" t="e">
-        <f t="shared" si="114"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O83" s="12" t="e">
-        <f t="shared" si="114"/>
-        <v>#NUM!</v>
-      </c>
       <c r="P83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>1346042</v>
       </c>
       <c r="Q83" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>2745678</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B84" s="12">
         <f>AVERAGE(B72:B81)</f>
@@ -4611,228 +5010,278 @@
         <v>3882567.9</v>
       </c>
       <c r="D84" s="12">
-        <f t="shared" ref="D84" si="115">AVERAGE(D72:D81)</f>
+        <f t="shared" ref="D84" si="112">AVERAGE(D72:D81)</f>
         <v>1336687.7</v>
       </c>
       <c r="E84" s="12">
-        <f t="shared" ref="E84" si="116">AVERAGE(E72:E81)</f>
+        <f t="shared" ref="E84" si="113">AVERAGE(E72:E81)</f>
         <v>2683336.6</v>
       </c>
       <c r="F84" s="12">
-        <f t="shared" ref="F84" si="117">AVERAGE(F72:F81)</f>
+        <f t="shared" ref="F84" si="114">AVERAGE(F72:F81)</f>
         <v>435.7</v>
       </c>
       <c r="G84" s="12">
-        <f t="shared" ref="G84" si="118">AVERAGE(G72:G81)</f>
+        <f t="shared" ref="G84" si="115">AVERAGE(G72:G81)</f>
         <v>121.1</v>
       </c>
-      <c r="H84" s="12" t="e">
-        <f t="shared" ref="H84" si="119">AVERAGE(H72:H81)</f>
+      <c r="H84" s="12">
+        <f>AVERAGE(H72:H81)</f>
+        <v>228.3</v>
+      </c>
+      <c r="I84" s="12">
+        <f>AVERAGE(I72:I81)</f>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="J84" s="12">
+        <f t="shared" ref="J84" si="116">AVERAGE(J72:J81)</f>
+        <v>194.7</v>
+      </c>
+      <c r="K84" s="12">
+        <f t="shared" ref="K84" si="117">AVERAGE(K72:K81)</f>
+        <v>1060029.2</v>
+      </c>
+      <c r="L84" s="12" t="e">
+        <f t="shared" ref="L84" si="118">AVERAGE(L72:L81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I84" s="12" t="e">
-        <f t="shared" ref="I84" si="120">AVERAGE(I72:I81)</f>
+      <c r="M84" s="12" t="e">
+        <f t="shared" ref="M84" si="119">AVERAGE(M72:M81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J84" s="12" t="e">
-        <f t="shared" ref="J84" si="121">AVERAGE(J72:J81)</f>
+      <c r="N84" s="12" t="e">
+        <f t="shared" ref="N84" si="120">AVERAGE(N72:N81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K84" s="12" t="e">
-        <f t="shared" ref="K84" si="122">AVERAGE(K72:K81)</f>
+      <c r="O84" s="12" t="e">
+        <f t="shared" ref="O84" si="121">AVERAGE(O72:O81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L84" s="12" t="e">
-        <f t="shared" ref="L84" si="123">AVERAGE(L72:L81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M84" s="12" t="e">
-        <f t="shared" ref="M84" si="124">AVERAGE(M72:M81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N84" s="12" t="e">
-        <f t="shared" ref="N84" si="125">AVERAGE(N72:N81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O84" s="12" t="e">
-        <f t="shared" ref="O84" si="126">AVERAGE(O72:O81)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="P84" s="12">
-        <f t="shared" ref="P84" si="127">AVERAGE(P72:P81)</f>
+        <f t="shared" ref="P84" si="122">AVERAGE(P72:P81)</f>
         <v>1327374.3999999999</v>
       </c>
       <c r="Q84" s="12">
-        <f t="shared" ref="Q84" si="128">AVERAGE(Q72:Q81)</f>
+        <f t="shared" ref="Q84" si="123">AVERAGE(Q72:Q81)</f>
         <v>2599119.1</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="12">
-        <f t="shared" ref="B85:Q85" si="129">SUM(B72:B81)</f>
+        <f t="shared" ref="B85:Q85" si="124">SUM(B72:B81)</f>
         <v>37648167</v>
       </c>
       <c r="C85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>38825679</v>
       </c>
       <c r="D85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>13366877</v>
       </c>
       <c r="E85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>26833366</v>
       </c>
       <c r="F85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>4357</v>
       </c>
       <c r="G85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>1211</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="129"/>
+        <f>SUM(H72:H81)</f>
+        <v>2283</v>
+      </c>
+      <c r="I85" s="12">
+        <f>SUM(I72:I81)</f>
+        <v>1463</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="124"/>
+        <v>1947</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="124"/>
+        <v>10600292</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="I85" s="12">
-        <f t="shared" si="129"/>
+      <c r="M85" s="12">
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="J85" s="12">
-        <f t="shared" si="129"/>
+      <c r="N85" s="12">
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="K85" s="12">
-        <f t="shared" si="129"/>
+      <c r="O85" s="12">
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="L85" s="12">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="12">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="12">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="O85" s="12">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
       <c r="P85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>13273744</v>
       </c>
       <c r="Q85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>25991191</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29">
+      <c r="A86" s="39"/>
+      <c r="B86" s="27">
         <f>SUM(B85:C85)</f>
         <v>76473846</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="29">
+      <c r="C86" s="28"/>
+      <c r="D86" s="27">
         <f>SUM(D85:E85)</f>
         <v>40200243</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="29">
+      <c r="E86" s="28"/>
+      <c r="F86" s="27">
         <f>SUM(F85:G85)</f>
         <v>5568</v>
       </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="29">
+      <c r="G86" s="28"/>
+      <c r="H86" s="27">
         <f>SUM(H85:I85)</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="30"/>
-      <c r="J86" s="29">
+        <v>3746</v>
+      </c>
+      <c r="I86" s="28"/>
+      <c r="J86" s="27">
         <f>SUM(J85:K85)</f>
-        <v>0</v>
-      </c>
-      <c r="K86" s="30"/>
-      <c r="L86" s="29">
+        <v>10602239</v>
+      </c>
+      <c r="K86" s="28"/>
+      <c r="L86" s="27">
         <f>SUM(L85:M85)</f>
         <v>0</v>
       </c>
-      <c r="M86" s="30"/>
-      <c r="N86" s="29">
+      <c r="M86" s="28"/>
+      <c r="N86" s="27">
         <f>SUM(N85:O85)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="30"/>
-      <c r="P86" s="29">
+      <c r="O86" s="28"/>
+      <c r="P86" s="27">
         <f>SUM(P85:Q85)</f>
         <v>39264935</v>
       </c>
-      <c r="Q86" s="30"/>
+      <c r="Q86" s="28"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="35">
+      <c r="B87" s="29">
         <f>SUM(B86+B69+B52+B35+B18)</f>
         <v>96120646</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="35">
+      <c r="C87" s="30"/>
+      <c r="D87" s="29">
         <f>SUM(D86+D69+D52+D35+D18)</f>
         <v>50565891</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="35">
+      <c r="E87" s="30"/>
+      <c r="F87" s="29">
         <f>SUM(F86+F69+F52+F35+F18)</f>
         <v>8615</v>
       </c>
-      <c r="G87" s="36"/>
-      <c r="H87" s="35">
+      <c r="G87" s="30"/>
+      <c r="H87" s="29">
         <f>SUM(H86+H69+H52+H35+H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="36"/>
-      <c r="J87" s="35">
+        <v>6067</v>
+      </c>
+      <c r="I87" s="30"/>
+      <c r="J87" s="29">
         <f>SUM(J86+J69+J52+J35+J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="36"/>
-      <c r="L87" s="35">
+        <v>13423177</v>
+      </c>
+      <c r="K87" s="30"/>
+      <c r="L87" s="29">
         <f>SUM(L86+L69+L52+L35+L18)</f>
         <v>0</v>
       </c>
-      <c r="M87" s="36"/>
-      <c r="N87" s="35">
+      <c r="M87" s="30"/>
+      <c r="N87" s="29">
         <f>SUM(N86+N69+N52+N35+N18)</f>
         <v>0</v>
       </c>
-      <c r="O87" s="36"/>
-      <c r="P87" s="35">
+      <c r="O87" s="30"/>
+      <c r="P87" s="29">
         <f>SUM(P86+P69+P52+P35+P18)</f>
         <v>49523557</v>
       </c>
-      <c r="Q87" s="36"/>
+      <c r="Q87" s="30"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F89">
         <f>SUM(B87:Q87)/1000/60/60</f>
-        <v>54.50519694444445</v>
+        <v>58.235542500000001</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="66">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="P87:Q87"/>
     <mergeCell ref="B2:P2"/>
@@ -4849,72 +5298,22 @@
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H69:I69"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A17:A18 A51:K52 A69:K69 A85:K86 A68:C68 R17:XFD18 R50:XFD51 B17:K18 B19:Q20 B34:Q34 L17:Q18 L51:Q51 D68:XFD68 L85:XFD85 D21:O30 B16:G16 A50:G50 B67:G67 R81:XFD81 B84:G84 P67:Q67 P50:Q50 B33:G33 P33:Q33 P16:Q16 B15:G15 B14 C14:G14 P15:Q15 P14:Q14 B82:G83 P84:Q84 P82:Q83 B65:G66 P65:Q66 B48:G49 P48:Q49 B31:G32 P31:Q32" formulaRange="1"/>
-    <ignoredError sqref="H67:O67 H50:O50 H33:O33 H16:O16 H14:O14 H15:O15 H82:O83 H84:O84 H65:O66 H48:O49 H31:O32" evalError="1" formulaRange="1"/>
+    <ignoredError sqref="A17:A18 A51:K52 A69:K69 A85:K86 A68:C68 R17:XFD18 R50:XFD51 B17:K18 B19:Q20 B34:Q34 L17:Q18 L51:Q51 D68:XFD68 L85:XFD85 D30:G30 B16:G16 A50:G50 B67:G67 R81:XFD81 B84:G84 P67:Q67 P50:Q50 B33:G33 P33:Q33 P16:Q16 B15:G15 B14 C14:G14 P15:Q15 P14:Q14 B82:G83 P84:Q84 P82:Q83 B65:G66 P65:Q66 B48:G49 P48:Q49 B31:G32 P31:Q32 D21:G21 L21:O21 D22:G22 L22:O22 D23:G23 L23:O23 D24:G24 L24:O24 D25:G25 L25:O25 D26:G26 L26:O26 D27:G27 L27:O27 D28:G28 L28:O28 D29:G29 L29:O29 L30:O30" formulaRange="1"/>
+    <ignoredError sqref="H67:O67 H50:O50 H33:O33 H16:O16 H14:O14 H15:O15 H82:O83 H84:O84 H65:O66 H48:O49 H32:O32 H31 J31:O31" evalError="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06C49E-93B7-4292-923A-942BC3649656}">
-  <dimension ref="B1:Q94"/>
+  <dimension ref="B1:Z94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4926,2645 +5325,3458 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="O1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="O2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="O3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="50"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="49"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="O4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="41"/>
+      <c r="S4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="41"/>
+      <c r="U4" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="52"/>
+      <c r="W4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="52"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="20">
         <f>'Teste 1'!B14</f>
         <v>226</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="20">
         <f>'Teste 1'!B16</f>
         <v>232.6</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="45"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="14">
         <f>'Teste 1'!B15</f>
         <v>240</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="20">
+        <f>'Teste 1'!J14</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="53"/>
+      <c r="U5" s="20">
+        <f>'Teste 1'!J16</f>
+        <v>1.5</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="20">
+        <f>'Teste 1'!J15</f>
+        <v>3</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="18">
         <f>'Teste 1'!B31/1000</f>
         <v>7.7919999999999998</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="18">
         <f>'Teste 1'!B33/1000</f>
         <v>7.883</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="18">
         <f>'Teste 1'!B32/1000</f>
         <v>7.9589999999999996</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="23">
+        <f>'Teste 1'!J31</f>
+        <v>7</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="54"/>
+      <c r="U6" s="23">
+        <f>'Teste 1'!J33</f>
+        <v>7.4</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="23">
+        <f>'Teste 1'!J32</f>
+        <v>9</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="18">
         <f>'Teste 1'!B48 /1000</f>
         <v>28.648</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="18">
         <f>'Teste 1'!B50/1000</f>
         <v>34.483599999999996</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="18">
         <f>'Teste 1'!B49/1000</f>
         <v>37.417000000000002</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="23">
+        <f>'Teste 1'!J48</f>
+        <v>14</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="54"/>
+      <c r="U7" s="23">
+        <f>'Teste 1'!J50</f>
+        <v>15.1</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="23">
+        <f>'Teste 1'!J49</f>
+        <v>16</v>
+      </c>
+      <c r="Z7" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="18">
         <f>'Teste 1'!B65 /1000/60</f>
         <v>14.843299999999999</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="18">
         <f>'Teste 1'!B67/1000/60</f>
         <v>15.636526666666667</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="18">
         <f>'Teste 1'!B66/1000/60</f>
         <v>16.044383333333332</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="23">
+        <f>'Teste 1'!J65</f>
+        <v>80</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="54"/>
+      <c r="U8" s="23">
+        <f>'Teste 1'!J67</f>
+        <v>82.5</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="23">
+        <f>'Teste 1'!J66</f>
+        <v>85</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="19">
         <f>'Teste 1'!B82/1000/60</f>
         <v>62.28328333333333</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="19">
         <f>'Teste 1'!B84/1000/60</f>
         <v>62.746945000000004</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="19">
         <f>'Teste 1'!B83/1000/60</f>
         <v>63.099966666666667</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="21">
+        <f>'Teste 1'!J82</f>
+        <v>185</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="55"/>
+      <c r="U9" s="21">
+        <f>'Teste 1'!J84</f>
+        <v>194.7</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="21">
+        <f>'Teste 1'!J83</f>
+        <v>212</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54" t="s">
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="37" t="s">
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="O10" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="O11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="33"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="O12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="50"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="L13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="O13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="52"/>
+      <c r="S13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="41"/>
+      <c r="U13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="52"/>
+      <c r="W13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="52"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="14">
         <f>'Teste 1'!C14</f>
         <v>216</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="20">
         <f>'Teste 1'!C16</f>
         <v>224.4</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="57"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="14">
         <f>'Teste 1'!C15</f>
         <v>232</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="20">
+        <f>'Teste 1'!K14</f>
+        <v>106</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="43"/>
+      <c r="U14" s="20">
+        <f>'Teste 1'!K16</f>
+        <v>112.2</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="20">
+        <f>'Teste 1'!K15</f>
+        <v>131</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="18">
         <f>'Teste 1'!C31/1000</f>
         <v>6.9660000000000002</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="18">
         <f>'Teste 1'!C33/1000</f>
         <v>7.0561999999999996</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="56"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="18">
         <f>'Teste 1'!C32/1000</f>
         <v>7.202</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="18">
+        <f>'Teste 1'!K31/1000</f>
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="45"/>
+      <c r="U15" s="18">
+        <f>'Teste 1'!K33/1000</f>
+        <v>2.6921999999999997</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="18">
+        <f>'Teste 1'!K32/1000</f>
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="18">
         <f>'Teste 1'!C48/1000</f>
         <v>30.192</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="18">
         <f>'Teste 1'!C50/1000</f>
         <v>33.893599999999999</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="56"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="18">
         <f>'Teste 1'!C49/1000</f>
         <v>41.170999999999999</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="18">
+        <f>'Teste 1'!K48/1000</f>
+        <v>10.545</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="45"/>
+      <c r="U16" s="18">
+        <f>'Teste 1'!K50/1000</f>
+        <v>10.749799999999999</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="18">
+        <f>'Teste 1'!K49/1000</f>
+        <v>10.956</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="18">
         <f>'Teste 1'!C65/1000/60</f>
         <v>15.173616666666668</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="18">
         <f>'Teste 1'!C67/1000/60</f>
         <v>15.711916666666667</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="56"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="18">
         <f>'Teste 1'!C66/1000/60</f>
         <v>16.055183333333336</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="18">
+        <f>'Teste 1'!K65/1000/60</f>
+        <v>4.4021999999999997</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="45"/>
+      <c r="U17" s="18">
+        <f>'Teste 1'!K67/1000/60</f>
+        <v>4.4738849999999992</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="18">
+        <f>'Teste 1'!K66/1000/60</f>
+        <v>4.5504833333333332</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="19">
         <f>'Teste 1'!C82/1000/60</f>
         <v>63.688633333333335</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="19">
         <f>'Teste 1'!C84/1000/60</f>
         <v>64.709464999999994</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="53"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="19">
         <f>'Teste 1'!C83/1000/60</f>
         <v>65.467433333333332</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
+        <v>36</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="19">
+        <f>'Teste 1'!K82/1000/60</f>
+        <v>17.404783333333334</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="57"/>
+      <c r="U18" s="19">
+        <f>'Teste 1'!K84/1000/60</f>
+        <v>17.667153333333331</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="19">
+        <f>'Teste 1'!K83/1000/60</f>
+        <v>18.221783333333335</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="49"/>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="52"/>
+      <c r="J23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="L23" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="52"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="20">
         <f>'Teste 1'!D14</f>
         <v>69</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="20">
         <f>'Teste 1'!D16</f>
         <v>72.599999999999994</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="45"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="20">
         <f>'Teste 1'!D15</f>
         <v>83</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="18">
         <f>'Teste 1'!D31/1000</f>
         <v>1.752</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="18">
         <f>'Teste 1'!D33/1000</f>
         <v>1.7621</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="43"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="18">
         <f>'Teste 1'!D32/1000</f>
         <v>1.772</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="18">
         <f>'Teste 1'!D48/1000</f>
         <v>7.01</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="18">
         <f>'Teste 1'!D50 /1000</f>
         <v>10.083399999999999</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="43"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="18">
         <f>'Teste 1'!D49 /1000</f>
         <v>13.256</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="18">
         <f>'Teste 1'!D65/1000/60</f>
         <v>5.5221999999999998</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="18">
         <f>'Teste 1'!D67 /1000/60</f>
         <v>5.568975</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="43"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="18">
         <f>'Teste 1'!D66 /1000/60</f>
         <v>5.6046666666666658</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="19">
         <f>'Teste 1'!D82/1000/60</f>
         <v>22.015283333333333</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="41"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="19">
         <f>'Teste 1'!D84/1000/60</f>
         <v>22.278128333333331</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="41"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="19">
         <f>'Teste 1'!D83/1000/60</f>
         <v>22.396033333333332</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="41"/>
+      <c r="H32" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="52"/>
+      <c r="J32" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="52"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="45"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="20">
         <f>'Teste 1'!E14</f>
         <v>139</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="20">
         <f>'Teste 1'!E16</f>
         <v>141.30000000000001</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="57"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="20">
         <f>'Teste 1'!E15</f>
         <v>145</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="18">
         <f>'Teste 1'!E31/1000</f>
         <v>3.5139999999999998</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="18">
         <f>'Teste 1'!E33/1000</f>
         <v>3.5254000000000003</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="56"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="18">
         <f>'Teste 1'!E32/1000</f>
         <v>3.5409999999999999</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="18">
         <f>'Teste 1'!E48 /1000</f>
         <v>14.073</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="56"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="18">
         <f>'Teste 1'!E50 /1000</f>
         <v>20.570599999999999</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="56"/>
+      <c r="K35" s="45"/>
       <c r="L35" s="18">
         <f>'Teste 1'!E49 /1000</f>
         <v>26.798999999999999</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="18">
         <f>'Teste 1'!E65 /1000/60</f>
         <v>11.015983333333333</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="56"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="18">
         <f>'Teste 1'!E67 /1000/60</f>
         <v>11.104514999999999</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="56"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="18">
         <f>'Teste 1'!E66 /1000/60</f>
         <v>11.222366666666666</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="41"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="19">
         <f>'Teste 1'!E82/1000/60</f>
         <v>44.532000000000004</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="19">
         <f>'Teste 1'!E84/1000/60</f>
         <v>44.722276666666666</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="53"/>
+      <c r="K37" s="57"/>
       <c r="L37" s="19">
         <f>'Teste 1'!E83/1000/60</f>
         <v>44.845966666666662</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="54" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="54" t="s">
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="33"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="50"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="37" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="52"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="20">
+        <f>'Teste 1'!H14</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="20">
+        <f>'Teste 1'!I16</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="53"/>
+      <c r="L43" s="20">
+        <f>'Teste 1'!I15</f>
+        <v>1</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="18">
+        <f>'Teste 1'!H31/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="54"/>
+      <c r="H44" s="18">
+        <f>'Teste 1'!I33/1000</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="54"/>
+      <c r="L44" s="18">
+        <f>'Teste 1'!I32/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="18">
+        <f>'Teste 1'!H48 /1000</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="54"/>
+      <c r="H45" s="18">
+        <f>'Teste 1'!I50 /1000</f>
+        <v>1.14E-2</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="54"/>
+      <c r="L45" s="18">
+        <f>'Teste 1'!I49 /1000</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="45"/>
+      <c r="D46" s="18">
+        <f>'Teste 1'!H65 /1000/60</f>
+        <v>1.7166666666666665E-3</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="54"/>
+      <c r="H46" s="18">
+        <f>'Teste 1'!I67 /1000/60</f>
+        <v>1.2583333333333333E-3</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="54"/>
+      <c r="L46" s="18">
+        <f>'Teste 1'!I66 /1000/60</f>
+        <v>1.3666666666666666E-3</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="19">
+        <f>'Teste 1'!H82/1000/60</f>
+        <v>3.6666666666666666E-3</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="19">
+        <f>'Teste 1'!I84/1000/60</f>
+        <v>2.4383333333333336E-3</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="55"/>
+      <c r="L47" s="19">
+        <f>'Teste 1'!I83/1000/60</f>
+        <v>2.5666666666666667E-3</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="33"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="37" t="s">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="50"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="41"/>
+      <c r="H51" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="52"/>
+      <c r="J51" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="41"/>
+      <c r="L51" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="52"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="20">
+        <f>'Teste 1'!I14</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="52"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="s">
+      <c r="F52" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="43"/>
+      <c r="H52" s="20">
+        <f>'Teste 1'!I16</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="43"/>
+      <c r="L52" s="20">
+        <f>'Teste 1'!I15</f>
+        <v>1</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="18">
+        <f>'Teste 1'!I31/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="45"/>
+      <c r="H53" s="18">
+        <f>'Teste 1'!I33/1000</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="45"/>
+      <c r="L53" s="18">
+        <f>'Teste 1'!I32/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="18">
+        <f>'Teste 1'!I48/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="45"/>
+      <c r="H54" s="18">
+        <f>'Teste 1'!I50 /1000</f>
+        <v>1.14E-2</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="45"/>
+      <c r="L54" s="18">
+        <f>'Teste 1'!I49 /1000</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="18">
+        <f>'Teste 1'!I65/1000/60</f>
+        <v>1.1666666666666668E-3</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="45"/>
+      <c r="H55" s="18">
+        <f>'Teste 1'!I67 /1000/60</f>
+        <v>1.2583333333333333E-3</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="45"/>
+      <c r="L55" s="18">
+        <f>'Teste 1'!I66/1000/60</f>
+        <v>1.3666666666666666E-3</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="19">
+        <f>'Teste 1'!I82/1000/60</f>
+        <v>2.2166666666666667E-3</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="57"/>
+      <c r="H56" s="19">
+        <f>'Teste 1'!I84/1000/60</f>
+        <v>2.4383333333333336E-3</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="57"/>
+      <c r="L56" s="19">
+        <f>'Teste 1'!I83/1000/60</f>
+        <v>2.5666666666666667E-3</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="49"/>
-      <c r="J42" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="47"/>
-      <c r="L42" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="49"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="33"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="50"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="41"/>
+      <c r="H61" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="52"/>
+      <c r="J61" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" s="41"/>
+      <c r="L61" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61" s="52"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="20" t="e">
-        <f>'Teste 1'!H14</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="20" t="e">
-        <f>'Teste 1'!I16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="45"/>
-      <c r="L43" s="20" t="e">
-        <f>'Teste 1'!I15</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="18" t="e">
-        <f>'Teste 1'!H31/1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="18" t="e">
-        <f>'Teste 1'!I33/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="43"/>
-      <c r="L44" s="18" t="e">
-        <f>'Teste 1'!I32/1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="18" t="e">
-        <f>'Teste 1'!H48 /1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="18" t="e">
-        <f>'Teste 1'!I50 /1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="43"/>
-      <c r="L45" s="18" t="e">
-        <f>'Teste 1'!I49 /1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="18" t="e">
-        <f>'Teste 1'!H65 /1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="18" t="e">
-        <f>'Teste 1'!I67 /1000/60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="18" t="e">
-        <f>'Teste 1'!I66 /1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="19" t="e">
-        <f>'Teste 1'!H82/1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="19" t="e">
-        <f>'Teste 1'!I84/1000/60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="41"/>
-      <c r="L47" s="19" t="e">
-        <f>'Teste 1'!I83/1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="52"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="49"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="20" t="e">
-        <f>'Teste 1'!I14</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="20" t="e">
-        <f>'Teste 1'!I16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="57"/>
-      <c r="L52" s="20" t="e">
-        <f>'Teste 1'!I15</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="18" t="e">
-        <f>'Teste 1'!I31/1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="18" t="e">
-        <f>'Teste 1'!I33/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J53" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="56"/>
-      <c r="L53" s="18" t="e">
-        <f>'Teste 1'!I32/1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M53" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="18" t="e">
-        <f>'Teste 1'!I48/1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="56"/>
-      <c r="H54" s="18" t="e">
-        <f>'Teste 1'!I50 /1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="56"/>
-      <c r="L54" s="18" t="e">
-        <f>'Teste 1'!I49 /1000</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="18" t="e">
-        <f>'Teste 1'!I65/1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="18" t="e">
-        <f>'Teste 1'!I67 /1000/60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" s="56"/>
-      <c r="L55" s="18" t="e">
-        <f>'Teste 1'!I66/1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M55" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="19" t="e">
-        <f>'Teste 1'!I82/1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="19" t="e">
-        <f>'Teste 1'!I84/1000/60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="53"/>
-      <c r="L56" s="19" t="e">
-        <f>'Teste 1'!I83/1000/60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="39"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="52"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="47"/>
-      <c r="H61" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I61" s="49"/>
-      <c r="J61" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" s="47"/>
-      <c r="L61" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="M61" s="49"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="57"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="20">
         <f>'Teste 1'!F14</f>
         <v>1</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="45"/>
+      <c r="G62" s="53"/>
       <c r="H62" s="20">
         <f>'Teste 1'!F16</f>
         <v>1.2</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="45"/>
+      <c r="K62" s="53"/>
       <c r="L62" s="20">
         <f>'Teste 1'!F15</f>
         <v>2</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="23">
         <f>'Teste 1'!F31</f>
         <v>9</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="43"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="23">
         <f>'Teste 1'!F33</f>
         <v>9.9</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="43"/>
+      <c r="K63" s="54"/>
       <c r="L63" s="23">
         <f>'Teste 1'!F32</f>
         <v>11</v>
       </c>
       <c r="M63" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="56"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="23">
         <f>'Teste 1'!F48</f>
         <v>27</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="43"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="23">
         <f>'Teste 1'!F50</f>
         <v>28.6</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="43"/>
+      <c r="K64" s="54"/>
       <c r="L64" s="23">
         <f>'Teste 1'!F49</f>
         <v>30</v>
       </c>
       <c r="M64" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="56"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="23">
         <f>'Teste 1'!F65</f>
         <v>184</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="43"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="23">
         <f>'Teste 1'!F67</f>
         <v>197.2</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="43"/>
+      <c r="K65" s="54"/>
       <c r="L65" s="23">
         <f>'Teste 1'!F66</f>
         <v>209</v>
       </c>
       <c r="M65" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="53"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="21">
         <f>'Teste 1'!F82</f>
         <v>422</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="41"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="21">
         <f>'Teste 1'!F84</f>
         <v>435.7</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="41"/>
+      <c r="K66" s="55"/>
       <c r="L66" s="21">
         <f>'Teste 1'!F83</f>
         <v>454</v>
       </c>
       <c r="M66" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="33"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="50"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="51" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="39"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="52"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="49"/>
-      <c r="F70" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="47"/>
-      <c r="H70" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="49"/>
-      <c r="J70" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" s="47"/>
-      <c r="L70" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M70" s="49"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="41"/>
+      <c r="H70" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="52"/>
+      <c r="J70" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="41"/>
+      <c r="L70" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70" s="52"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="57"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="20">
         <f>'Teste 1'!G14</f>
         <v>0</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="45"/>
+      <c r="G71" s="53"/>
       <c r="H71" s="20">
         <f>'Teste 1'!G16</f>
         <v>0.6</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="45"/>
+      <c r="K71" s="53"/>
       <c r="L71" s="20">
         <f>'Teste 1'!G15</f>
         <v>1</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="23">
         <f>'Teste 1'!G31</f>
         <v>2</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="43"/>
+      <c r="G72" s="54"/>
       <c r="H72" s="23">
         <f>'Teste 1'!G33</f>
         <v>2.8</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="43"/>
+      <c r="K72" s="54"/>
       <c r="L72" s="23">
         <f>'Teste 1'!G32</f>
         <v>4</v>
       </c>
       <c r="M72" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="56"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="23">
         <f>'Teste 1'!G48</f>
         <v>7</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="43"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="23">
         <f>'Teste 1'!G50</f>
         <v>9.1</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="43"/>
+      <c r="K73" s="54"/>
       <c r="L73" s="23">
         <f>'Teste 1'!G49</f>
         <v>11</v>
       </c>
       <c r="M73" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="56"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="23">
         <f>'Teste 1'!G65</f>
         <v>49</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="43"/>
+      <c r="G74" s="54"/>
       <c r="H74" s="23">
         <f>'Teste 1'!G67</f>
         <v>55.3</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="43"/>
+      <c r="K74" s="54"/>
       <c r="L74" s="23">
         <f>'Teste 1'!G66</f>
         <v>62</v>
       </c>
       <c r="M74" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="53"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="21">
         <f>'Teste 1'!G82</f>
         <v>114</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="41"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="21">
         <f>'Teste 1'!G84</f>
         <v>121.1</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J75" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="41"/>
+      <c r="K75" s="55"/>
       <c r="L75" s="21">
         <f>'Teste 1'!G83</f>
         <v>128</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="54" t="s">
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="54" t="s">
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="55"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="33"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="50"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="41"/>
+      <c r="D80" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="39"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="52"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="47"/>
-      <c r="F80" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="47"/>
-      <c r="H80" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I80" s="49"/>
-      <c r="J80" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="47"/>
-      <c r="L80" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="M80" s="49"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="41"/>
+      <c r="H80" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="52"/>
+      <c r="J80" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" s="41"/>
+      <c r="L80" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M80" s="52"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="57"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="20">
         <f>'Teste 1'!P14</f>
         <v>69</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="45"/>
+      <c r="G81" s="53"/>
       <c r="H81" s="20">
         <f>'Teste 1'!P16</f>
         <v>72.099999999999994</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="45"/>
+      <c r="K81" s="53"/>
       <c r="L81" s="20">
         <f>'Teste 1'!P15</f>
         <v>76</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="56"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="18">
         <f>'Teste 1'!P31/1000</f>
         <v>1.75</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="43"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="18">
         <f>'Teste 1'!P33/1000</f>
         <v>1.7642</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J82" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K82" s="43"/>
+      <c r="K82" s="54"/>
       <c r="L82" s="18">
         <f>'Teste 1'!P32/1000</f>
         <v>1.7869999999999999</v>
       </c>
       <c r="M82" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="56"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="18">
         <f>'Teste 1'!P48/1000</f>
         <v>7.0060000000000002</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="18">
         <f>'Teste 1'!P50/1000</f>
         <v>8.4446000000000012</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J83" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J83" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="43"/>
+      <c r="K83" s="54"/>
       <c r="L83" s="18">
         <f>'Teste 1'!P49/1000</f>
         <v>13.428000000000001</v>
       </c>
       <c r="M83" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="56"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="18">
         <f>'Teste 1'!P65/1000/60</f>
         <v>5.1648333333333332</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="18">
         <f>'Teste 1'!P67/1000/60</f>
         <v>5.4789583333333338</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J84" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J84" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="43"/>
+      <c r="K84" s="54"/>
       <c r="L84" s="18">
         <f>'Teste 1'!P66/1000/60</f>
         <v>5.6036666666666672</v>
       </c>
       <c r="M84" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="57"/>
       <c r="D85" s="19">
         <f>'Teste 1'!P82/1000/60</f>
         <v>21.316183333333335</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F85" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="41"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="19">
         <f>'Teste 1'!P84/1000/60</f>
         <v>22.122906666666665</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J85" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="41"/>
+      <c r="K85" s="55"/>
       <c r="L85" s="19">
         <f>'Teste 1'!P83/1000/60</f>
         <v>22.434033333333332</v>
       </c>
       <c r="M85" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="54" t="s">
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="54" t="s">
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="37" t="s">
+      <c r="B87" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="33"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="39"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="52"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="50"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="49"/>
-      <c r="F89" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" s="47"/>
-      <c r="H89" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I89" s="49"/>
-      <c r="J89" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K89" s="47"/>
-      <c r="L89" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M89" s="49"/>
+      <c r="B89" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="41"/>
+      <c r="D89" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="52"/>
+      <c r="F89" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" s="52"/>
+      <c r="J89" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" s="41"/>
+      <c r="L89" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M89" s="52"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="45"/>
+      <c r="C90" s="53"/>
       <c r="D90" s="20">
         <f>'Teste 1'!Q14</f>
         <v>139</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="45"/>
+      <c r="G90" s="53"/>
       <c r="H90" s="20">
         <f>'Teste 1'!Q16</f>
         <v>143.5</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="45"/>
+      <c r="K90" s="53"/>
       <c r="L90" s="20">
         <f>'Teste 1'!Q15</f>
         <v>147</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="43"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="18">
         <f>'Teste 1'!Q31/1000</f>
         <v>3.4990000000000001</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="43"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="23">
         <f>'Teste 1'!Q33/1000</f>
         <v>3.5219999999999998</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J91" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J91" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K91" s="43"/>
+      <c r="K91" s="54"/>
       <c r="L91" s="18">
         <f>'Teste 1'!Q33/1000</f>
         <v>3.5219999999999998</v>
       </c>
       <c r="M91" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="43"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="18">
         <f>'Teste 1'!Q48/1000</f>
         <v>15.521000000000001</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="43"/>
+      <c r="G92" s="54"/>
       <c r="H92" s="23">
         <f>'Teste 1'!Q50/1000</f>
         <v>19.9346</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J92" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J92" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="43"/>
+      <c r="K92" s="54"/>
       <c r="L92" s="18">
         <f>'Teste 1'!Q50/1000</f>
         <v>19.9346</v>
       </c>
       <c r="M92" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="43"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="18">
         <f>'Teste 1'!Q65/1000/60</f>
         <v>10.9331</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="43"/>
+      <c r="G93" s="54"/>
       <c r="H93" s="23">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>11.054061666666666</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J93" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J93" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="43"/>
+      <c r="K93" s="54"/>
       <c r="L93" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>11.054061666666666</v>
       </c>
       <c r="M93" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="41"/>
+      <c r="C94" s="55"/>
       <c r="D94" s="19">
         <f>'Teste 1'!Q82/1000/60</f>
         <v>38.161749999999998</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="41"/>
+      <c r="G94" s="55"/>
       <c r="H94" s="21">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>43.318651666666668</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J94" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J94" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="41"/>
+      <c r="K94" s="55"/>
       <c r="L94" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>43.318651666666668</v>
       </c>
       <c r="M94" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="300">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+  <mergeCells count="360">
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
@@ -7580,282 +8792,15 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eu\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562E4B6-1372-4937-B097-393347C6ED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5EE03E-5218-4F78-827B-476561DEF916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,10 +502,28 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,46 +541,22 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,25 +568,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,11 +909,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E61052-186C-4165-A01B-4F4A6CE64FEA}">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K89" sqref="K89:L90"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,60 +924,60 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="34" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="34" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="35"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1035,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1">
         <v>83</v>
@@ -1080,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1">
         <v>70</v>
@@ -1125,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1">
         <v>73</v>
@@ -1170,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1">
         <v>71</v>
@@ -1215,10 +1218,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1">
         <v>75</v>
@@ -1260,10 +1263,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1">
         <v>75</v>
@@ -1305,10 +1308,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1">
         <v>69</v>
@@ -1350,10 +1353,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1">
         <v>69</v>
@@ -1395,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1">
         <v>70</v>
@@ -1440,10 +1443,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1">
         <v>71</v>
@@ -1486,11 +1489,11 @@
       </c>
       <c r="B14" s="12">
         <f>SMALL(B4:B13,1)</f>
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" ref="C14:Q14" si="0">SMALL(C4:C13,1)</f>
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -1555,11 +1558,11 @@
       </c>
       <c r="B15" s="12">
         <f>LARGE(B4:B13, 1)</f>
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:Q15" si="1">LARGE(C4:C13, 1)</f>
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
@@ -1624,11 +1627,11 @@
       </c>
       <c r="B16" s="12">
         <f>AVERAGE(B4:B13)</f>
-        <v>232.6</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" ref="C16:Q16" si="2">AVERAGE(C4:C13)</f>
-        <v>224.4</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="2"/>
@@ -1688,16 +1691,16 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="12">
         <f t="shared" ref="B17:Q17" si="3">SUM(B4:B13)</f>
-        <v>2326</v>
+        <v>709</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="3"/>
-        <v>2244</v>
+        <v>1422</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="3"/>
@@ -1757,70 +1760,70 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="27">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29">
         <f>SUM(B17:C17)</f>
-        <v>4570</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27">
+        <v>2131</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29">
         <f>SUM(D17:E17)</f>
         <v>2139</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27">
+      <c r="E18" s="30"/>
+      <c r="F18" s="29">
         <f>SUM(F17:G17)</f>
         <v>18</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="27">
+      <c r="G18" s="30"/>
+      <c r="H18" s="29">
         <f>SUM(H17:I17)</f>
         <v>27</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="27">
+      <c r="I18" s="30"/>
+      <c r="J18" s="29">
         <f>SUM(J17:K17)</f>
         <v>1137</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="27">
+      <c r="K18" s="30"/>
+      <c r="L18" s="29">
         <f>SUM(L17:M17)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="27">
+      <c r="M18" s="30"/>
+      <c r="N18" s="29">
         <f>SUM(N17:O17)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="27">
+      <c r="O18" s="30"/>
+      <c r="P18" s="29">
         <f>SUM(P17:Q17)</f>
         <v>2156</v>
       </c>
-      <c r="Q18" s="28"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1880,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>7837</v>
+        <v>1798</v>
       </c>
       <c r="C21" s="1">
-        <v>6997</v>
+        <v>3512</v>
       </c>
       <c r="D21" s="1">
         <v>1770</v>
@@ -1925,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>7884</v>
+        <v>1807</v>
       </c>
       <c r="C22" s="1">
-        <v>7116</v>
+        <v>3501</v>
       </c>
       <c r="D22" s="1">
         <v>1757</v>
@@ -1970,10 +1973,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>7908</v>
+        <v>1831</v>
       </c>
       <c r="C23" s="1">
-        <v>7038</v>
+        <v>3473</v>
       </c>
       <c r="D23" s="1">
         <v>1770</v>
@@ -2015,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="1">
-        <v>7959</v>
+        <v>1840</v>
       </c>
       <c r="C24" s="1">
-        <v>7113</v>
+        <v>3500</v>
       </c>
       <c r="D24" s="1">
         <v>1755</v>
@@ -2060,10 +2063,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1">
-        <v>7792</v>
+        <v>1765</v>
       </c>
       <c r="C25" s="1">
-        <v>7202</v>
+        <v>3486</v>
       </c>
       <c r="D25" s="1">
         <v>1771</v>
@@ -2105,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="1">
-        <v>7903</v>
+        <v>1753</v>
       </c>
       <c r="C26" s="1">
-        <v>6996</v>
+        <v>3543</v>
       </c>
       <c r="D26" s="1">
         <v>1758</v>
@@ -2150,10 +2153,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1">
-        <v>7856</v>
+        <v>1748</v>
       </c>
       <c r="C27" s="1">
-        <v>7108</v>
+        <v>3538</v>
       </c>
       <c r="D27" s="1">
         <v>1757</v>
@@ -2195,10 +2198,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>7959</v>
+        <v>1759</v>
       </c>
       <c r="C28" s="1">
-        <v>6966</v>
+        <v>3499</v>
       </c>
       <c r="D28" s="1">
         <v>1752</v>
@@ -2240,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>7826</v>
+        <v>1747</v>
       </c>
       <c r="C29" s="1">
-        <v>6983</v>
+        <v>3490</v>
       </c>
       <c r="D29" s="1">
         <v>1772</v>
@@ -2285,10 +2288,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="2">
-        <v>7906</v>
+        <v>1768</v>
       </c>
       <c r="C30" s="2">
-        <v>7043</v>
+        <v>3598</v>
       </c>
       <c r="D30" s="2">
         <v>1759</v>
@@ -2330,66 +2333,66 @@
         <v>28</v>
       </c>
       <c r="B31" s="12">
-        <f>SMALL(B21:B30,1)</f>
-        <v>7792</v>
+        <f t="shared" ref="B31:H31" si="4">SMALL(B21:B30,1)</f>
+        <v>1747</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" ref="C31" si="4">SMALL(C21:C30,1)</f>
-        <v>6966</v>
+        <f t="shared" si="4"/>
+        <v>3473</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" ref="D31" si="5">SMALL(D21:D30,1)</f>
+        <f t="shared" si="4"/>
         <v>1752</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" ref="E31" si="6">SMALL(E21:E30,1)</f>
+        <f t="shared" si="4"/>
         <v>3514</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" ref="F31" si="7">SMALL(F21:F30,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" ref="G31" si="8">SMALL(G21:G30,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" ref="H31" si="9">SMALL(H21:H30,1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I31" s="12">
         <v>5</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" ref="J31" si="10">SMALL(J21:J30,1)</f>
+        <f t="shared" ref="J31:Q31" si="5">SMALL(J21:J30,1)</f>
         <v>7</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" ref="K31" si="11">SMALL(K21:K30,1)</f>
+        <f t="shared" si="5"/>
         <v>2648</v>
       </c>
       <c r="L31" s="12" t="e">
-        <f t="shared" ref="L31" si="12">SMALL(L21:L30,1)</f>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="M31" s="12" t="e">
-        <f t="shared" ref="M31" si="13">SMALL(M21:M30,1)</f>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="N31" s="12" t="e">
-        <f t="shared" ref="N31" si="14">SMALL(N21:N30,1)</f>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="O31" s="12" t="e">
-        <f t="shared" ref="O31" si="15">SMALL(O21:O30,1)</f>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" ref="P31" si="16">SMALL(P21:P30,1)</f>
+        <f t="shared" si="5"/>
         <v>1750</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" ref="Q31" si="17">SMALL(Q21:Q30,1)</f>
+        <f t="shared" si="5"/>
         <v>3499</v>
       </c>
     </row>
@@ -2399,66 +2402,66 @@
       </c>
       <c r="B32" s="12">
         <f>LARGE(B21:B30, 1)</f>
-        <v>7959</v>
+        <v>1840</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:Q32" si="18">LARGE(C21:C30, 1)</f>
-        <v>7202</v>
+        <f t="shared" ref="C32:Q32" si="6">LARGE(C21:C30, 1)</f>
+        <v>3598</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>1772</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>3541</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>2767</v>
       </c>
       <c r="L32" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="M32" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="N32" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="O32" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>1787</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>3555</v>
       </c>
     </row>
@@ -2467,204 +2470,204 @@
         <v>24</v>
       </c>
       <c r="B33" s="12">
-        <f>AVERAGE(B21:B30)</f>
-        <v>7883</v>
+        <f t="shared" ref="B33:Q33" si="7">AVERAGE(B21:B30)</f>
+        <v>1781.6</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33" si="19">AVERAGE(C21:C30)</f>
-        <v>7056.2</v>
+        <f t="shared" si="7"/>
+        <v>3514</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" ref="D33" si="20">AVERAGE(D21:D30)</f>
+        <f t="shared" si="7"/>
         <v>1762.1</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" ref="E33" si="21">AVERAGE(E21:E30)</f>
+        <f t="shared" si="7"/>
         <v>3525.4</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" ref="F33" si="22">AVERAGE(F21:F30)</f>
+        <f t="shared" si="7"/>
         <v>9.9</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" ref="G33" si="23">AVERAGE(G21:G30)</f>
+        <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" ref="H33" si="24">AVERAGE(H21:H30)</f>
+        <f t="shared" si="7"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" ref="I33" si="25">AVERAGE(I21:I30)</f>
+        <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" ref="J33" si="26">AVERAGE(J21:J30)</f>
+        <f t="shared" si="7"/>
         <v>7.4</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" ref="K33" si="27">AVERAGE(K21:K30)</f>
+        <f t="shared" si="7"/>
         <v>2692.2</v>
       </c>
       <c r="L33" s="12" t="e">
-        <f t="shared" ref="L33" si="28">AVERAGE(L21:L30)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="12" t="e">
-        <f t="shared" ref="M33" si="29">AVERAGE(M21:M30)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="12" t="e">
-        <f t="shared" ref="N33" si="30">AVERAGE(N21:N30)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="12" t="e">
-        <f t="shared" ref="O33" si="31">AVERAGE(O21:O30)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" ref="P33" si="32">AVERAGE(P21:P30)</f>
+        <f t="shared" si="7"/>
         <v>1764.2</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" ref="Q33" si="33">AVERAGE(Q21:Q30)</f>
+        <f t="shared" si="7"/>
         <v>3522</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="12">
-        <f t="shared" ref="B34:K34" si="34">SUM(B21:B30)</f>
-        <v>78830</v>
+        <f t="shared" ref="B34:K34" si="8">SUM(B21:B30)</f>
+        <v>17816</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" si="34"/>
-        <v>70562</v>
+        <f t="shared" si="8"/>
+        <v>35140</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>17621</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>35254</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="8"/>
         <v>26922</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" ref="L34:Q34" si="35">SUM(L21:L30)</f>
+        <f t="shared" ref="L34:Q34" si="9">SUM(L21:L30)</f>
         <v>0</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="9"/>
         <v>17642</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="9"/>
         <v>35220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="27">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29">
         <f>SUM(B34:C34)</f>
-        <v>149392</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27">
+        <v>52956</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="29">
         <f>SUM(D34:E34)</f>
         <v>52875</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="27">
+      <c r="E35" s="30"/>
+      <c r="F35" s="29">
         <f>SUM(F34:G34)</f>
         <v>127</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="27">
+      <c r="G35" s="30"/>
+      <c r="H35" s="29">
         <f>SUM(H34:I34)</f>
         <v>152</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="27">
+      <c r="I35" s="30"/>
+      <c r="J35" s="29">
         <f>SUM(J34:K34)</f>
         <v>26996</v>
       </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="27">
+      <c r="K35" s="30"/>
+      <c r="L35" s="29">
         <f>SUM(L34:M34)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="27">
+      <c r="M35" s="30"/>
+      <c r="N35" s="29">
         <f>SUM(N34:O34)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="27">
+      <c r="O35" s="30"/>
+      <c r="P35" s="29">
         <f>SUM(P34:Q34)</f>
         <v>52862</v>
       </c>
-      <c r="Q35" s="28"/>
+      <c r="Q35" s="30"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="33"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -2724,10 +2727,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>28680</v>
+        <v>7131</v>
       </c>
       <c r="C38" s="1">
-        <v>36052</v>
+        <v>26588</v>
       </c>
       <c r="D38" s="1">
         <v>13160</v>
@@ -2769,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1">
-        <v>36549</v>
+        <v>9735</v>
       </c>
       <c r="C39" s="1">
-        <v>39689</v>
+        <v>14889</v>
       </c>
       <c r="D39" s="1">
         <v>9033</v>
@@ -2814,10 +2817,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="1">
-        <v>28648</v>
+        <v>7036</v>
       </c>
       <c r="C40" s="1">
-        <v>39427</v>
+        <v>26756</v>
       </c>
       <c r="D40" s="1">
         <v>8173</v>
@@ -2859,10 +2862,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>36345</v>
+        <v>6999</v>
       </c>
       <c r="C41" s="1">
-        <v>41171</v>
+        <v>13914</v>
       </c>
       <c r="D41" s="1">
         <v>7010</v>
@@ -2904,10 +2907,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>37417</v>
+        <v>7004</v>
       </c>
       <c r="C42" s="1">
-        <v>30360</v>
+        <v>13953</v>
       </c>
       <c r="D42" s="1">
         <v>13256</v>
@@ -2949,10 +2952,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>37302</v>
+        <v>13363</v>
       </c>
       <c r="C43" s="1">
-        <v>30709</v>
+        <v>26389</v>
       </c>
       <c r="D43" s="1">
         <v>10364</v>
@@ -2994,10 +2997,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>33581</v>
+        <v>6984</v>
       </c>
       <c r="C44" s="1">
-        <v>30192</v>
+        <v>21312</v>
       </c>
       <c r="D44" s="1">
         <v>8114</v>
@@ -3039,10 +3042,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>34306</v>
+        <v>7016</v>
       </c>
       <c r="C45" s="1">
-        <v>30709</v>
+        <v>14324</v>
       </c>
       <c r="D45" s="1">
         <v>12805</v>
@@ -3084,10 +3087,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="1">
-        <v>35001</v>
+        <v>7045</v>
       </c>
       <c r="C46" s="1">
-        <v>30192</v>
+        <v>15871</v>
       </c>
       <c r="D46" s="1">
         <v>10943</v>
@@ -3129,10 +3132,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="2">
-        <v>37007</v>
+        <v>7106</v>
       </c>
       <c r="C47" s="2">
-        <v>30435</v>
+        <v>27235</v>
       </c>
       <c r="D47" s="2">
         <v>7976</v>
@@ -3174,67 +3177,67 @@
         <v>28</v>
       </c>
       <c r="B48" s="12">
-        <f>SMALL(B38:B47,1)</f>
-        <v>28648</v>
+        <f t="shared" ref="B48:Q48" si="10">SMALL(B38:B47,1)</f>
+        <v>6984</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" ref="C48" si="36">SMALL(C38:C47,1)</f>
-        <v>30192</v>
+        <f t="shared" si="10"/>
+        <v>13914</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" ref="D48" si="37">SMALL(D38:D47,1)</f>
+        <f t="shared" si="10"/>
         <v>7010</v>
       </c>
       <c r="E48" s="12">
-        <f t="shared" ref="E48" si="38">SMALL(E38:E47,1)</f>
+        <f t="shared" si="10"/>
         <v>14073</v>
       </c>
       <c r="F48" s="12">
-        <f t="shared" ref="F48" si="39">SMALL(F38:F47,1)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="G48" s="12">
-        <f t="shared" ref="G48" si="40">SMALL(G38:G47,1)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" ref="H48" si="41">SMALL(H38:H47,1)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" ref="I48" si="42">SMALL(I38:I47,1)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48" si="43">SMALL(J38:J47,1)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" ref="K48" si="44">SMALL(K38:K47,1)</f>
+        <f t="shared" si="10"/>
         <v>10545</v>
       </c>
       <c r="L48" s="12" t="e">
-        <f t="shared" ref="L48" si="45">SMALL(L38:L47,1)</f>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="M48" s="12" t="e">
-        <f t="shared" ref="M48" si="46">SMALL(M38:M47,1)</f>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="N48" s="12" t="e">
-        <f t="shared" ref="N48" si="47">SMALL(N38:N47,1)</f>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="O48" s="12" t="e">
-        <f t="shared" ref="O48" si="48">SMALL(O38:O47,1)</f>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="P48" s="12">
-        <f t="shared" ref="P48" si="49">SMALL(P38:P47,1)</f>
+        <f t="shared" si="10"/>
         <v>7006</v>
       </c>
       <c r="Q48" s="12">
-        <f t="shared" ref="Q48" si="50">SMALL(Q38:Q47,1)</f>
+        <f t="shared" si="10"/>
         <v>15521</v>
       </c>
     </row>
@@ -3244,66 +3247,66 @@
       </c>
       <c r="B49" s="12">
         <f>LARGE(B38:B47, 1)</f>
-        <v>37417</v>
+        <v>13363</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" ref="C49:Q49" si="51">LARGE(C38:C47, 1)</f>
-        <v>41171</v>
+        <f t="shared" ref="C49:Q49" si="11">LARGE(C38:C47, 1)</f>
+        <v>27235</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>13256</v>
       </c>
       <c r="E49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>26799</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>10956</v>
       </c>
       <c r="L49" s="12" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="M49" s="12" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="N49" s="12" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="O49" s="12" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="P49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>13428</v>
       </c>
       <c r="Q49" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="11"/>
         <v>26883</v>
       </c>
     </row>
@@ -3312,204 +3315,204 @@
         <v>24</v>
       </c>
       <c r="B50" s="12">
-        <f>AVERAGE(B38:B47)</f>
-        <v>34483.599999999999</v>
+        <f t="shared" ref="B50:Q50" si="12">AVERAGE(B38:B47)</f>
+        <v>7941.9</v>
       </c>
       <c r="C50" s="12">
-        <f>AVERAGE(C38:C47)</f>
-        <v>33893.599999999999</v>
+        <f t="shared" si="12"/>
+        <v>20123.099999999999</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" ref="D50" si="52">AVERAGE(D38:D47)</f>
+        <f t="shared" si="12"/>
         <v>10083.4</v>
       </c>
       <c r="E50" s="12">
-        <f t="shared" ref="E50" si="53">AVERAGE(E38:E47)</f>
+        <f t="shared" si="12"/>
         <v>20570.599999999999</v>
       </c>
       <c r="F50" s="12">
-        <f t="shared" ref="F50" si="54">AVERAGE(F38:F47)</f>
+        <f t="shared" si="12"/>
         <v>28.6</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" ref="G50" si="55">AVERAGE(G38:G47)</f>
+        <f t="shared" si="12"/>
         <v>9.1</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" ref="H50" si="56">AVERAGE(H38:H47)</f>
+        <f t="shared" si="12"/>
         <v>19.3</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" ref="I50" si="57">AVERAGE(I38:I47)</f>
+        <f t="shared" si="12"/>
         <v>11.4</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" ref="J50" si="58">AVERAGE(J38:J47)</f>
+        <f t="shared" si="12"/>
         <v>15.1</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" ref="K50" si="59">AVERAGE(K38:K47)</f>
+        <f t="shared" si="12"/>
         <v>10749.8</v>
       </c>
       <c r="L50" s="12" t="e">
-        <f t="shared" ref="L50" si="60">AVERAGE(L38:L47)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M50" s="12" t="e">
-        <f t="shared" ref="M50" si="61">AVERAGE(M38:M47)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N50" s="12" t="e">
-        <f t="shared" ref="N50" si="62">AVERAGE(N38:N47)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="12" t="e">
-        <f t="shared" ref="O50" si="63">AVERAGE(O38:O47)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P50" s="12">
-        <f t="shared" ref="P50" si="64">AVERAGE(P38:P47)</f>
+        <f t="shared" si="12"/>
         <v>8444.6</v>
       </c>
       <c r="Q50" s="12">
-        <f t="shared" ref="Q50" si="65">AVERAGE(Q38:Q47)</f>
+        <f t="shared" si="12"/>
         <v>19934.599999999999</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" ref="B51:Q51" si="66">SUM(B38:B47)</f>
-        <v>344836</v>
+        <f t="shared" ref="B51:Q51" si="13">SUM(B38:B47)</f>
+        <v>79419</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="66"/>
-        <v>338936</v>
+        <f t="shared" si="13"/>
+        <v>201231</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>100834</v>
       </c>
       <c r="E51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>205706</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>286</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>193</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>114</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>151</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>107498</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>84446</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="13"/>
         <v>199346</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="27">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29">
         <f>SUM(B51:C51)</f>
-        <v>683772</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="27">
+        <v>280650</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="29">
         <f>SUM(D51:E51)</f>
         <v>306540</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="27">
+      <c r="E52" s="30"/>
+      <c r="F52" s="29">
         <f>SUM(F51:G51)</f>
         <v>377</v>
       </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="27">
+      <c r="G52" s="30"/>
+      <c r="H52" s="29">
         <f>SUM(H51:I51)</f>
         <v>307</v>
       </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="27">
+      <c r="I52" s="30"/>
+      <c r="J52" s="29">
         <f>SUM(J51:K51)</f>
         <v>107649</v>
       </c>
-      <c r="K52" s="28"/>
-      <c r="L52" s="27">
+      <c r="K52" s="30"/>
+      <c r="L52" s="29">
         <f>SUM(L51:M51)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="27">
+      <c r="M52" s="30"/>
+      <c r="N52" s="29">
         <f>SUM(N51:O51)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="28"/>
-      <c r="P52" s="27">
+      <c r="O52" s="30"/>
+      <c r="P52" s="29">
         <f>SUM(P51:Q51)</f>
         <v>283792</v>
       </c>
-      <c r="Q52" s="28"/>
+      <c r="Q52" s="30"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="33"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="39"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -3569,10 +3572,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>962663</v>
+        <v>318599</v>
       </c>
       <c r="C55" s="1">
-        <v>963311</v>
+        <v>398437</v>
       </c>
       <c r="D55" s="1">
         <v>331332</v>
@@ -3614,10 +3617,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="1">
-        <v>890598</v>
+        <v>290548</v>
       </c>
       <c r="C56" s="1">
-        <v>951871</v>
+        <v>567310</v>
       </c>
       <c r="D56" s="1">
         <v>332772</v>
@@ -3659,10 +3662,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="1">
-        <v>938279</v>
+        <v>313931</v>
       </c>
       <c r="C57" s="1">
-        <v>926389</v>
+        <v>637401</v>
       </c>
       <c r="D57" s="1">
         <v>331711</v>
@@ -3704,10 +3707,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="1">
-        <v>946140</v>
+        <v>308404</v>
       </c>
       <c r="C58" s="1">
-        <v>942711</v>
+        <v>507567</v>
       </c>
       <c r="D58" s="1">
         <v>335206</v>
@@ -3749,10 +3752,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>941484</v>
+        <v>299450</v>
       </c>
       <c r="C59" s="1">
-        <v>910417</v>
+        <v>606926</v>
       </c>
       <c r="D59" s="1">
         <v>336280</v>
@@ -3794,10 +3797,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="1">
-        <v>958608</v>
+        <v>309958</v>
       </c>
       <c r="C60" s="1">
-        <v>947086</v>
+        <v>603579</v>
       </c>
       <c r="D60" s="1">
         <v>334285</v>
@@ -3839,10 +3842,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="1">
-        <v>942178</v>
+        <v>309426</v>
       </c>
       <c r="C61" s="1">
-        <v>944016</v>
+        <v>667086</v>
       </c>
       <c r="D61" s="1">
         <v>333411</v>
@@ -3884,10 +3887,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="1">
-        <v>910325</v>
+        <v>172712</v>
       </c>
       <c r="C62" s="1">
-        <v>949823</v>
+        <v>511867</v>
       </c>
       <c r="D62" s="1">
         <v>335939</v>
@@ -3929,10 +3932,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="1">
-        <v>947287</v>
+        <v>299978</v>
       </c>
       <c r="C63" s="1">
-        <v>944661</v>
+        <v>629996</v>
       </c>
       <c r="D63" s="1">
         <v>334882</v>
@@ -3974,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B64" s="2">
-        <v>944354</v>
+        <v>306818</v>
       </c>
       <c r="C64" s="2">
         <v>946865</v>
@@ -4019,67 +4022,67 @@
         <v>28</v>
       </c>
       <c r="B65" s="12">
-        <f>SMALL(B55:B64,1)</f>
-        <v>890598</v>
+        <f t="shared" ref="B65:Q65" si="14">SMALL(B55:B64,1)</f>
+        <v>172712</v>
       </c>
       <c r="C65" s="12">
-        <f t="shared" ref="C65" si="67">SMALL(C55:C64,1)</f>
-        <v>910417</v>
+        <f t="shared" si="14"/>
+        <v>398437</v>
       </c>
       <c r="D65" s="12">
-        <f t="shared" ref="D65" si="68">SMALL(D55:D64,1)</f>
+        <f t="shared" si="14"/>
         <v>331332</v>
       </c>
       <c r="E65" s="12">
-        <f t="shared" ref="E65" si="69">SMALL(E55:E64,1)</f>
+        <f t="shared" si="14"/>
         <v>660959</v>
       </c>
       <c r="F65" s="12">
-        <f t="shared" ref="F65" si="70">SMALL(F55:F64,1)</f>
+        <f t="shared" si="14"/>
         <v>184</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" ref="G65" si="71">SMALL(G55:G64,1)</f>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" ref="H65" si="72">SMALL(H55:H64,1)</f>
+        <f t="shared" si="14"/>
         <v>103</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" ref="I65" si="73">SMALL(I55:I64,1)</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" ref="J65" si="74">SMALL(J55:J64,1)</f>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" ref="K65" si="75">SMALL(K55:K64,1)</f>
+        <f t="shared" si="14"/>
         <v>264132</v>
       </c>
       <c r="L65" s="12" t="e">
-        <f t="shared" ref="L65" si="76">SMALL(L55:L64,1)</f>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="M65" s="12" t="e">
-        <f t="shared" ref="M65" si="77">SMALL(M55:M64,1)</f>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="N65" s="12" t="e">
-        <f t="shared" ref="N65" si="78">SMALL(N55:N64,1)</f>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="O65" s="12" t="e">
-        <f t="shared" ref="O65" si="79">SMALL(O55:O64,1)</f>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="P65" s="12">
-        <f t="shared" ref="P65" si="80">SMALL(P55:P64,1)</f>
+        <f t="shared" si="14"/>
         <v>309890</v>
       </c>
       <c r="Q65" s="12">
-        <f t="shared" ref="Q65" si="81">SMALL(Q55:Q64,1)</f>
+        <f t="shared" si="14"/>
         <v>655986</v>
       </c>
     </row>
@@ -4089,66 +4092,66 @@
       </c>
       <c r="B66" s="12">
         <f>LARGE(B55:B64, 1)</f>
-        <v>962663</v>
+        <v>318599</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" ref="C66:Q66" si="82">LARGE(C55:C64, 1)</f>
-        <v>963311</v>
+        <f t="shared" ref="C66:Q66" si="15">LARGE(C55:C64, 1)</f>
+        <v>946865</v>
       </c>
       <c r="D66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>336280</v>
       </c>
       <c r="E66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>673342</v>
       </c>
       <c r="F66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>209</v>
       </c>
       <c r="G66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>114</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>273029</v>
       </c>
       <c r="L66" s="12" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
       <c r="M66" s="12" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
       <c r="N66" s="12" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
       <c r="O66" s="12" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
       <c r="P66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>336220</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v>672891</v>
       </c>
     </row>
@@ -4157,204 +4160,204 @@
         <v>24</v>
       </c>
       <c r="B67" s="12">
-        <f>AVERAGE(B55:B64)</f>
-        <v>938191.6</v>
+        <f t="shared" ref="B67:Q67" si="16">AVERAGE(B55:B64)</f>
+        <v>292982.40000000002</v>
       </c>
       <c r="C67" s="12">
-        <f>AVERAGE(C55:C64)</f>
-        <v>942715</v>
+        <f t="shared" si="16"/>
+        <v>607703.4</v>
       </c>
       <c r="D67" s="12">
-        <f t="shared" ref="D67" si="83">AVERAGE(D55:D64)</f>
+        <f t="shared" si="16"/>
         <v>334138.5</v>
       </c>
       <c r="E67" s="12">
-        <f t="shared" ref="E67" si="84">AVERAGE(E55:E64)</f>
+        <f t="shared" si="16"/>
         <v>666270.9</v>
       </c>
       <c r="F67" s="12">
-        <f t="shared" ref="F67" si="85">AVERAGE(F55:F64)</f>
+        <f t="shared" si="16"/>
         <v>197.2</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" ref="G67" si="86">AVERAGE(G55:G64)</f>
+        <f t="shared" si="16"/>
         <v>55.3</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" ref="H67" si="87">AVERAGE(H55:H64)</f>
+        <f t="shared" si="16"/>
         <v>108</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" ref="I67" si="88">AVERAGE(I55:I64)</f>
+        <f t="shared" si="16"/>
         <v>75.5</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" ref="J67" si="89">AVERAGE(J55:J64)</f>
+        <f t="shared" si="16"/>
         <v>82.5</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" ref="K67" si="90">AVERAGE(K55:K64)</f>
+        <f t="shared" si="16"/>
         <v>268433.09999999998</v>
       </c>
       <c r="L67" s="12" t="e">
-        <f t="shared" ref="L67" si="91">AVERAGE(L55:L64)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M67" s="12" t="e">
-        <f t="shared" ref="M67" si="92">AVERAGE(M55:M64)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N67" s="12" t="e">
-        <f t="shared" ref="N67" si="93">AVERAGE(N55:N64)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="12" t="e">
-        <f t="shared" ref="O67" si="94">AVERAGE(O55:O64)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P67" s="12">
-        <f t="shared" ref="P67" si="95">AVERAGE(P55:P64)</f>
+        <f t="shared" si="16"/>
         <v>328737.5</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" ref="Q67" si="96">AVERAGE(Q55:Q64)</f>
+        <f t="shared" si="16"/>
         <v>663243.69999999995</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" ref="B68:Q68" si="97">SUM(B55:B64)</f>
-        <v>9381916</v>
+        <f t="shared" ref="B68:Q68" si="17">SUM(B55:B64)</f>
+        <v>2929824</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" si="97"/>
-        <v>9427150</v>
+        <f t="shared" si="17"/>
+        <v>6077034</v>
       </c>
       <c r="D68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>3341385</v>
       </c>
       <c r="E68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>6662709</v>
       </c>
       <c r="F68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>1972</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>553</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>1080</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>755</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>825</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>2684331</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>3287375</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="17"/>
         <v>6632437</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="27">
+      <c r="A69" s="28"/>
+      <c r="B69" s="29">
         <f>SUM(B68:C68)</f>
-        <v>18809066</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27">
+        <v>9006858</v>
+      </c>
+      <c r="C69" s="30"/>
+      <c r="D69" s="29">
         <f>SUM(D68:E68)</f>
         <v>10004094</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="27">
+      <c r="E69" s="30"/>
+      <c r="F69" s="29">
         <f>SUM(F68:G68)</f>
         <v>2525</v>
       </c>
-      <c r="G69" s="28"/>
-      <c r="H69" s="27">
+      <c r="G69" s="30"/>
+      <c r="H69" s="29">
         <f>SUM(H68:I68)</f>
         <v>1835</v>
       </c>
-      <c r="I69" s="28"/>
-      <c r="J69" s="27">
+      <c r="I69" s="30"/>
+      <c r="J69" s="29">
         <f>SUM(J68:K68)</f>
         <v>2685156</v>
       </c>
-      <c r="K69" s="28"/>
-      <c r="L69" s="27">
+      <c r="K69" s="30"/>
+      <c r="L69" s="29">
         <f>SUM(L68:M68)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="28"/>
-      <c r="N69" s="27">
+      <c r="M69" s="30"/>
+      <c r="N69" s="29">
         <f>SUM(N68:O68)</f>
         <v>0</v>
       </c>
-      <c r="O69" s="28"/>
-      <c r="P69" s="27">
+      <c r="O69" s="30"/>
+      <c r="P69" s="29">
         <f>SUM(P68:Q68)</f>
         <v>9919812</v>
       </c>
-      <c r="Q69" s="28"/>
+      <c r="Q69" s="30"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="33"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="39"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -4414,10 +4417,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="1">
-        <v>3759897</v>
+        <v>1181386</v>
       </c>
       <c r="C72" s="1">
-        <v>3846823</v>
+        <v>2638606</v>
       </c>
       <c r="D72" s="1">
         <v>1320917</v>
@@ -4459,10 +4462,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="1">
-        <v>3781025</v>
+        <v>1239261</v>
       </c>
       <c r="C73" s="1">
-        <v>3821318</v>
+        <v>2568167</v>
       </c>
       <c r="D73" s="1">
         <v>1342177</v>
@@ -4504,10 +4507,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="1">
-        <v>3767677</v>
+        <v>1217155</v>
       </c>
       <c r="C74" s="1">
-        <v>3883185</v>
+        <v>2572465</v>
       </c>
       <c r="D74" s="1">
         <v>1325116</v>
@@ -4549,10 +4552,10 @@
         <v>5</v>
       </c>
       <c r="B75" s="1">
-        <v>3736997</v>
+        <v>1207423</v>
       </c>
       <c r="C75" s="1">
-        <v>3858904</v>
+        <v>2587869</v>
       </c>
       <c r="D75" s="1">
         <v>1341078</v>
@@ -4594,10 +4597,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="1">
-        <v>3760945</v>
+        <v>1350577</v>
       </c>
       <c r="C76" s="1">
-        <v>3880278</v>
+        <v>2439170</v>
       </c>
       <c r="D76" s="1">
         <v>1341708</v>
@@ -4639,10 +4642,10 @@
         <v>7</v>
       </c>
       <c r="B77" s="1">
-        <v>3761011</v>
+        <v>1024848</v>
       </c>
       <c r="C77" s="1">
-        <v>3901205</v>
+        <v>2422015</v>
       </c>
       <c r="D77" s="1">
         <v>1333741</v>
@@ -4684,10 +4687,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="1">
-        <v>3765461</v>
+        <v>1316727</v>
       </c>
       <c r="C78" s="1">
-        <v>3915365</v>
+        <v>2360182</v>
       </c>
       <c r="D78" s="1">
         <v>1343762</v>
@@ -4729,10 +4732,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="1">
-        <v>3768137</v>
+        <v>1276184</v>
       </c>
       <c r="C79" s="1">
-        <v>3928046</v>
+        <v>2606803</v>
       </c>
       <c r="D79" s="1">
         <v>1339994</v>
@@ -4774,10 +4777,10 @@
         <v>10</v>
       </c>
       <c r="B80" s="1">
-        <v>3785998</v>
+        <v>1272253</v>
       </c>
       <c r="C80" s="1">
-        <v>3906688</v>
+        <v>2606803</v>
       </c>
       <c r="D80" s="1">
         <v>1338383</v>
@@ -4819,10 +4822,10 @@
         <v>11</v>
       </c>
       <c r="B81" s="1">
-        <v>3761019</v>
+        <v>1252875</v>
       </c>
       <c r="C81" s="1">
-        <v>3883867</v>
+        <v>2640534</v>
       </c>
       <c r="D81" s="1">
         <v>1340001</v>
@@ -4864,67 +4867,67 @@
         <v>28</v>
       </c>
       <c r="B82" s="12">
-        <f>SMALL(B72:B81,1)</f>
-        <v>3736997</v>
+        <f t="shared" ref="B82:Q82" si="18">SMALL(B72:B81,1)</f>
+        <v>1024848</v>
       </c>
       <c r="C82" s="12">
-        <f t="shared" ref="C82" si="98">SMALL(C72:C81,1)</f>
-        <v>3821318</v>
+        <f t="shared" si="18"/>
+        <v>2360182</v>
       </c>
       <c r="D82" s="12">
-        <f t="shared" ref="D82" si="99">SMALL(D72:D81,1)</f>
+        <f t="shared" si="18"/>
         <v>1320917</v>
       </c>
       <c r="E82" s="12">
-        <f t="shared" ref="E82" si="100">SMALL(E72:E81,1)</f>
+        <f t="shared" si="18"/>
         <v>2671920</v>
       </c>
       <c r="F82" s="12">
-        <f t="shared" ref="F82" si="101">SMALL(F72:F81,1)</f>
+        <f t="shared" si="18"/>
         <v>422</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" ref="G82" si="102">SMALL(G72:G81,1)</f>
+        <f t="shared" si="18"/>
         <v>114</v>
       </c>
       <c r="H82" s="12">
-        <f>SMALL(H72:H81,1)</f>
+        <f t="shared" si="18"/>
         <v>220</v>
       </c>
       <c r="I82" s="12">
-        <f>SMALL(I72:I81,1)</f>
+        <f t="shared" si="18"/>
         <v>133</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" ref="J82" si="103">SMALL(J72:J81,1)</f>
+        <f t="shared" si="18"/>
         <v>185</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" ref="K82" si="104">SMALL(K72:K81,1)</f>
+        <f t="shared" si="18"/>
         <v>1044287</v>
       </c>
       <c r="L82" s="12" t="e">
-        <f t="shared" ref="L82" si="105">SMALL(L72:L81,1)</f>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="M82" s="12" t="e">
-        <f t="shared" ref="M82" si="106">SMALL(M72:M81,1)</f>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="N82" s="12" t="e">
-        <f t="shared" ref="N82" si="107">SMALL(N72:N81,1)</f>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="O82" s="12" t="e">
-        <f t="shared" ref="O82" si="108">SMALL(O72:O81,1)</f>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="P82" s="12">
-        <f t="shared" ref="P82" si="109">SMALL(P72:P81,1)</f>
+        <f t="shared" si="18"/>
         <v>1278971</v>
       </c>
       <c r="Q82" s="12">
-        <f t="shared" ref="Q82" si="110">SMALL(Q72:Q81,1)</f>
+        <f t="shared" si="18"/>
         <v>2289705</v>
       </c>
     </row>
@@ -4934,26 +4937,26 @@
       </c>
       <c r="B83" s="12">
         <f>LARGE(B72:B81, 1)</f>
-        <v>3785998</v>
+        <v>1350577</v>
       </c>
       <c r="C83" s="12">
-        <f t="shared" ref="C83:Q83" si="111">LARGE(C72:C81, 1)</f>
-        <v>3928046</v>
+        <f t="shared" ref="C83:Q83" si="19">LARGE(C72:C81, 1)</f>
+        <v>2640534</v>
       </c>
       <c r="D83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>1343762</v>
       </c>
       <c r="E83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>2690758</v>
       </c>
       <c r="F83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>454</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="H83" s="12">
@@ -4965,35 +4968,35 @@
         <v>154</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>212</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>1093307</v>
       </c>
       <c r="L83" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
       <c r="M83" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
       <c r="N83" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
       <c r="O83" s="12" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
       <c r="P83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>1346042</v>
       </c>
       <c r="Q83" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="19"/>
         <v>2745678</v>
       </c>
     </row>
@@ -5002,96 +5005,96 @@
         <v>24</v>
       </c>
       <c r="B84" s="12">
-        <f>AVERAGE(B72:B81)</f>
-        <v>3764816.7</v>
+        <f t="shared" ref="B84:Q84" si="20">AVERAGE(B72:B81)</f>
+        <v>1233868.8999999999</v>
       </c>
       <c r="C84" s="12">
-        <f>AVERAGE(C72:C81)</f>
-        <v>3882567.9</v>
+        <f t="shared" si="20"/>
+        <v>2544261.4</v>
       </c>
       <c r="D84" s="12">
-        <f t="shared" ref="D84" si="112">AVERAGE(D72:D81)</f>
+        <f t="shared" si="20"/>
         <v>1336687.7</v>
       </c>
       <c r="E84" s="12">
-        <f t="shared" ref="E84" si="113">AVERAGE(E72:E81)</f>
+        <f t="shared" si="20"/>
         <v>2683336.6</v>
       </c>
       <c r="F84" s="12">
-        <f t="shared" ref="F84" si="114">AVERAGE(F72:F81)</f>
+        <f t="shared" si="20"/>
         <v>435.7</v>
       </c>
       <c r="G84" s="12">
-        <f t="shared" ref="G84" si="115">AVERAGE(G72:G81)</f>
+        <f t="shared" si="20"/>
         <v>121.1</v>
       </c>
       <c r="H84" s="12">
-        <f>AVERAGE(H72:H81)</f>
+        <f t="shared" si="20"/>
         <v>228.3</v>
       </c>
       <c r="I84" s="12">
-        <f>AVERAGE(I72:I81)</f>
+        <f t="shared" si="20"/>
         <v>146.30000000000001</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" ref="J84" si="116">AVERAGE(J72:J81)</f>
+        <f t="shared" si="20"/>
         <v>194.7</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" ref="K84" si="117">AVERAGE(K72:K81)</f>
+        <f t="shared" si="20"/>
         <v>1060029.2</v>
       </c>
       <c r="L84" s="12" t="e">
-        <f t="shared" ref="L84" si="118">AVERAGE(L72:L81)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M84" s="12" t="e">
-        <f t="shared" ref="M84" si="119">AVERAGE(M72:M81)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N84" s="12" t="e">
-        <f t="shared" ref="N84" si="120">AVERAGE(N72:N81)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O84" s="12" t="e">
-        <f t="shared" ref="O84" si="121">AVERAGE(O72:O81)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P84" s="12">
-        <f t="shared" ref="P84" si="122">AVERAGE(P72:P81)</f>
+        <f t="shared" si="20"/>
         <v>1327374.3999999999</v>
       </c>
       <c r="Q84" s="12">
-        <f t="shared" ref="Q84" si="123">AVERAGE(Q72:Q81)</f>
+        <f t="shared" si="20"/>
         <v>2599119.1</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="12">
-        <f t="shared" ref="B85:Q85" si="124">SUM(B72:B81)</f>
-        <v>37648167</v>
+        <f t="shared" ref="B85:Q85" si="21">SUM(B72:B81)</f>
+        <v>12338689</v>
       </c>
       <c r="C85" s="12">
-        <f t="shared" si="124"/>
-        <v>38825679</v>
+        <f t="shared" si="21"/>
+        <v>25442614</v>
       </c>
       <c r="D85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>13366877</v>
       </c>
       <c r="E85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>26833366</v>
       </c>
       <c r="F85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>4357</v>
       </c>
       <c r="G85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>1211</v>
       </c>
       <c r="H85" s="12">
@@ -5103,185 +5106,141 @@
         <v>1463</v>
       </c>
       <c r="J85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>1947</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>10600292</v>
       </c>
       <c r="L85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>13273744</v>
       </c>
       <c r="Q85" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="21"/>
         <v>25991191</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="27">
+      <c r="A86" s="28"/>
+      <c r="B86" s="29">
         <f>SUM(B85:C85)</f>
-        <v>76473846</v>
-      </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="27">
+        <v>37781303</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="29">
         <f>SUM(D85:E85)</f>
         <v>40200243</v>
       </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="27">
+      <c r="E86" s="30"/>
+      <c r="F86" s="29">
         <f>SUM(F85:G85)</f>
         <v>5568</v>
       </c>
-      <c r="G86" s="28"/>
-      <c r="H86" s="27">
+      <c r="G86" s="30"/>
+      <c r="H86" s="29">
         <f>SUM(H85:I85)</f>
         <v>3746</v>
       </c>
-      <c r="I86" s="28"/>
-      <c r="J86" s="27">
+      <c r="I86" s="30"/>
+      <c r="J86" s="29">
         <f>SUM(J85:K85)</f>
         <v>10602239</v>
       </c>
-      <c r="K86" s="28"/>
-      <c r="L86" s="27">
+      <c r="K86" s="30"/>
+      <c r="L86" s="29">
         <f>SUM(L85:M85)</f>
         <v>0</v>
       </c>
-      <c r="M86" s="28"/>
-      <c r="N86" s="27">
+      <c r="M86" s="30"/>
+      <c r="N86" s="29">
         <f>SUM(N85:O85)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="28"/>
-      <c r="P86" s="27">
+      <c r="O86" s="30"/>
+      <c r="P86" s="29">
         <f>SUM(P85:Q85)</f>
         <v>39264935</v>
       </c>
-      <c r="Q86" s="28"/>
+      <c r="Q86" s="30"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="29">
+      <c r="B87" s="35">
         <f>SUM(B86+B69+B52+B35+B18)</f>
-        <v>96120646</v>
-      </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="29">
+        <v>47123898</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="35">
         <f>SUM(D86+D69+D52+D35+D18)</f>
         <v>50565891</v>
       </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="29">
+      <c r="E87" s="36"/>
+      <c r="F87" s="35">
         <f>SUM(F86+F69+F52+F35+F18)</f>
         <v>8615</v>
       </c>
-      <c r="G87" s="30"/>
-      <c r="H87" s="29">
+      <c r="G87" s="36"/>
+      <c r="H87" s="35">
         <f>SUM(H86+H69+H52+H35+H18)</f>
         <v>6067</v>
       </c>
-      <c r="I87" s="30"/>
-      <c r="J87" s="29">
+      <c r="I87" s="36"/>
+      <c r="J87" s="35">
         <f>SUM(J86+J69+J52+J35+J18)</f>
         <v>13423177</v>
       </c>
-      <c r="K87" s="30"/>
-      <c r="L87" s="29">
+      <c r="K87" s="36"/>
+      <c r="L87" s="35">
         <f>SUM(L86+L69+L52+L35+L18)</f>
         <v>0</v>
       </c>
-      <c r="M87" s="30"/>
-      <c r="N87" s="29">
+      <c r="M87" s="36"/>
+      <c r="N87" s="35">
         <f>SUM(N86+N69+N52+N35+N18)</f>
         <v>0</v>
       </c>
-      <c r="O87" s="30"/>
-      <c r="P87" s="29">
+      <c r="O87" s="36"/>
+      <c r="P87" s="35">
         <f>SUM(P86+P69+P52+P35+P18)</f>
         <v>49523557</v>
       </c>
-      <c r="Q87" s="30"/>
+      <c r="Q87" s="36"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F89">
         <f>SUM(B87:Q87)/1000/60/60</f>
-        <v>58.235542500000001</v>
+        <v>44.62533472222222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f>C72/1000/60</f>
+        <v>43.97676666666667</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="66">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="P87:Q87"/>
     <mergeCell ref="B2:P2"/>
@@ -5298,6 +5257,56 @@
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="D87:E87"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H69:I69"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5312,8 +5321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06C49E-93B7-4292-923A-942BC3649656}">
   <dimension ref="B1:Z94"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5326,207 +5335,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="O1" s="46" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="46" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="46" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="31" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="O2" s="31" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="O2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="31" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="31" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="48" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="O3" s="48" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="O3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="48" t="s">
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="48" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="50"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="52"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="51" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="52"/>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="40" t="s">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="40" t="s">
+      <c r="R4" s="50"/>
+      <c r="S4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="41"/>
+      <c r="T4" s="50"/>
       <c r="U4" s="51" t="s">
         <v>33</v>
       </c>
       <c r="V4" s="52"/>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="41"/>
+      <c r="X4" s="50"/>
       <c r="Y4" s="51" t="s">
         <v>33</v>
       </c>
       <c r="Z4" s="52"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="20">
         <f>'Teste 1'!B14</f>
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="20">
         <f>'Teste 1'!B16</f>
-        <v>232.6</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="53"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="14">
         <f>'Teste 1'!B15</f>
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="43"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="20">
         <f>'Teste 1'!J14</f>
         <v>1</v>
@@ -5534,10 +5543,10 @@
       <c r="R5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="53"/>
+      <c r="T5" s="57"/>
       <c r="U5" s="20">
         <f>'Teste 1'!J16</f>
         <v>1.5</v>
@@ -5545,10 +5554,10 @@
       <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="53"/>
+      <c r="X5" s="57"/>
       <c r="Y5" s="20">
         <f>'Teste 1'!J15</f>
         <v>3</v>
@@ -5558,43 +5567,43 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="18">
         <f>'Teste 1'!B31/1000</f>
-        <v>7.7919999999999998</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="18">
         <f>'Teste 1'!B33/1000</f>
-        <v>7.883</v>
+        <v>1.7815999999999999</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="54"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="18">
         <f>'Teste 1'!B32/1000</f>
-        <v>7.9589999999999996</v>
+        <v>1.84</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="45"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="23">
         <f>'Teste 1'!J31</f>
         <v>7</v>
@@ -5602,10 +5611,10 @@
       <c r="R6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="54"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="23">
         <f>'Teste 1'!J33</f>
         <v>7.4</v>
@@ -5613,10 +5622,10 @@
       <c r="V6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="54" t="s">
+      <c r="W6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="54"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="23">
         <f>'Teste 1'!J32</f>
         <v>9</v>
@@ -5626,43 +5635,43 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="18">
         <f>'Teste 1'!B48 /1000</f>
-        <v>28.648</v>
+        <v>6.984</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="18">
         <f>'Teste 1'!B50/1000</f>
-        <v>34.483599999999996</v>
+        <v>7.9418999999999995</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="54"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="18">
         <f>'Teste 1'!B49/1000</f>
-        <v>37.417000000000002</v>
+        <v>13.363</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="23">
         <f>'Teste 1'!J48</f>
         <v>14</v>
@@ -5670,10 +5679,10 @@
       <c r="R7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="54"/>
+      <c r="T7" s="56"/>
       <c r="U7" s="23">
         <f>'Teste 1'!J50</f>
         <v>15.1</v>
@@ -5681,10 +5690,10 @@
       <c r="V7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="54" t="s">
+      <c r="W7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="54"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="23">
         <f>'Teste 1'!J49</f>
         <v>16</v>
@@ -5694,43 +5703,43 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="18">
         <f>'Teste 1'!B65 /1000/60</f>
-        <v>14.843299999999999</v>
+        <v>2.8785333333333329</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="18">
         <f>'Teste 1'!B67/1000/60</f>
-        <v>15.636526666666667</v>
+        <v>4.8830400000000003</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="18">
         <f>'Teste 1'!B66/1000/60</f>
-        <v>16.044383333333332</v>
+        <v>5.3099833333333333</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="45"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="23">
         <f>'Teste 1'!J65</f>
         <v>80</v>
@@ -5738,10 +5747,10 @@
       <c r="R8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="54"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="23">
         <f>'Teste 1'!J67</f>
         <v>82.5</v>
@@ -5749,10 +5758,10 @@
       <c r="V8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="54" t="s">
+      <c r="W8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="54"/>
+      <c r="X8" s="56"/>
       <c r="Y8" s="23">
         <f>'Teste 1'!J66</f>
         <v>85</v>
@@ -5762,43 +5771,43 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="19">
         <f>'Teste 1'!B82/1000/60</f>
-        <v>62.28328333333333</v>
+        <v>17.0808</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="55"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="19">
         <f>'Teste 1'!B84/1000/60</f>
-        <v>62.746945000000004</v>
+        <v>20.564481666666666</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="19">
         <f>'Teste 1'!B83/1000/60</f>
-        <v>63.099966666666667</v>
+        <v>22.509616666666666</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="56" t="s">
+      <c r="O9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="57"/>
+      <c r="P9" s="43"/>
       <c r="Q9" s="21">
         <f>'Teste 1'!J82</f>
         <v>185</v>
@@ -5806,10 +5815,10 @@
       <c r="R9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="56" t="s">
+      <c r="S9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="55"/>
+      <c r="T9" s="53"/>
       <c r="U9" s="21">
         <f>'Teste 1'!J84</f>
         <v>194.7</v>
@@ -5817,10 +5826,10 @@
       <c r="V9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="55" t="s">
+      <c r="W9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="55"/>
+      <c r="X9" s="53"/>
       <c r="Y9" s="21">
         <f>'Teste 1'!J83</f>
         <v>212</v>
@@ -5830,207 +5839,207 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="46" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="46" t="s">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="O10" s="46" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="O10" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="46" t="s">
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="46" t="s">
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="31" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="31" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="O11" s="31" t="s">
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="O11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="31" t="s">
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="31" t="s">
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="48" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="48" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="O12" s="48" t="s">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
+      <c r="O12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="48" t="s">
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="48" t="s">
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="50"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="48"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="52"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="51" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="52"/>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="51" t="s">
         <v>37</v>
       </c>
       <c r="M13" s="52"/>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="41"/>
+      <c r="P13" s="50"/>
       <c r="Q13" s="51" t="s">
         <v>37</v>
       </c>
       <c r="R13" s="52"/>
-      <c r="S13" s="40" t="s">
+      <c r="S13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="41"/>
+      <c r="T13" s="50"/>
       <c r="U13" s="51" t="s">
         <v>37</v>
       </c>
       <c r="V13" s="52"/>
-      <c r="W13" s="40" t="s">
+      <c r="W13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="X13" s="41"/>
+      <c r="X13" s="50"/>
       <c r="Y13" s="51" t="s">
         <v>37</v>
       </c>
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="14">
         <f>'Teste 1'!C14</f>
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="20">
         <f>'Teste 1'!C16</f>
-        <v>224.4</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="14">
         <f>'Teste 1'!C15</f>
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="43"/>
+      <c r="P14" s="45"/>
       <c r="Q14" s="20">
         <f>'Teste 1'!K14</f>
         <v>106</v>
@@ -6038,10 +6047,10 @@
       <c r="R14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="42" t="s">
+      <c r="S14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="43"/>
+      <c r="T14" s="45"/>
       <c r="U14" s="20">
         <f>'Teste 1'!K16</f>
         <v>112.2</v>
@@ -6049,10 +6058,10 @@
       <c r="V14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="W14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="X14" s="43"/>
+      <c r="X14" s="45"/>
       <c r="Y14" s="20">
         <f>'Teste 1'!K15</f>
         <v>131</v>
@@ -6062,43 +6071,43 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="18">
         <f>'Teste 1'!C31/1000</f>
-        <v>6.9660000000000002</v>
+        <v>3.4729999999999999</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="18">
         <f>'Teste 1'!C33/1000</f>
-        <v>7.0561999999999996</v>
+        <v>3.5139999999999998</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="45"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="18">
         <f>'Teste 1'!C32/1000</f>
-        <v>7.202</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="44" t="s">
+      <c r="O15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="45"/>
+      <c r="P15" s="41"/>
       <c r="Q15" s="18">
         <f>'Teste 1'!K31/1000</f>
         <v>2.6480000000000001</v>
@@ -6106,10 +6115,10 @@
       <c r="R15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="44" t="s">
+      <c r="S15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="45"/>
+      <c r="T15" s="41"/>
       <c r="U15" s="18">
         <f>'Teste 1'!K33/1000</f>
         <v>2.6921999999999997</v>
@@ -6117,10 +6126,10 @@
       <c r="V15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W15" s="44" t="s">
+      <c r="W15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="X15" s="45"/>
+      <c r="X15" s="41"/>
       <c r="Y15" s="18">
         <f>'Teste 1'!K32/1000</f>
         <v>2.7669999999999999</v>
@@ -6130,43 +6139,43 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="18">
         <f>'Teste 1'!C48/1000</f>
-        <v>30.192</v>
+        <v>13.914</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="18">
         <f>'Teste 1'!C50/1000</f>
-        <v>33.893599999999999</v>
+        <v>20.123099999999997</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="45"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="18">
         <f>'Teste 1'!C49/1000</f>
-        <v>41.170999999999999</v>
+        <v>27.234999999999999</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="45"/>
+      <c r="P16" s="41"/>
       <c r="Q16" s="18">
         <f>'Teste 1'!K48/1000</f>
         <v>10.545</v>
@@ -6174,10 +6183,10 @@
       <c r="R16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="44" t="s">
+      <c r="S16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="45"/>
+      <c r="T16" s="41"/>
       <c r="U16" s="18">
         <f>'Teste 1'!K50/1000</f>
         <v>10.749799999999999</v>
@@ -6185,10 +6194,10 @@
       <c r="V16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="44" t="s">
+      <c r="W16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="45"/>
+      <c r="X16" s="41"/>
       <c r="Y16" s="18">
         <f>'Teste 1'!K49/1000</f>
         <v>10.956</v>
@@ -6198,43 +6207,43 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="18">
         <f>'Teste 1'!C65/1000/60</f>
-        <v>15.173616666666668</v>
+        <v>6.6406166666666673</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="18">
         <f>'Teste 1'!C67/1000/60</f>
-        <v>15.711916666666667</v>
+        <v>10.12839</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="18">
         <f>'Teste 1'!C66/1000/60</f>
-        <v>16.055183333333336</v>
+        <v>15.781083333333333</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="44" t="s">
+      <c r="O17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="18">
         <f>'Teste 1'!K65/1000/60</f>
         <v>4.4021999999999997</v>
@@ -6242,10 +6251,10 @@
       <c r="R17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="45"/>
+      <c r="T17" s="41"/>
       <c r="U17" s="18">
         <f>'Teste 1'!K67/1000/60</f>
         <v>4.4738849999999992</v>
@@ -6253,10 +6262,10 @@
       <c r="V17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="44" t="s">
+      <c r="W17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="45"/>
+      <c r="X17" s="41"/>
       <c r="Y17" s="18">
         <f>'Teste 1'!K66/1000/60</f>
         <v>4.5504833333333332</v>
@@ -6266,43 +6275,43 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="19">
         <f>'Teste 1'!C82/1000/60</f>
-        <v>63.688633333333335</v>
+        <v>39.336366666666663</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="57"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="19">
         <f>'Teste 1'!C84/1000/60</f>
-        <v>64.709464999999994</v>
+        <v>42.404356666666665</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="57"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="19">
         <f>'Teste 1'!C83/1000/60</f>
-        <v>65.467433333333332</v>
+        <v>44.008900000000004</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="57"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="19">
         <f>'Teste 1'!K82/1000/60</f>
         <v>17.404783333333334</v>
@@ -6310,10 +6319,10 @@
       <c r="R18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="56" t="s">
+      <c r="S18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="57"/>
+      <c r="T18" s="43"/>
       <c r="U18" s="19">
         <f>'Teste 1'!K84/1000/60</f>
         <v>17.667153333333331</v>
@@ -6321,10 +6330,10 @@
       <c r="V18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="56" t="s">
+      <c r="W18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="57"/>
+      <c r="X18" s="43"/>
       <c r="Y18" s="19">
         <f>'Teste 1'!K83/1000/60</f>
         <v>18.221783333333335</v>
@@ -6334,89 +6343,89 @@
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="46" t="s">
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="31" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="31" t="s">
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="48" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="48" t="s">
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="48"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="50"/>
+      <c r="F23" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="41"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="52"/>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="41"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="51" t="s">
         <v>33</v>
       </c>
@@ -6426,10 +6435,10 @@
       <c r="Q23" s="26"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="20">
         <f>'Teste 1'!D14</f>
         <v>69</v>
@@ -6437,10 +6446,10 @@
       <c r="E24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="20">
         <f>'Teste 1'!D16</f>
         <v>72.599999999999994</v>
@@ -6448,10 +6457,10 @@
       <c r="I24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="53"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="20">
         <f>'Teste 1'!D15</f>
         <v>83</v>
@@ -6464,10 +6473,10 @@
       <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="18">
         <f>'Teste 1'!D31/1000</f>
         <v>1.752</v>
@@ -6475,10 +6484,10 @@
       <c r="E25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="54"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="18">
         <f>'Teste 1'!D33/1000</f>
         <v>1.7621</v>
@@ -6486,10 +6495,10 @@
       <c r="I25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="54"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="18">
         <f>'Teste 1'!D32/1000</f>
         <v>1.772</v>
@@ -6502,10 +6511,10 @@
       <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="18">
         <f>'Teste 1'!D48/1000</f>
         <v>7.01</v>
@@ -6513,10 +6522,10 @@
       <c r="E26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="54"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="18">
         <f>'Teste 1'!D50 /1000</f>
         <v>10.083399999999999</v>
@@ -6524,10 +6533,10 @@
       <c r="I26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="54"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="18">
         <f>'Teste 1'!D49 /1000</f>
         <v>13.256</v>
@@ -6540,10 +6549,10 @@
       <c r="Q26" s="26"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="18">
         <f>'Teste 1'!D65/1000/60</f>
         <v>5.5221999999999998</v>
@@ -6551,10 +6560,10 @@
       <c r="E27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="54"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="18">
         <f>'Teste 1'!D67 /1000/60</f>
         <v>5.568975</v>
@@ -6562,10 +6571,10 @@
       <c r="I27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="54"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="18">
         <f>'Teste 1'!D66 /1000/60</f>
         <v>5.6046666666666658</v>
@@ -6578,10 +6587,10 @@
       <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="19">
         <f>'Teste 1'!D82/1000/60</f>
         <v>22.015283333333333</v>
@@ -6589,10 +6598,10 @@
       <c r="E28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="55"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="19">
         <f>'Teste 1'!D84/1000/60</f>
         <v>22.278128333333331</v>
@@ -6600,10 +6609,10 @@
       <c r="I28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="55"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="19">
         <f>'Teste 1'!D83/1000/60</f>
         <v>22.396033333333332</v>
@@ -6613,96 +6622,96 @@
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="46" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="46" t="s">
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="31" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="31" t="s">
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="48" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="48" t="s">
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="52"/>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="51" t="s">
         <v>37</v>
       </c>
       <c r="I32" s="52"/>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="41"/>
+      <c r="K32" s="50"/>
       <c r="L32" s="51" t="s">
         <v>37</v>
       </c>
       <c r="M32" s="52"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="53"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="20">
         <f>'Teste 1'!E14</f>
         <v>139</v>
@@ -6710,10 +6719,10 @@
       <c r="E33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="20">
         <f>'Teste 1'!E16</f>
         <v>141.30000000000001</v>
@@ -6721,10 +6730,10 @@
       <c r="I33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="J33" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="43"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="20">
         <f>'Teste 1'!E15</f>
         <v>145</v>
@@ -6734,10 +6743,10 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="18">
         <f>'Teste 1'!E31/1000</f>
         <v>3.5139999999999998</v>
@@ -6745,10 +6754,10 @@
       <c r="E34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="45"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="18">
         <f>'Teste 1'!E33/1000</f>
         <v>3.5254000000000003</v>
@@ -6756,10 +6765,10 @@
       <c r="I34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="41"/>
       <c r="L34" s="18">
         <f>'Teste 1'!E32/1000</f>
         <v>3.5409999999999999</v>
@@ -6769,10 +6778,10 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="18">
         <f>'Teste 1'!E48 /1000</f>
         <v>14.073</v>
@@ -6780,10 +6789,10 @@
       <c r="E35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="45"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="18">
         <f>'Teste 1'!E50 /1000</f>
         <v>20.570599999999999</v>
@@ -6791,10 +6800,10 @@
       <c r="I35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="45"/>
+      <c r="K35" s="41"/>
       <c r="L35" s="18">
         <f>'Teste 1'!E49 /1000</f>
         <v>26.798999999999999</v>
@@ -6804,10 +6813,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="18">
         <f>'Teste 1'!E65 /1000/60</f>
         <v>11.015983333333333</v>
@@ -6815,10 +6824,10 @@
       <c r="E36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="18">
         <f>'Teste 1'!E67 /1000/60</f>
         <v>11.104514999999999</v>
@@ -6826,10 +6835,10 @@
       <c r="I36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="45"/>
+      <c r="K36" s="41"/>
       <c r="L36" s="18">
         <f>'Teste 1'!E66 /1000/60</f>
         <v>11.222366666666666</v>
@@ -6839,10 +6848,10 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="19">
         <f>'Teste 1'!E82/1000/60</f>
         <v>44.532000000000004</v>
@@ -6850,10 +6859,10 @@
       <c r="E37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="57"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="19">
         <f>'Teste 1'!E84/1000/60</f>
         <v>44.722276666666666</v>
@@ -6861,10 +6870,10 @@
       <c r="I37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="56" t="s">
+      <c r="J37" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="57"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="19">
         <f>'Teste 1'!E83/1000/60</f>
         <v>44.845966666666662</v>
@@ -6874,96 +6883,96 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="46" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="46" t="s">
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="31" t="s">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="31" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="33"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="48" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="48" t="s">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="48"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="40" t="s">
+      <c r="C42" s="50"/>
+      <c r="D42" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="40" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="41"/>
+      <c r="G42" s="50"/>
       <c r="H42" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I42" s="52"/>
-      <c r="J42" s="40" t="s">
+      <c r="J42" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="41"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="51" t="s">
         <v>33</v>
       </c>
       <c r="M42" s="52"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="43"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="20">
         <f>'Teste 1'!H14</f>
         <v>1</v>
@@ -6971,10 +6980,10 @@
       <c r="E43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="57"/>
       <c r="H43" s="20">
         <f>'Teste 1'!I16</f>
         <v>1</v>
@@ -6982,10 +6991,10 @@
       <c r="I43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="53" t="s">
+      <c r="J43" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="53"/>
+      <c r="K43" s="57"/>
       <c r="L43" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
@@ -6995,10 +7004,10 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="18">
         <f>'Teste 1'!H31/1000</f>
         <v>8.0000000000000002E-3</v>
@@ -7006,10 +7015,10 @@
       <c r="E44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="54"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="18">
         <f>'Teste 1'!I33/1000</f>
         <v>6.4000000000000003E-3</v>
@@ -7017,10 +7026,10 @@
       <c r="I44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="54" t="s">
+      <c r="J44" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="54"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="18">
         <f>'Teste 1'!I32/1000</f>
         <v>8.0000000000000002E-3</v>
@@ -7030,10 +7039,10 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="18">
         <f>'Teste 1'!H48 /1000</f>
         <v>1.7999999999999999E-2</v>
@@ -7041,10 +7050,10 @@
       <c r="E45" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="54"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="18">
         <f>'Teste 1'!I50 /1000</f>
         <v>1.14E-2</v>
@@ -7052,10 +7061,10 @@
       <c r="I45" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="54" t="s">
+      <c r="J45" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="54"/>
+      <c r="K45" s="56"/>
       <c r="L45" s="18">
         <f>'Teste 1'!I49 /1000</f>
         <v>1.2999999999999999E-2</v>
@@ -7065,10 +7074,10 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="45"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="18">
         <f>'Teste 1'!H65 /1000/60</f>
         <v>1.7166666666666665E-3</v>
@@ -7076,10 +7085,10 @@
       <c r="E46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="54"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="18">
         <f>'Teste 1'!I67 /1000/60</f>
         <v>1.2583333333333333E-3</v>
@@ -7087,10 +7096,10 @@
       <c r="I46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="54" t="s">
+      <c r="J46" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="54"/>
+      <c r="K46" s="56"/>
       <c r="L46" s="18">
         <f>'Teste 1'!I66 /1000/60</f>
         <v>1.3666666666666666E-3</v>
@@ -7100,10 +7109,10 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="57"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="19">
         <f>'Teste 1'!H82/1000/60</f>
         <v>3.6666666666666666E-3</v>
@@ -7111,10 +7120,10 @@
       <c r="E47" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="55"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="19">
         <f>'Teste 1'!I84/1000/60</f>
         <v>2.4383333333333336E-3</v>
@@ -7122,10 +7131,10 @@
       <c r="I47" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="55" t="s">
+      <c r="J47" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="55"/>
+      <c r="K47" s="53"/>
       <c r="L47" s="19">
         <f>'Teste 1'!I83/1000/60</f>
         <v>2.5666666666666667E-3</v>
@@ -7135,96 +7144,96 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="46" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="46" t="s">
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="31" t="s">
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="31" t="s">
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="33"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="39"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="48" t="s">
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="48" t="s">
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="50"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="48"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="52"/>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="41"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="51" t="s">
         <v>37</v>
       </c>
       <c r="I51" s="52"/>
-      <c r="J51" s="40" t="s">
+      <c r="J51" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="41"/>
+      <c r="K51" s="50"/>
       <c r="L51" s="51" t="s">
         <v>37</v>
       </c>
       <c r="M51" s="52"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="53"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="20">
         <f>'Teste 1'!I14</f>
         <v>1</v>
@@ -7232,10 +7241,10 @@
       <c r="E52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="53" t="s">
+      <c r="F52" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="43"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="20">
         <f>'Teste 1'!I16</f>
         <v>1</v>
@@ -7243,10 +7252,10 @@
       <c r="I52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="42" t="s">
+      <c r="J52" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="43"/>
+      <c r="K52" s="45"/>
       <c r="L52" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
@@ -7256,10 +7265,10 @@
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="18">
         <f>'Teste 1'!I31/1000</f>
         <v>5.0000000000000001E-3</v>
@@ -7267,10 +7276,10 @@
       <c r="E53" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="45"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="18">
         <f>'Teste 1'!I33/1000</f>
         <v>6.4000000000000003E-3</v>
@@ -7278,10 +7287,10 @@
       <c r="I53" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J53" s="44" t="s">
+      <c r="J53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="45"/>
+      <c r="K53" s="41"/>
       <c r="L53" s="18">
         <f>'Teste 1'!I32/1000</f>
         <v>8.0000000000000002E-3</v>
@@ -7291,10 +7300,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="18">
         <f>'Teste 1'!I48/1000</f>
         <v>1.0999999999999999E-2</v>
@@ -7302,10 +7311,10 @@
       <c r="E54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="F54" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="45"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="18">
         <f>'Teste 1'!I50 /1000</f>
         <v>1.14E-2</v>
@@ -7313,10 +7322,10 @@
       <c r="I54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="44" t="s">
+      <c r="J54" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="45"/>
+      <c r="K54" s="41"/>
       <c r="L54" s="18">
         <f>'Teste 1'!I49 /1000</f>
         <v>1.2999999999999999E-2</v>
@@ -7326,10 +7335,10 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="18">
         <f>'Teste 1'!I65/1000/60</f>
         <v>1.1666666666666668E-3</v>
@@ -7337,10 +7346,10 @@
       <c r="E55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="F55" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="45"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="18">
         <f>'Teste 1'!I67 /1000/60</f>
         <v>1.2583333333333333E-3</v>
@@ -7348,10 +7357,10 @@
       <c r="I55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="44" t="s">
+      <c r="J55" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="45"/>
+      <c r="K55" s="41"/>
       <c r="L55" s="18">
         <f>'Teste 1'!I66/1000/60</f>
         <v>1.3666666666666666E-3</v>
@@ -7361,10 +7370,10 @@
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="55"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="19">
         <f>'Teste 1'!I82/1000/60</f>
         <v>2.2166666666666667E-3</v>
@@ -7372,10 +7381,10 @@
       <c r="E56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="57"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="19">
         <f>'Teste 1'!I84/1000/60</f>
         <v>2.4383333333333336E-3</v>
@@ -7383,10 +7392,10 @@
       <c r="I56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="56" t="s">
+      <c r="J56" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="57"/>
+      <c r="K56" s="43"/>
       <c r="L56" s="19">
         <f>'Teste 1'!I83/1000/60</f>
         <v>2.5666666666666667E-3</v>
@@ -7396,96 +7405,96 @@
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="46" t="s">
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="46" t="s">
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="31" t="s">
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="31" t="s">
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="33"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="39"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="48" t="s">
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="48" t="s">
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="50"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="48"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="40" t="s">
+      <c r="C61" s="50"/>
+      <c r="D61" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="41"/>
-      <c r="F61" s="40" t="s">
+      <c r="E61" s="50"/>
+      <c r="F61" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="41"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I61" s="52"/>
-      <c r="J61" s="40" t="s">
+      <c r="J61" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="41"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="51" t="s">
         <v>33</v>
       </c>
       <c r="M61" s="52"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="43"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="20">
         <f>'Teste 1'!F14</f>
         <v>1</v>
@@ -7493,10 +7502,10 @@
       <c r="E62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="42" t="s">
+      <c r="F62" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="53"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="20">
         <f>'Teste 1'!F16</f>
         <v>1.2</v>
@@ -7504,10 +7513,10 @@
       <c r="I62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="53" t="s">
+      <c r="J62" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="53"/>
+      <c r="K62" s="57"/>
       <c r="L62" s="20">
         <f>'Teste 1'!F15</f>
         <v>2</v>
@@ -7517,10 +7526,10 @@
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="45"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="23">
         <f>'Teste 1'!F31</f>
         <v>9</v>
@@ -7528,10 +7537,10 @@
       <c r="E63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="54"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="23">
         <f>'Teste 1'!F33</f>
         <v>9.9</v>
@@ -7539,10 +7548,10 @@
       <c r="I63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="54" t="s">
+      <c r="J63" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="54"/>
+      <c r="K63" s="56"/>
       <c r="L63" s="23">
         <f>'Teste 1'!F32</f>
         <v>11</v>
@@ -7552,10 +7561,10 @@
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="45"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="23">
         <f>'Teste 1'!F48</f>
         <v>27</v>
@@ -7563,10 +7572,10 @@
       <c r="E64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="54"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="23">
         <f>'Teste 1'!F50</f>
         <v>28.6</v>
@@ -7574,10 +7583,10 @@
       <c r="I64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J64" s="54" t="s">
+      <c r="J64" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="54"/>
+      <c r="K64" s="56"/>
       <c r="L64" s="23">
         <f>'Teste 1'!F49</f>
         <v>30</v>
@@ -7587,10 +7596,10 @@
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="45"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="23">
         <f>'Teste 1'!F65</f>
         <v>184</v>
@@ -7598,10 +7607,10 @@
       <c r="E65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="54"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="23">
         <f>'Teste 1'!F67</f>
         <v>197.2</v>
@@ -7609,10 +7618,10 @@
       <c r="I65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="54" t="s">
+      <c r="J65" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="54"/>
+      <c r="K65" s="56"/>
       <c r="L65" s="23">
         <f>'Teste 1'!F66</f>
         <v>209</v>
@@ -7622,10 +7631,10 @@
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="57"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="21">
         <f>'Teste 1'!F82</f>
         <v>422</v>
@@ -7633,10 +7642,10 @@
       <c r="E66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="56" t="s">
+      <c r="F66" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="55"/>
+      <c r="G66" s="53"/>
       <c r="H66" s="21">
         <f>'Teste 1'!F84</f>
         <v>435.7</v>
@@ -7644,10 +7653,10 @@
       <c r="I66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="55" t="s">
+      <c r="J66" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="55"/>
+      <c r="K66" s="53"/>
       <c r="L66" s="21">
         <f>'Teste 1'!F83</f>
         <v>454</v>
@@ -7657,96 +7666,96 @@
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="46" t="s">
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="46" t="s">
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="31" t="s">
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="31" t="s">
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="33"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="39"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="48" t="s">
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="48" t="s">
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="50"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="48"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="41"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E70" s="52"/>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="41"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="51" t="s">
         <v>37</v>
       </c>
       <c r="I70" s="52"/>
-      <c r="J70" s="40" t="s">
+      <c r="J70" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="41"/>
+      <c r="K70" s="50"/>
       <c r="L70" s="51" t="s">
         <v>37</v>
       </c>
       <c r="M70" s="52"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="43"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="20">
         <f>'Teste 1'!G14</f>
         <v>0</v>
@@ -7754,10 +7763,10 @@
       <c r="E71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="42" t="s">
+      <c r="F71" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="53"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="20">
         <f>'Teste 1'!G16</f>
         <v>0.6</v>
@@ -7765,10 +7774,10 @@
       <c r="I71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="53" t="s">
+      <c r="J71" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="53"/>
+      <c r="K71" s="57"/>
       <c r="L71" s="20">
         <f>'Teste 1'!G15</f>
         <v>1</v>
@@ -7778,10 +7787,10 @@
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="45"/>
+      <c r="C72" s="41"/>
       <c r="D72" s="23">
         <f>'Teste 1'!G31</f>
         <v>2</v>
@@ -7789,10 +7798,10 @@
       <c r="E72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="44" t="s">
+      <c r="F72" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="54"/>
+      <c r="G72" s="56"/>
       <c r="H72" s="23">
         <f>'Teste 1'!G33</f>
         <v>2.8</v>
@@ -7800,10 +7809,10 @@
       <c r="I72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="54" t="s">
+      <c r="J72" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="54"/>
+      <c r="K72" s="56"/>
       <c r="L72" s="23">
         <f>'Teste 1'!G32</f>
         <v>4</v>
@@ -7813,10 +7822,10 @@
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="45"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="23">
         <f>'Teste 1'!G48</f>
         <v>7</v>
@@ -7824,10 +7833,10 @@
       <c r="E73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="54"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="23">
         <f>'Teste 1'!G50</f>
         <v>9.1</v>
@@ -7835,10 +7844,10 @@
       <c r="I73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="54" t="s">
+      <c r="J73" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="54"/>
+      <c r="K73" s="56"/>
       <c r="L73" s="23">
         <f>'Teste 1'!G49</f>
         <v>11</v>
@@ -7848,10 +7857,10 @@
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="45"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="23">
         <f>'Teste 1'!G65</f>
         <v>49</v>
@@ -7859,10 +7868,10 @@
       <c r="E74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="44" t="s">
+      <c r="F74" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="54"/>
+      <c r="G74" s="56"/>
       <c r="H74" s="23">
         <f>'Teste 1'!G67</f>
         <v>55.3</v>
@@ -7870,10 +7879,10 @@
       <c r="I74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="54" t="s">
+      <c r="J74" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="54"/>
+      <c r="K74" s="56"/>
       <c r="L74" s="23">
         <f>'Teste 1'!G66</f>
         <v>62</v>
@@ -7883,10 +7892,10 @@
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="21">
         <f>'Teste 1'!G82</f>
         <v>114</v>
@@ -7894,10 +7903,10 @@
       <c r="E75" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="56" t="s">
+      <c r="F75" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="55"/>
+      <c r="G75" s="53"/>
       <c r="H75" s="21">
         <f>'Teste 1'!G84</f>
         <v>121.1</v>
@@ -7905,10 +7914,10 @@
       <c r="I75" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J75" s="55" t="s">
+      <c r="J75" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="55"/>
+      <c r="K75" s="53"/>
       <c r="L75" s="21">
         <f>'Teste 1'!G83</f>
         <v>128</v>
@@ -7918,96 +7927,96 @@
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="46" t="s">
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="46" t="s">
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="31" t="s">
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="31" t="s">
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="33"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="39"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="48" t="s">
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="48" t="s">
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="50"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="48"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="40" t="s">
+      <c r="C80" s="50"/>
+      <c r="D80" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="40" t="s">
+      <c r="E80" s="50"/>
+      <c r="F80" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="41"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="51" t="s">
         <v>33</v>
       </c>
       <c r="I80" s="52"/>
-      <c r="J80" s="40" t="s">
+      <c r="J80" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K80" s="41"/>
+      <c r="K80" s="50"/>
       <c r="L80" s="51" t="s">
         <v>33</v>
       </c>
       <c r="M80" s="52"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="43"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="20">
         <f>'Teste 1'!P14</f>
         <v>69</v>
@@ -8015,10 +8024,10 @@
       <c r="E81" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="F81" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="53"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="20">
         <f>'Teste 1'!P16</f>
         <v>72.099999999999994</v>
@@ -8026,10 +8035,10 @@
       <c r="I81" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J81" s="53" t="s">
+      <c r="J81" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="53"/>
+      <c r="K81" s="57"/>
       <c r="L81" s="20">
         <f>'Teste 1'!P15</f>
         <v>76</v>
@@ -8039,10 +8048,10 @@
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="45"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="18">
         <f>'Teste 1'!P31/1000</f>
         <v>1.75</v>
@@ -8050,10 +8059,10 @@
       <c r="E82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="54"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="18">
         <f>'Teste 1'!P33/1000</f>
         <v>1.7642</v>
@@ -8061,10 +8070,10 @@
       <c r="I82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="54" t="s">
+      <c r="J82" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K82" s="54"/>
+      <c r="K82" s="56"/>
       <c r="L82" s="18">
         <f>'Teste 1'!P32/1000</f>
         <v>1.7869999999999999</v>
@@ -8074,10 +8083,10 @@
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="45"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="18">
         <f>'Teste 1'!P48/1000</f>
         <v>7.0060000000000002</v>
@@ -8085,10 +8094,10 @@
       <c r="E83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="44" t="s">
+      <c r="F83" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="54"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="18">
         <f>'Teste 1'!P50/1000</f>
         <v>8.4446000000000012</v>
@@ -8096,10 +8105,10 @@
       <c r="I83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J83" s="54" t="s">
+      <c r="J83" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="54"/>
+      <c r="K83" s="56"/>
       <c r="L83" s="18">
         <f>'Teste 1'!P49/1000</f>
         <v>13.428000000000001</v>
@@ -8109,10 +8118,10 @@
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="44" t="s">
+      <c r="B84" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="45"/>
+      <c r="C84" s="41"/>
       <c r="D84" s="18">
         <f>'Teste 1'!P65/1000/60</f>
         <v>5.1648333333333332</v>
@@ -8120,10 +8129,10 @@
       <c r="E84" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="54"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="18">
         <f>'Teste 1'!P67/1000/60</f>
         <v>5.4789583333333338</v>
@@ -8131,10 +8140,10 @@
       <c r="I84" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="54" t="s">
+      <c r="J84" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="54"/>
+      <c r="K84" s="56"/>
       <c r="L84" s="18">
         <f>'Teste 1'!P66/1000/60</f>
         <v>5.6036666666666672</v>
@@ -8144,10 +8153,10 @@
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="57"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="19">
         <f>'Teste 1'!P82/1000/60</f>
         <v>21.316183333333335</v>
@@ -8155,10 +8164,10 @@
       <c r="E85" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F85" s="56" t="s">
+      <c r="F85" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="55"/>
+      <c r="G85" s="53"/>
       <c r="H85" s="19">
         <f>'Teste 1'!P84/1000/60</f>
         <v>22.122906666666665</v>
@@ -8166,10 +8175,10 @@
       <c r="I85" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J85" s="55" t="s">
+      <c r="J85" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="55"/>
+      <c r="K85" s="53"/>
       <c r="L85" s="19">
         <f>'Teste 1'!P83/1000/60</f>
         <v>22.434033333333332</v>
@@ -8179,96 +8188,96 @@
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="46" t="s">
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="46" t="s">
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="31" t="s">
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="31" t="s">
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="33"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="39"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="48" t="s">
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="48" t="s">
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="50"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="48"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="41"/>
+      <c r="C89" s="50"/>
       <c r="D89" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E89" s="52"/>
-      <c r="F89" s="40" t="s">
+      <c r="F89" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G89" s="41"/>
+      <c r="G89" s="50"/>
       <c r="H89" s="51" t="s">
         <v>37</v>
       </c>
       <c r="I89" s="52"/>
-      <c r="J89" s="40" t="s">
+      <c r="J89" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K89" s="41"/>
+      <c r="K89" s="50"/>
       <c r="L89" s="51" t="s">
         <v>37</v>
       </c>
       <c r="M89" s="52"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="53"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="20">
         <f>'Teste 1'!Q14</f>
         <v>139</v>
@@ -8276,10 +8285,10 @@
       <c r="E90" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="53" t="s">
+      <c r="F90" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="53"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="20">
         <f>'Teste 1'!Q16</f>
         <v>143.5</v>
@@ -8287,10 +8296,10 @@
       <c r="I90" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J90" s="53" t="s">
+      <c r="J90" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="53"/>
+      <c r="K90" s="57"/>
       <c r="L90" s="20">
         <f>'Teste 1'!Q15</f>
         <v>147</v>
@@ -8300,10 +8309,10 @@
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="54"/>
+      <c r="C91" s="56"/>
       <c r="D91" s="18">
         <f>'Teste 1'!Q31/1000</f>
         <v>3.4990000000000001</v>
@@ -8311,10 +8320,10 @@
       <c r="E91" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="54" t="s">
+      <c r="F91" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="54"/>
+      <c r="G91" s="56"/>
       <c r="H91" s="23">
         <f>'Teste 1'!Q33/1000</f>
         <v>3.5219999999999998</v>
@@ -8322,10 +8331,10 @@
       <c r="I91" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J91" s="54" t="s">
+      <c r="J91" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K91" s="54"/>
+      <c r="K91" s="56"/>
       <c r="L91" s="18">
         <f>'Teste 1'!Q33/1000</f>
         <v>3.5219999999999998</v>
@@ -8335,10 +8344,10 @@
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="54"/>
+      <c r="C92" s="56"/>
       <c r="D92" s="18">
         <f>'Teste 1'!Q48/1000</f>
         <v>15.521000000000001</v>
@@ -8346,10 +8355,10 @@
       <c r="E92" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="54"/>
+      <c r="G92" s="56"/>
       <c r="H92" s="23">
         <f>'Teste 1'!Q50/1000</f>
         <v>19.9346</v>
@@ -8357,10 +8366,10 @@
       <c r="I92" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J92" s="54" t="s">
+      <c r="J92" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="54"/>
+      <c r="K92" s="56"/>
       <c r="L92" s="18">
         <f>'Teste 1'!Q50/1000</f>
         <v>19.9346</v>
@@ -8370,10 +8379,10 @@
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="54"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="18">
         <f>'Teste 1'!Q65/1000/60</f>
         <v>10.9331</v>
@@ -8381,10 +8390,10 @@
       <c r="E93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F93" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="54"/>
+      <c r="G93" s="56"/>
       <c r="H93" s="23">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>11.054061666666666</v>
@@ -8392,10 +8401,10 @@
       <c r="I93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J93" s="54" t="s">
+      <c r="J93" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="54"/>
+      <c r="K93" s="56"/>
       <c r="L93" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>11.054061666666666</v>
@@ -8405,10 +8414,10 @@
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="55"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="19">
         <f>'Teste 1'!Q82/1000/60</f>
         <v>38.161749999999998</v>
@@ -8416,10 +8425,10 @@
       <c r="E94" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="55" t="s">
+      <c r="F94" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="55"/>
+      <c r="G94" s="53"/>
       <c r="H94" s="21">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>43.318651666666668</v>
@@ -8427,10 +8436,10 @@
       <c r="I94" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J94" s="55" t="s">
+      <c r="J94" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="55"/>
+      <c r="K94" s="53"/>
       <c r="L94" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>43.318651666666668</v>
@@ -8441,6 +8450,351 @@
     </row>
   </sheetData>
   <mergeCells count="360">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="W17:X17"/>
@@ -8456,351 +8810,6 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="W16:X16"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eu\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5EE03E-5218-4F78-827B-476561DEF916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F9AE0-4223-42F6-BF0D-1A5B920D6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -912,10 +911,10 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1043,10 @@
         <v>144</v>
       </c>
       <c r="D4" s="1">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="E4" s="1">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1067,15 +1066,23 @@
       <c r="K4" s="1">
         <v>108</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>109</v>
+      </c>
       <c r="P4" s="1">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="1">
-        <v>145</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1089,10 +1096,10 @@
         <v>143</v>
       </c>
       <c r="D5" s="1">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1112,15 +1119,23 @@
       <c r="K5" s="1">
         <v>106</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>110</v>
+      </c>
       <c r="P5" s="1">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="1">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1134,13 +1149,13 @@
         <v>142</v>
       </c>
       <c r="D6" s="1">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="E6" s="1">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1157,15 +1172,23 @@
       <c r="K6" s="1">
         <v>108</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>108</v>
+      </c>
       <c r="P6" s="1">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="Q6" s="1">
-        <v>139</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1179,10 +1202,10 @@
         <v>142</v>
       </c>
       <c r="D7" s="1">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1202,15 +1225,23 @@
       <c r="K7" s="1">
         <v>108</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>107</v>
+      </c>
       <c r="P7" s="1">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="1">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1224,13 +1255,13 @@
         <v>142</v>
       </c>
       <c r="D8" s="1">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E8" s="1">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1247,15 +1278,23 @@
       <c r="K8" s="1">
         <v>110</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>108</v>
+      </c>
       <c r="P8" s="1">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="1">
-        <v>141</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1269,13 +1308,13 @@
         <v>139</v>
       </c>
       <c r="D9" s="1">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="E9" s="1">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1292,15 +1331,23 @@
       <c r="K9" s="1">
         <v>111</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>108</v>
+      </c>
       <c r="P9" s="1">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="1">
-        <v>145</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1314,10 +1361,10 @@
         <v>138</v>
       </c>
       <c r="D10" s="1">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="E10" s="1">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1337,15 +1384,23 @@
       <c r="K10" s="1">
         <v>116</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>108</v>
+      </c>
       <c r="P10" s="1">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="1">
-        <v>146</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1359,16 +1414,16 @@
         <v>143</v>
       </c>
       <c r="D11" s="1">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="E11" s="1">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
@@ -1382,15 +1437,23 @@
       <c r="K11" s="1">
         <v>131</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>108</v>
+      </c>
       <c r="P11" s="1">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="1">
-        <v>145</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1404,16 +1467,16 @@
         <v>144</v>
       </c>
       <c r="D12" s="1">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="E12" s="1">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
@@ -1427,15 +1490,23 @@
       <c r="K12" s="1">
         <v>117</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>107</v>
+      </c>
       <c r="P12" s="1">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="1">
-        <v>146</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1449,16 +1520,16 @@
         <v>145</v>
       </c>
       <c r="D13" s="1">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="E13" s="1">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -1472,15 +1543,23 @@
       <c r="K13" s="1">
         <v>107</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>108</v>
+      </c>
       <c r="P13" s="1">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="1">
-        <v>147</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1497,11 +1576,11 @@
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
@@ -1527,29 +1606,29 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="L14" s="12" t="e">
+      <c r="L14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M14" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O14" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>107</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1566,11 +1645,11 @@
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="E15" s="12">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
@@ -1596,29 +1675,29 @@
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="L15" s="12" t="e">
+      <c r="L15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M15" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="M15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O15" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="O15" s="12">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>110</v>
       </c>
       <c r="P15" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="12">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1635,19 +1714,19 @@
       </c>
       <c r="D16" s="12">
         <f t="shared" si="2"/>
-        <v>72.599999999999994</v>
+        <v>234.7</v>
       </c>
       <c r="E16" s="12">
         <f t="shared" si="2"/>
-        <v>141.30000000000001</v>
+        <v>229.1</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" si="2"/>
@@ -1665,29 +1744,29 @@
         <f t="shared" si="2"/>
         <v>112.2</v>
       </c>
-      <c r="L16" s="12" t="e">
+      <c r="L16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="12" t="e">
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="12" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="12" t="e">
+        <v>1.5</v>
+      </c>
+      <c r="O16" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>108.1</v>
       </c>
       <c r="P16" s="12">
         <f t="shared" si="2"/>
-        <v>72.099999999999994</v>
+        <v>195.7</v>
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="2"/>
-        <v>143.5</v>
+        <v>238.8</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1704,19 +1783,19 @@
       </c>
       <c r="D17" s="12">
         <f t="shared" si="3"/>
-        <v>726</v>
+        <v>2347</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="3"/>
-        <v>1413</v>
+        <v>2291</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" si="3"/>
@@ -1736,27 +1815,27 @@
       </c>
       <c r="L17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="P17" s="12">
         <f t="shared" si="3"/>
-        <v>721</v>
+        <v>1957</v>
       </c>
       <c r="Q17" s="12">
         <f t="shared" si="3"/>
-        <v>1435</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1768,12 +1847,12 @@
       <c r="C18" s="30"/>
       <c r="D18" s="29">
         <f>SUM(D17:E17)</f>
-        <v>2139</v>
+        <v>4638</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="29">
         <f>SUM(F17:G17)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="29">
@@ -1788,17 +1867,17 @@
       <c r="K18" s="30"/>
       <c r="L18" s="29">
         <f>SUM(L17:M17)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="29">
         <f>SUM(N17:O17)</f>
-        <v>0</v>
+        <v>1096</v>
       </c>
       <c r="O18" s="30"/>
       <c r="P18" s="29">
         <f>SUM(P17:Q17)</f>
-        <v>2156</v>
+        <v>4345</v>
       </c>
       <c r="Q18" s="30"/>
     </row>
@@ -1889,10 +1968,10 @@
         <v>3512</v>
       </c>
       <c r="D21" s="1">
-        <v>1770</v>
+        <v>6767</v>
       </c>
       <c r="E21" s="1">
-        <v>3541</v>
+        <v>5834</v>
       </c>
       <c r="F21" s="1">
         <v>10</v>
@@ -1912,15 +1991,23 @@
       <c r="K21" s="1">
         <v>2655</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="L21" s="1">
+        <v>8</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>7</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2701</v>
+      </c>
       <c r="P21" s="1">
-        <v>1787</v>
+        <v>5409</v>
       </c>
       <c r="Q21" s="1">
-        <v>3555</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1934,10 +2021,10 @@
         <v>3501</v>
       </c>
       <c r="D22" s="1">
-        <v>1757</v>
+        <v>6821</v>
       </c>
       <c r="E22" s="1">
-        <v>3527</v>
+        <v>5783</v>
       </c>
       <c r="F22" s="1">
         <v>9</v>
@@ -1957,15 +2044,23 @@
       <c r="K22" s="1">
         <v>2657</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="L22" s="1">
+        <v>8</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>8</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2690</v>
+      </c>
       <c r="P22" s="1">
-        <v>1766</v>
+        <v>5354</v>
       </c>
       <c r="Q22" s="1">
-        <v>3507</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1979,10 +2074,10 @@
         <v>3473</v>
       </c>
       <c r="D23" s="1">
-        <v>1770</v>
+        <v>6949</v>
       </c>
       <c r="E23" s="1">
-        <v>3518</v>
+        <v>5696</v>
       </c>
       <c r="F23" s="1">
         <v>9</v>
@@ -2002,15 +2097,23 @@
       <c r="K23" s="1">
         <v>2674</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="L23" s="1">
+        <v>8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>8</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2700</v>
+      </c>
       <c r="P23" s="1">
-        <v>1775</v>
+        <v>5363</v>
       </c>
       <c r="Q23" s="1">
-        <v>3521</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2024,10 +2127,10 @@
         <v>3500</v>
       </c>
       <c r="D24" s="1">
-        <v>1755</v>
+        <v>6834</v>
       </c>
       <c r="E24" s="1">
-        <v>3520</v>
+        <v>5651</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
@@ -2047,15 +2150,23 @@
       <c r="K24" s="1">
         <v>2691</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="L24" s="1">
+        <v>8</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>7</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2695</v>
+      </c>
       <c r="P24" s="1">
-        <v>1757</v>
+        <v>5360</v>
       </c>
       <c r="Q24" s="1">
-        <v>3526</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2069,10 +2180,10 @@
         <v>3486</v>
       </c>
       <c r="D25" s="1">
-        <v>1771</v>
+        <v>6836</v>
       </c>
       <c r="E25" s="1">
-        <v>3514</v>
+        <v>5687</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
@@ -2092,15 +2203,23 @@
       <c r="K25" s="1">
         <v>2648</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="L25" s="1">
+        <v>8</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>9</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2735</v>
+      </c>
       <c r="P25" s="1">
-        <v>1751</v>
+        <v>5373</v>
       </c>
       <c r="Q25" s="1">
-        <v>3499</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2114,10 +2233,10 @@
         <v>3543</v>
       </c>
       <c r="D26" s="1">
-        <v>1758</v>
+        <v>6962</v>
       </c>
       <c r="E26" s="1">
-        <v>3523</v>
+        <v>5696</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
@@ -2137,15 +2256,23 @@
       <c r="K26" s="1">
         <v>2715</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="L26" s="1">
+        <v>8</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>8</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2697</v>
+      </c>
       <c r="P26" s="1">
-        <v>1750</v>
+        <v>5430</v>
       </c>
       <c r="Q26" s="1">
-        <v>3517</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2159,10 +2286,10 @@
         <v>3538</v>
       </c>
       <c r="D27" s="1">
-        <v>1757</v>
+        <v>6866</v>
       </c>
       <c r="E27" s="1">
-        <v>3529</v>
+        <v>5760</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -2182,15 +2309,23 @@
       <c r="K27" s="1">
         <v>2691</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="L27" s="1">
+        <v>8</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>8</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2687</v>
+      </c>
       <c r="P27" s="1">
-        <v>1769</v>
+        <v>5357</v>
       </c>
       <c r="Q27" s="1">
-        <v>3523</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2204,10 +2339,10 @@
         <v>3499</v>
       </c>
       <c r="D28" s="1">
-        <v>1752</v>
+        <v>6902</v>
       </c>
       <c r="E28" s="1">
-        <v>3537</v>
+        <v>5724</v>
       </c>
       <c r="F28" s="1">
         <v>11</v>
@@ -2227,15 +2362,23 @@
       <c r="K28" s="1">
         <v>2723</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="L28" s="1">
+        <v>8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1">
+        <v>8</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2688</v>
+      </c>
       <c r="P28" s="1">
-        <v>1758</v>
+        <v>5373</v>
       </c>
       <c r="Q28" s="1">
-        <v>3545</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2249,10 +2392,10 @@
         <v>3490</v>
       </c>
       <c r="D29" s="1">
-        <v>1772</v>
+        <v>6820</v>
       </c>
       <c r="E29" s="1">
-        <v>3514</v>
+        <v>5900</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
@@ -2272,15 +2415,23 @@
       <c r="K29" s="1">
         <v>2767</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="L29" s="1">
+        <v>8</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>8</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2682</v>
+      </c>
       <c r="P29" s="1">
-        <v>1774</v>
+        <v>5359</v>
       </c>
       <c r="Q29" s="1">
-        <v>3503</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2294,10 +2445,10 @@
         <v>3598</v>
       </c>
       <c r="D30" s="2">
-        <v>1759</v>
+        <v>6849</v>
       </c>
       <c r="E30" s="2">
-        <v>3531</v>
+        <v>5919</v>
       </c>
       <c r="F30" s="2">
         <v>10</v>
@@ -2317,15 +2468,23 @@
       <c r="K30" s="2">
         <v>2701</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="L30" s="2">
+        <v>8</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>8</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2690</v>
+      </c>
       <c r="P30" s="2">
-        <v>1755</v>
+        <v>5381</v>
       </c>
       <c r="Q30" s="2">
-        <v>3524</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2342,11 +2501,11 @@
       </c>
       <c r="D31" s="12">
         <f t="shared" si="4"/>
-        <v>1752</v>
+        <v>6767</v>
       </c>
       <c r="E31" s="12">
         <f t="shared" si="4"/>
-        <v>3514</v>
+        <v>5651</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" si="4"/>
@@ -2371,29 +2530,29 @@
         <f t="shared" si="5"/>
         <v>2648</v>
       </c>
-      <c r="L31" s="12" t="e">
+      <c r="L31" s="12">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M31" s="12" t="e">
+        <v>8</v>
+      </c>
+      <c r="M31" s="12">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N31" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="N31" s="12">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O31" s="12" t="e">
+        <v>7</v>
+      </c>
+      <c r="O31" s="12">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>2682</v>
       </c>
       <c r="P31" s="12">
         <f t="shared" si="5"/>
-        <v>1750</v>
+        <v>5354</v>
       </c>
       <c r="Q31" s="12">
         <f t="shared" si="5"/>
-        <v>3499</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2410,11 +2569,11 @@
       </c>
       <c r="D32" s="12">
         <f t="shared" si="6"/>
-        <v>1772</v>
+        <v>6962</v>
       </c>
       <c r="E32" s="12">
         <f t="shared" si="6"/>
-        <v>3541</v>
+        <v>5919</v>
       </c>
       <c r="F32" s="12">
         <f t="shared" si="6"/>
@@ -2440,29 +2599,29 @@
         <f t="shared" si="6"/>
         <v>2767</v>
       </c>
-      <c r="L32" s="12" t="e">
+      <c r="L32" s="12">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M32" s="12" t="e">
+        <v>8</v>
+      </c>
+      <c r="M32" s="12">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" s="12" t="e">
+        <v>4</v>
+      </c>
+      <c r="N32" s="12">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O32" s="12" t="e">
+        <v>9</v>
+      </c>
+      <c r="O32" s="12">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>2735</v>
       </c>
       <c r="P32" s="12">
         <f t="shared" si="6"/>
-        <v>1787</v>
+        <v>5430</v>
       </c>
       <c r="Q32" s="12">
         <f t="shared" si="6"/>
-        <v>3555</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2479,11 +2638,11 @@
       </c>
       <c r="D33" s="12">
         <f t="shared" si="7"/>
-        <v>1762.1</v>
+        <v>6860.6</v>
       </c>
       <c r="E33" s="12">
         <f t="shared" si="7"/>
-        <v>3525.4</v>
+        <v>5765</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" si="7"/>
@@ -2509,29 +2668,29 @@
         <f t="shared" si="7"/>
         <v>2692.2</v>
       </c>
-      <c r="L33" s="12" t="e">
+      <c r="L33" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="12" t="e">
+        <v>8</v>
+      </c>
+      <c r="M33" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="12" t="e">
+        <v>3</v>
+      </c>
+      <c r="N33" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="12" t="e">
+        <v>7.9</v>
+      </c>
+      <c r="O33" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2696.5</v>
       </c>
       <c r="P33" s="12">
         <f t="shared" si="7"/>
-        <v>1764.2</v>
+        <v>5375.9</v>
       </c>
       <c r="Q33" s="12">
         <f t="shared" si="7"/>
-        <v>3522</v>
+        <v>5947.3</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2548,11 +2707,11 @@
       </c>
       <c r="D34" s="12">
         <f t="shared" si="8"/>
-        <v>17621</v>
+        <v>68606</v>
       </c>
       <c r="E34" s="12">
         <f t="shared" si="8"/>
-        <v>35254</v>
+        <v>57650</v>
       </c>
       <c r="F34" s="12">
         <f t="shared" si="8"/>
@@ -2580,27 +2739,27 @@
       </c>
       <c r="L34" s="12">
         <f t="shared" ref="L34:Q34" si="9">SUM(L21:L30)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M34" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N34" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O34" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>26965</v>
       </c>
       <c r="P34" s="12">
         <f t="shared" si="9"/>
-        <v>17642</v>
+        <v>53759</v>
       </c>
       <c r="Q34" s="12">
         <f t="shared" si="9"/>
-        <v>35220</v>
+        <v>59473</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2612,7 +2771,7 @@
       <c r="C35" s="30"/>
       <c r="D35" s="29">
         <f>SUM(D34:E34)</f>
-        <v>52875</v>
+        <v>126256</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="29">
@@ -2632,17 +2791,17 @@
       <c r="K35" s="30"/>
       <c r="L35" s="29">
         <f>SUM(L34:M34)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M35" s="30"/>
       <c r="N35" s="29">
         <f>SUM(N34:O34)</f>
-        <v>0</v>
+        <v>27044</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="29">
         <f>SUM(P34:Q34)</f>
-        <v>52862</v>
+        <v>113232</v>
       </c>
       <c r="Q35" s="30"/>
     </row>
@@ -2733,10 +2892,10 @@
         <v>26588</v>
       </c>
       <c r="D38" s="1">
-        <v>13160</v>
+        <v>28673</v>
       </c>
       <c r="E38" s="1">
-        <v>14073</v>
+        <v>40309</v>
       </c>
       <c r="F38" s="1">
         <v>28</v>
@@ -2756,15 +2915,23 @@
       <c r="K38" s="1">
         <v>10884</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="L38" s="1">
+        <v>16</v>
+      </c>
+      <c r="M38" s="1">
+        <v>7</v>
+      </c>
+      <c r="N38" s="1">
+        <v>15</v>
+      </c>
+      <c r="O38" s="1">
+        <v>10787</v>
+      </c>
       <c r="P38" s="1">
-        <v>13428</v>
+        <v>22012</v>
       </c>
       <c r="Q38" s="1">
-        <v>17427</v>
+        <v>23654</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2778,10 +2945,10 @@
         <v>14889</v>
       </c>
       <c r="D39" s="1">
-        <v>9033</v>
+        <v>36014</v>
       </c>
       <c r="E39" s="1">
-        <v>26782</v>
+        <v>37873</v>
       </c>
       <c r="F39" s="1">
         <v>29</v>
@@ -2801,15 +2968,23 @@
       <c r="K39" s="1">
         <v>10615</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="L39" s="1">
+        <v>17</v>
+      </c>
+      <c r="M39" s="1">
+        <v>6</v>
+      </c>
+      <c r="N39" s="1">
+        <v>16</v>
+      </c>
+      <c r="O39" s="1">
+        <v>10774</v>
+      </c>
       <c r="P39" s="1">
-        <v>7037</v>
+        <v>21996</v>
       </c>
       <c r="Q39" s="1">
-        <v>16658</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2823,10 +2998,10 @@
         <v>26756</v>
       </c>
       <c r="D40" s="1">
-        <v>8173</v>
+        <v>29068</v>
       </c>
       <c r="E40" s="1">
-        <v>15749</v>
+        <v>42598</v>
       </c>
       <c r="F40" s="1">
         <v>28</v>
@@ -2846,15 +3021,23 @@
       <c r="K40" s="1">
         <v>10630</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="L40" s="1">
+        <v>16</v>
+      </c>
+      <c r="M40" s="1">
+        <v>6</v>
+      </c>
+      <c r="N40" s="1">
+        <v>15</v>
+      </c>
+      <c r="O40" s="1">
+        <v>10853</v>
+      </c>
       <c r="P40" s="1">
-        <v>7109</v>
+        <v>22706</v>
       </c>
       <c r="Q40" s="1">
-        <v>15521</v>
+        <v>23672</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2868,10 +3051,10 @@
         <v>13914</v>
       </c>
       <c r="D41" s="1">
-        <v>7010</v>
+        <v>29068</v>
       </c>
       <c r="E41" s="1">
-        <v>18961</v>
+        <v>23802</v>
       </c>
       <c r="F41" s="1">
         <v>29</v>
@@ -2891,15 +3074,23 @@
       <c r="K41" s="1">
         <v>10644</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="L41" s="1">
+        <v>17</v>
+      </c>
+      <c r="M41" s="1">
+        <v>6</v>
+      </c>
+      <c r="N41" s="1">
+        <v>16</v>
+      </c>
+      <c r="O41" s="1">
+        <v>10759</v>
+      </c>
       <c r="P41" s="1">
-        <v>7027</v>
+        <v>21996</v>
       </c>
       <c r="Q41" s="1">
-        <v>26883</v>
+        <v>23643</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2913,10 +3104,10 @@
         <v>13953</v>
       </c>
       <c r="D42" s="1">
-        <v>13256</v>
+        <v>29038</v>
       </c>
       <c r="E42" s="1">
-        <v>17372</v>
+        <v>23947</v>
       </c>
       <c r="F42" s="1">
         <v>30</v>
@@ -2936,15 +3127,23 @@
       <c r="K42" s="1">
         <v>10956</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="L42" s="1">
+        <v>17</v>
+      </c>
+      <c r="M42" s="1">
+        <v>6</v>
+      </c>
+      <c r="N42" s="1">
+        <v>18</v>
+      </c>
+      <c r="O42" s="1">
+        <v>10836</v>
+      </c>
       <c r="P42" s="1">
-        <v>12157</v>
+        <v>22088</v>
       </c>
       <c r="Q42" s="1">
-        <v>26839</v>
+        <v>23660</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2958,10 +3157,10 @@
         <v>26389</v>
       </c>
       <c r="D43" s="1">
-        <v>10364</v>
+        <v>29021</v>
       </c>
       <c r="E43" s="1">
-        <v>26799</v>
+        <v>40872</v>
       </c>
       <c r="F43" s="1">
         <v>29</v>
@@ -2981,15 +3180,23 @@
       <c r="K43" s="1">
         <v>10932</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="L43" s="1">
+        <v>17</v>
+      </c>
+      <c r="M43" s="1">
+        <v>6</v>
+      </c>
+      <c r="N43" s="1">
+        <v>16</v>
+      </c>
+      <c r="O43" s="1">
+        <v>10756</v>
+      </c>
       <c r="P43" s="1">
-        <v>7041</v>
+        <v>22160</v>
       </c>
       <c r="Q43" s="1">
-        <v>22437</v>
+        <v>23725</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -3003,10 +3210,10 @@
         <v>21312</v>
       </c>
       <c r="D44" s="1">
-        <v>8114</v>
+        <v>38634</v>
       </c>
       <c r="E44" s="1">
-        <v>17655</v>
+        <v>42737</v>
       </c>
       <c r="F44" s="1">
         <v>29</v>
@@ -3026,15 +3233,23 @@
       <c r="K44" s="1">
         <v>10750</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="L44" s="1">
+        <v>17</v>
+      </c>
+      <c r="M44" s="1">
+        <v>7</v>
+      </c>
+      <c r="N44" s="1">
+        <v>16</v>
+      </c>
+      <c r="O44" s="1">
+        <v>10764</v>
+      </c>
       <c r="P44" s="1">
-        <v>9575</v>
+        <v>22148</v>
       </c>
       <c r="Q44" s="1">
-        <v>16991</v>
+        <v>23521</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -3048,10 +3263,10 @@
         <v>14324</v>
       </c>
       <c r="D45" s="1">
-        <v>12805</v>
+        <v>27104</v>
       </c>
       <c r="E45" s="1">
-        <v>23745</v>
+        <v>42520</v>
       </c>
       <c r="F45" s="1">
         <v>30</v>
@@ -3071,15 +3286,23 @@
       <c r="K45" s="1">
         <v>10792</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="L45" s="1">
+        <v>18</v>
+      </c>
+      <c r="M45" s="1">
+        <v>6</v>
+      </c>
+      <c r="N45" s="1">
+        <v>15</v>
+      </c>
+      <c r="O45" s="1">
+        <v>10757</v>
+      </c>
       <c r="P45" s="1">
-        <v>7033</v>
+        <v>22070</v>
       </c>
       <c r="Q45" s="1">
-        <v>16842</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3093,10 +3316,10 @@
         <v>15871</v>
       </c>
       <c r="D46" s="1">
-        <v>10943</v>
+        <v>28958</v>
       </c>
       <c r="E46" s="1">
-        <v>18580</v>
+        <v>42617</v>
       </c>
       <c r="F46" s="1">
         <v>27</v>
@@ -3116,15 +3339,23 @@
       <c r="K46" s="1">
         <v>10750</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="L46" s="1">
+        <v>17</v>
+      </c>
+      <c r="M46" s="1">
+        <v>6</v>
+      </c>
+      <c r="N46" s="1">
+        <v>15</v>
+      </c>
+      <c r="O46" s="1">
+        <v>10757</v>
+      </c>
       <c r="P46" s="1">
-        <v>7033</v>
+        <v>22422</v>
       </c>
       <c r="Q46" s="1">
-        <v>19906</v>
+        <v>23643</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3138,10 +3369,10 @@
         <v>27235</v>
       </c>
       <c r="D47" s="2">
-        <v>7976</v>
+        <v>30547</v>
       </c>
       <c r="E47" s="2">
-        <v>25990</v>
+        <v>38622</v>
       </c>
       <c r="F47" s="2">
         <v>27</v>
@@ -3161,15 +3392,23 @@
       <c r="K47" s="2">
         <v>10545</v>
       </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="L47" s="2">
+        <v>16</v>
+      </c>
+      <c r="M47" s="2">
+        <v>6</v>
+      </c>
+      <c r="N47" s="2">
+        <v>17</v>
+      </c>
+      <c r="O47" s="2">
+        <v>10738</v>
+      </c>
       <c r="P47" s="2">
-        <v>7006</v>
+        <v>22111</v>
       </c>
       <c r="Q47" s="2">
-        <v>19842</v>
+        <v>23729</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -3186,11 +3425,11 @@
       </c>
       <c r="D48" s="12">
         <f t="shared" si="10"/>
-        <v>7010</v>
+        <v>27104</v>
       </c>
       <c r="E48" s="12">
         <f t="shared" si="10"/>
-        <v>14073</v>
+        <v>23802</v>
       </c>
       <c r="F48" s="12">
         <f t="shared" si="10"/>
@@ -3216,29 +3455,29 @@
         <f t="shared" si="10"/>
         <v>10545</v>
       </c>
-      <c r="L48" s="12" t="e">
+      <c r="L48" s="12">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M48" s="12" t="e">
+        <v>16</v>
+      </c>
+      <c r="M48" s="12">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N48" s="12" t="e">
+        <v>6</v>
+      </c>
+      <c r="N48" s="12">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O48" s="12" t="e">
+        <v>15</v>
+      </c>
+      <c r="O48" s="12">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>10738</v>
       </c>
       <c r="P48" s="12">
         <f t="shared" si="10"/>
-        <v>7006</v>
+        <v>21996</v>
       </c>
       <c r="Q48" s="12">
         <f t="shared" si="10"/>
-        <v>15521</v>
+        <v>23521</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3255,11 +3494,11 @@
       </c>
       <c r="D49" s="12">
         <f t="shared" si="11"/>
-        <v>13256</v>
+        <v>38634</v>
       </c>
       <c r="E49" s="12">
         <f t="shared" si="11"/>
-        <v>26799</v>
+        <v>42737</v>
       </c>
       <c r="F49" s="12">
         <f t="shared" si="11"/>
@@ -3285,29 +3524,29 @@
         <f t="shared" si="11"/>
         <v>10956</v>
       </c>
-      <c r="L49" s="12" t="e">
+      <c r="L49" s="12">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M49" s="12" t="e">
+        <v>18</v>
+      </c>
+      <c r="M49" s="12">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N49" s="12" t="e">
+        <v>7</v>
+      </c>
+      <c r="N49" s="12">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O49" s="12" t="e">
+        <v>18</v>
+      </c>
+      <c r="O49" s="12">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>10853</v>
       </c>
       <c r="P49" s="12">
         <f t="shared" si="11"/>
-        <v>13428</v>
+        <v>22706</v>
       </c>
       <c r="Q49" s="12">
         <f t="shared" si="11"/>
-        <v>26883</v>
+        <v>23729</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3324,11 +3563,11 @@
       </c>
       <c r="D50" s="12">
         <f t="shared" si="12"/>
-        <v>10083.4</v>
+        <v>30612.5</v>
       </c>
       <c r="E50" s="12">
         <f t="shared" si="12"/>
-        <v>20570.599999999999</v>
+        <v>37589.699999999997</v>
       </c>
       <c r="F50" s="12">
         <f t="shared" si="12"/>
@@ -3354,29 +3593,29 @@
         <f t="shared" si="12"/>
         <v>10749.8</v>
       </c>
-      <c r="L50" s="12" t="e">
+      <c r="L50" s="12">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="12" t="e">
+        <v>16.8</v>
+      </c>
+      <c r="M50" s="12">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="12" t="e">
+        <v>6.2</v>
+      </c>
+      <c r="N50" s="12">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="12" t="e">
+        <v>15.9</v>
+      </c>
+      <c r="O50" s="12">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>10778.1</v>
       </c>
       <c r="P50" s="12">
         <f t="shared" si="12"/>
-        <v>8444.6</v>
+        <v>22170.9</v>
       </c>
       <c r="Q50" s="12">
         <f t="shared" si="12"/>
-        <v>19934.599999999999</v>
+        <v>23644.1</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3393,11 +3632,11 @@
       </c>
       <c r="D51" s="12">
         <f t="shared" si="13"/>
-        <v>100834</v>
+        <v>306125</v>
       </c>
       <c r="E51" s="12">
         <f t="shared" si="13"/>
-        <v>205706</v>
+        <v>375897</v>
       </c>
       <c r="F51" s="12">
         <f t="shared" si="13"/>
@@ -3425,27 +3664,27 @@
       </c>
       <c r="L51" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="M51" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N51" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O51" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>107781</v>
       </c>
       <c r="P51" s="12">
         <f t="shared" si="13"/>
-        <v>84446</v>
+        <v>221709</v>
       </c>
       <c r="Q51" s="12">
         <f t="shared" si="13"/>
-        <v>199346</v>
+        <v>236441</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3457,7 +3696,7 @@
       <c r="C52" s="30"/>
       <c r="D52" s="29">
         <f>SUM(D51:E51)</f>
-        <v>306540</v>
+        <v>682022</v>
       </c>
       <c r="E52" s="30"/>
       <c r="F52" s="29">
@@ -3477,17 +3716,17 @@
       <c r="K52" s="30"/>
       <c r="L52" s="29">
         <f>SUM(L51:M51)</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="M52" s="30"/>
       <c r="N52" s="29">
         <f>SUM(N51:O51)</f>
-        <v>0</v>
+        <v>107940</v>
       </c>
       <c r="O52" s="30"/>
       <c r="P52" s="29">
         <f>SUM(P51:Q51)</f>
-        <v>283792</v>
+        <v>458150</v>
       </c>
       <c r="Q52" s="30"/>
     </row>
@@ -3578,10 +3817,10 @@
         <v>398437</v>
       </c>
       <c r="D55" s="1">
-        <v>331332</v>
+        <v>1008348</v>
       </c>
       <c r="E55" s="1">
-        <v>670383</v>
+        <v>1040710</v>
       </c>
       <c r="F55" s="1">
         <v>196</v>
@@ -3601,15 +3840,23 @@
       <c r="K55" s="1">
         <v>267501</v>
       </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="L55" s="1">
+        <v>86</v>
+      </c>
+      <c r="M55" s="1">
+        <v>36</v>
+      </c>
+      <c r="N55" s="1">
+        <v>88</v>
+      </c>
+      <c r="O55" s="1">
+        <v>270893</v>
+      </c>
       <c r="P55" s="1">
-        <v>309890</v>
+        <v>561280</v>
       </c>
       <c r="Q55" s="1">
-        <v>666070</v>
+        <v>587942</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3623,10 +3870,10 @@
         <v>567310</v>
       </c>
       <c r="D56" s="1">
-        <v>332772</v>
+        <v>987870</v>
       </c>
       <c r="E56" s="1">
-        <v>660959</v>
+        <v>849939</v>
       </c>
       <c r="F56" s="1">
         <v>194</v>
@@ -3646,15 +3893,23 @@
       <c r="K56" s="1">
         <v>268306</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="L56" s="1">
+        <v>87</v>
+      </c>
+      <c r="M56" s="1">
+        <v>35</v>
+      </c>
+      <c r="N56" s="1">
+        <v>87</v>
+      </c>
+      <c r="O56" s="1">
+        <v>271396</v>
+      </c>
       <c r="P56" s="1">
-        <v>336220</v>
+        <v>582345</v>
       </c>
       <c r="Q56" s="1">
-        <v>660863</v>
+        <v>588629</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3668,10 +3923,10 @@
         <v>637401</v>
       </c>
       <c r="D57" s="1">
-        <v>331711</v>
+        <v>941870</v>
       </c>
       <c r="E57" s="1">
-        <v>661672</v>
+        <v>919807</v>
       </c>
       <c r="F57" s="1">
         <v>184</v>
@@ -3691,15 +3946,23 @@
       <c r="K57" s="1">
         <v>272012</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="L57" s="1">
+        <v>86</v>
+      </c>
+      <c r="M57" s="1">
+        <v>34</v>
+      </c>
+      <c r="N57" s="1">
+        <v>87</v>
+      </c>
+      <c r="O57" s="1">
+        <v>271944</v>
+      </c>
       <c r="P57" s="1">
-        <v>332312</v>
+        <v>563125</v>
       </c>
       <c r="Q57" s="1">
-        <v>657846</v>
+        <v>596162</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3713,10 +3976,10 @@
         <v>507567</v>
       </c>
       <c r="D58" s="1">
-        <v>335206</v>
+        <v>978891</v>
       </c>
       <c r="E58" s="1">
-        <v>673342</v>
+        <v>1042403</v>
       </c>
       <c r="F58" s="1">
         <v>197</v>
@@ -3736,15 +3999,23 @@
       <c r="K58" s="1">
         <v>269535</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="L58" s="1">
+        <v>87</v>
+      </c>
+      <c r="M58" s="1">
+        <v>33</v>
+      </c>
+      <c r="N58" s="1">
+        <v>87</v>
+      </c>
+      <c r="O58" s="1">
+        <v>276790</v>
+      </c>
       <c r="P58" s="1">
-        <v>325752</v>
+        <v>563730</v>
       </c>
       <c r="Q58" s="1">
-        <v>671543</v>
+        <v>587755</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3758,10 +4029,10 @@
         <v>606926</v>
       </c>
       <c r="D59" s="1">
-        <v>336280</v>
+        <v>965988</v>
       </c>
       <c r="E59" s="1">
-        <v>670308</v>
+        <v>1047919</v>
       </c>
       <c r="F59" s="1">
         <v>197</v>
@@ -3781,15 +4052,23 @@
       <c r="K59" s="1">
         <v>273029</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="L59" s="1">
+        <v>85</v>
+      </c>
+      <c r="M59" s="1">
+        <v>34</v>
+      </c>
+      <c r="N59" s="1">
+        <v>85</v>
+      </c>
+      <c r="O59" s="1">
+        <v>285849</v>
+      </c>
       <c r="P59" s="1">
-        <v>330349</v>
+        <v>560494</v>
       </c>
       <c r="Q59" s="1">
-        <v>664073</v>
+        <v>587869</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3803,10 +4082,10 @@
         <v>603579</v>
       </c>
       <c r="D60" s="1">
-        <v>334285</v>
+        <v>965498</v>
       </c>
       <c r="E60" s="1">
-        <v>663296</v>
+        <v>1028127</v>
       </c>
       <c r="F60" s="1">
         <v>192</v>
@@ -3826,15 +4105,23 @@
       <c r="K60" s="1">
         <v>265883</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="L60" s="1">
+        <v>92</v>
+      </c>
+      <c r="M60" s="1">
+        <v>34</v>
+      </c>
+      <c r="N60" s="1">
+        <v>87</v>
+      </c>
+      <c r="O60" s="1">
+        <v>270341</v>
+      </c>
       <c r="P60" s="1">
-        <v>330009</v>
+        <v>590483</v>
       </c>
       <c r="Q60" s="1">
-        <v>660065</v>
+        <v>589569</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3848,10 +4135,10 @@
         <v>667086</v>
       </c>
       <c r="D61" s="1">
-        <v>333411</v>
+        <v>957430</v>
       </c>
       <c r="E61" s="1">
-        <v>668134</v>
+        <v>1028712</v>
       </c>
       <c r="F61" s="1">
         <v>194</v>
@@ -3871,15 +4158,23 @@
       <c r="K61" s="1">
         <v>264132</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+      <c r="L61" s="1">
+        <v>90</v>
+      </c>
+      <c r="M61" s="1">
+        <v>33</v>
+      </c>
+      <c r="N61" s="1">
+        <v>88</v>
+      </c>
+      <c r="O61" s="1">
+        <v>268713</v>
+      </c>
       <c r="P61" s="1">
-        <v>329896</v>
+        <v>562893</v>
       </c>
       <c r="Q61" s="1">
-        <v>672891</v>
+        <v>590589</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3893,10 +4188,10 @@
         <v>511867</v>
       </c>
       <c r="D62" s="1">
-        <v>335939</v>
+        <v>967871</v>
       </c>
       <c r="E62" s="1">
-        <v>671798</v>
+        <v>778392</v>
       </c>
       <c r="F62" s="1">
         <v>205</v>
@@ -3916,15 +4211,23 @@
       <c r="K62" s="1">
         <v>266422</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="L62" s="1">
+        <v>91</v>
+      </c>
+      <c r="M62" s="1">
+        <v>34</v>
+      </c>
+      <c r="N62" s="1">
+        <v>87</v>
+      </c>
+      <c r="O62" s="1">
+        <v>295158</v>
+      </c>
       <c r="P62" s="1">
-        <v>331276</v>
+        <v>565117</v>
       </c>
       <c r="Q62" s="1">
-        <v>664044</v>
+        <v>588866</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3938,10 +4241,10 @@
         <v>629996</v>
       </c>
       <c r="D63" s="1">
-        <v>334882</v>
+        <v>972383</v>
       </c>
       <c r="E63" s="1">
-        <v>661289</v>
+        <v>1026089</v>
       </c>
       <c r="F63" s="1">
         <v>204</v>
@@ -3961,15 +4264,23 @@
       <c r="K63" s="1">
         <v>268300</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
+      <c r="L63" s="1">
+        <v>86</v>
+      </c>
+      <c r="M63" s="1">
+        <v>35</v>
+      </c>
+      <c r="N63" s="1">
+        <v>87</v>
+      </c>
+      <c r="O63" s="1">
+        <v>268185</v>
+      </c>
       <c r="P63" s="1">
-        <v>328403</v>
+        <v>571469</v>
       </c>
       <c r="Q63" s="1">
-        <v>655986</v>
+        <v>588752</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3980,13 +4291,13 @@
         <v>306818</v>
       </c>
       <c r="C64" s="2">
-        <v>946865</v>
-      </c>
-      <c r="D64" s="2">
-        <v>335567</v>
+        <v>647952</v>
+      </c>
+      <c r="D64" s="1">
+        <v>942715</v>
       </c>
       <c r="E64" s="2">
-        <v>661528</v>
+        <v>962412</v>
       </c>
       <c r="F64" s="2">
         <v>209</v>
@@ -4006,15 +4317,23 @@
       <c r="K64" s="2">
         <v>269211</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="L64" s="2">
+        <v>86</v>
+      </c>
+      <c r="M64" s="2">
+        <v>34</v>
+      </c>
+      <c r="N64" s="2">
+        <v>90</v>
+      </c>
+      <c r="O64" s="2">
+        <v>268671</v>
+      </c>
       <c r="P64" s="2">
-        <v>333268</v>
+        <v>603143</v>
       </c>
       <c r="Q64" s="2">
-        <v>659056</v>
+        <v>641636</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -4030,12 +4349,12 @@
         <v>398437</v>
       </c>
       <c r="D65" s="12">
-        <f t="shared" si="14"/>
-        <v>331332</v>
+        <f>SMALL(D55:D64,1)</f>
+        <v>941870</v>
       </c>
       <c r="E65" s="12">
         <f t="shared" si="14"/>
-        <v>660959</v>
+        <v>778392</v>
       </c>
       <c r="F65" s="12">
         <f t="shared" si="14"/>
@@ -4061,29 +4380,29 @@
         <f t="shared" si="14"/>
         <v>264132</v>
       </c>
-      <c r="L65" s="12" t="e">
+      <c r="L65" s="12">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M65" s="12" t="e">
+        <v>85</v>
+      </c>
+      <c r="M65" s="12">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N65" s="12" t="e">
+        <v>33</v>
+      </c>
+      <c r="N65" s="12">
+        <f>SMALL(N55:N64,1)</f>
+        <v>85</v>
+      </c>
+      <c r="O65" s="12">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O65" s="12" t="e">
-        <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>268185</v>
       </c>
       <c r="P65" s="12">
         <f t="shared" si="14"/>
-        <v>309890</v>
+        <v>560494</v>
       </c>
       <c r="Q65" s="12">
         <f t="shared" si="14"/>
-        <v>655986</v>
+        <v>587755</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4096,15 +4415,15 @@
       </c>
       <c r="C66" s="12">
         <f t="shared" ref="C66:Q66" si="15">LARGE(C55:C64, 1)</f>
-        <v>946865</v>
+        <v>667086</v>
       </c>
       <c r="D66" s="12">
-        <f t="shared" si="15"/>
-        <v>336280</v>
+        <f>LARGE(D55:D64, 1)</f>
+        <v>1008348</v>
       </c>
       <c r="E66" s="12">
         <f t="shared" si="15"/>
-        <v>673342</v>
+        <v>1047919</v>
       </c>
       <c r="F66" s="12">
         <f t="shared" si="15"/>
@@ -4130,29 +4449,29 @@
         <f t="shared" si="15"/>
         <v>273029</v>
       </c>
-      <c r="L66" s="12" t="e">
+      <c r="L66" s="12">
         <f t="shared" si="15"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M66" s="12" t="e">
+        <v>92</v>
+      </c>
+      <c r="M66" s="12">
         <f t="shared" si="15"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N66" s="12" t="e">
+        <v>36</v>
+      </c>
+      <c r="N66" s="12">
         <f t="shared" si="15"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O66" s="12" t="e">
+        <v>90</v>
+      </c>
+      <c r="O66" s="12">
         <f t="shared" si="15"/>
-        <v>#NUM!</v>
+        <v>295158</v>
       </c>
       <c r="P66" s="12">
         <f t="shared" si="15"/>
-        <v>336220</v>
+        <v>603143</v>
       </c>
       <c r="Q66" s="12">
         <f t="shared" si="15"/>
-        <v>672891</v>
+        <v>641636</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4165,15 +4484,15 @@
       </c>
       <c r="C67" s="12">
         <f t="shared" si="16"/>
-        <v>607703.4</v>
+        <v>577812.1</v>
       </c>
       <c r="D67" s="12">
-        <f t="shared" si="16"/>
-        <v>334138.5</v>
+        <f>AVERAGE(D55:D64)</f>
+        <v>968886.4</v>
       </c>
       <c r="E67" s="12">
         <f t="shared" si="16"/>
-        <v>666270.9</v>
+        <v>972451</v>
       </c>
       <c r="F67" s="12">
         <f t="shared" si="16"/>
@@ -4199,29 +4518,29 @@
         <f t="shared" si="16"/>
         <v>268433.09999999998</v>
       </c>
-      <c r="L67" s="12" t="e">
+      <c r="L67" s="12">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" s="12" t="e">
+        <v>87.6</v>
+      </c>
+      <c r="M67" s="12">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N67" s="12" t="e">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="N67" s="12">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="12" t="e">
+        <v>87.3</v>
+      </c>
+      <c r="O67" s="12">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>274794</v>
       </c>
       <c r="P67" s="12">
         <f t="shared" si="16"/>
-        <v>328737.5</v>
+        <v>572407.9</v>
       </c>
       <c r="Q67" s="12">
         <f t="shared" si="16"/>
-        <v>663243.69999999995</v>
+        <v>594776.9</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4234,15 +4553,15 @@
       </c>
       <c r="C68" s="12">
         <f t="shared" si="17"/>
-        <v>6077034</v>
+        <v>5778121</v>
       </c>
       <c r="D68" s="12">
-        <f t="shared" si="17"/>
-        <v>3341385</v>
+        <f>SUM(D55:D64)</f>
+        <v>9688864</v>
       </c>
       <c r="E68" s="12">
         <f t="shared" si="17"/>
-        <v>6662709</v>
+        <v>9724510</v>
       </c>
       <c r="F68" s="12">
         <f t="shared" si="17"/>
@@ -4270,39 +4589,39 @@
       </c>
       <c r="L68" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="M68" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="N68" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="O68" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2747940</v>
       </c>
       <c r="P68" s="12">
         <f t="shared" si="17"/>
-        <v>3287375</v>
+        <v>5724079</v>
       </c>
       <c r="Q68" s="12">
         <f t="shared" si="17"/>
-        <v>6632437</v>
+        <v>5947769</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="29">
         <f>SUM(B68:C68)</f>
-        <v>9006858</v>
+        <v>8707945</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="29">
         <f>SUM(D68:E68)</f>
-        <v>10004094</v>
+        <v>19413374</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="29">
@@ -4322,17 +4641,17 @@
       <c r="K69" s="30"/>
       <c r="L69" s="29">
         <f>SUM(L68:M68)</f>
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="M69" s="30"/>
       <c r="N69" s="29">
         <f>SUM(N68:O68)</f>
-        <v>0</v>
+        <v>2748813</v>
       </c>
       <c r="O69" s="30"/>
       <c r="P69" s="29">
         <f>SUM(P68:Q68)</f>
-        <v>9919812</v>
+        <v>11671848</v>
       </c>
       <c r="Q69" s="30"/>
     </row>
@@ -4423,10 +4742,10 @@
         <v>2638606</v>
       </c>
       <c r="D72" s="1">
-        <v>1320917</v>
+        <v>3973337</v>
       </c>
       <c r="E72" s="1">
-        <v>2684348</v>
+        <v>3941321</v>
       </c>
       <c r="F72" s="1">
         <v>422</v>
@@ -4446,15 +4765,23 @@
       <c r="K72" s="1">
         <v>1093307</v>
       </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="L72" s="1">
+        <v>183</v>
+      </c>
+      <c r="M72" s="1">
+        <v>73</v>
+      </c>
+      <c r="N72" s="1">
+        <v>196</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1077389</v>
+      </c>
       <c r="P72" s="1">
-        <v>1340548</v>
+        <v>2316714</v>
       </c>
       <c r="Q72" s="1">
-        <v>2592853</v>
+        <v>2806447</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4468,10 +4795,10 @@
         <v>2568167</v>
       </c>
       <c r="D73" s="1">
-        <v>1342177</v>
+        <v>3988153</v>
       </c>
       <c r="E73" s="1">
-        <v>2688027</v>
+        <v>3910509</v>
       </c>
       <c r="F73" s="1">
         <v>430</v>
@@ -4491,15 +4818,23 @@
       <c r="K73" s="1">
         <v>1081610</v>
       </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="L73" s="1">
+        <v>178</v>
+      </c>
+      <c r="M73" s="1">
+        <v>70</v>
+      </c>
+      <c r="N73" s="1">
+        <v>195</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1075496</v>
+      </c>
       <c r="P73" s="1">
-        <v>1332427</v>
+        <v>2390770</v>
       </c>
       <c r="Q73" s="1">
-        <v>2745678</v>
+        <v>2742866</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4513,10 +4848,10 @@
         <v>2572465</v>
       </c>
       <c r="D74" s="1">
-        <v>1325116</v>
+        <v>3996394</v>
       </c>
       <c r="E74" s="1">
-        <v>2671920</v>
+        <v>4155323</v>
       </c>
       <c r="F74" s="1">
         <v>433</v>
@@ -4536,15 +4871,23 @@
       <c r="K74" s="1">
         <v>1051374</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="L74" s="1">
+        <v>186</v>
+      </c>
+      <c r="M74" s="1">
+        <v>72</v>
+      </c>
+      <c r="N74" s="1">
+        <v>195</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1077767</v>
+      </c>
       <c r="P74" s="1">
-        <v>1338976</v>
+        <v>2499726</v>
       </c>
       <c r="Q74" s="1">
-        <v>2517812</v>
+        <v>2799462</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4558,10 +4901,10 @@
         <v>2587869</v>
       </c>
       <c r="D75" s="1">
-        <v>1341078</v>
+        <v>3867464</v>
       </c>
       <c r="E75" s="1">
-        <v>2679338</v>
+        <v>4212961</v>
       </c>
       <c r="F75" s="1">
         <v>433</v>
@@ -4581,15 +4924,23 @@
       <c r="K75" s="1">
         <v>1051198</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="L75" s="1">
+        <v>176</v>
+      </c>
+      <c r="M75" s="1">
+        <v>74</v>
+      </c>
+      <c r="N75" s="1">
+        <v>195</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1073937</v>
+      </c>
       <c r="P75" s="1">
-        <v>1328453</v>
+        <v>2492471</v>
       </c>
       <c r="Q75" s="1">
-        <v>2575159</v>
+        <v>2665600</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4603,10 +4954,10 @@
         <v>2439170</v>
       </c>
       <c r="D76" s="1">
-        <v>1341708</v>
+        <v>3857913</v>
       </c>
       <c r="E76" s="1">
-        <v>2690758</v>
+        <v>4038943</v>
       </c>
       <c r="F76" s="1">
         <v>454</v>
@@ -4626,15 +4977,23 @@
       <c r="K76" s="1">
         <v>1051442</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+      <c r="L76" s="1">
+        <v>178</v>
+      </c>
+      <c r="M76" s="1">
+        <v>70</v>
+      </c>
+      <c r="N76" s="1">
+        <v>203</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1075443</v>
+      </c>
       <c r="P76" s="1">
-        <v>1328453</v>
+        <v>2319222</v>
       </c>
       <c r="Q76" s="1">
-        <v>2289705</v>
+        <v>2735495</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4648,10 +5007,10 @@
         <v>2422015</v>
       </c>
       <c r="D77" s="1">
-        <v>1333741</v>
+        <v>3885199</v>
       </c>
       <c r="E77" s="1">
-        <v>2682723</v>
+        <v>3561332</v>
       </c>
       <c r="F77" s="1">
         <v>423</v>
@@ -4671,15 +5030,23 @@
       <c r="K77" s="1">
         <v>1075605</v>
       </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="L77" s="1">
+        <v>176</v>
+      </c>
+      <c r="M77" s="1">
+        <v>71</v>
+      </c>
+      <c r="N77" s="1">
+        <v>199</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1075035</v>
+      </c>
       <c r="P77" s="1">
-        <v>1339202</v>
+        <v>2257527</v>
       </c>
       <c r="Q77" s="1">
-        <v>2509764</v>
+        <v>2403212</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4693,10 +5060,10 @@
         <v>2360182</v>
       </c>
       <c r="D78" s="1">
-        <v>1343762</v>
+        <v>3890117</v>
       </c>
       <c r="E78" s="1">
-        <v>2679809</v>
+        <v>4182406</v>
       </c>
       <c r="F78" s="1">
         <v>451</v>
@@ -4716,15 +5083,23 @@
       <c r="K78" s="1">
         <v>1061300</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="L78" s="1">
+        <v>180</v>
+      </c>
+      <c r="M78" s="1">
+        <v>72</v>
+      </c>
+      <c r="N78" s="1">
+        <v>197</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1075395</v>
+      </c>
       <c r="P78" s="1">
-        <v>1346042</v>
+        <v>2287495</v>
       </c>
       <c r="Q78" s="1">
-        <v>2569185</v>
+        <v>2731319</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4738,10 +5113,10 @@
         <v>2606803</v>
       </c>
       <c r="D79" s="1">
-        <v>1339994</v>
+        <v>3983788</v>
       </c>
       <c r="E79" s="1">
-        <v>2680013</v>
+        <v>3958484</v>
       </c>
       <c r="F79" s="1">
         <v>451</v>
@@ -4761,15 +5136,23 @@
       <c r="K79" s="1">
         <v>1045863</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+      <c r="L79" s="1">
+        <v>175</v>
+      </c>
+      <c r="M79" s="1">
+        <v>71</v>
+      </c>
+      <c r="N79" s="1">
+        <v>201</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1077147</v>
+      </c>
       <c r="P79" s="1">
-        <v>1318693</v>
+        <v>2370836</v>
       </c>
       <c r="Q79" s="1">
-        <v>2712080</v>
+        <v>2530081</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -4783,10 +5166,10 @@
         <v>2606803</v>
       </c>
       <c r="D80" s="1">
-        <v>1338383</v>
+        <v>3960424</v>
       </c>
       <c r="E80" s="1">
-        <v>2688639</v>
+        <v>3892188</v>
       </c>
       <c r="F80" s="1">
         <v>433</v>
@@ -4806,15 +5189,23 @@
       <c r="K80" s="1">
         <v>1044306</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
+      <c r="L80" s="1">
+        <v>184</v>
+      </c>
+      <c r="M80" s="1">
+        <v>72</v>
+      </c>
+      <c r="N80" s="1">
+        <v>200</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1075610</v>
+      </c>
       <c r="P80" s="1">
-        <v>1321979</v>
+        <v>2291809</v>
       </c>
       <c r="Q80" s="1">
-        <v>2742582</v>
+        <v>2722245</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -4828,10 +5219,10 @@
         <v>2640534</v>
       </c>
       <c r="D81" s="1">
-        <v>1340001</v>
+        <v>4012108</v>
       </c>
       <c r="E81" s="1">
-        <v>2687791</v>
+        <v>4044816</v>
       </c>
       <c r="F81" s="1">
         <v>427</v>
@@ -4851,15 +5242,23 @@
       <c r="K81" s="1">
         <v>1044287</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+      <c r="L81" s="1">
+        <v>179</v>
+      </c>
+      <c r="M81" s="1">
+        <v>69</v>
+      </c>
+      <c r="N81" s="1">
+        <v>194</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1075907</v>
+      </c>
       <c r="P81" s="1">
-        <v>1278971</v>
+        <v>2487111</v>
       </c>
       <c r="Q81" s="1">
-        <v>2736373</v>
+        <v>2576143</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -4876,11 +5275,11 @@
       </c>
       <c r="D82" s="12">
         <f t="shared" si="18"/>
-        <v>1320917</v>
+        <v>3857913</v>
       </c>
       <c r="E82" s="12">
         <f t="shared" si="18"/>
-        <v>2671920</v>
+        <v>3561332</v>
       </c>
       <c r="F82" s="12">
         <f t="shared" si="18"/>
@@ -4906,29 +5305,29 @@
         <f t="shared" si="18"/>
         <v>1044287</v>
       </c>
-      <c r="L82" s="12" t="e">
+      <c r="L82" s="12">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M82" s="12" t="e">
+        <v>175</v>
+      </c>
+      <c r="M82" s="12">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N82" s="12" t="e">
+        <v>69</v>
+      </c>
+      <c r="N82" s="12">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O82" s="12" t="e">
+        <v>194</v>
+      </c>
+      <c r="O82" s="12">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>1073937</v>
       </c>
       <c r="P82" s="12">
         <f t="shared" si="18"/>
-        <v>1278971</v>
+        <v>2257527</v>
       </c>
       <c r="Q82" s="12">
         <f t="shared" si="18"/>
-        <v>2289705</v>
+        <v>2403212</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -4945,11 +5344,11 @@
       </c>
       <c r="D83" s="12">
         <f t="shared" si="19"/>
-        <v>1343762</v>
+        <v>4012108</v>
       </c>
       <c r="E83" s="12">
         <f t="shared" si="19"/>
-        <v>2690758</v>
+        <v>4212961</v>
       </c>
       <c r="F83" s="12">
         <f t="shared" si="19"/>
@@ -4975,29 +5374,29 @@
         <f t="shared" si="19"/>
         <v>1093307</v>
       </c>
-      <c r="L83" s="12" t="e">
+      <c r="L83" s="12">
         <f t="shared" si="19"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M83" s="12" t="e">
+        <v>186</v>
+      </c>
+      <c r="M83" s="12">
         <f t="shared" si="19"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N83" s="12" t="e">
+        <v>74</v>
+      </c>
+      <c r="N83" s="12">
         <f t="shared" si="19"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O83" s="12" t="e">
+        <v>203</v>
+      </c>
+      <c r="O83" s="12">
         <f t="shared" si="19"/>
-        <v>#NUM!</v>
+        <v>1077767</v>
       </c>
       <c r="P83" s="12">
         <f t="shared" si="19"/>
-        <v>1346042</v>
+        <v>2499726</v>
       </c>
       <c r="Q83" s="12">
         <f t="shared" si="19"/>
-        <v>2745678</v>
+        <v>2806447</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -5014,11 +5413,11 @@
       </c>
       <c r="D84" s="12">
         <f t="shared" si="20"/>
-        <v>1336687.7</v>
+        <v>3941489.7</v>
       </c>
       <c r="E84" s="12">
         <f t="shared" si="20"/>
-        <v>2683336.6</v>
+        <v>3989828.3</v>
       </c>
       <c r="F84" s="12">
         <f t="shared" si="20"/>
@@ -5044,29 +5443,29 @@
         <f t="shared" si="20"/>
         <v>1060029.2</v>
       </c>
-      <c r="L84" s="12" t="e">
+      <c r="L84" s="12">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M84" s="12" t="e">
+        <v>179.5</v>
+      </c>
+      <c r="M84" s="12">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N84" s="12" t="e">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="N84" s="12">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O84" s="12" t="e">
+        <v>197.5</v>
+      </c>
+      <c r="O84" s="12">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>1075912.6000000001</v>
       </c>
       <c r="P84" s="12">
         <f t="shared" si="20"/>
-        <v>1327374.3999999999</v>
+        <v>2371368.1</v>
       </c>
       <c r="Q84" s="12">
         <f t="shared" si="20"/>
-        <v>2599119.1</v>
+        <v>2671287</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -5083,11 +5482,11 @@
       </c>
       <c r="D85" s="12">
         <f t="shared" si="21"/>
-        <v>13366877</v>
+        <v>39414897</v>
       </c>
       <c r="E85" s="12">
         <f t="shared" si="21"/>
-        <v>26833366</v>
+        <v>39898283</v>
       </c>
       <c r="F85" s="12">
         <f t="shared" si="21"/>
@@ -5115,27 +5514,27 @@
       </c>
       <c r="L85" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1795</v>
       </c>
       <c r="M85" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="N85" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1975</v>
       </c>
       <c r="O85" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>10759126</v>
       </c>
       <c r="P85" s="12">
         <f t="shared" si="21"/>
-        <v>13273744</v>
+        <v>23713681</v>
       </c>
       <c r="Q85" s="12">
         <f t="shared" si="21"/>
-        <v>25991191</v>
+        <v>26712870</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -5147,7 +5546,7 @@
       <c r="C86" s="30"/>
       <c r="D86" s="29">
         <f>SUM(D85:E85)</f>
-        <v>40200243</v>
+        <v>79313180</v>
       </c>
       <c r="E86" s="30"/>
       <c r="F86" s="29">
@@ -5167,17 +5566,17 @@
       <c r="K86" s="30"/>
       <c r="L86" s="29">
         <f>SUM(L85:M85)</f>
-        <v>0</v>
+        <v>2509</v>
       </c>
       <c r="M86" s="30"/>
       <c r="N86" s="29">
         <f>SUM(N85:O85)</f>
-        <v>0</v>
+        <v>10761101</v>
       </c>
       <c r="O86" s="30"/>
       <c r="P86" s="29">
         <f>SUM(P85:Q85)</f>
-        <v>39264935</v>
+        <v>50426551</v>
       </c>
       <c r="Q86" s="30"/>
     </row>
@@ -5187,17 +5586,17 @@
       </c>
       <c r="B87" s="35">
         <f>SUM(B86+B69+B52+B35+B18)</f>
-        <v>47123898</v>
+        <v>46824985</v>
       </c>
       <c r="C87" s="36"/>
       <c r="D87" s="35">
         <f>SUM(D86+D69+D52+D35+D18)</f>
-        <v>50565891</v>
+        <v>99539470</v>
       </c>
       <c r="E87" s="36"/>
       <c r="F87" s="35">
         <f>SUM(F86+F69+F52+F35+F18)</f>
-        <v>8615</v>
+        <v>8613</v>
       </c>
       <c r="G87" s="36"/>
       <c r="H87" s="35">
@@ -5212,30 +5611,30 @@
       <c r="K87" s="36"/>
       <c r="L87" s="35">
         <f>SUM(L86+L69+L52+L35+L18)</f>
-        <v>0</v>
+        <v>4087</v>
       </c>
       <c r="M87" s="36"/>
       <c r="N87" s="35">
         <f>SUM(N86+N69+N52+N35+N18)</f>
-        <v>0</v>
+        <v>13645994</v>
       </c>
       <c r="O87" s="36"/>
       <c r="P87" s="35">
         <f>SUM(P86+P69+P52+P35+P18)</f>
-        <v>49523557</v>
+        <v>62674126</v>
       </c>
       <c r="Q87" s="36"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F89">
         <f>SUM(B87:Q87)/1000/60/60</f>
-        <v>44.62533472222222</v>
+        <v>65.590699722222226</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F90">
-        <f>C72/1000/60</f>
-        <v>43.97676666666667</v>
+        <f>E75/1000/60</f>
+        <v>70.216016666666675</v>
       </c>
     </row>
   </sheetData>
@@ -5311,8 +5710,8 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A17:A18 A51:K52 A69:K69 A85:K86 A68:C68 R17:XFD18 R50:XFD51 B17:K18 B19:Q20 B34:Q34 L17:Q18 L51:Q51 D68:XFD68 L85:XFD85 D30:G30 B16:G16 A50:G50 B67:G67 R81:XFD81 B84:G84 P67:Q67 P50:Q50 B33:G33 P33:Q33 P16:Q16 B15:G15 B14 C14:G14 P15:Q15 P14:Q14 B82:G83 P84:Q84 P82:Q83 B65:G66 P65:Q66 B48:G49 P48:Q49 B31:G32 P31:Q32 D21:G21 L21:O21 D22:G22 L22:O22 D23:G23 L23:O23 D24:G24 L24:O24 D25:G25 L25:O25 D26:G26 L26:O26 D27:G27 L27:O27 D28:G28 L28:O28 D29:G29 L29:O29 L30:O30" formulaRange="1"/>
-    <ignoredError sqref="H67:O67 H50:O50 H33:O33 H16:O16 H14:O14 H15:O15 H82:O83 H84:O84 H65:O66 H48:O49 H32:O32 H31 J31:O31" evalError="1" formulaRange="1"/>
+    <ignoredError sqref="A17:A18 A51:K52 A69:K69 A85:K86 A68:C68 R17:XFD18 R50:XFD51 B17:K18 B19:Q20 B34:Q34 L17:Q18 L51:Q51 D68:XFD68 L85:XFD85 F30:G30 B16:G16 A50:G50 B67:G67 R81:XFD81 B84:G84 P67:Q67 P50:Q50 B33:G33 P33:Q33 P16:Q16 B15:G15 B14 C14:G14 P15:Q15 P14:Q14 B82:G83 P84:Q84 P82:Q83 B65:G66 P65:Q66 B48:G49 P48:Q49 B31:G32 P31:Q32 F21:G21 F22:G22 F23:G23 F24:G24 F25:G25 F26:G26 F27:G27 F28:G28 F29:G29" formulaRange="1"/>
+    <ignoredError sqref="H67:O67 H50:O50 H33:O33 H16:O16 H14:O14 H15:O15 H82:O83 H84:O84 H66:O66 H48:O49 H32:O32 H31 J31:O31 H65:M65 O65" evalError="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6224,7 +6623,7 @@
       <c r="G17" s="41"/>
       <c r="H17" s="18">
         <f>'Teste 1'!C67/1000/60</f>
-        <v>10.12839</v>
+        <v>9.6302016666666663</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>36</v>
@@ -6235,7 +6634,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="18">
         <f>'Teste 1'!C66/1000/60</f>
-        <v>15.781083333333333</v>
+        <v>11.1181</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>36</v>
@@ -6441,7 +6840,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="20">
         <f>'Teste 1'!D14</f>
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>34</v>
@@ -6452,7 +6851,7 @@
       <c r="G24" s="57"/>
       <c r="H24" s="20">
         <f>'Teste 1'!D16</f>
-        <v>72.599999999999994</v>
+        <v>234.7</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>34</v>
@@ -6463,7 +6862,7 @@
       <c r="K24" s="57"/>
       <c r="L24" s="20">
         <f>'Teste 1'!D15</f>
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>34</v>
@@ -6479,7 +6878,7 @@
       <c r="C25" s="41"/>
       <c r="D25" s="18">
         <f>'Teste 1'!D31/1000</f>
-        <v>1.752</v>
+        <v>6.7670000000000003</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>35</v>
@@ -6490,7 +6889,7 @@
       <c r="G25" s="56"/>
       <c r="H25" s="18">
         <f>'Teste 1'!D33/1000</f>
-        <v>1.7621</v>
+        <v>6.8606000000000007</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>35</v>
@@ -6501,7 +6900,7 @@
       <c r="K25" s="56"/>
       <c r="L25" s="18">
         <f>'Teste 1'!D32/1000</f>
-        <v>1.772</v>
+        <v>6.9619999999999997</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>35</v>
@@ -6517,7 +6916,7 @@
       <c r="C26" s="41"/>
       <c r="D26" s="18">
         <f>'Teste 1'!D48/1000</f>
-        <v>7.01</v>
+        <v>27.103999999999999</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>35</v>
@@ -6528,7 +6927,7 @@
       <c r="G26" s="56"/>
       <c r="H26" s="18">
         <f>'Teste 1'!D50 /1000</f>
-        <v>10.083399999999999</v>
+        <v>30.612500000000001</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>35</v>
@@ -6539,7 +6938,7 @@
       <c r="K26" s="56"/>
       <c r="L26" s="18">
         <f>'Teste 1'!D49 /1000</f>
-        <v>13.256</v>
+        <v>38.634</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>35</v>
@@ -6555,7 +6954,7 @@
       <c r="C27" s="41"/>
       <c r="D27" s="18">
         <f>'Teste 1'!D65/1000/60</f>
-        <v>5.5221999999999998</v>
+        <v>15.697833333333334</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>36</v>
@@ -6566,7 +6965,7 @@
       <c r="G27" s="56"/>
       <c r="H27" s="18">
         <f>'Teste 1'!D67 /1000/60</f>
-        <v>5.568975</v>
+        <v>16.148106666666667</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>36</v>
@@ -6577,7 +6976,7 @@
       <c r="K27" s="56"/>
       <c r="L27" s="18">
         <f>'Teste 1'!D66 /1000/60</f>
-        <v>5.6046666666666658</v>
+        <v>16.805799999999998</v>
       </c>
       <c r="M27" s="16" t="s">
         <v>36</v>
@@ -6593,7 +6992,7 @@
       <c r="C28" s="43"/>
       <c r="D28" s="19">
         <f>'Teste 1'!D82/1000/60</f>
-        <v>22.015283333333333</v>
+        <v>64.298550000000006</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>36</v>
@@ -6604,7 +7003,7 @@
       <c r="G28" s="53"/>
       <c r="H28" s="19">
         <f>'Teste 1'!D84/1000/60</f>
-        <v>22.278128333333331</v>
+        <v>65.691495000000003</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>36</v>
@@ -6615,7 +7014,7 @@
       <c r="K28" s="53"/>
       <c r="L28" s="19">
         <f>'Teste 1'!D83/1000/60</f>
-        <v>22.396033333333332</v>
+        <v>66.868466666666663</v>
       </c>
       <c r="M28" s="17" t="s">
         <v>36</v>
@@ -6714,7 +7113,7 @@
       <c r="C33" s="57"/>
       <c r="D33" s="20">
         <f>'Teste 1'!E14</f>
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>34</v>
@@ -6725,7 +7124,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="20">
         <f>'Teste 1'!E16</f>
-        <v>141.30000000000001</v>
+        <v>229.1</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>34</v>
@@ -6736,7 +7135,7 @@
       <c r="K33" s="45"/>
       <c r="L33" s="20">
         <f>'Teste 1'!E15</f>
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="M33" s="15" t="s">
         <v>34</v>
@@ -6749,7 +7148,7 @@
       <c r="C34" s="56"/>
       <c r="D34" s="18">
         <f>'Teste 1'!E31/1000</f>
-        <v>3.5139999999999998</v>
+        <v>5.6509999999999998</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>35</v>
@@ -6760,7 +7159,7 @@
       <c r="G34" s="41"/>
       <c r="H34" s="18">
         <f>'Teste 1'!E33/1000</f>
-        <v>3.5254000000000003</v>
+        <v>5.7649999999999997</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>35</v>
@@ -6771,7 +7170,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="18">
         <f>'Teste 1'!E32/1000</f>
-        <v>3.5409999999999999</v>
+        <v>5.9189999999999996</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>35</v>
@@ -6784,7 +7183,7 @@
       <c r="C35" s="56"/>
       <c r="D35" s="18">
         <f>'Teste 1'!E48 /1000</f>
-        <v>14.073</v>
+        <v>23.802</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>35</v>
@@ -6795,7 +7194,7 @@
       <c r="G35" s="41"/>
       <c r="H35" s="18">
         <f>'Teste 1'!E50 /1000</f>
-        <v>20.570599999999999</v>
+        <v>37.589700000000001</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>35</v>
@@ -6806,7 +7205,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="18">
         <f>'Teste 1'!E49 /1000</f>
-        <v>26.798999999999999</v>
+        <v>42.737000000000002</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>35</v>
@@ -6819,7 +7218,7 @@
       <c r="C36" s="56"/>
       <c r="D36" s="18">
         <f>'Teste 1'!E65 /1000/60</f>
-        <v>11.015983333333333</v>
+        <v>12.9732</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>36</v>
@@ -6830,7 +7229,7 @@
       <c r="G36" s="41"/>
       <c r="H36" s="18">
         <f>'Teste 1'!E67 /1000/60</f>
-        <v>11.104514999999999</v>
+        <v>16.207516666666667</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>36</v>
@@ -6841,7 +7240,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="18">
         <f>'Teste 1'!E66 /1000/60</f>
-        <v>11.222366666666666</v>
+        <v>17.46531666666667</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>36</v>
@@ -6854,7 +7253,7 @@
       <c r="C37" s="53"/>
       <c r="D37" s="19">
         <f>'Teste 1'!E82/1000/60</f>
-        <v>44.532000000000004</v>
+        <v>59.355533333333334</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>36</v>
@@ -6865,7 +7264,7 @@
       <c r="G37" s="43"/>
       <c r="H37" s="19">
         <f>'Teste 1'!E84/1000/60</f>
-        <v>44.722276666666666</v>
+        <v>66.497138333333325</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>36</v>
@@ -6876,7 +7275,7 @@
       <c r="K37" s="43"/>
       <c r="L37" s="19">
         <f>'Teste 1'!E83/1000/60</f>
-        <v>44.845966666666662</v>
+        <v>70.216016666666675</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>36</v>
@@ -7508,7 +7907,7 @@
       <c r="G62" s="57"/>
       <c r="H62" s="20">
         <f>'Teste 1'!F16</f>
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>34</v>
@@ -7769,7 +8168,7 @@
       <c r="G71" s="57"/>
       <c r="H71" s="20">
         <f>'Teste 1'!G16</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>34</v>
@@ -8019,7 +8418,7 @@
       <c r="C81" s="45"/>
       <c r="D81" s="20">
         <f>'Teste 1'!P14</f>
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>34</v>
@@ -8030,7 +8429,7 @@
       <c r="G81" s="57"/>
       <c r="H81" s="20">
         <f>'Teste 1'!P16</f>
-        <v>72.099999999999994</v>
+        <v>195.7</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>34</v>
@@ -8041,7 +8440,7 @@
       <c r="K81" s="57"/>
       <c r="L81" s="20">
         <f>'Teste 1'!P15</f>
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="M81" s="15" t="s">
         <v>34</v>
@@ -8054,7 +8453,7 @@
       <c r="C82" s="41"/>
       <c r="D82" s="18">
         <f>'Teste 1'!P31/1000</f>
-        <v>1.75</v>
+        <v>5.3540000000000001</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>35</v>
@@ -8065,7 +8464,7 @@
       <c r="G82" s="56"/>
       <c r="H82" s="18">
         <f>'Teste 1'!P33/1000</f>
-        <v>1.7642</v>
+        <v>5.3758999999999997</v>
       </c>
       <c r="I82" s="16" t="s">
         <v>35</v>
@@ -8076,7 +8475,7 @@
       <c r="K82" s="56"/>
       <c r="L82" s="18">
         <f>'Teste 1'!P32/1000</f>
-        <v>1.7869999999999999</v>
+        <v>5.43</v>
       </c>
       <c r="M82" s="16" t="s">
         <v>35</v>
@@ -8089,7 +8488,7 @@
       <c r="C83" s="41"/>
       <c r="D83" s="18">
         <f>'Teste 1'!P48/1000</f>
-        <v>7.0060000000000002</v>
+        <v>21.995999999999999</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>35</v>
@@ -8100,7 +8499,7 @@
       <c r="G83" s="56"/>
       <c r="H83" s="18">
         <f>'Teste 1'!P50/1000</f>
-        <v>8.4446000000000012</v>
+        <v>22.170900000000003</v>
       </c>
       <c r="I83" s="16" t="s">
         <v>35</v>
@@ -8111,7 +8510,7 @@
       <c r="K83" s="56"/>
       <c r="L83" s="18">
         <f>'Teste 1'!P49/1000</f>
-        <v>13.428000000000001</v>
+        <v>22.706</v>
       </c>
       <c r="M83" s="16" t="s">
         <v>35</v>
@@ -8124,7 +8523,7 @@
       <c r="C84" s="41"/>
       <c r="D84" s="18">
         <f>'Teste 1'!P65/1000/60</f>
-        <v>5.1648333333333332</v>
+        <v>9.341566666666667</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>36</v>
@@ -8135,7 +8534,7 @@
       <c r="G84" s="56"/>
       <c r="H84" s="18">
         <f>'Teste 1'!P67/1000/60</f>
-        <v>5.4789583333333338</v>
+        <v>9.5401316666666673</v>
       </c>
       <c r="I84" s="16" t="s">
         <v>36</v>
@@ -8146,7 +8545,7 @@
       <c r="K84" s="56"/>
       <c r="L84" s="18">
         <f>'Teste 1'!P66/1000/60</f>
-        <v>5.6036666666666672</v>
+        <v>10.052383333333333</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>36</v>
@@ -8159,7 +8558,7 @@
       <c r="C85" s="43"/>
       <c r="D85" s="19">
         <f>'Teste 1'!P82/1000/60</f>
-        <v>21.316183333333335</v>
+        <v>37.625450000000001</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>36</v>
@@ -8170,7 +8569,7 @@
       <c r="G85" s="53"/>
       <c r="H85" s="19">
         <f>'Teste 1'!P84/1000/60</f>
-        <v>22.122906666666665</v>
+        <v>39.522801666666666</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>36</v>
@@ -8181,7 +8580,7 @@
       <c r="K85" s="53"/>
       <c r="L85" s="19">
         <f>'Teste 1'!P83/1000/60</f>
-        <v>22.434033333333332</v>
+        <v>41.662100000000002</v>
       </c>
       <c r="M85" s="17" t="s">
         <v>36</v>
@@ -8280,7 +8679,7 @@
       <c r="C90" s="57"/>
       <c r="D90" s="20">
         <f>'Teste 1'!Q14</f>
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>34</v>
@@ -8291,7 +8690,7 @@
       <c r="G90" s="57"/>
       <c r="H90" s="20">
         <f>'Teste 1'!Q16</f>
-        <v>143.5</v>
+        <v>238.8</v>
       </c>
       <c r="I90" s="15" t="s">
         <v>34</v>
@@ -8302,7 +8701,7 @@
       <c r="K90" s="57"/>
       <c r="L90" s="20">
         <f>'Teste 1'!Q15</f>
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="M90" s="15" t="s">
         <v>34</v>
@@ -8315,7 +8714,7 @@
       <c r="C91" s="56"/>
       <c r="D91" s="18">
         <f>'Teste 1'!Q31/1000</f>
-        <v>3.4990000000000001</v>
+        <v>5.88</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>35</v>
@@ -8326,7 +8725,7 @@
       <c r="G91" s="56"/>
       <c r="H91" s="23">
         <f>'Teste 1'!Q33/1000</f>
-        <v>3.5219999999999998</v>
+        <v>5.9473000000000003</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>35</v>
@@ -8337,7 +8736,7 @@
       <c r="K91" s="56"/>
       <c r="L91" s="18">
         <f>'Teste 1'!Q33/1000</f>
-        <v>3.5219999999999998</v>
+        <v>5.9473000000000003</v>
       </c>
       <c r="M91" s="16" t="s">
         <v>35</v>
@@ -8350,7 +8749,7 @@
       <c r="C92" s="56"/>
       <c r="D92" s="18">
         <f>'Teste 1'!Q48/1000</f>
-        <v>15.521000000000001</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>35</v>
@@ -8361,7 +8760,7 @@
       <c r="G92" s="56"/>
       <c r="H92" s="23">
         <f>'Teste 1'!Q50/1000</f>
-        <v>19.9346</v>
+        <v>23.644099999999998</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>35</v>
@@ -8372,7 +8771,7 @@
       <c r="K92" s="56"/>
       <c r="L92" s="18">
         <f>'Teste 1'!Q50/1000</f>
-        <v>19.9346</v>
+        <v>23.644099999999998</v>
       </c>
       <c r="M92" s="16" t="s">
         <v>35</v>
@@ -8385,7 +8784,7 @@
       <c r="C93" s="56"/>
       <c r="D93" s="18">
         <f>'Teste 1'!Q65/1000/60</f>
-        <v>10.9331</v>
+        <v>9.7959166666666668</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>36</v>
@@ -8396,7 +8795,7 @@
       <c r="G93" s="56"/>
       <c r="H93" s="23">
         <f>'Teste 1'!Q67/1000/60</f>
-        <v>11.054061666666666</v>
+        <v>9.9129483333333344</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>36</v>
@@ -8407,7 +8806,7 @@
       <c r="K93" s="56"/>
       <c r="L93" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
-        <v>11.054061666666666</v>
+        <v>9.9129483333333344</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>36</v>
@@ -8420,7 +8819,7 @@
       <c r="C94" s="53"/>
       <c r="D94" s="19">
         <f>'Teste 1'!Q82/1000/60</f>
-        <v>38.161749999999998</v>
+        <v>40.053533333333334</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>36</v>
@@ -8431,7 +8830,7 @@
       <c r="G94" s="53"/>
       <c r="H94" s="21">
         <f>'Teste 1'!Q84/1000/60</f>
-        <v>43.318651666666668</v>
+        <v>44.521449999999994</v>
       </c>
       <c r="I94" s="17" t="s">
         <v>36</v>
@@ -8442,7 +8841,7 @@
       <c r="K94" s="53"/>
       <c r="L94" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
-        <v>43.318651666666668</v>
+        <v>44.521449999999994</v>
       </c>
       <c r="M94" s="17" t="s">
         <v>36</v>

--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eu\Projeto-II-Estrutura-de-Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22899140\Documents\GitHub\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F9AE0-4223-42F6-BF0D-1A5B920D6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6806ADF2-E356-45A1-804F-DB23D3DBF771}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste 1" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="42">
   <si>
     <t>Metodo</t>
   </si>
@@ -463,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -500,29 +489,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,22 +510,46 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,32 +561,32 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,11 +904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E61052-186C-4165-A01B-4F4A6CE64FEA}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,10 +917,10 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="33" t="s">
         <v>38</v>
       </c>
@@ -960,23 +954,23 @@
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1770,7 +1764,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="12">
@@ -1839,70 +1833,70 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29">
+      <c r="A18" s="38"/>
+      <c r="B18" s="26">
         <f>SUM(B17:C17)</f>
         <v>2131</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29">
+      <c r="C18" s="27"/>
+      <c r="D18" s="26">
         <f>SUM(D17:E17)</f>
         <v>4638</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29">
+      <c r="E18" s="27"/>
+      <c r="F18" s="26">
         <f>SUM(F17:G17)</f>
         <v>16</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="29">
+      <c r="G18" s="27"/>
+      <c r="H18" s="26">
         <f>SUM(H17:I17)</f>
         <v>27</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29">
+      <c r="I18" s="27"/>
+      <c r="J18" s="26">
         <f>SUM(J17:K17)</f>
         <v>1137</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="29">
+      <c r="K18" s="27"/>
+      <c r="L18" s="26">
         <f>SUM(L17:M17)</f>
         <v>20</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="29">
+      <c r="M18" s="27"/>
+      <c r="N18" s="26">
         <f>SUM(N17:O17)</f>
         <v>1096</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="29">
+      <c r="O18" s="27"/>
+      <c r="P18" s="26">
         <f>SUM(P17:Q17)</f>
         <v>4345</v>
       </c>
-      <c r="Q18" s="30"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2694,7 +2688,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="12">
@@ -2763,70 +2757,70 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29">
+      <c r="A35" s="38"/>
+      <c r="B35" s="26">
         <f>SUM(B34:C34)</f>
         <v>52956</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="29">
+      <c r="C35" s="27"/>
+      <c r="D35" s="26">
         <f>SUM(D34:E34)</f>
         <v>126256</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29">
+      <c r="E35" s="27"/>
+      <c r="F35" s="26">
         <f>SUM(F34:G34)</f>
         <v>127</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="29">
+      <c r="G35" s="27"/>
+      <c r="H35" s="26">
         <f>SUM(H34:I34)</f>
         <v>152</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29">
+      <c r="I35" s="27"/>
+      <c r="J35" s="26">
         <f>SUM(J34:K34)</f>
         <v>26996</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="29">
+      <c r="K35" s="27"/>
+      <c r="L35" s="26">
         <f>SUM(L34:M34)</f>
         <v>110</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="29">
+      <c r="M35" s="27"/>
+      <c r="N35" s="26">
         <f>SUM(N34:O34)</f>
         <v>27044</v>
       </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="29">
+      <c r="O35" s="27"/>
+      <c r="P35" s="26">
         <f>SUM(P34:Q34)</f>
         <v>113232</v>
       </c>
-      <c r="Q35" s="30"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="39"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -3619,7 +3613,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="12">
@@ -3688,70 +3682,70 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29">
+      <c r="A52" s="38"/>
+      <c r="B52" s="26">
         <f>SUM(B51:C51)</f>
         <v>280650</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="29">
+      <c r="C52" s="27"/>
+      <c r="D52" s="26">
         <f>SUM(D51:E51)</f>
         <v>682022</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="29">
+      <c r="E52" s="27"/>
+      <c r="F52" s="26">
         <f>SUM(F51:G51)</f>
         <v>377</v>
       </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29">
+      <c r="G52" s="27"/>
+      <c r="H52" s="26">
         <f>SUM(H51:I51)</f>
         <v>307</v>
       </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="29">
+      <c r="I52" s="27"/>
+      <c r="J52" s="26">
         <f>SUM(J51:K51)</f>
         <v>107649</v>
       </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="29">
+      <c r="K52" s="27"/>
+      <c r="L52" s="26">
         <f>SUM(L51:M51)</f>
         <v>230</v>
       </c>
-      <c r="M52" s="30"/>
-      <c r="N52" s="29">
+      <c r="M52" s="27"/>
+      <c r="N52" s="26">
         <f>SUM(N51:O51)</f>
         <v>107940</v>
       </c>
-      <c r="O52" s="30"/>
-      <c r="P52" s="29">
+      <c r="O52" s="27"/>
+      <c r="P52" s="26">
         <f>SUM(P51:Q51)</f>
         <v>458150</v>
       </c>
-      <c r="Q52" s="30"/>
+      <c r="Q52" s="27"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="39"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="32"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -4544,7 +4538,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="12">
@@ -4613,70 +4607,70 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29">
+      <c r="A69" s="38"/>
+      <c r="B69" s="26">
         <f>SUM(B68:C68)</f>
         <v>8707945</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="29">
+      <c r="C69" s="27"/>
+      <c r="D69" s="26">
         <f>SUM(D68:E68)</f>
         <v>19413374</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29">
+      <c r="E69" s="27"/>
+      <c r="F69" s="26">
         <f>SUM(F68:G68)</f>
         <v>2525</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29">
+      <c r="G69" s="27"/>
+      <c r="H69" s="26">
         <f>SUM(H68:I68)</f>
         <v>1835</v>
       </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="29">
+      <c r="I69" s="27"/>
+      <c r="J69" s="26">
         <f>SUM(J68:K68)</f>
         <v>2685156</v>
       </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="29">
+      <c r="K69" s="27"/>
+      <c r="L69" s="26">
         <f>SUM(L68:M68)</f>
         <v>1218</v>
       </c>
-      <c r="M69" s="30"/>
-      <c r="N69" s="29">
+      <c r="M69" s="27"/>
+      <c r="N69" s="26">
         <f>SUM(N68:O68)</f>
         <v>2748813</v>
       </c>
-      <c r="O69" s="30"/>
-      <c r="P69" s="29">
+      <c r="O69" s="27"/>
+      <c r="P69" s="26">
         <f>SUM(P68:Q68)</f>
         <v>11671848</v>
       </c>
-      <c r="Q69" s="30"/>
+      <c r="Q69" s="27"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="39"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="32"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -5469,7 +5463,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="12">
@@ -5538,92 +5532,92 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29">
+      <c r="A86" s="38"/>
+      <c r="B86" s="26">
         <f>SUM(B85:C85)</f>
         <v>37781303</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="29">
+      <c r="C86" s="27"/>
+      <c r="D86" s="26">
         <f>SUM(D85:E85)</f>
         <v>79313180</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="29">
+      <c r="E86" s="27"/>
+      <c r="F86" s="26">
         <f>SUM(F85:G85)</f>
         <v>5568</v>
       </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="29">
+      <c r="G86" s="27"/>
+      <c r="H86" s="26">
         <f>SUM(H85:I85)</f>
         <v>3746</v>
       </c>
-      <c r="I86" s="30"/>
-      <c r="J86" s="29">
+      <c r="I86" s="27"/>
+      <c r="J86" s="26">
         <f>SUM(J85:K85)</f>
         <v>10602239</v>
       </c>
-      <c r="K86" s="30"/>
-      <c r="L86" s="29">
+      <c r="K86" s="27"/>
+      <c r="L86" s="26">
         <f>SUM(L85:M85)</f>
         <v>2509</v>
       </c>
-      <c r="M86" s="30"/>
-      <c r="N86" s="29">
+      <c r="M86" s="27"/>
+      <c r="N86" s="26">
         <f>SUM(N85:O85)</f>
         <v>10761101</v>
       </c>
-      <c r="O86" s="30"/>
-      <c r="P86" s="29">
+      <c r="O86" s="27"/>
+      <c r="P86" s="26">
         <f>SUM(P85:Q85)</f>
         <v>50426551</v>
       </c>
-      <c r="Q86" s="30"/>
+      <c r="Q86" s="27"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="35">
+      <c r="B87" s="28">
         <f>SUM(B86+B69+B52+B35+B18)</f>
         <v>46824985</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="35">
+      <c r="C87" s="29"/>
+      <c r="D87" s="28">
         <f>SUM(D86+D69+D52+D35+D18)</f>
         <v>99539470</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="35">
+      <c r="E87" s="29"/>
+      <c r="F87" s="28">
         <f>SUM(F86+F69+F52+F35+F18)</f>
         <v>8613</v>
       </c>
-      <c r="G87" s="36"/>
-      <c r="H87" s="35">
+      <c r="G87" s="29"/>
+      <c r="H87" s="28">
         <f>SUM(H86+H69+H52+H35+H18)</f>
         <v>6067</v>
       </c>
-      <c r="I87" s="36"/>
-      <c r="J87" s="35">
+      <c r="I87" s="29"/>
+      <c r="J87" s="28">
         <f>SUM(J86+J69+J52+J35+J18)</f>
         <v>13423177</v>
       </c>
-      <c r="K87" s="36"/>
-      <c r="L87" s="35">
+      <c r="K87" s="29"/>
+      <c r="L87" s="28">
         <f>SUM(L86+L69+L52+L35+L18)</f>
         <v>4087</v>
       </c>
-      <c r="M87" s="36"/>
-      <c r="N87" s="35">
+      <c r="M87" s="29"/>
+      <c r="N87" s="28">
         <f>SUM(N86+N69+N52+N35+N18)</f>
         <v>13645994</v>
       </c>
-      <c r="O87" s="36"/>
-      <c r="P87" s="35">
+      <c r="O87" s="29"/>
+      <c r="P87" s="28">
         <f>SUM(P86+P69+P52+P35+P18)</f>
         <v>62674126</v>
       </c>
-      <c r="Q87" s="36"/>
+      <c r="Q87" s="29"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F89">
@@ -5640,6 +5634,56 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="66">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="P87:Q87"/>
     <mergeCell ref="B2:P2"/>
@@ -5656,56 +5700,6 @@
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H69:I69"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5720,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06C49E-93B7-4292-923A-942BC3649656}">
   <dimension ref="B1:Z94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5729,179 +5723,180 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="O1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="54" t="s">
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="37" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="37" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="O2" s="37" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="O2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="37" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="37" t="s">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="39"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="46" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="46" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="O3" s="46" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="O3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="46" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="46" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="49"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="40"/>
+      <c r="L4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="O4" s="49" t="s">
+      <c r="M4" s="51"/>
+      <c r="O4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="49" t="s">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="49" t="s">
+      <c r="R4" s="40"/>
+      <c r="S4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="51" t="s">
+      <c r="T4" s="40"/>
+      <c r="U4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="49" t="s">
+      <c r="V4" s="51"/>
+      <c r="W4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="51" t="s">
+      <c r="X4" s="40"/>
+      <c r="Y4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="52"/>
+      <c r="Z4" s="51"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="20">
         <f>'Teste 1'!B14</f>
         <v>68</v>
@@ -5909,10 +5904,10 @@
       <c r="E5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="57"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="20">
         <f>'Teste 1'!B16</f>
         <v>70.900000000000006</v>
@@ -5920,10 +5915,10 @@
       <c r="I5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="14">
         <f>'Teste 1'!B15</f>
         <v>75</v>
@@ -5931,10 +5926,10 @@
       <c r="M5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="45"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="20">
         <f>'Teste 1'!J14</f>
         <v>1</v>
@@ -5942,10 +5937,10 @@
       <c r="R5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="57"/>
+      <c r="T5" s="52"/>
       <c r="U5" s="20">
         <f>'Teste 1'!J16</f>
         <v>1.5</v>
@@ -5953,10 +5948,10 @@
       <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="57" t="s">
+      <c r="W5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="57"/>
+      <c r="X5" s="52"/>
       <c r="Y5" s="20">
         <f>'Teste 1'!J15</f>
         <v>3</v>
@@ -5966,10 +5961,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="18">
         <f>'Teste 1'!B31/1000</f>
         <v>1.7470000000000001</v>
@@ -5977,10 +5972,10 @@
       <c r="E6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="18">
         <f>'Teste 1'!B33/1000</f>
         <v>1.7815999999999999</v>
@@ -5988,10 +5983,10 @@
       <c r="I6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="18">
         <f>'Teste 1'!B32/1000</f>
         <v>1.84</v>
@@ -5999,10 +5994,10 @@
       <c r="M6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="41"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="23">
         <f>'Teste 1'!J31</f>
         <v>7</v>
@@ -6010,10 +6005,10 @@
       <c r="R6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="56"/>
+      <c r="T6" s="53"/>
       <c r="U6" s="23">
         <f>'Teste 1'!J33</f>
         <v>7.4</v>
@@ -6021,10 +6016,10 @@
       <c r="V6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="56" t="s">
+      <c r="W6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="56"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="23">
         <f>'Teste 1'!J32</f>
         <v>9</v>
@@ -6034,10 +6029,10 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="18">
         <f>'Teste 1'!B48 /1000</f>
         <v>6.984</v>
@@ -6045,10 +6040,10 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="18">
         <f>'Teste 1'!B50/1000</f>
         <v>7.9418999999999995</v>
@@ -6056,10 +6051,10 @@
       <c r="I7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="56"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="18">
         <f>'Teste 1'!B49/1000</f>
         <v>13.363</v>
@@ -6067,10 +6062,10 @@
       <c r="M7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="23">
         <f>'Teste 1'!J48</f>
         <v>14</v>
@@ -6078,10 +6073,10 @@
       <c r="R7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="56"/>
+      <c r="T7" s="53"/>
       <c r="U7" s="23">
         <f>'Teste 1'!J50</f>
         <v>15.1</v>
@@ -6089,10 +6084,10 @@
       <c r="V7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="56" t="s">
+      <c r="W7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="56"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="23">
         <f>'Teste 1'!J49</f>
         <v>16</v>
@@ -6102,10 +6097,10 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="18">
         <f>'Teste 1'!B65 /1000/60</f>
         <v>2.8785333333333329</v>
@@ -6113,10 +6108,10 @@
       <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="18">
         <f>'Teste 1'!B67/1000/60</f>
         <v>4.8830400000000003</v>
@@ -6124,10 +6119,10 @@
       <c r="I8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="18">
         <f>'Teste 1'!B66/1000/60</f>
         <v>5.3099833333333333</v>
@@ -6135,10 +6130,10 @@
       <c r="M8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="44"/>
       <c r="Q8" s="23">
         <f>'Teste 1'!J65</f>
         <v>80</v>
@@ -6146,10 +6141,10 @@
       <c r="R8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="56"/>
+      <c r="T8" s="53"/>
       <c r="U8" s="23">
         <f>'Teste 1'!J67</f>
         <v>82.5</v>
@@ -6157,10 +6152,10 @@
       <c r="V8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="56" t="s">
+      <c r="W8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="56"/>
+      <c r="X8" s="53"/>
       <c r="Y8" s="23">
         <f>'Teste 1'!J66</f>
         <v>85</v>
@@ -6170,10 +6165,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="19">
         <f>'Teste 1'!B82/1000/60</f>
         <v>17.0808</v>
@@ -6181,10 +6176,10 @@
       <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="19">
         <f>'Teste 1'!B84/1000/60</f>
         <v>20.564481666666666</v>
@@ -6192,10 +6187,10 @@
       <c r="I9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="53"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="19">
         <f>'Teste 1'!B83/1000/60</f>
         <v>22.509616666666666</v>
@@ -6203,10 +6198,10 @@
       <c r="M9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="43"/>
+      <c r="P9" s="56"/>
       <c r="Q9" s="21">
         <f>'Teste 1'!J82</f>
         <v>185</v>
@@ -6214,10 +6209,10 @@
       <c r="R9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="S9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="53"/>
+      <c r="T9" s="54"/>
       <c r="U9" s="21">
         <f>'Teste 1'!J84</f>
         <v>194.7</v>
@@ -6225,10 +6220,10 @@
       <c r="V9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="53" t="s">
+      <c r="W9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="53"/>
+      <c r="X9" s="54"/>
       <c r="Y9" s="21">
         <f>'Teste 1'!J83</f>
         <v>212</v>
@@ -6238,174 +6233,174 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="O10" s="54" t="s">
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="O10" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="54" t="s">
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="54" t="s">
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="37" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="O11" s="37" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="O11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="37" t="s">
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="37" t="s">
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="39"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="32"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="46" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="46" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="O12" s="46" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="O12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="46" t="s">
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="46" t="s">
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="49"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="49" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="49" t="s">
+      <c r="I13" s="51"/>
+      <c r="J13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51" t="s">
+      <c r="K13" s="40"/>
+      <c r="L13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="O13" s="49" t="s">
+      <c r="M13" s="51"/>
+      <c r="O13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51" t="s">
+      <c r="P13" s="40"/>
+      <c r="Q13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="49" t="s">
+      <c r="R13" s="51"/>
+      <c r="S13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="50"/>
-      <c r="U13" s="51" t="s">
+      <c r="T13" s="40"/>
+      <c r="U13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="49" t="s">
+      <c r="V13" s="51"/>
+      <c r="W13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="51" t="s">
+      <c r="X13" s="40"/>
+      <c r="Y13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" s="52"/>
+      <c r="Z13" s="51"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="14">
         <f>'Teste 1'!C14</f>
         <v>138</v>
@@ -6413,10 +6408,10 @@
       <c r="E14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="20">
         <f>'Teste 1'!C16</f>
         <v>142.19999999999999</v>
@@ -6424,10 +6419,10 @@
       <c r="I14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="14">
         <f>'Teste 1'!C15</f>
         <v>145</v>
@@ -6435,10 +6430,10 @@
       <c r="M14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="45"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="20">
         <f>'Teste 1'!K14</f>
         <v>106</v>
@@ -6446,10 +6441,10 @@
       <c r="R14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="45"/>
+      <c r="T14" s="42"/>
       <c r="U14" s="20">
         <f>'Teste 1'!K16</f>
         <v>112.2</v>
@@ -6457,10 +6452,10 @@
       <c r="V14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="44" t="s">
+      <c r="W14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="X14" s="45"/>
+      <c r="X14" s="42"/>
       <c r="Y14" s="20">
         <f>'Teste 1'!K15</f>
         <v>131</v>
@@ -6470,10 +6465,10 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="18">
         <f>'Teste 1'!C31/1000</f>
         <v>3.4729999999999999</v>
@@ -6481,10 +6476,10 @@
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="18">
         <f>'Teste 1'!C33/1000</f>
         <v>3.5139999999999998</v>
@@ -6492,10 +6487,10 @@
       <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="41"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="18">
         <f>'Teste 1'!C32/1000</f>
         <v>3.5979999999999999</v>
@@ -6503,10 +6498,10 @@
       <c r="M15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="18">
         <f>'Teste 1'!K31/1000</f>
         <v>2.6480000000000001</v>
@@ -6514,10 +6509,10 @@
       <c r="R15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="40" t="s">
+      <c r="S15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="41"/>
+      <c r="T15" s="44"/>
       <c r="U15" s="18">
         <f>'Teste 1'!K33/1000</f>
         <v>2.6921999999999997</v>
@@ -6525,10 +6520,10 @@
       <c r="V15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W15" s="40" t="s">
+      <c r="W15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="X15" s="41"/>
+      <c r="X15" s="44"/>
       <c r="Y15" s="18">
         <f>'Teste 1'!K32/1000</f>
         <v>2.7669999999999999</v>
@@ -6538,10 +6533,10 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="18">
         <f>'Teste 1'!C48/1000</f>
         <v>13.914</v>
@@ -6549,10 +6544,10 @@
       <c r="E16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="18">
         <f>'Teste 1'!C50/1000</f>
         <v>20.123099999999997</v>
@@ -6560,10 +6555,10 @@
       <c r="I16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="41"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="18">
         <f>'Teste 1'!C49/1000</f>
         <v>27.234999999999999</v>
@@ -6571,10 +6566,10 @@
       <c r="M16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="41"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="18">
         <f>'Teste 1'!K48/1000</f>
         <v>10.545</v>
@@ -6582,10 +6577,10 @@
       <c r="R16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="40" t="s">
+      <c r="S16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="41"/>
+      <c r="T16" s="44"/>
       <c r="U16" s="18">
         <f>'Teste 1'!K50/1000</f>
         <v>10.749799999999999</v>
@@ -6593,10 +6588,10 @@
       <c r="V16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="40" t="s">
+      <c r="W16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="41"/>
+      <c r="X16" s="44"/>
       <c r="Y16" s="18">
         <f>'Teste 1'!K49/1000</f>
         <v>10.956</v>
@@ -6606,10 +6601,10 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="18">
         <f>'Teste 1'!C65/1000/60</f>
         <v>6.6406166666666673</v>
@@ -6617,10 +6612,10 @@
       <c r="E17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="18">
         <f>'Teste 1'!C67/1000/60</f>
         <v>9.6302016666666663</v>
@@ -6628,10 +6623,10 @@
       <c r="I17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="41"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="18">
         <f>'Teste 1'!C66/1000/60</f>
         <v>11.1181</v>
@@ -6639,10 +6634,10 @@
       <c r="M17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="41"/>
+      <c r="P17" s="44"/>
       <c r="Q17" s="18">
         <f>'Teste 1'!K65/1000/60</f>
         <v>4.4021999999999997</v>
@@ -6650,10 +6645,10 @@
       <c r="R17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="40" t="s">
+      <c r="S17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="41"/>
+      <c r="T17" s="44"/>
       <c r="U17" s="18">
         <f>'Teste 1'!K67/1000/60</f>
         <v>4.4738849999999992</v>
@@ -6661,10 +6656,10 @@
       <c r="V17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="40" t="s">
+      <c r="W17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="41"/>
+      <c r="X17" s="44"/>
       <c r="Y17" s="18">
         <f>'Teste 1'!K66/1000/60</f>
         <v>4.5504833333333332</v>
@@ -6674,10 +6669,10 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="19">
         <f>'Teste 1'!C82/1000/60</f>
         <v>39.336366666666663</v>
@@ -6685,10 +6680,10 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="19">
         <f>'Teste 1'!C84/1000/60</f>
         <v>42.404356666666665</v>
@@ -6696,10 +6691,10 @@
       <c r="I18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="19">
         <f>'Teste 1'!C83/1000/60</f>
         <v>44.008900000000004</v>
@@ -6707,10 +6702,10 @@
       <c r="M18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="42" t="s">
+      <c r="O18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="43"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="19">
         <f>'Teste 1'!K82/1000/60</f>
         <v>17.404783333333334</v>
@@ -6718,10 +6713,10 @@
       <c r="R18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="42" t="s">
+      <c r="S18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="43"/>
+      <c r="T18" s="56"/>
       <c r="U18" s="19">
         <f>'Teste 1'!K84/1000/60</f>
         <v>17.667153333333331</v>
@@ -6729,10 +6724,10 @@
       <c r="V18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="42" t="s">
+      <c r="W18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="43"/>
+      <c r="X18" s="56"/>
       <c r="Y18" s="19">
         <f>'Teste 1'!K83/1000/60</f>
         <v>18.221783333333335</v>
@@ -6742,102 +6737,174 @@
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="54" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="54" t="s">
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="O20" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="37" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="37" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="O21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="46" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="46" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="O22" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="49"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51" t="s">
+      <c r="G23" s="40"/>
+      <c r="H23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="49" t="s">
+      <c r="I23" s="51"/>
+      <c r="J23" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="52"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="M23" s="51"/>
+      <c r="O23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="40"/>
+      <c r="S23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="40"/>
+      <c r="U23" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="51"/>
+      <c r="W23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="51"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="45"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="20">
         <f>'Teste 1'!D14</f>
         <v>228</v>
@@ -6845,10 +6912,10 @@
       <c r="E24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="57"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="20">
         <f>'Teste 1'!D16</f>
         <v>234.7</v>
@@ -6856,10 +6923,10 @@
       <c r="I24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="57"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="20">
         <f>'Teste 1'!D15</f>
         <v>241</v>
@@ -6867,15 +6934,45 @@
       <c r="M24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="O24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="20">
+        <f>'Teste 1'!L14</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="52"/>
+      <c r="U24" s="20">
+        <f>'Teste 1'!L16</f>
+        <v>1.5</v>
+      </c>
+      <c r="V24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="20">
+        <f>'Teste 1'!L15</f>
+        <v>2</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="18">
         <f>'Teste 1'!D31/1000</f>
         <v>6.7670000000000003</v>
@@ -6883,10 +6980,10 @@
       <c r="E25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="18">
         <f>'Teste 1'!D33/1000</f>
         <v>6.8606000000000007</v>
@@ -6894,10 +6991,10 @@
       <c r="I25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="56" t="s">
+      <c r="J25" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="56"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="18">
         <f>'Teste 1'!D32/1000</f>
         <v>6.9619999999999997</v>
@@ -6905,15 +7002,45 @@
       <c r="M25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="O25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="23">
+        <f>'Teste 1'!L31</f>
+        <v>8</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="53"/>
+      <c r="U25" s="23">
+        <f>'Teste 1'!L33</f>
+        <v>8</v>
+      </c>
+      <c r="V25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="23">
+        <f>'Teste 1'!L32</f>
+        <v>8</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="18">
         <f>'Teste 1'!D48/1000</f>
         <v>27.103999999999999</v>
@@ -6921,10 +7048,10 @@
       <c r="E26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="18">
         <f>'Teste 1'!D50 /1000</f>
         <v>30.612500000000001</v>
@@ -6932,10 +7059,10 @@
       <c r="I26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="56" t="s">
+      <c r="J26" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="56"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="18">
         <f>'Teste 1'!D49 /1000</f>
         <v>38.634</v>
@@ -6943,15 +7070,45 @@
       <c r="M26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
+      <c r="O26" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="23">
+        <f>'Teste 1'!L48</f>
+        <v>16</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="53"/>
+      <c r="U26" s="23">
+        <f>'Teste 1'!L50</f>
+        <v>16.8</v>
+      </c>
+      <c r="V26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="23">
+        <f>'Teste 1'!L49</f>
+        <v>18</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="18">
         <f>'Teste 1'!D65/1000/60</f>
         <v>15.697833333333334</v>
@@ -6959,10 +7116,10 @@
       <c r="E27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="18">
         <f>'Teste 1'!D67 /1000/60</f>
         <v>16.148106666666667</v>
@@ -6970,10 +7127,10 @@
       <c r="I27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="56" t="s">
+      <c r="J27" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="56"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="18">
         <f>'Teste 1'!D66 /1000/60</f>
         <v>16.805799999999998</v>
@@ -6981,15 +7138,45 @@
       <c r="M27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
+      <c r="O27" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="23">
+        <f>'Teste 1'!L65</f>
+        <v>85</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="53"/>
+      <c r="U27" s="23">
+        <f>'Teste 1'!L67</f>
+        <v>87.6</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="23">
+        <f>'Teste 1'!L66</f>
+        <v>92</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="19">
         <f>'Teste 1'!D82/1000/60</f>
         <v>64.298550000000006</v>
@@ -6997,10 +7184,10 @@
       <c r="E28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="19">
         <f>'Teste 1'!D84/1000/60</f>
         <v>65.691495000000003</v>
@@ -7008,10 +7195,10 @@
       <c r="I28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="53"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="19">
         <f>'Teste 1'!D83/1000/60</f>
         <v>66.868466666666663</v>
@@ -7019,98 +7206,209 @@
       <c r="M28" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="O28" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="21">
+        <f>'Teste 1'!L82</f>
+        <v>175</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="54"/>
+      <c r="U28" s="21">
+        <f>'Teste 1'!L84</f>
+        <v>179.5</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="21">
+        <f>'Teste 1'!L83</f>
+        <v>186</v>
+      </c>
+      <c r="Z28" s="17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="54" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="54" t="s">
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="O29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="37" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="37" t="s">
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+      <c r="O30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="32"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="46" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="46" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="O31" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="49"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="49" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51" t="s">
+      <c r="G32" s="40"/>
+      <c r="H32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="49" t="s">
+      <c r="I32" s="51"/>
+      <c r="J32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51" t="s">
+      <c r="K32" s="40"/>
+      <c r="L32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="52"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
+      <c r="M32" s="51"/>
+      <c r="O32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" s="51"/>
+      <c r="S32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="40"/>
+      <c r="U32" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" s="51"/>
+      <c r="W32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z32" s="51"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="20">
         <f>'Teste 1'!E14</f>
         <v>220</v>
@@ -7118,10 +7416,10 @@
       <c r="E33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="45"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="20">
         <f>'Teste 1'!E16</f>
         <v>229.1</v>
@@ -7129,10 +7427,10 @@
       <c r="I33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="42"/>
       <c r="L33" s="20">
         <f>'Teste 1'!E15</f>
         <v>235</v>
@@ -7140,12 +7438,45 @@
       <c r="M33" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="40" t="s">
+      <c r="O33" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="20">
+        <f>'Teste 1'!M14</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T33" s="42"/>
+      <c r="U33" s="20">
+        <f>'Teste 1'!M16</f>
+        <v>0.5</v>
+      </c>
+      <c r="V33" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="20">
+        <f>'Teste 1'!M15</f>
+        <v>1</v>
+      </c>
+      <c r="Z33" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="18">
         <f>'Teste 1'!E31/1000</f>
         <v>5.6509999999999998</v>
@@ -7153,10 +7484,10 @@
       <c r="E34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="18">
         <f>'Teste 1'!E33/1000</f>
         <v>5.7649999999999997</v>
@@ -7164,10 +7495,10 @@
       <c r="I34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="41"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="18">
         <f>'Teste 1'!E32/1000</f>
         <v>5.9189999999999996</v>
@@ -7175,12 +7506,45 @@
       <c r="M34" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="O34" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="57">
+        <f>'Teste 1'!M31</f>
+        <v>2</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T34" s="44"/>
+      <c r="U34" s="23">
+        <f>'Teste 1'!M33</f>
+        <v>3</v>
+      </c>
+      <c r="V34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="23">
+        <f>'Teste 1'!M32</f>
+        <v>4</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="18">
         <f>'Teste 1'!E48 /1000</f>
         <v>23.802</v>
@@ -7188,10 +7552,10 @@
       <c r="E35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="18">
         <f>'Teste 1'!E50 /1000</f>
         <v>37.589700000000001</v>
@@ -7199,10 +7563,10 @@
       <c r="I35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="40" t="s">
+      <c r="J35" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="41"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="18">
         <f>'Teste 1'!E49 /1000</f>
         <v>42.737000000000002</v>
@@ -7210,12 +7574,45 @@
       <c r="M35" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="40" t="s">
+      <c r="O35" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="57">
+        <f>'Teste 1'!M48</f>
+        <v>6</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="44"/>
+      <c r="U35" s="23">
+        <f>'Teste 1'!M50</f>
+        <v>6.2</v>
+      </c>
+      <c r="V35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="23">
+        <f>'Teste 1'!M49</f>
+        <v>7</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="18">
         <f>'Teste 1'!E65 /1000/60</f>
         <v>12.9732</v>
@@ -7223,10 +7620,10 @@
       <c r="E36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="41"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="18">
         <f>'Teste 1'!E67 /1000/60</f>
         <v>16.207516666666667</v>
@@ -7234,10 +7631,10 @@
       <c r="I36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="40" t="s">
+      <c r="J36" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="41"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="18">
         <f>'Teste 1'!E66 /1000/60</f>
         <v>17.46531666666667</v>
@@ -7245,12 +7642,45 @@
       <c r="M36" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+      <c r="O36" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="57">
+        <f>'Teste 1'!M65</f>
+        <v>33</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" s="44"/>
+      <c r="U36" s="23">
+        <f>'Teste 1'!M67</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="V36" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="23">
+        <f>'Teste 1'!M66</f>
+        <v>36</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="19">
         <f>'Teste 1'!E82/1000/60</f>
         <v>59.355533333333334</v>
@@ -7258,10 +7688,10 @@
       <c r="E37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="19">
         <f>'Teste 1'!E84/1000/60</f>
         <v>66.497138333333325</v>
@@ -7269,10 +7699,10 @@
       <c r="I37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="42" t="s">
+      <c r="J37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="43"/>
+      <c r="K37" s="56"/>
       <c r="L37" s="19">
         <f>'Teste 1'!E83/1000/60</f>
         <v>70.216016666666675</v>
@@ -7280,98 +7710,209 @@
       <c r="M37" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="54" t="s">
+      <c r="O37" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="58">
+        <f>'Teste 1'!M82</f>
+        <v>69</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="56"/>
+      <c r="U37" s="21">
+        <f>'Teste 1'!M84</f>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="V37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="21">
+        <f>'Teste 1'!M83</f>
+        <v>74</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="54" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="54" t="s">
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="O39" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="37" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="37" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="46" t="s">
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="O40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="32"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="46" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="46" t="s">
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="48"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="49" t="s">
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="O41" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="49"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="49" t="s">
+      <c r="C42" s="40"/>
+      <c r="D42" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="49" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="51" t="s">
+      <c r="G42" s="40"/>
+      <c r="H42" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="49" t="s">
+      <c r="I42" s="51"/>
+      <c r="J42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51" t="s">
+      <c r="K42" s="40"/>
+      <c r="L42" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="52"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
+      <c r="M42" s="51"/>
+      <c r="O42" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" s="40"/>
+      <c r="S42" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" s="40"/>
+      <c r="U42" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42" s="51"/>
+      <c r="W42" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z42" s="51"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="45"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="20">
         <f>'Teste 1'!H14</f>
         <v>1</v>
@@ -7379,10 +7920,10 @@
       <c r="E43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="57"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="20">
         <f>'Teste 1'!I16</f>
         <v>1</v>
@@ -7390,10 +7931,10 @@
       <c r="I43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="57" t="s">
+      <c r="J43" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="57"/>
+      <c r="K43" s="52"/>
       <c r="L43" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
@@ -7401,12 +7942,45 @@
       <c r="M43" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="40" t="s">
+      <c r="O43" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="20">
+        <f>'Teste 1'!N14</f>
+        <v>1</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" s="52"/>
+      <c r="U43" s="20">
+        <f>'Teste 1'!N16</f>
+        <v>1.5</v>
+      </c>
+      <c r="V43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W43" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="20">
+        <f>'Teste 1'!N15</f>
+        <v>2</v>
+      </c>
+      <c r="Z43" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="41"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="18">
         <f>'Teste 1'!H31/1000</f>
         <v>8.0000000000000002E-3</v>
@@ -7414,10 +7988,10 @@
       <c r="E44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="56"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="18">
         <f>'Teste 1'!I33/1000</f>
         <v>6.4000000000000003E-3</v>
@@ -7425,10 +7999,10 @@
       <c r="I44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="56" t="s">
+      <c r="J44" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="56"/>
+      <c r="K44" s="53"/>
       <c r="L44" s="18">
         <f>'Teste 1'!I32/1000</f>
         <v>8.0000000000000002E-3</v>
@@ -7436,12 +8010,45 @@
       <c r="M44" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="40" t="s">
+      <c r="O44" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="23">
+        <f>'Teste 1'!N31</f>
+        <v>7</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T44" s="53"/>
+      <c r="U44" s="23">
+        <f>'Teste 1'!N33</f>
+        <v>7.9</v>
+      </c>
+      <c r="V44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W44" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="23">
+        <f>'Teste 1'!N32</f>
+        <v>9</v>
+      </c>
+      <c r="Z44" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="41"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="18">
         <f>'Teste 1'!H48 /1000</f>
         <v>1.7999999999999999E-2</v>
@@ -7449,10 +8056,10 @@
       <c r="E45" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="56"/>
+      <c r="G45" s="53"/>
       <c r="H45" s="18">
         <f>'Teste 1'!I50 /1000</f>
         <v>1.14E-2</v>
@@ -7460,10 +8067,10 @@
       <c r="I45" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="56" t="s">
+      <c r="J45" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="56"/>
+      <c r="K45" s="53"/>
       <c r="L45" s="18">
         <f>'Teste 1'!I49 /1000</f>
         <v>1.2999999999999999E-2</v>
@@ -7471,12 +8078,45 @@
       <c r="M45" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="s">
+      <c r="O45" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="23">
+        <f>'Teste 1'!N48</f>
+        <v>15</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="T45" s="53"/>
+      <c r="U45" s="23">
+        <f>'Teste 1'!N50</f>
+        <v>15.9</v>
+      </c>
+      <c r="V45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W45" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="23">
+        <f>'Teste 1'!N49</f>
+        <v>18</v>
+      </c>
+      <c r="Z45" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="41"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="18">
         <f>'Teste 1'!H65 /1000/60</f>
         <v>1.7166666666666665E-3</v>
@@ -7484,10 +8124,10 @@
       <c r="E46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="53"/>
       <c r="H46" s="18">
         <f>'Teste 1'!I67 /1000/60</f>
         <v>1.2583333333333333E-3</v>
@@ -7495,10 +8135,10 @@
       <c r="I46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="56" t="s">
+      <c r="J46" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="56"/>
+      <c r="K46" s="53"/>
       <c r="L46" s="18">
         <f>'Teste 1'!I66 /1000/60</f>
         <v>1.3666666666666666E-3</v>
@@ -7506,12 +8146,45 @@
       <c r="M46" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="42" t="s">
+      <c r="O46" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="23">
+        <f>'Teste 1'!N65</f>
+        <v>85</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T46" s="53"/>
+      <c r="U46" s="23">
+        <f>'Teste 1'!N67</f>
+        <v>87.3</v>
+      </c>
+      <c r="V46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W46" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="23">
+        <f>'Teste 1'!N66</f>
+        <v>90</v>
+      </c>
+      <c r="Z46" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="43"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="19">
         <f>'Teste 1'!H82/1000/60</f>
         <v>3.6666666666666666E-3</v>
@@ -7519,10 +8192,10 @@
       <c r="E47" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="53"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="19">
         <f>'Teste 1'!I84/1000/60</f>
         <v>2.4383333333333336E-3</v>
@@ -7530,10 +8203,10 @@
       <c r="I47" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="53" t="s">
+      <c r="J47" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="53"/>
+      <c r="K47" s="54"/>
       <c r="L47" s="19">
         <f>'Teste 1'!I83/1000/60</f>
         <v>2.5666666666666667E-3</v>
@@ -7541,98 +8214,209 @@
       <c r="M47" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="54" t="s">
+      <c r="O47" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="21">
+        <f>'Teste 1'!N82</f>
+        <v>194</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="54"/>
+      <c r="U47" s="21">
+        <f>'Teste 1'!N84</f>
+        <v>197.5</v>
+      </c>
+      <c r="V47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="21">
+        <f>'Teste 1'!N83</f>
+        <v>203</v>
+      </c>
+      <c r="Z47" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="54" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="54" t="s">
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="O48" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="37" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="37" t="s">
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="46" t="s">
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="32"/>
+      <c r="O49" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="32"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="46" t="s">
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="46" t="s">
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="48"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="49" t="s">
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="49"/>
+      <c r="O50" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="49"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="51" t="s">
+      <c r="C51" s="40"/>
+      <c r="D51" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="49" t="s">
+      <c r="E51" s="51"/>
+      <c r="F51" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51" t="s">
+      <c r="G51" s="40"/>
+      <c r="H51" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="49" t="s">
+      <c r="I51" s="51"/>
+      <c r="J51" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51" t="s">
+      <c r="K51" s="40"/>
+      <c r="L51" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="52"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
+      <c r="M51" s="51"/>
+      <c r="O51" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" s="51"/>
+      <c r="S51" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T51" s="40"/>
+      <c r="U51" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="V51" s="51"/>
+      <c r="W51" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z51" s="51"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="57"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="20">
         <f>'Teste 1'!I14</f>
         <v>1</v>
@@ -7640,10 +8424,10 @@
       <c r="E52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="45"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="20">
         <f>'Teste 1'!I16</f>
         <v>1</v>
@@ -7651,10 +8435,10 @@
       <c r="I52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="44" t="s">
+      <c r="J52" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="45"/>
+      <c r="K52" s="42"/>
       <c r="L52" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
@@ -7662,12 +8446,45 @@
       <c r="M52" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="40" t="s">
+      <c r="O52" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="20">
+        <f>'Teste 1'!O14</f>
+        <v>107</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T52" s="42"/>
+      <c r="U52" s="20">
+        <f>'Teste 1'!O16</f>
+        <v>108.1</v>
+      </c>
+      <c r="V52" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W52" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="20">
+        <f>'Teste 1'!O15</f>
+        <v>110</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="56"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="18">
         <f>'Teste 1'!I31/1000</f>
         <v>5.0000000000000001E-3</v>
@@ -7675,10 +8492,10 @@
       <c r="E53" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="56" t="s">
+      <c r="F53" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="41"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="18">
         <f>'Teste 1'!I33/1000</f>
         <v>6.4000000000000003E-3</v>
@@ -7686,10 +8503,10 @@
       <c r="I53" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J53" s="40" t="s">
+      <c r="J53" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="41"/>
+      <c r="K53" s="44"/>
       <c r="L53" s="18">
         <f>'Teste 1'!I32/1000</f>
         <v>8.0000000000000002E-3</v>
@@ -7697,12 +8514,45 @@
       <c r="M53" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
+      <c r="O53" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="18">
+        <f>'Teste 1'!O31/1000</f>
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T53" s="44"/>
+      <c r="U53" s="18">
+        <f>'Teste 1'!O33/1000</f>
+        <v>2.6964999999999999</v>
+      </c>
+      <c r="V53" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W53" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="18">
+        <f>'Teste 1'!O32/1000</f>
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="Z53" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="56"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="18">
         <f>'Teste 1'!I48/1000</f>
         <v>1.0999999999999999E-2</v>
@@ -7710,10 +8560,10 @@
       <c r="E54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="56" t="s">
+      <c r="F54" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="41"/>
+      <c r="G54" s="44"/>
       <c r="H54" s="18">
         <f>'Teste 1'!I50 /1000</f>
         <v>1.14E-2</v>
@@ -7721,10 +8571,10 @@
       <c r="I54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="40" t="s">
+      <c r="J54" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="41"/>
+      <c r="K54" s="44"/>
       <c r="L54" s="18">
         <f>'Teste 1'!I49 /1000</f>
         <v>1.2999999999999999E-2</v>
@@ -7732,12 +8582,45 @@
       <c r="M54" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="40" t="s">
+      <c r="O54" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="18">
+        <f>'Teste 1'!O48/1000</f>
+        <v>10.738</v>
+      </c>
+      <c r="R54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="T54" s="44"/>
+      <c r="U54" s="18">
+        <f>'Teste 1'!O50/1000</f>
+        <v>10.7781</v>
+      </c>
+      <c r="V54" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W54" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="18">
+        <f>'Teste 1'!O49/1000</f>
+        <v>10.853</v>
+      </c>
+      <c r="Z54" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B55" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="56"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="18">
         <f>'Teste 1'!I65/1000/60</f>
         <v>1.1666666666666668E-3</v>
@@ -7745,10 +8628,10 @@
       <c r="E55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="41"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="18">
         <f>'Teste 1'!I67 /1000/60</f>
         <v>1.2583333333333333E-3</v>
@@ -7756,10 +8639,10 @@
       <c r="I55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="40" t="s">
+      <c r="J55" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="41"/>
+      <c r="K55" s="44"/>
       <c r="L55" s="18">
         <f>'Teste 1'!I66/1000/60</f>
         <v>1.3666666666666666E-3</v>
@@ -7767,12 +8650,45 @@
       <c r="M55" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="42" t="s">
+      <c r="O55" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="18">
+        <f>'Teste 1'!O65/1000/60</f>
+        <v>4.4697500000000003</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S55" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T55" s="44"/>
+      <c r="U55" s="18">
+        <f>'Teste 1'!O67/1000/60</f>
+        <v>4.5798999999999994</v>
+      </c>
+      <c r="V55" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W55" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="18">
+        <f>'Teste 1'!O66/1000/60</f>
+        <v>4.9193000000000007</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="19">
         <f>'Teste 1'!I82/1000/60</f>
         <v>2.2166666666666667E-3</v>
@@ -7780,10 +8696,10 @@
       <c r="E56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="43"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="19">
         <f>'Teste 1'!I84/1000/60</f>
         <v>2.4383333333333336E-3</v>
@@ -7791,10 +8707,10 @@
       <c r="I56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="42" t="s">
+      <c r="J56" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="43"/>
+      <c r="K56" s="56"/>
       <c r="L56" s="19">
         <f>'Teste 1'!I83/1000/60</f>
         <v>2.5666666666666667E-3</v>
@@ -7802,98 +8718,131 @@
       <c r="M56" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="54" t="s">
+      <c r="O56" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="19">
+        <f>'Teste 1'!O82/1000/60</f>
+        <v>17.898949999999999</v>
+      </c>
+      <c r="R56" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S56" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="56"/>
+      <c r="U56" s="19">
+        <f>'Teste 1'!O84/1000/60</f>
+        <v>17.931876666666668</v>
+      </c>
+      <c r="V56" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W56" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="19">
+        <f>'Teste 1'!O83/1000/60</f>
+        <v>17.962783333333334</v>
+      </c>
+      <c r="Z56" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B58" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="54" t="s">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="54" t="s">
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="37" t="s">
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B59" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="37" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="37" t="s">
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="39"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="46" t="s">
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B60" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="46" t="s">
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="46" t="s">
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="48"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="49" t="s">
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="49"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B61" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="49" t="s">
+      <c r="C61" s="40"/>
+      <c r="D61" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="49" t="s">
+      <c r="E61" s="40"/>
+      <c r="F61" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="51" t="s">
+      <c r="G61" s="40"/>
+      <c r="H61" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I61" s="52"/>
-      <c r="J61" s="49" t="s">
+      <c r="I61" s="51"/>
+      <c r="J61" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="50"/>
-      <c r="L61" s="51" t="s">
+      <c r="K61" s="40"/>
+      <c r="L61" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="M61" s="52"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="44" t="s">
+      <c r="M61" s="51"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B62" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="45"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="20">
         <f>'Teste 1'!F14</f>
         <v>1</v>
@@ -7901,10 +8850,10 @@
       <c r="E62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="57"/>
+      <c r="G62" s="52"/>
       <c r="H62" s="20">
         <f>'Teste 1'!F16</f>
         <v>1.3</v>
@@ -7912,10 +8861,10 @@
       <c r="I62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="57" t="s">
+      <c r="J62" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="57"/>
+      <c r="K62" s="52"/>
       <c r="L62" s="20">
         <f>'Teste 1'!F15</f>
         <v>2</v>
@@ -7924,11 +8873,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B63" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="23">
         <f>'Teste 1'!F31</f>
         <v>9</v>
@@ -7936,10 +8885,10 @@
       <c r="E63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="56"/>
+      <c r="G63" s="53"/>
       <c r="H63" s="23">
         <f>'Teste 1'!F33</f>
         <v>9.9</v>
@@ -7947,10 +8896,10 @@
       <c r="I63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="56" t="s">
+      <c r="J63" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="56"/>
+      <c r="K63" s="53"/>
       <c r="L63" s="23">
         <f>'Teste 1'!F32</f>
         <v>11</v>
@@ -7959,11 +8908,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="40" t="s">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B64" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="44"/>
       <c r="D64" s="23">
         <f>'Teste 1'!F48</f>
         <v>27</v>
@@ -7971,10 +8920,10 @@
       <c r="E64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F64" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="56"/>
+      <c r="G64" s="53"/>
       <c r="H64" s="23">
         <f>'Teste 1'!F50</f>
         <v>28.6</v>
@@ -7982,10 +8931,10 @@
       <c r="I64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J64" s="56" t="s">
+      <c r="J64" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="56"/>
+      <c r="K64" s="53"/>
       <c r="L64" s="23">
         <f>'Teste 1'!F49</f>
         <v>30</v>
@@ -7995,10 +8944,10 @@
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="23">
         <f>'Teste 1'!F65</f>
         <v>184</v>
@@ -8006,10 +8955,10 @@
       <c r="E65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="56"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="23">
         <f>'Teste 1'!F67</f>
         <v>197.2</v>
@@ -8017,10 +8966,10 @@
       <c r="I65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="56" t="s">
+      <c r="J65" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="56"/>
+      <c r="K65" s="53"/>
       <c r="L65" s="23">
         <f>'Teste 1'!F66</f>
         <v>209</v>
@@ -8030,10 +8979,10 @@
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="43"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="21">
         <f>'Teste 1'!F82</f>
         <v>422</v>
@@ -8041,10 +8990,10 @@
       <c r="E66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="42" t="s">
+      <c r="F66" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="53"/>
+      <c r="G66" s="54"/>
       <c r="H66" s="21">
         <f>'Teste 1'!F84</f>
         <v>435.7</v>
@@ -8052,10 +9001,10 @@
       <c r="I66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="53" t="s">
+      <c r="J66" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="53"/>
+      <c r="K66" s="54"/>
       <c r="L66" s="21">
         <f>'Teste 1'!F83</f>
         <v>454</v>
@@ -8065,96 +9014,96 @@
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="54" t="s">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="54" t="s">
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="37" t="s">
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="37" t="s">
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="39"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="32"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="46" t="s">
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="46" t="s">
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="49"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="51" t="s">
+      <c r="C70" s="40"/>
+      <c r="D70" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="49" t="s">
+      <c r="E70" s="51"/>
+      <c r="F70" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="50"/>
-      <c r="H70" s="51" t="s">
+      <c r="G70" s="40"/>
+      <c r="H70" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="49" t="s">
+      <c r="I70" s="51"/>
+      <c r="J70" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="50"/>
-      <c r="L70" s="51" t="s">
+      <c r="K70" s="40"/>
+      <c r="L70" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="M70" s="52"/>
+      <c r="M70" s="51"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="45"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="20">
         <f>'Teste 1'!G14</f>
         <v>0</v>
@@ -8162,10 +9111,10 @@
       <c r="E71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="57"/>
+      <c r="G71" s="52"/>
       <c r="H71" s="20">
         <f>'Teste 1'!G16</f>
         <v>0.3</v>
@@ -8173,10 +9122,10 @@
       <c r="I71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="57" t="s">
+      <c r="J71" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="57"/>
+      <c r="K71" s="52"/>
       <c r="L71" s="20">
         <f>'Teste 1'!G15</f>
         <v>1</v>
@@ -8186,10 +9135,10 @@
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="41"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="23">
         <f>'Teste 1'!G31</f>
         <v>2</v>
@@ -8197,10 +9146,10 @@
       <c r="E72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="40" t="s">
+      <c r="F72" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="56"/>
+      <c r="G72" s="53"/>
       <c r="H72" s="23">
         <f>'Teste 1'!G33</f>
         <v>2.8</v>
@@ -8208,10 +9157,10 @@
       <c r="I72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="56" t="s">
+      <c r="J72" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="56"/>
+      <c r="K72" s="53"/>
       <c r="L72" s="23">
         <f>'Teste 1'!G32</f>
         <v>4</v>
@@ -8221,10 +9170,10 @@
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="41"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="23">
         <f>'Teste 1'!G48</f>
         <v>7</v>
@@ -8232,10 +9181,10 @@
       <c r="E73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="40" t="s">
+      <c r="F73" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="56"/>
+      <c r="G73" s="53"/>
       <c r="H73" s="23">
         <f>'Teste 1'!G50</f>
         <v>9.1</v>
@@ -8243,10 +9192,10 @@
       <c r="I73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="56" t="s">
+      <c r="J73" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="56"/>
+      <c r="K73" s="53"/>
       <c r="L73" s="23">
         <f>'Teste 1'!G49</f>
         <v>11</v>
@@ -8256,10 +9205,10 @@
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="41"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="23">
         <f>'Teste 1'!G65</f>
         <v>49</v>
@@ -8267,10 +9216,10 @@
       <c r="E74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="40" t="s">
+      <c r="F74" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="56"/>
+      <c r="G74" s="53"/>
       <c r="H74" s="23">
         <f>'Teste 1'!G67</f>
         <v>55.3</v>
@@ -8278,10 +9227,10 @@
       <c r="I74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="56" t="s">
+      <c r="J74" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="56"/>
+      <c r="K74" s="53"/>
       <c r="L74" s="23">
         <f>'Teste 1'!G66</f>
         <v>62</v>
@@ -8291,10 +9240,10 @@
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="43"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="21">
         <f>'Teste 1'!G82</f>
         <v>114</v>
@@ -8302,10 +9251,10 @@
       <c r="E75" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="42" t="s">
+      <c r="F75" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="53"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="21">
         <f>'Teste 1'!G84</f>
         <v>121.1</v>
@@ -8313,10 +9262,10 @@
       <c r="I75" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J75" s="53" t="s">
+      <c r="J75" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="53"/>
+      <c r="K75" s="54"/>
       <c r="L75" s="21">
         <f>'Teste 1'!G83</f>
         <v>128</v>
@@ -8326,96 +9275,96 @@
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="54" t="s">
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="54" t="s">
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="55"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="37" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="37" t="s">
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="39"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="32"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="46" t="s">
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="46" t="s">
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="49"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="49" t="s">
+      <c r="C80" s="40"/>
+      <c r="D80" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="49" t="s">
+      <c r="E80" s="40"/>
+      <c r="F80" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="50"/>
-      <c r="H80" s="51" t="s">
+      <c r="G80" s="40"/>
+      <c r="H80" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I80" s="52"/>
-      <c r="J80" s="49" t="s">
+      <c r="I80" s="51"/>
+      <c r="J80" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K80" s="50"/>
-      <c r="L80" s="51" t="s">
+      <c r="K80" s="40"/>
+      <c r="L80" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="M80" s="52"/>
+      <c r="M80" s="51"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="45"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="20">
         <f>'Teste 1'!P14</f>
         <v>190</v>
@@ -8423,10 +9372,10 @@
       <c r="E81" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="57"/>
+      <c r="G81" s="52"/>
       <c r="H81" s="20">
         <f>'Teste 1'!P16</f>
         <v>195.7</v>
@@ -8434,10 +9383,10 @@
       <c r="I81" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J81" s="57" t="s">
+      <c r="J81" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="57"/>
+      <c r="K81" s="52"/>
       <c r="L81" s="20">
         <f>'Teste 1'!P15</f>
         <v>206</v>
@@ -8447,10 +9396,10 @@
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="41"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="18">
         <f>'Teste 1'!P31/1000</f>
         <v>5.3540000000000001</v>
@@ -8458,10 +9407,10 @@
       <c r="E82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="40" t="s">
+      <c r="F82" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="56"/>
+      <c r="G82" s="53"/>
       <c r="H82" s="18">
         <f>'Teste 1'!P33/1000</f>
         <v>5.3758999999999997</v>
@@ -8469,10 +9418,10 @@
       <c r="I82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="56" t="s">
+      <c r="J82" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K82" s="56"/>
+      <c r="K82" s="53"/>
       <c r="L82" s="18">
         <f>'Teste 1'!P32/1000</f>
         <v>5.43</v>
@@ -8482,10 +9431,10 @@
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="41"/>
+      <c r="C83" s="44"/>
       <c r="D83" s="18">
         <f>'Teste 1'!P48/1000</f>
         <v>21.995999999999999</v>
@@ -8493,10 +9442,10 @@
       <c r="E83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="F83" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="53"/>
       <c r="H83" s="18">
         <f>'Teste 1'!P50/1000</f>
         <v>22.170900000000003</v>
@@ -8504,10 +9453,10 @@
       <c r="I83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J83" s="56" t="s">
+      <c r="J83" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="56"/>
+      <c r="K83" s="53"/>
       <c r="L83" s="18">
         <f>'Teste 1'!P49/1000</f>
         <v>22.706</v>
@@ -8517,10 +9466,10 @@
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="41"/>
+      <c r="C84" s="44"/>
       <c r="D84" s="18">
         <f>'Teste 1'!P65/1000/60</f>
         <v>9.341566666666667</v>
@@ -8528,10 +9477,10 @@
       <c r="E84" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F84" s="40" t="s">
+      <c r="F84" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="56"/>
+      <c r="G84" s="53"/>
       <c r="H84" s="18">
         <f>'Teste 1'!P67/1000/60</f>
         <v>9.5401316666666673</v>
@@ -8539,10 +9488,10 @@
       <c r="I84" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="56" t="s">
+      <c r="J84" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="56"/>
+      <c r="K84" s="53"/>
       <c r="L84" s="18">
         <f>'Teste 1'!P66/1000/60</f>
         <v>10.052383333333333</v>
@@ -8552,10 +9501,10 @@
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="43"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="19">
         <f>'Teste 1'!P82/1000/60</f>
         <v>37.625450000000001</v>
@@ -8563,10 +9512,10 @@
       <c r="E85" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F85" s="42" t="s">
+      <c r="F85" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="53"/>
+      <c r="G85" s="54"/>
       <c r="H85" s="19">
         <f>'Teste 1'!P84/1000/60</f>
         <v>39.522801666666666</v>
@@ -8574,10 +9523,10 @@
       <c r="I85" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J85" s="53" t="s">
+      <c r="J85" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="53"/>
+      <c r="K85" s="54"/>
       <c r="L85" s="19">
         <f>'Teste 1'!P83/1000/60</f>
         <v>41.662100000000002</v>
@@ -8587,96 +9536,96 @@
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="54" t="s">
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="54" t="s">
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="37" t="s">
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="37" t="s">
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="39"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="32"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="46" t="s">
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="46" t="s">
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="49"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="51" t="s">
+      <c r="C89" s="40"/>
+      <c r="D89" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="52"/>
-      <c r="F89" s="49" t="s">
+      <c r="E89" s="51"/>
+      <c r="F89" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G89" s="50"/>
-      <c r="H89" s="51" t="s">
+      <c r="G89" s="40"/>
+      <c r="H89" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I89" s="52"/>
-      <c r="J89" s="49" t="s">
+      <c r="I89" s="51"/>
+      <c r="J89" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K89" s="50"/>
-      <c r="L89" s="51" t="s">
+      <c r="K89" s="40"/>
+      <c r="L89" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="M89" s="52"/>
+      <c r="M89" s="51"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="57"/>
+      <c r="C90" s="52"/>
       <c r="D90" s="20">
         <f>'Teste 1'!Q14</f>
         <v>232</v>
@@ -8684,10 +9633,10 @@
       <c r="E90" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="57" t="s">
+      <c r="F90" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="57"/>
+      <c r="G90" s="52"/>
       <c r="H90" s="20">
         <f>'Teste 1'!Q16</f>
         <v>238.8</v>
@@ -8695,10 +9644,10 @@
       <c r="I90" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J90" s="57" t="s">
+      <c r="J90" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="57"/>
+      <c r="K90" s="52"/>
       <c r="L90" s="20">
         <f>'Teste 1'!Q15</f>
         <v>261</v>
@@ -8708,10 +9657,10 @@
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="56"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="18">
         <f>'Teste 1'!Q31/1000</f>
         <v>5.88</v>
@@ -8719,10 +9668,10 @@
       <c r="E91" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="56" t="s">
+      <c r="F91" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="56"/>
+      <c r="G91" s="53"/>
       <c r="H91" s="23">
         <f>'Teste 1'!Q33/1000</f>
         <v>5.9473000000000003</v>
@@ -8730,10 +9679,10 @@
       <c r="I91" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J91" s="56" t="s">
+      <c r="J91" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K91" s="56"/>
+      <c r="K91" s="53"/>
       <c r="L91" s="18">
         <f>'Teste 1'!Q33/1000</f>
         <v>5.9473000000000003</v>
@@ -8743,10 +9692,10 @@
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="56"/>
+      <c r="C92" s="53"/>
       <c r="D92" s="18">
         <f>'Teste 1'!Q48/1000</f>
         <v>23.521000000000001</v>
@@ -8754,10 +9703,10 @@
       <c r="E92" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="56"/>
+      <c r="G92" s="53"/>
       <c r="H92" s="23">
         <f>'Teste 1'!Q50/1000</f>
         <v>23.644099999999998</v>
@@ -8765,10 +9714,10 @@
       <c r="I92" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J92" s="56" t="s">
+      <c r="J92" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="56"/>
+      <c r="K92" s="53"/>
       <c r="L92" s="18">
         <f>'Teste 1'!Q50/1000</f>
         <v>23.644099999999998</v>
@@ -8778,10 +9727,10 @@
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="56"/>
+      <c r="C93" s="53"/>
       <c r="D93" s="18">
         <f>'Teste 1'!Q65/1000/60</f>
         <v>9.7959166666666668</v>
@@ -8789,10 +9738,10 @@
       <c r="E93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="56" t="s">
+      <c r="F93" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="56"/>
+      <c r="G93" s="53"/>
       <c r="H93" s="23">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>9.9129483333333344</v>
@@ -8800,10 +9749,10 @@
       <c r="I93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J93" s="56" t="s">
+      <c r="J93" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="56"/>
+      <c r="K93" s="53"/>
       <c r="L93" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>9.9129483333333344</v>
@@ -8813,10 +9762,10 @@
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="53"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="19">
         <f>'Teste 1'!Q82/1000/60</f>
         <v>40.053533333333334</v>
@@ -8824,10 +9773,10 @@
       <c r="E94" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="53" t="s">
+      <c r="F94" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="53"/>
+      <c r="G94" s="54"/>
       <c r="H94" s="21">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>44.521449999999994</v>
@@ -8835,10 +9784,10 @@
       <c r="I94" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J94" s="53" t="s">
+      <c r="J94" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="53"/>
+      <c r="K94" s="54"/>
       <c r="L94" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>44.521449999999994</v>
@@ -8848,16 +9797,463 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="360">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+  <mergeCells count="480">
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="W49:Z49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
@@ -8873,342 +10269,15 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22899140\Documents\GitHub\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6806ADF2-E356-45A1-804F-DB23D3DBF771}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2632C5-84DD-4CA8-8AD6-5E8D35E93E08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -489,10 +489,34 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,46 +534,22 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,13 +561,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -576,17 +579,77 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,60 +980,60 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="33" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="33" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="34"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1764,7 +1827,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="12">
@@ -1833,70 +1896,70 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="26">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30">
         <f>SUM(B17:C17)</f>
         <v>2131</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26">
+      <c r="C18" s="31"/>
+      <c r="D18" s="30">
         <f>SUM(D17:E17)</f>
         <v>4638</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26">
+      <c r="E18" s="31"/>
+      <c r="F18" s="30">
         <f>SUM(F17:G17)</f>
         <v>16</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26">
+      <c r="G18" s="31"/>
+      <c r="H18" s="30">
         <f>SUM(H17:I17)</f>
         <v>27</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26">
+      <c r="I18" s="31"/>
+      <c r="J18" s="30">
         <f>SUM(J17:K17)</f>
         <v>1137</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="26">
+      <c r="K18" s="31"/>
+      <c r="L18" s="30">
         <f>SUM(L17:M17)</f>
         <v>20</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="26">
+      <c r="M18" s="31"/>
+      <c r="N18" s="30">
         <f>SUM(N17:O17)</f>
         <v>1096</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="26">
+      <c r="O18" s="31"/>
+      <c r="P18" s="30">
         <f>SUM(P17:Q17)</f>
         <v>4345</v>
       </c>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2688,7 +2751,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="12">
@@ -2757,70 +2820,70 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="26">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30">
         <f>SUM(B34:C34)</f>
         <v>52956</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26">
+      <c r="C35" s="31"/>
+      <c r="D35" s="30">
         <f>SUM(D34:E34)</f>
         <v>126256</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="26">
+      <c r="E35" s="31"/>
+      <c r="F35" s="30">
         <f>SUM(F34:G34)</f>
         <v>127</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="26">
+      <c r="G35" s="31"/>
+      <c r="H35" s="30">
         <f>SUM(H34:I34)</f>
         <v>152</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="26">
+      <c r="I35" s="31"/>
+      <c r="J35" s="30">
         <f>SUM(J34:K34)</f>
         <v>26996</v>
       </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="26">
+      <c r="K35" s="31"/>
+      <c r="L35" s="30">
         <f>SUM(L34:M34)</f>
         <v>110</v>
       </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="26">
+      <c r="M35" s="31"/>
+      <c r="N35" s="30">
         <f>SUM(N34:O34)</f>
         <v>27044</v>
       </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="26">
+      <c r="O35" s="31"/>
+      <c r="P35" s="30">
         <f>SUM(P34:Q34)</f>
         <v>113232</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="32"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="40"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -3613,7 +3676,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="12">
@@ -3682,70 +3745,70 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="26">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30">
         <f>SUM(B51:C51)</f>
         <v>280650</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="26">
+      <c r="C52" s="31"/>
+      <c r="D52" s="30">
         <f>SUM(D51:E51)</f>
         <v>682022</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="26">
+      <c r="E52" s="31"/>
+      <c r="F52" s="30">
         <f>SUM(F51:G51)</f>
         <v>377</v>
       </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="26">
+      <c r="G52" s="31"/>
+      <c r="H52" s="30">
         <f>SUM(H51:I51)</f>
         <v>307</v>
       </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="26">
+      <c r="I52" s="31"/>
+      <c r="J52" s="30">
         <f>SUM(J51:K51)</f>
         <v>107649</v>
       </c>
-      <c r="K52" s="27"/>
-      <c r="L52" s="26">
+      <c r="K52" s="31"/>
+      <c r="L52" s="30">
         <f>SUM(L51:M51)</f>
         <v>230</v>
       </c>
-      <c r="M52" s="27"/>
-      <c r="N52" s="26">
+      <c r="M52" s="31"/>
+      <c r="N52" s="30">
         <f>SUM(N51:O51)</f>
         <v>107940</v>
       </c>
-      <c r="O52" s="27"/>
-      <c r="P52" s="26">
+      <c r="O52" s="31"/>
+      <c r="P52" s="30">
         <f>SUM(P51:Q51)</f>
         <v>458150</v>
       </c>
-      <c r="Q52" s="27"/>
+      <c r="Q52" s="31"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="32"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="40"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -4538,7 +4601,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="12">
@@ -4607,70 +4670,70 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="26">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30">
         <f>SUM(B68:C68)</f>
         <v>8707945</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="26">
+      <c r="C69" s="31"/>
+      <c r="D69" s="30">
         <f>SUM(D68:E68)</f>
         <v>19413374</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="26">
+      <c r="E69" s="31"/>
+      <c r="F69" s="30">
         <f>SUM(F68:G68)</f>
         <v>2525</v>
       </c>
-      <c r="G69" s="27"/>
-      <c r="H69" s="26">
+      <c r="G69" s="31"/>
+      <c r="H69" s="30">
         <f>SUM(H68:I68)</f>
         <v>1835</v>
       </c>
-      <c r="I69" s="27"/>
-      <c r="J69" s="26">
+      <c r="I69" s="31"/>
+      <c r="J69" s="30">
         <f>SUM(J68:K68)</f>
         <v>2685156</v>
       </c>
-      <c r="K69" s="27"/>
-      <c r="L69" s="26">
+      <c r="K69" s="31"/>
+      <c r="L69" s="30">
         <f>SUM(L68:M68)</f>
         <v>1218</v>
       </c>
-      <c r="M69" s="27"/>
-      <c r="N69" s="26">
+      <c r="M69" s="31"/>
+      <c r="N69" s="30">
         <f>SUM(N68:O68)</f>
         <v>2748813</v>
       </c>
-      <c r="O69" s="27"/>
-      <c r="P69" s="26">
+      <c r="O69" s="31"/>
+      <c r="P69" s="30">
         <f>SUM(P68:Q68)</f>
         <v>11671848</v>
       </c>
-      <c r="Q69" s="27"/>
+      <c r="Q69" s="31"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="32"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="40"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -5463,7 +5526,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="12">
@@ -5532,92 +5595,92 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="26">
+      <c r="A86" s="29"/>
+      <c r="B86" s="30">
         <f>SUM(B85:C85)</f>
         <v>37781303</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="26">
+      <c r="C86" s="31"/>
+      <c r="D86" s="30">
         <f>SUM(D85:E85)</f>
         <v>79313180</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="26">
+      <c r="E86" s="31"/>
+      <c r="F86" s="30">
         <f>SUM(F85:G85)</f>
         <v>5568</v>
       </c>
-      <c r="G86" s="27"/>
-      <c r="H86" s="26">
+      <c r="G86" s="31"/>
+      <c r="H86" s="30">
         <f>SUM(H85:I85)</f>
         <v>3746</v>
       </c>
-      <c r="I86" s="27"/>
-      <c r="J86" s="26">
+      <c r="I86" s="31"/>
+      <c r="J86" s="30">
         <f>SUM(J85:K85)</f>
         <v>10602239</v>
       </c>
-      <c r="K86" s="27"/>
-      <c r="L86" s="26">
+      <c r="K86" s="31"/>
+      <c r="L86" s="30">
         <f>SUM(L85:M85)</f>
         <v>2509</v>
       </c>
-      <c r="M86" s="27"/>
-      <c r="N86" s="26">
+      <c r="M86" s="31"/>
+      <c r="N86" s="30">
         <f>SUM(N85:O85)</f>
         <v>10761101</v>
       </c>
-      <c r="O86" s="27"/>
-      <c r="P86" s="26">
+      <c r="O86" s="31"/>
+      <c r="P86" s="30">
         <f>SUM(P85:Q85)</f>
         <v>50426551</v>
       </c>
-      <c r="Q86" s="27"/>
+      <c r="Q86" s="31"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="36">
         <f>SUM(B86+B69+B52+B35+B18)</f>
         <v>46824985</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="28">
+      <c r="C87" s="37"/>
+      <c r="D87" s="36">
         <f>SUM(D86+D69+D52+D35+D18)</f>
         <v>99539470</v>
       </c>
-      <c r="E87" s="29"/>
-      <c r="F87" s="28">
+      <c r="E87" s="37"/>
+      <c r="F87" s="36">
         <f>SUM(F86+F69+F52+F35+F18)</f>
         <v>8613</v>
       </c>
-      <c r="G87" s="29"/>
-      <c r="H87" s="28">
+      <c r="G87" s="37"/>
+      <c r="H87" s="36">
         <f>SUM(H86+H69+H52+H35+H18)</f>
         <v>6067</v>
       </c>
-      <c r="I87" s="29"/>
-      <c r="J87" s="28">
+      <c r="I87" s="37"/>
+      <c r="J87" s="36">
         <f>SUM(J86+J69+J52+J35+J18)</f>
         <v>13423177</v>
       </c>
-      <c r="K87" s="29"/>
-      <c r="L87" s="28">
+      <c r="K87" s="37"/>
+      <c r="L87" s="36">
         <f>SUM(L86+L69+L52+L35+L18)</f>
         <v>4087</v>
       </c>
-      <c r="M87" s="29"/>
-      <c r="N87" s="28">
+      <c r="M87" s="37"/>
+      <c r="N87" s="36">
         <f>SUM(N86+N69+N52+N35+N18)</f>
         <v>13645994</v>
       </c>
-      <c r="O87" s="29"/>
-      <c r="P87" s="28">
+      <c r="O87" s="37"/>
+      <c r="P87" s="36">
         <f>SUM(P86+P69+P52+P35+P18)</f>
         <v>62674126</v>
       </c>
-      <c r="Q87" s="29"/>
+      <c r="Q87" s="37"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F89">
@@ -5634,56 +5697,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="66">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="P87:Q87"/>
     <mergeCell ref="B2:P2"/>
@@ -5700,6 +5713,56 @@
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="D87:E87"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H69:I69"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5715,7 +5778,7 @@
   <dimension ref="B1:Z94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52"/>
+      <selection activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5729,80 +5792,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="45" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="O1" s="45" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="O1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="45" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="45" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="O2" s="30" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="O2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="30" t="s">
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
@@ -5843,60 +5906,60 @@
       <c r="Z3" s="49"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="50" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="39" t="s">
+      <c r="I4" s="53"/>
+      <c r="J4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="50" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="O4" s="39" t="s">
+      <c r="M4" s="53"/>
+      <c r="O4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="39" t="s">
+      <c r="P4" s="51"/>
+      <c r="Q4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="39" t="s">
+      <c r="R4" s="51"/>
+      <c r="S4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="51"/>
+      <c r="U4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="51"/>
-      <c r="W4" s="39" t="s">
+      <c r="V4" s="53"/>
+      <c r="W4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="50" t="s">
+      <c r="X4" s="51"/>
+      <c r="Y4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="51"/>
+      <c r="Z4" s="53"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="20">
         <f>'Teste 1'!B14</f>
         <v>68</v>
@@ -5904,10 +5967,10 @@
       <c r="E5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="20">
         <f>'Teste 1'!B16</f>
         <v>70.900000000000006</v>
@@ -5915,10 +5978,10 @@
       <c r="I5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="52"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="14">
         <f>'Teste 1'!B15</f>
         <v>75</v>
@@ -5926,10 +5989,10 @@
       <c r="M5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="46"/>
       <c r="Q5" s="20">
         <f>'Teste 1'!J14</f>
         <v>1</v>
@@ -5937,10 +6000,10 @@
       <c r="R5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="52"/>
+      <c r="T5" s="58"/>
       <c r="U5" s="20">
         <f>'Teste 1'!J16</f>
         <v>1.5</v>
@@ -5948,10 +6011,10 @@
       <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="W5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="52"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="20">
         <f>'Teste 1'!J15</f>
         <v>3</v>
@@ -5961,10 +6024,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="18">
         <f>'Teste 1'!B31/1000</f>
         <v>1.7470000000000001</v>
@@ -5972,10 +6035,10 @@
       <c r="E6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="18">
         <f>'Teste 1'!B33/1000</f>
         <v>1.7815999999999999</v>
@@ -5983,10 +6046,10 @@
       <c r="I6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="53"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="18">
         <f>'Teste 1'!B32/1000</f>
         <v>1.84</v>
@@ -5994,10 +6057,10 @@
       <c r="M6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="44"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="23">
         <f>'Teste 1'!J31</f>
         <v>7</v>
@@ -6005,10 +6068,10 @@
       <c r="R6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="53"/>
+      <c r="T6" s="54"/>
       <c r="U6" s="23">
         <f>'Teste 1'!J33</f>
         <v>7.4</v>
@@ -6016,10 +6079,10 @@
       <c r="V6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="53" t="s">
+      <c r="W6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="53"/>
+      <c r="X6" s="54"/>
       <c r="Y6" s="23">
         <f>'Teste 1'!J32</f>
         <v>9</v>
@@ -6029,10 +6092,10 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="18">
         <f>'Teste 1'!B48 /1000</f>
         <v>6.984</v>
@@ -6040,10 +6103,10 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="18">
         <f>'Teste 1'!B50/1000</f>
         <v>7.9418999999999995</v>
@@ -6051,10 +6114,10 @@
       <c r="I7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="18">
         <f>'Teste 1'!B49/1000</f>
         <v>13.363</v>
@@ -6062,10 +6125,10 @@
       <c r="M7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="44"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="23">
         <f>'Teste 1'!J48</f>
         <v>14</v>
@@ -6073,10 +6136,10 @@
       <c r="R7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="53"/>
+      <c r="T7" s="54"/>
       <c r="U7" s="23">
         <f>'Teste 1'!J50</f>
         <v>15.1</v>
@@ -6084,10 +6147,10 @@
       <c r="V7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="53" t="s">
+      <c r="W7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="53"/>
+      <c r="X7" s="54"/>
       <c r="Y7" s="23">
         <f>'Teste 1'!J49</f>
         <v>16</v>
@@ -6097,10 +6160,10 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="18">
         <f>'Teste 1'!B65 /1000/60</f>
         <v>2.8785333333333329</v>
@@ -6108,10 +6171,10 @@
       <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="18">
         <f>'Teste 1'!B67/1000/60</f>
         <v>4.8830400000000003</v>
@@ -6119,10 +6182,10 @@
       <c r="I8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="18">
         <f>'Teste 1'!B66/1000/60</f>
         <v>5.3099833333333333</v>
@@ -6130,10 +6193,10 @@
       <c r="M8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="42"/>
       <c r="Q8" s="23">
         <f>'Teste 1'!J65</f>
         <v>80</v>
@@ -6141,10 +6204,10 @@
       <c r="R8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="43" t="s">
+      <c r="S8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="53"/>
+      <c r="T8" s="54"/>
       <c r="U8" s="23">
         <f>'Teste 1'!J67</f>
         <v>82.5</v>
@@ -6152,10 +6215,10 @@
       <c r="V8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="53" t="s">
+      <c r="W8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="53"/>
+      <c r="X8" s="54"/>
       <c r="Y8" s="23">
         <f>'Teste 1'!J66</f>
         <v>85</v>
@@ -6165,10 +6228,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="19">
         <f>'Teste 1'!B82/1000/60</f>
         <v>17.0808</v>
@@ -6176,10 +6239,10 @@
       <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="19">
         <f>'Teste 1'!B84/1000/60</f>
         <v>20.564481666666666</v>
@@ -6187,10 +6250,10 @@
       <c r="I9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="54"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="19">
         <f>'Teste 1'!B83/1000/60</f>
         <v>22.509616666666666</v>
@@ -6198,10 +6261,10 @@
       <c r="M9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="21">
         <f>'Teste 1'!J82</f>
         <v>185</v>
@@ -6209,10 +6272,10 @@
       <c r="R9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="54"/>
+      <c r="T9" s="55"/>
       <c r="U9" s="21">
         <f>'Teste 1'!J84</f>
         <v>194.7</v>
@@ -6220,10 +6283,10 @@
       <c r="V9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="54" t="s">
+      <c r="W9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="54"/>
+      <c r="X9" s="55"/>
       <c r="Y9" s="21">
         <f>'Teste 1'!J83</f>
         <v>212</v>
@@ -6233,80 +6296,80 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="45" t="s">
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="O10" s="45" t="s">
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="O10" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="45" t="s">
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="45" t="s">
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="O11" s="30" t="s">
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="O11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="30" t="s">
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="30" t="s">
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="32"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="40"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
@@ -6347,60 +6410,60 @@
       <c r="Z12" s="49"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="50" t="s">
+      <c r="G13" s="51"/>
+      <c r="H13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="53"/>
+      <c r="J13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="50" t="s">
+      <c r="K13" s="51"/>
+      <c r="L13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="O13" s="39" t="s">
+      <c r="M13" s="53"/>
+      <c r="O13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="50" t="s">
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="39" t="s">
+      <c r="R13" s="53"/>
+      <c r="S13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="40"/>
-      <c r="U13" s="50" t="s">
+      <c r="T13" s="51"/>
+      <c r="U13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="39" t="s">
+      <c r="V13" s="53"/>
+      <c r="W13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="50" t="s">
+      <c r="X13" s="51"/>
+      <c r="Y13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" s="51"/>
+      <c r="Z13" s="53"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="14">
         <f>'Teste 1'!C14</f>
         <v>138</v>
@@ -6408,10 +6471,10 @@
       <c r="E14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="42"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="20">
         <f>'Teste 1'!C16</f>
         <v>142.19999999999999</v>
@@ -6419,10 +6482,10 @@
       <c r="I14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="42"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="14">
         <f>'Teste 1'!C15</f>
         <v>145</v>
@@ -6430,10 +6493,10 @@
       <c r="M14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="42"/>
+      <c r="P14" s="46"/>
       <c r="Q14" s="20">
         <f>'Teste 1'!K14</f>
         <v>106</v>
@@ -6441,10 +6504,10 @@
       <c r="R14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="S14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="42"/>
+      <c r="T14" s="46"/>
       <c r="U14" s="20">
         <f>'Teste 1'!K16</f>
         <v>112.2</v>
@@ -6452,10 +6515,10 @@
       <c r="V14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W14" s="41" t="s">
+      <c r="W14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X14" s="42"/>
+      <c r="X14" s="46"/>
       <c r="Y14" s="20">
         <f>'Teste 1'!K15</f>
         <v>131</v>
@@ -6465,10 +6528,10 @@
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="18">
         <f>'Teste 1'!C31/1000</f>
         <v>3.4729999999999999</v>
@@ -6476,10 +6539,10 @@
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="18">
         <f>'Teste 1'!C33/1000</f>
         <v>3.5139999999999998</v>
@@ -6487,10 +6550,10 @@
       <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="44"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="18">
         <f>'Teste 1'!C32/1000</f>
         <v>3.5979999999999999</v>
@@ -6498,10 +6561,10 @@
       <c r="M15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="43" t="s">
+      <c r="O15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
       <c r="Q15" s="18">
         <f>'Teste 1'!K31/1000</f>
         <v>2.6480000000000001</v>
@@ -6509,10 +6572,10 @@
       <c r="R15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="43" t="s">
+      <c r="S15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="44"/>
+      <c r="T15" s="42"/>
       <c r="U15" s="18">
         <f>'Teste 1'!K33/1000</f>
         <v>2.6921999999999997</v>
@@ -6520,10 +6583,10 @@
       <c r="V15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W15" s="43" t="s">
+      <c r="W15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="X15" s="44"/>
+      <c r="X15" s="42"/>
       <c r="Y15" s="18">
         <f>'Teste 1'!K32/1000</f>
         <v>2.7669999999999999</v>
@@ -6533,10 +6596,10 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="18">
         <f>'Teste 1'!C48/1000</f>
         <v>13.914</v>
@@ -6544,10 +6607,10 @@
       <c r="E16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="18">
         <f>'Teste 1'!C50/1000</f>
         <v>20.123099999999997</v>
@@ -6555,10 +6618,10 @@
       <c r="I16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="18">
         <f>'Teste 1'!C49/1000</f>
         <v>27.234999999999999</v>
@@ -6566,10 +6629,10 @@
       <c r="M16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="43" t="s">
+      <c r="O16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="44"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="18">
         <f>'Teste 1'!K48/1000</f>
         <v>10.545</v>
@@ -6577,10 +6640,10 @@
       <c r="R16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="43" t="s">
+      <c r="S16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="44"/>
+      <c r="T16" s="42"/>
       <c r="U16" s="18">
         <f>'Teste 1'!K50/1000</f>
         <v>10.749799999999999</v>
@@ -6588,10 +6651,10 @@
       <c r="V16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="43" t="s">
+      <c r="W16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="18">
         <f>'Teste 1'!K49/1000</f>
         <v>10.956</v>
@@ -6601,10 +6664,10 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="18">
         <f>'Teste 1'!C65/1000/60</f>
         <v>6.6406166666666673</v>
@@ -6612,10 +6675,10 @@
       <c r="E17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="18">
         <f>'Teste 1'!C67/1000/60</f>
         <v>9.6302016666666663</v>
@@ -6623,10 +6686,10 @@
       <c r="I17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="18">
         <f>'Teste 1'!C66/1000/60</f>
         <v>11.1181</v>
@@ -6634,10 +6697,10 @@
       <c r="M17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="43" t="s">
+      <c r="O17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="44"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="18">
         <f>'Teste 1'!K65/1000/60</f>
         <v>4.4021999999999997</v>
@@ -6645,10 +6708,10 @@
       <c r="R17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="43" t="s">
+      <c r="S17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="44"/>
+      <c r="T17" s="42"/>
       <c r="U17" s="18">
         <f>'Teste 1'!K67/1000/60</f>
         <v>4.4738849999999992</v>
@@ -6656,10 +6719,10 @@
       <c r="V17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="43" t="s">
+      <c r="W17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="44"/>
+      <c r="X17" s="42"/>
       <c r="Y17" s="18">
         <f>'Teste 1'!K66/1000/60</f>
         <v>4.5504833333333332</v>
@@ -6669,10 +6732,10 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="19">
         <f>'Teste 1'!C82/1000/60</f>
         <v>39.336366666666663</v>
@@ -6680,10 +6743,10 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="19">
         <f>'Teste 1'!C84/1000/60</f>
         <v>42.404356666666665</v>
@@ -6691,10 +6754,10 @@
       <c r="I18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="56"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="19">
         <f>'Teste 1'!C83/1000/60</f>
         <v>44.008900000000004</v>
@@ -6702,10 +6765,10 @@
       <c r="M18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="55" t="s">
+      <c r="O18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="56"/>
+      <c r="P18" s="44"/>
       <c r="Q18" s="19">
         <f>'Teste 1'!K82/1000/60</f>
         <v>17.404783333333334</v>
@@ -6713,10 +6776,10 @@
       <c r="R18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="55" t="s">
+      <c r="S18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="56"/>
+      <c r="T18" s="44"/>
       <c r="U18" s="19">
         <f>'Teste 1'!K84/1000/60</f>
         <v>17.667153333333331</v>
@@ -6724,10 +6787,10 @@
       <c r="V18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="55" t="s">
+      <c r="W18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="56"/>
+      <c r="X18" s="44"/>
       <c r="Y18" s="19">
         <f>'Teste 1'!K83/1000/60</f>
         <v>18.221783333333335</v>
@@ -6737,80 +6800,80 @@
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="45" t="s">
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="O20" s="45" t="s">
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="O20" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="45" t="s">
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="45" t="s">
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="30" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="O21" s="30" t="s">
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="O21" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="30" t="s">
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="30" t="s">
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="32"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="40"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="47" t="s">
@@ -6851,60 +6914,60 @@
       <c r="Z22" s="49"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="51"/>
+      <c r="F23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="50" t="s">
+      <c r="G23" s="51"/>
+      <c r="H23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="39" t="s">
+      <c r="I23" s="53"/>
+      <c r="J23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="50" t="s">
+      <c r="K23" s="51"/>
+      <c r="L23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="51"/>
-      <c r="O23" s="39" t="s">
+      <c r="M23" s="53"/>
+      <c r="O23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="39" t="s">
+      <c r="P23" s="51"/>
+      <c r="Q23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="40"/>
-      <c r="S23" s="39" t="s">
+      <c r="R23" s="51"/>
+      <c r="S23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="40"/>
-      <c r="U23" s="50" t="s">
+      <c r="T23" s="51"/>
+      <c r="U23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="51"/>
-      <c r="W23" s="39" t="s">
+      <c r="V23" s="53"/>
+      <c r="W23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="50" t="s">
+      <c r="X23" s="51"/>
+      <c r="Y23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z23" s="51"/>
+      <c r="Z23" s="53"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="20">
         <f>'Teste 1'!D14</f>
         <v>228</v>
@@ -6912,10 +6975,10 @@
       <c r="E24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="20">
         <f>'Teste 1'!D16</f>
         <v>234.7</v>
@@ -6923,10 +6986,10 @@
       <c r="I24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="52" t="s">
+      <c r="J24" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="20">
         <f>'Teste 1'!D15</f>
         <v>241</v>
@@ -6934,10 +6997,10 @@
       <c r="M24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="42"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="20">
         <f>'Teste 1'!L14</f>
         <v>1</v>
@@ -6945,10 +7008,10 @@
       <c r="R24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S24" s="41" t="s">
+      <c r="S24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="52"/>
+      <c r="T24" s="58"/>
       <c r="U24" s="20">
         <f>'Teste 1'!L16</f>
         <v>1.5</v>
@@ -6956,10 +7019,10 @@
       <c r="V24" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W24" s="52" t="s">
+      <c r="W24" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="X24" s="52"/>
+      <c r="X24" s="58"/>
       <c r="Y24" s="20">
         <f>'Teste 1'!L15</f>
         <v>2</v>
@@ -6969,10 +7032,10 @@
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="18">
         <f>'Teste 1'!D31/1000</f>
         <v>6.7670000000000003</v>
@@ -6980,10 +7043,10 @@
       <c r="E25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="18">
         <f>'Teste 1'!D33/1000</f>
         <v>6.8606000000000007</v>
@@ -6991,10 +7054,10 @@
       <c r="I25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="18">
         <f>'Teste 1'!D32/1000</f>
         <v>6.9619999999999997</v>
@@ -7002,10 +7065,10 @@
       <c r="M25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="43" t="s">
+      <c r="O25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="44"/>
+      <c r="P25" s="42"/>
       <c r="Q25" s="23">
         <f>'Teste 1'!L31</f>
         <v>8</v>
@@ -7013,10 +7076,10 @@
       <c r="R25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S25" s="43" t="s">
+      <c r="S25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T25" s="53"/>
+      <c r="T25" s="54"/>
       <c r="U25" s="23">
         <f>'Teste 1'!L33</f>
         <v>8</v>
@@ -7024,10 +7087,10 @@
       <c r="V25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W25" s="53" t="s">
+      <c r="W25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="X25" s="53"/>
+      <c r="X25" s="54"/>
       <c r="Y25" s="23">
         <f>'Teste 1'!L32</f>
         <v>8</v>
@@ -7037,10 +7100,10 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="18">
         <f>'Teste 1'!D48/1000</f>
         <v>27.103999999999999</v>
@@ -7048,10 +7111,10 @@
       <c r="E26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="18">
         <f>'Teste 1'!D50 /1000</f>
         <v>30.612500000000001</v>
@@ -7059,10 +7122,10 @@
       <c r="I26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="53"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="18">
         <f>'Teste 1'!D49 /1000</f>
         <v>38.634</v>
@@ -7070,10 +7133,10 @@
       <c r="M26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="43" t="s">
+      <c r="O26" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P26" s="44"/>
+      <c r="P26" s="42"/>
       <c r="Q26" s="23">
         <f>'Teste 1'!L48</f>
         <v>16</v>
@@ -7081,10 +7144,10 @@
       <c r="R26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S26" s="43" t="s">
+      <c r="S26" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="53"/>
+      <c r="T26" s="54"/>
       <c r="U26" s="23">
         <f>'Teste 1'!L50</f>
         <v>16.8</v>
@@ -7092,10 +7155,10 @@
       <c r="V26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W26" s="53" t="s">
+      <c r="W26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="53"/>
+      <c r="X26" s="54"/>
       <c r="Y26" s="23">
         <f>'Teste 1'!L49</f>
         <v>18</v>
@@ -7105,10 +7168,10 @@
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="18">
         <f>'Teste 1'!D65/1000/60</f>
         <v>15.697833333333334</v>
@@ -7116,10 +7179,10 @@
       <c r="E27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="18">
         <f>'Teste 1'!D67 /1000/60</f>
         <v>16.148106666666667</v>
@@ -7127,10 +7190,10 @@
       <c r="I27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="53"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="18">
         <f>'Teste 1'!D66 /1000/60</f>
         <v>16.805799999999998</v>
@@ -7138,10 +7201,10 @@
       <c r="M27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="43" t="s">
+      <c r="O27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="44"/>
+      <c r="P27" s="42"/>
       <c r="Q27" s="23">
         <f>'Teste 1'!L65</f>
         <v>85</v>
@@ -7149,10 +7212,10 @@
       <c r="R27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S27" s="43" t="s">
+      <c r="S27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="53"/>
+      <c r="T27" s="54"/>
       <c r="U27" s="23">
         <f>'Teste 1'!L67</f>
         <v>87.6</v>
@@ -7160,10 +7223,10 @@
       <c r="V27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W27" s="53" t="s">
+      <c r="W27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="X27" s="53"/>
+      <c r="X27" s="54"/>
       <c r="Y27" s="23">
         <f>'Teste 1'!L66</f>
         <v>92</v>
@@ -7173,10 +7236,10 @@
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="19">
         <f>'Teste 1'!D82/1000/60</f>
         <v>64.298550000000006</v>
@@ -7184,10 +7247,10 @@
       <c r="E28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="54"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="19">
         <f>'Teste 1'!D84/1000/60</f>
         <v>65.691495000000003</v>
@@ -7195,10 +7258,10 @@
       <c r="I28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="54"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="19">
         <f>'Teste 1'!D83/1000/60</f>
         <v>66.868466666666663</v>
@@ -7206,10 +7269,10 @@
       <c r="M28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="55" t="s">
+      <c r="O28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="56"/>
+      <c r="P28" s="44"/>
       <c r="Q28" s="21">
         <f>'Teste 1'!L82</f>
         <v>175</v>
@@ -7217,10 +7280,10 @@
       <c r="R28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="55" t="s">
+      <c r="S28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="54"/>
+      <c r="T28" s="55"/>
       <c r="U28" s="21">
         <f>'Teste 1'!L84</f>
         <v>179.5</v>
@@ -7228,10 +7291,10 @@
       <c r="V28" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W28" s="54" t="s">
+      <c r="W28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X28" s="54"/>
+      <c r="X28" s="55"/>
       <c r="Y28" s="21">
         <f>'Teste 1'!L83</f>
         <v>186</v>
@@ -7241,80 +7304,80 @@
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="45" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="45" t="s">
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="O29" s="45" t="s">
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="O29" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="45" t="s">
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="45" t="s">
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="30" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="30" t="s">
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
-      <c r="O30" s="30" t="s">
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+      <c r="O30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="30" t="s">
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="30" t="s">
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="32"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="40"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="47" t="s">
@@ -7355,60 +7418,60 @@
       <c r="Z31" s="49"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="50" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="39" t="s">
+      <c r="E32" s="53"/>
+      <c r="F32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="50" t="s">
+      <c r="G32" s="51"/>
+      <c r="H32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="39" t="s">
+      <c r="I32" s="53"/>
+      <c r="J32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="50" t="s">
+      <c r="K32" s="51"/>
+      <c r="L32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="51"/>
-      <c r="O32" s="39" t="s">
+      <c r="M32" s="53"/>
+      <c r="O32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="50" t="s">
+      <c r="P32" s="51"/>
+      <c r="Q32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="51"/>
-      <c r="S32" s="39" t="s">
+      <c r="R32" s="53"/>
+      <c r="S32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="T32" s="40"/>
-      <c r="U32" s="50" t="s">
+      <c r="T32" s="51"/>
+      <c r="U32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="V32" s="51"/>
-      <c r="W32" s="39" t="s">
+      <c r="V32" s="53"/>
+      <c r="W32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="50" t="s">
+      <c r="X32" s="51"/>
+      <c r="Y32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Z32" s="51"/>
+      <c r="Z32" s="53"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="20">
         <f>'Teste 1'!E14</f>
         <v>220</v>
@@ -7416,10 +7479,10 @@
       <c r="E33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="42"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="20">
         <f>'Teste 1'!E16</f>
         <v>229.1</v>
@@ -7427,10 +7490,10 @@
       <c r="I33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="42"/>
+      <c r="K33" s="46"/>
       <c r="L33" s="20">
         <f>'Teste 1'!E15</f>
         <v>235</v>
@@ -7438,10 +7501,10 @@
       <c r="M33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="41" t="s">
+      <c r="O33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="42"/>
+      <c r="P33" s="46"/>
       <c r="Q33" s="20">
         <f>'Teste 1'!M14</f>
         <v>0</v>
@@ -7449,10 +7512,10 @@
       <c r="R33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S33" s="41" t="s">
+      <c r="S33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T33" s="42"/>
+      <c r="T33" s="46"/>
       <c r="U33" s="20">
         <f>'Teste 1'!M16</f>
         <v>0.5</v>
@@ -7460,10 +7523,10 @@
       <c r="V33" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W33" s="41" t="s">
+      <c r="W33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X33" s="42"/>
+      <c r="X33" s="46"/>
       <c r="Y33" s="20">
         <f>'Teste 1'!M15</f>
         <v>1</v>
@@ -7473,10 +7536,10 @@
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="18">
         <f>'Teste 1'!E31/1000</f>
         <v>5.6509999999999998</v>
@@ -7484,10 +7547,10 @@
       <c r="E34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="18">
         <f>'Teste 1'!E33/1000</f>
         <v>5.7649999999999997</v>
@@ -7495,10 +7558,10 @@
       <c r="I34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="J34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="44"/>
+      <c r="K34" s="42"/>
       <c r="L34" s="18">
         <f>'Teste 1'!E32/1000</f>
         <v>5.9189999999999996</v>
@@ -7506,21 +7569,21 @@
       <c r="M34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="43" t="s">
+      <c r="O34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="57">
+      <c r="P34" s="42"/>
+      <c r="Q34" s="26">
         <f>'Teste 1'!M31</f>
         <v>2</v>
       </c>
       <c r="R34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S34" s="43" t="s">
+      <c r="S34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T34" s="44"/>
+      <c r="T34" s="42"/>
       <c r="U34" s="23">
         <f>'Teste 1'!M33</f>
         <v>3</v>
@@ -7528,10 +7591,10 @@
       <c r="V34" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W34" s="43" t="s">
+      <c r="W34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="X34" s="44"/>
+      <c r="X34" s="42"/>
       <c r="Y34" s="23">
         <f>'Teste 1'!M32</f>
         <v>4</v>
@@ -7541,10 +7604,10 @@
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="18">
         <f>'Teste 1'!E48 /1000</f>
         <v>23.802</v>
@@ -7552,10 +7615,10 @@
       <c r="E35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="44"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="18">
         <f>'Teste 1'!E50 /1000</f>
         <v>37.589700000000001</v>
@@ -7563,10 +7626,10 @@
       <c r="I35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="43" t="s">
+      <c r="J35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="44"/>
+      <c r="K35" s="42"/>
       <c r="L35" s="18">
         <f>'Teste 1'!E49 /1000</f>
         <v>42.737000000000002</v>
@@ -7574,21 +7637,21 @@
       <c r="M35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="43" t="s">
+      <c r="O35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="57">
+      <c r="P35" s="42"/>
+      <c r="Q35" s="26">
         <f>'Teste 1'!M48</f>
         <v>6</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S35" s="43" t="s">
+      <c r="S35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T35" s="44"/>
+      <c r="T35" s="42"/>
       <c r="U35" s="23">
         <f>'Teste 1'!M50</f>
         <v>6.2</v>
@@ -7596,10 +7659,10 @@
       <c r="V35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="43" t="s">
+      <c r="W35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="X35" s="44"/>
+      <c r="X35" s="42"/>
       <c r="Y35" s="23">
         <f>'Teste 1'!M49</f>
         <v>7</v>
@@ -7609,10 +7672,10 @@
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="18">
         <f>'Teste 1'!E65 /1000/60</f>
         <v>12.9732</v>
@@ -7620,10 +7683,10 @@
       <c r="E36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="44"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="18">
         <f>'Teste 1'!E67 /1000/60</f>
         <v>16.207516666666667</v>
@@ -7631,10 +7694,10 @@
       <c r="I36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="44"/>
+      <c r="K36" s="42"/>
       <c r="L36" s="18">
         <f>'Teste 1'!E66 /1000/60</f>
         <v>17.46531666666667</v>
@@ -7642,21 +7705,21 @@
       <c r="M36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="43" t="s">
+      <c r="O36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="57">
+      <c r="P36" s="42"/>
+      <c r="Q36" s="26">
         <f>'Teste 1'!M65</f>
         <v>33</v>
       </c>
       <c r="R36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S36" s="43" t="s">
+      <c r="S36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T36" s="44"/>
+      <c r="T36" s="42"/>
       <c r="U36" s="23">
         <f>'Teste 1'!M67</f>
         <v>34.200000000000003</v>
@@ -7664,10 +7727,10 @@
       <c r="V36" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W36" s="43" t="s">
+      <c r="W36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="X36" s="44"/>
+      <c r="X36" s="42"/>
       <c r="Y36" s="23">
         <f>'Teste 1'!M66</f>
         <v>36</v>
@@ -7677,10 +7740,10 @@
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="54"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="19">
         <f>'Teste 1'!E82/1000/60</f>
         <v>59.355533333333334</v>
@@ -7688,10 +7751,10 @@
       <c r="E37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="56"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="19">
         <f>'Teste 1'!E84/1000/60</f>
         <v>66.497138333333325</v>
@@ -7699,10 +7762,10 @@
       <c r="I37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="55" t="s">
+      <c r="J37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="56"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="19">
         <f>'Teste 1'!E83/1000/60</f>
         <v>70.216016666666675</v>
@@ -7710,21 +7773,21 @@
       <c r="M37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="55" t="s">
+      <c r="O37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="58">
+      <c r="P37" s="44"/>
+      <c r="Q37" s="27">
         <f>'Teste 1'!M82</f>
         <v>69</v>
       </c>
       <c r="R37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S37" s="55" t="s">
+      <c r="S37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="56"/>
+      <c r="T37" s="44"/>
       <c r="U37" s="21">
         <f>'Teste 1'!M84</f>
         <v>71.400000000000006</v>
@@ -7732,10 +7795,10 @@
       <c r="V37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W37" s="55" t="s">
+      <c r="W37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="56"/>
+      <c r="X37" s="44"/>
       <c r="Y37" s="21">
         <f>'Teste 1'!M83</f>
         <v>74</v>
@@ -7745,80 +7808,80 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="45" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="45" t="s">
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="O39" s="45" t="s">
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="O39" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="45" t="s">
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="45" t="s">
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="30" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="30" t="s">
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="O40" s="30" t="s">
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="40"/>
+      <c r="O40" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="30" t="s">
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="30" t="s">
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="32"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="40"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="47" t="s">
@@ -7859,93 +7922,93 @@
       <c r="Z41" s="49"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="39" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="39" t="s">
+      <c r="E42" s="51"/>
+      <c r="F42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="50" t="s">
+      <c r="G42" s="51"/>
+      <c r="H42" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="51"/>
-      <c r="J42" s="39" t="s">
+      <c r="I42" s="53"/>
+      <c r="J42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="40"/>
-      <c r="L42" s="50" t="s">
+      <c r="K42" s="51"/>
+      <c r="L42" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="51"/>
-      <c r="O42" s="39" t="s">
+      <c r="M42" s="53"/>
+      <c r="O42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="39" t="s">
+      <c r="P42" s="51"/>
+      <c r="Q42" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="40"/>
-      <c r="S42" s="39" t="s">
+      <c r="R42" s="51"/>
+      <c r="S42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="40"/>
-      <c r="U42" s="50" t="s">
+      <c r="T42" s="51"/>
+      <c r="U42" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="51"/>
-      <c r="W42" s="39" t="s">
+      <c r="V42" s="53"/>
+      <c r="W42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="50" t="s">
+      <c r="X42" s="51"/>
+      <c r="Y42" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z42" s="51"/>
+      <c r="Z42" s="53"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="42"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="20">
         <f>'Teste 1'!H14</f>
         <v>1</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="41" t="s">
+      <c r="E43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="52"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="20">
-        <f>'Teste 1'!I16</f>
-        <v>1</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="52" t="s">
+        <f>'Teste 1'!H16</f>
+        <v>1.7</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="52"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
       </c>
-      <c r="M43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O43" s="41" t="s">
+      <c r="M43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P43" s="42"/>
+      <c r="P43" s="46"/>
       <c r="Q43" s="20">
         <f>'Teste 1'!N14</f>
         <v>1</v>
@@ -7953,10 +8016,10 @@
       <c r="R43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S43" s="41" t="s">
+      <c r="S43" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="52"/>
+      <c r="T43" s="58"/>
       <c r="U43" s="20">
         <f>'Teste 1'!N16</f>
         <v>1.5</v>
@@ -7964,10 +8027,10 @@
       <c r="V43" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W43" s="52" t="s">
+      <c r="W43" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="X43" s="52"/>
+      <c r="X43" s="58"/>
       <c r="Y43" s="20">
         <f>'Teste 1'!N15</f>
         <v>2</v>
@@ -7977,43 +8040,43 @@
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="18">
-        <f>'Teste 1'!H31/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="43" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="23">
+        <f>'Teste 1'!H31</f>
+        <v>8</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="18">
-        <f>'Teste 1'!I33/1000</f>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="53" t="s">
+      <c r="G44" s="64"/>
+      <c r="H44" s="23">
+        <f>'Teste 1'!H33</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="53"/>
-      <c r="L44" s="18">
-        <f>'Teste 1'!I32/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O44" s="43" t="s">
+      <c r="K44" s="64"/>
+      <c r="L44" s="23">
+        <f>'Teste 1'!I32</f>
+        <v>8</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="P44" s="44"/>
+      <c r="P44" s="42"/>
       <c r="Q44" s="23">
         <f>'Teste 1'!N31</f>
         <v>7</v>
@@ -8021,10 +8084,10 @@
       <c r="R44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S44" s="43" t="s">
+      <c r="S44" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T44" s="53"/>
+      <c r="T44" s="54"/>
       <c r="U44" s="23">
         <f>'Teste 1'!N33</f>
         <v>7.9</v>
@@ -8032,10 +8095,10 @@
       <c r="V44" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W44" s="53" t="s">
+      <c r="W44" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="X44" s="53"/>
+      <c r="X44" s="54"/>
       <c r="Y44" s="23">
         <f>'Teste 1'!N32</f>
         <v>9</v>
@@ -8045,43 +8108,43 @@
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="18">
-        <f>'Teste 1'!H48 /1000</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="43" t="s">
+      <c r="C45" s="63"/>
+      <c r="D45" s="23">
+        <f>'Teste 1'!H48</f>
+        <v>18</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="18">
-        <f>'Teste 1'!I50 /1000</f>
-        <v>1.14E-2</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="53" t="s">
+      <c r="G45" s="64"/>
+      <c r="H45" s="23">
+        <f>'Teste 1'!H50</f>
+        <v>19.3</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="53"/>
-      <c r="L45" s="18">
-        <f>'Teste 1'!I49 /1000</f>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O45" s="43" t="s">
+      <c r="K45" s="64"/>
+      <c r="L45" s="23">
+        <f>'Teste 1'!I49</f>
+        <v>13</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P45" s="44"/>
+      <c r="P45" s="42"/>
       <c r="Q45" s="23">
         <f>'Teste 1'!N48</f>
         <v>15</v>
@@ -8089,10 +8152,10 @@
       <c r="R45" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S45" s="43" t="s">
+      <c r="S45" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T45" s="53"/>
+      <c r="T45" s="54"/>
       <c r="U45" s="23">
         <f>'Teste 1'!N50</f>
         <v>15.9</v>
@@ -8100,10 +8163,10 @@
       <c r="V45" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W45" s="53" t="s">
+      <c r="W45" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="53"/>
+      <c r="X45" s="54"/>
       <c r="Y45" s="23">
         <f>'Teste 1'!N49</f>
         <v>18</v>
@@ -8113,43 +8176,43 @@
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="18">
-        <f>'Teste 1'!H65 /1000/60</f>
-        <v>1.7166666666666665E-3</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="43" t="s">
+      <c r="C46" s="63"/>
+      <c r="D46" s="23">
+        <f>'Teste 1'!H65</f>
+        <v>103</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="53"/>
-      <c r="H46" s="18">
-        <f>'Teste 1'!I67 /1000/60</f>
-        <v>1.2583333333333333E-3</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="53" t="s">
+      <c r="G46" s="64"/>
+      <c r="H46" s="23">
+        <f>'Teste 1'!H67</f>
+        <v>108</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="18">
-        <f>'Teste 1'!I66 /1000/60</f>
-        <v>1.3666666666666666E-3</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O46" s="43" t="s">
+      <c r="K46" s="64"/>
+      <c r="L46" s="23">
+        <f>'Teste 1'!I66</f>
+        <v>82</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="44"/>
+      <c r="P46" s="42"/>
       <c r="Q46" s="23">
         <f>'Teste 1'!N65</f>
         <v>85</v>
@@ -8157,10 +8220,10 @@
       <c r="R46" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S46" s="43" t="s">
+      <c r="S46" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T46" s="53"/>
+      <c r="T46" s="54"/>
       <c r="U46" s="23">
         <f>'Teste 1'!N67</f>
         <v>87.3</v>
@@ -8168,10 +8231,10 @@
       <c r="V46" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W46" s="53" t="s">
+      <c r="W46" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="X46" s="53"/>
+      <c r="X46" s="54"/>
       <c r="Y46" s="23">
         <f>'Teste 1'!N66</f>
         <v>90</v>
@@ -8181,43 +8244,43 @@
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="19">
-        <f>'Teste 1'!H82/1000/60</f>
-        <v>3.6666666666666666E-3</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="55" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="21">
+        <f>'Teste 1'!H82</f>
+        <v>220</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="19">
-        <f>'Teste 1'!I84/1000/60</f>
-        <v>2.4383333333333336E-3</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="54" t="s">
+      <c r="G47" s="67"/>
+      <c r="H47" s="21">
+        <f>'Teste 1'!H84</f>
+        <v>228.3</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="54"/>
-      <c r="L47" s="19">
-        <f>'Teste 1'!I83/1000/60</f>
-        <v>2.5666666666666667E-3</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O47" s="55" t="s">
+      <c r="K47" s="67"/>
+      <c r="L47" s="21">
+        <f>'Teste 1'!I83</f>
+        <v>154</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="56"/>
+      <c r="P47" s="44"/>
       <c r="Q47" s="21">
         <f>'Teste 1'!N82</f>
         <v>194</v>
@@ -8225,10 +8288,10 @@
       <c r="R47" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S47" s="55" t="s">
+      <c r="S47" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="54"/>
+      <c r="T47" s="55"/>
       <c r="U47" s="21">
         <f>'Teste 1'!N84</f>
         <v>197.5</v>
@@ -8236,10 +8299,10 @@
       <c r="V47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="54" t="s">
+      <c r="W47" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X47" s="54"/>
+      <c r="X47" s="55"/>
       <c r="Y47" s="21">
         <f>'Teste 1'!N83</f>
         <v>203</v>
@@ -8249,100 +8312,100 @@
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="45" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="45" t="s">
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="O48" s="45" t="s">
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="O48" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="45" t="s">
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="45" t="s">
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="57"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="30" t="s">
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="30" t="s">
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="32"/>
-      <c r="O49" s="30" t="s">
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="72"/>
+      <c r="O49" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="30" t="s">
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="30" t="s">
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="32"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="40"/>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="47" t="s">
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="47" t="s">
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="49"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="75"/>
       <c r="O50" s="47" t="s">
         <v>32</v>
       </c>
@@ -8363,93 +8426,93 @@
       <c r="Z50" s="49"/>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="50" t="s">
+      <c r="C51" s="77"/>
+      <c r="D51" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="39" t="s">
+      <c r="E51" s="79"/>
+      <c r="F51" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="50" t="s">
+      <c r="G51" s="77"/>
+      <c r="H51" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="51"/>
-      <c r="J51" s="39" t="s">
+      <c r="I51" s="79"/>
+      <c r="J51" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="40"/>
-      <c r="L51" s="50" t="s">
+      <c r="K51" s="77"/>
+      <c r="L51" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="51"/>
-      <c r="O51" s="39" t="s">
+      <c r="M51" s="79"/>
+      <c r="O51" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="50" t="s">
+      <c r="P51" s="51"/>
+      <c r="Q51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="R51" s="51"/>
-      <c r="S51" s="39" t="s">
+      <c r="R51" s="53"/>
+      <c r="S51" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="T51" s="40"/>
-      <c r="U51" s="50" t="s">
+      <c r="T51" s="51"/>
+      <c r="U51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="V51" s="51"/>
-      <c r="W51" s="39" t="s">
+      <c r="V51" s="53"/>
+      <c r="W51" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="50" t="s">
+      <c r="X51" s="51"/>
+      <c r="Y51" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Z51" s="51"/>
+      <c r="Z51" s="53"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="52"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="20">
         <f>'Teste 1'!I14</f>
         <v>1</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="52" t="s">
+      <c r="E52" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="42"/>
+      <c r="G52" s="60"/>
       <c r="H52" s="20">
         <f>'Teste 1'!I16</f>
         <v>1</v>
       </c>
-      <c r="I52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="41" t="s">
+      <c r="I52" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="42"/>
+      <c r="K52" s="60"/>
       <c r="L52" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
       </c>
-      <c r="M52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O52" s="41" t="s">
+      <c r="M52" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P52" s="42"/>
+      <c r="P52" s="46"/>
       <c r="Q52" s="20">
         <f>'Teste 1'!O14</f>
         <v>107</v>
@@ -8457,10 +8520,10 @@
       <c r="R52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S52" s="41" t="s">
+      <c r="S52" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T52" s="42"/>
+      <c r="T52" s="46"/>
       <c r="U52" s="20">
         <f>'Teste 1'!O16</f>
         <v>108.1</v>
@@ -8468,10 +8531,10 @@
       <c r="V52" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W52" s="41" t="s">
+      <c r="W52" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="X52" s="42"/>
+      <c r="X52" s="46"/>
       <c r="Y52" s="20">
         <f>'Teste 1'!O15</f>
         <v>110</v>
@@ -8481,43 +8544,43 @@
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="18">
-        <f>'Teste 1'!I31/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="23">
+        <f>'Teste 1'!I31</f>
+        <v>5</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="18">
-        <f>'Teste 1'!I33/1000</f>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J53" s="43" t="s">
+      <c r="G53" s="63"/>
+      <c r="H53" s="23">
+        <f>'Teste 1'!I33</f>
+        <v>6.4</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="44"/>
-      <c r="L53" s="18">
-        <f>'Teste 1'!I32/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M53" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="43" t="s">
+      <c r="K53" s="63"/>
+      <c r="L53" s="23">
+        <f>'Teste 1'!I32</f>
+        <v>8</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="P53" s="44"/>
+      <c r="P53" s="42"/>
       <c r="Q53" s="18">
         <f>'Teste 1'!O31/1000</f>
         <v>2.6819999999999999</v>
@@ -8525,10 +8588,10 @@
       <c r="R53" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S53" s="43" t="s">
+      <c r="S53" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T53" s="44"/>
+      <c r="T53" s="42"/>
       <c r="U53" s="18">
         <f>'Teste 1'!O33/1000</f>
         <v>2.6964999999999999</v>
@@ -8536,10 +8599,10 @@
       <c r="V53" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W53" s="43" t="s">
+      <c r="W53" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="X53" s="44"/>
+      <c r="X53" s="42"/>
       <c r="Y53" s="18">
         <f>'Teste 1'!O32/1000</f>
         <v>2.7349999999999999</v>
@@ -8549,43 +8612,43 @@
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="18">
-        <f>'Teste 1'!I48/1000</f>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="C54" s="64"/>
+      <c r="D54" s="23">
+        <f>'Teste 1'!I48</f>
+        <v>11</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="18">
-        <f>'Teste 1'!I50 /1000</f>
-        <v>1.14E-2</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J54" s="43" t="s">
+      <c r="G54" s="63"/>
+      <c r="H54" s="23">
+        <f>'Teste 1'!I50</f>
+        <v>11.4</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="44"/>
-      <c r="L54" s="18">
-        <f>'Teste 1'!I49 /1000</f>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O54" s="43" t="s">
+      <c r="K54" s="63"/>
+      <c r="L54" s="23">
+        <f>'Teste 1'!I49</f>
+        <v>13</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P54" s="44"/>
+      <c r="P54" s="42"/>
       <c r="Q54" s="18">
         <f>'Teste 1'!O48/1000</f>
         <v>10.738</v>
@@ -8593,10 +8656,10 @@
       <c r="R54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S54" s="43" t="s">
+      <c r="S54" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T54" s="44"/>
+      <c r="T54" s="42"/>
       <c r="U54" s="18">
         <f>'Teste 1'!O50/1000</f>
         <v>10.7781</v>
@@ -8604,10 +8667,10 @@
       <c r="V54" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W54" s="43" t="s">
+      <c r="W54" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="X54" s="44"/>
+      <c r="X54" s="42"/>
       <c r="Y54" s="18">
         <f>'Teste 1'!O49/1000</f>
         <v>10.853</v>
@@ -8617,43 +8680,43 @@
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="18">
-        <f>'Teste 1'!I65/1000/60</f>
-        <v>1.1666666666666668E-3</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="23">
+        <f>'Teste 1'!I65</f>
+        <v>70</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="18">
-        <f>'Teste 1'!I67 /1000/60</f>
-        <v>1.2583333333333333E-3</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="43" t="s">
+      <c r="G55" s="63"/>
+      <c r="H55" s="23">
+        <f>'Teste 1'!I67</f>
+        <v>75.5</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="44"/>
-      <c r="L55" s="18">
-        <f>'Teste 1'!I66/1000/60</f>
-        <v>1.3666666666666666E-3</v>
-      </c>
-      <c r="M55" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O55" s="43" t="s">
+      <c r="K55" s="63"/>
+      <c r="L55" s="23">
+        <f>'Teste 1'!I66</f>
+        <v>82</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="44"/>
+      <c r="P55" s="42"/>
       <c r="Q55" s="18">
         <f>'Teste 1'!O65/1000/60</f>
         <v>4.4697500000000003</v>
@@ -8661,10 +8724,10 @@
       <c r="R55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S55" s="43" t="s">
+      <c r="S55" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T55" s="44"/>
+      <c r="T55" s="42"/>
       <c r="U55" s="18">
         <f>'Teste 1'!O67/1000/60</f>
         <v>4.5798999999999994</v>
@@ -8672,10 +8735,10 @@
       <c r="V55" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W55" s="43" t="s">
+      <c r="W55" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="X55" s="44"/>
+      <c r="X55" s="42"/>
       <c r="Y55" s="18">
         <f>'Teste 1'!O66/1000/60</f>
         <v>4.9193000000000007</v>
@@ -8685,43 +8748,43 @@
       </c>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="19">
-        <f>'Teste 1'!I82/1000/60</f>
-        <v>2.2166666666666667E-3</v>
-      </c>
-      <c r="E56" s="17" t="s">
+      <c r="C56" s="67"/>
+      <c r="D56" s="21">
+        <f>'Teste 1'!I82</f>
+        <v>133</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="19">
-        <f>'Teste 1'!I84/1000/60</f>
-        <v>2.4383333333333336E-3</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="55" t="s">
+      <c r="G56" s="66"/>
+      <c r="H56" s="21">
+        <f>'Teste 1'!I84</f>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="56"/>
-      <c r="L56" s="19">
-        <f>'Teste 1'!I83/1000/60</f>
-        <v>2.5666666666666667E-3</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O56" s="55" t="s">
+      <c r="K56" s="66"/>
+      <c r="L56" s="21">
+        <f>'Teste 1'!I83</f>
+        <v>154</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="56"/>
+      <c r="P56" s="44"/>
       <c r="Q56" s="19">
         <f>'Teste 1'!O82/1000/60</f>
         <v>17.898949999999999</v>
@@ -8729,10 +8792,10 @@
       <c r="R56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S56" s="55" t="s">
+      <c r="S56" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="T56" s="56"/>
+      <c r="T56" s="44"/>
       <c r="U56" s="19">
         <f>'Teste 1'!O84/1000/60</f>
         <v>17.931876666666668</v>
@@ -8740,10 +8803,10 @@
       <c r="V56" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="W56" s="55" t="s">
+      <c r="W56" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="X56" s="56"/>
+      <c r="X56" s="44"/>
       <c r="Y56" s="19">
         <f>'Teste 1'!O83/1000/60</f>
         <v>17.962783333333334</v>
@@ -8753,44 +8816,44 @@
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="45" t="s">
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="45" t="s">
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="30" t="s">
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="30" t="s">
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="32"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="40"/>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" s="47" t="s">
@@ -8813,36 +8876,36 @@
       <c r="M60" s="49"/>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="39" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="39" t="s">
+      <c r="E61" s="51"/>
+      <c r="F61" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="40"/>
-      <c r="H61" s="50" t="s">
+      <c r="G61" s="51"/>
+      <c r="H61" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I61" s="51"/>
-      <c r="J61" s="39" t="s">
+      <c r="I61" s="53"/>
+      <c r="J61" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="40"/>
-      <c r="L61" s="50" t="s">
+      <c r="K61" s="51"/>
+      <c r="L61" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M61" s="51"/>
+      <c r="M61" s="53"/>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="42"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="20">
         <f>'Teste 1'!F14</f>
         <v>1</v>
@@ -8850,10 +8913,10 @@
       <c r="E62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="41" t="s">
+      <c r="F62" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="52"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="20">
         <f>'Teste 1'!F16</f>
         <v>1.3</v>
@@ -8861,10 +8924,10 @@
       <c r="I62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="52" t="s">
+      <c r="J62" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="52"/>
+      <c r="K62" s="58"/>
       <c r="L62" s="20">
         <f>'Teste 1'!F15</f>
         <v>2</v>
@@ -8874,10 +8937,10 @@
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="44"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="23">
         <f>'Teste 1'!F31</f>
         <v>9</v>
@@ -8885,10 +8948,10 @@
       <c r="E63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="53"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="23">
         <f>'Teste 1'!F33</f>
         <v>9.9</v>
@@ -8896,10 +8959,10 @@
       <c r="I63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="53" t="s">
+      <c r="J63" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="53"/>
+      <c r="K63" s="54"/>
       <c r="L63" s="23">
         <f>'Teste 1'!F32</f>
         <v>11</v>
@@ -8909,10 +8972,10 @@
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="44"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="23">
         <f>'Teste 1'!F48</f>
         <v>27</v>
@@ -8920,10 +8983,10 @@
       <c r="E64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="53"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="23">
         <f>'Teste 1'!F50</f>
         <v>28.6</v>
@@ -8931,10 +8994,10 @@
       <c r="I64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J64" s="53" t="s">
+      <c r="J64" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="53"/>
+      <c r="K64" s="54"/>
       <c r="L64" s="23">
         <f>'Teste 1'!F49</f>
         <v>30</v>
@@ -8944,10 +9007,10 @@
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="44"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="23">
         <f>'Teste 1'!F65</f>
         <v>184</v>
@@ -8955,10 +9018,10 @@
       <c r="E65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="53"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="23">
         <f>'Teste 1'!F67</f>
         <v>197.2</v>
@@ -8966,10 +9029,10 @@
       <c r="I65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="53" t="s">
+      <c r="J65" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="53"/>
+      <c r="K65" s="54"/>
       <c r="L65" s="23">
         <f>'Teste 1'!F66</f>
         <v>209</v>
@@ -8979,10 +9042,10 @@
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="56"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="21">
         <f>'Teste 1'!F82</f>
         <v>422</v>
@@ -8990,10 +9053,10 @@
       <c r="E66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="55" t="s">
+      <c r="F66" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="54"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="21">
         <f>'Teste 1'!F84</f>
         <v>435.7</v>
@@ -9001,10 +9064,10 @@
       <c r="I66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="54" t="s">
+      <c r="J66" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="54"/>
+      <c r="K66" s="55"/>
       <c r="L66" s="21">
         <f>'Teste 1'!F83</f>
         <v>454</v>
@@ -9014,44 +9077,44 @@
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="45" t="s">
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="45" t="s">
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="30" t="s">
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="30" t="s">
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="32"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="40"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="47" t="s">
@@ -9074,36 +9137,36 @@
       <c r="M69" s="49"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="50" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="39" t="s">
+      <c r="E70" s="53"/>
+      <c r="F70" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="40"/>
-      <c r="H70" s="50" t="s">
+      <c r="G70" s="51"/>
+      <c r="H70" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I70" s="51"/>
-      <c r="J70" s="39" t="s">
+      <c r="I70" s="53"/>
+      <c r="J70" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="40"/>
-      <c r="L70" s="50" t="s">
+      <c r="K70" s="51"/>
+      <c r="L70" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M70" s="51"/>
+      <c r="M70" s="53"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="42"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="20">
         <f>'Teste 1'!G14</f>
         <v>0</v>
@@ -9111,10 +9174,10 @@
       <c r="E71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="41" t="s">
+      <c r="F71" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="52"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="20">
         <f>'Teste 1'!G16</f>
         <v>0.3</v>
@@ -9122,10 +9185,10 @@
       <c r="I71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="52" t="s">
+      <c r="J71" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="52"/>
+      <c r="K71" s="58"/>
       <c r="L71" s="20">
         <f>'Teste 1'!G15</f>
         <v>1</v>
@@ -9135,10 +9198,10 @@
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="44"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="23">
         <f>'Teste 1'!G31</f>
         <v>2</v>
@@ -9146,10 +9209,10 @@
       <c r="E72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="53"/>
+      <c r="G72" s="54"/>
       <c r="H72" s="23">
         <f>'Teste 1'!G33</f>
         <v>2.8</v>
@@ -9157,10 +9220,10 @@
       <c r="I72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="53" t="s">
+      <c r="J72" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="53"/>
+      <c r="K72" s="54"/>
       <c r="L72" s="23">
         <f>'Teste 1'!G32</f>
         <v>4</v>
@@ -9170,10 +9233,10 @@
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="44"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="23">
         <f>'Teste 1'!G48</f>
         <v>7</v>
@@ -9181,10 +9244,10 @@
       <c r="E73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="53"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="23">
         <f>'Teste 1'!G50</f>
         <v>9.1</v>
@@ -9192,10 +9255,10 @@
       <c r="I73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="53" t="s">
+      <c r="J73" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="53"/>
+      <c r="K73" s="54"/>
       <c r="L73" s="23">
         <f>'Teste 1'!G49</f>
         <v>11</v>
@@ -9205,10 +9268,10 @@
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="44"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="23">
         <f>'Teste 1'!G65</f>
         <v>49</v>
@@ -9216,10 +9279,10 @@
       <c r="E74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="43" t="s">
+      <c r="F74" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="53"/>
+      <c r="G74" s="54"/>
       <c r="H74" s="23">
         <f>'Teste 1'!G67</f>
         <v>55.3</v>
@@ -9227,10 +9290,10 @@
       <c r="I74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="53" t="s">
+      <c r="J74" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="53"/>
+      <c r="K74" s="54"/>
       <c r="L74" s="23">
         <f>'Teste 1'!G66</f>
         <v>62</v>
@@ -9240,10 +9303,10 @@
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="56"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="21">
         <f>'Teste 1'!G82</f>
         <v>114</v>
@@ -9251,10 +9314,10 @@
       <c r="E75" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F75" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="54"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="21">
         <f>'Teste 1'!G84</f>
         <v>121.1</v>
@@ -9262,10 +9325,10 @@
       <c r="I75" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J75" s="54" t="s">
+      <c r="J75" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="54"/>
+      <c r="K75" s="55"/>
       <c r="L75" s="21">
         <f>'Teste 1'!G83</f>
         <v>128</v>
@@ -9275,44 +9338,44 @@
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="45" t="s">
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="45" t="s">
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="30" t="s">
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="30" t="s">
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="32"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="40"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="47" t="s">
@@ -9335,36 +9398,36 @@
       <c r="M79" s="49"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="39" t="s">
+      <c r="C80" s="51"/>
+      <c r="D80" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="40"/>
-      <c r="F80" s="39" t="s">
+      <c r="E80" s="51"/>
+      <c r="F80" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="40"/>
-      <c r="H80" s="50" t="s">
+      <c r="G80" s="51"/>
+      <c r="H80" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I80" s="51"/>
-      <c r="J80" s="39" t="s">
+      <c r="I80" s="53"/>
+      <c r="J80" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K80" s="40"/>
-      <c r="L80" s="50" t="s">
+      <c r="K80" s="51"/>
+      <c r="L80" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M80" s="51"/>
+      <c r="M80" s="53"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="42"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="20">
         <f>'Teste 1'!P14</f>
         <v>190</v>
@@ -9372,10 +9435,10 @@
       <c r="E81" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="52"/>
+      <c r="G81" s="58"/>
       <c r="H81" s="20">
         <f>'Teste 1'!P16</f>
         <v>195.7</v>
@@ -9383,10 +9446,10 @@
       <c r="I81" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J81" s="52" t="s">
+      <c r="J81" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="52"/>
+      <c r="K81" s="58"/>
       <c r="L81" s="20">
         <f>'Teste 1'!P15</f>
         <v>206</v>
@@ -9396,10 +9459,10 @@
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="44"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="18">
         <f>'Teste 1'!P31/1000</f>
         <v>5.3540000000000001</v>
@@ -9407,10 +9470,10 @@
       <c r="E82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="53"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="18">
         <f>'Teste 1'!P33/1000</f>
         <v>5.3758999999999997</v>
@@ -9418,10 +9481,10 @@
       <c r="I82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="53" t="s">
+      <c r="J82" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K82" s="53"/>
+      <c r="K82" s="54"/>
       <c r="L82" s="18">
         <f>'Teste 1'!P32/1000</f>
         <v>5.43</v>
@@ -9431,10 +9494,10 @@
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="44"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="18">
         <f>'Teste 1'!P48/1000</f>
         <v>21.995999999999999</v>
@@ -9442,10 +9505,10 @@
       <c r="E83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="53"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="18">
         <f>'Teste 1'!P50/1000</f>
         <v>22.170900000000003</v>
@@ -9453,10 +9516,10 @@
       <c r="I83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J83" s="53" t="s">
+      <c r="J83" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="53"/>
+      <c r="K83" s="54"/>
       <c r="L83" s="18">
         <f>'Teste 1'!P49/1000</f>
         <v>22.706</v>
@@ -9466,10 +9529,10 @@
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="44"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="18">
         <f>'Teste 1'!P65/1000/60</f>
         <v>9.341566666666667</v>
@@ -9477,10 +9540,10 @@
       <c r="E84" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F84" s="43" t="s">
+      <c r="F84" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="53"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="18">
         <f>'Teste 1'!P67/1000/60</f>
         <v>9.5401316666666673</v>
@@ -9488,10 +9551,10 @@
       <c r="I84" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="53" t="s">
+      <c r="J84" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="53"/>
+      <c r="K84" s="54"/>
       <c r="L84" s="18">
         <f>'Teste 1'!P66/1000/60</f>
         <v>10.052383333333333</v>
@@ -9501,10 +9564,10 @@
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="56"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="19">
         <f>'Teste 1'!P82/1000/60</f>
         <v>37.625450000000001</v>
@@ -9512,10 +9575,10 @@
       <c r="E85" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F85" s="55" t="s">
+      <c r="F85" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="54"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="19">
         <f>'Teste 1'!P84/1000/60</f>
         <v>39.522801666666666</v>
@@ -9523,10 +9586,10 @@
       <c r="I85" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J85" s="54" t="s">
+      <c r="J85" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="54"/>
+      <c r="K85" s="55"/>
       <c r="L85" s="19">
         <f>'Teste 1'!P83/1000/60</f>
         <v>41.662100000000002</v>
@@ -9536,44 +9599,44 @@
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="45" t="s">
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="45" t="s">
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="30" t="s">
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="30" t="s">
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="32"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="40"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="47" t="s">
@@ -9596,36 +9659,36 @@
       <c r="M88" s="49"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="50" t="s">
+      <c r="C89" s="51"/>
+      <c r="D89" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="51"/>
-      <c r="F89" s="39" t="s">
+      <c r="E89" s="53"/>
+      <c r="F89" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G89" s="40"/>
-      <c r="H89" s="50" t="s">
+      <c r="G89" s="51"/>
+      <c r="H89" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I89" s="51"/>
-      <c r="J89" s="39" t="s">
+      <c r="I89" s="53"/>
+      <c r="J89" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K89" s="40"/>
-      <c r="L89" s="50" t="s">
+      <c r="K89" s="51"/>
+      <c r="L89" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M89" s="51"/>
+      <c r="M89" s="53"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="52"/>
+      <c r="C90" s="58"/>
       <c r="D90" s="20">
         <f>'Teste 1'!Q14</f>
         <v>232</v>
@@ -9633,10 +9696,10 @@
       <c r="E90" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="52" t="s">
+      <c r="F90" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="52"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="20">
         <f>'Teste 1'!Q16</f>
         <v>238.8</v>
@@ -9644,10 +9707,10 @@
       <c r="I90" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J90" s="52" t="s">
+      <c r="J90" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="52"/>
+      <c r="K90" s="58"/>
       <c r="L90" s="20">
         <f>'Teste 1'!Q15</f>
         <v>261</v>
@@ -9657,10 +9720,10 @@
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="53"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="18">
         <f>'Teste 1'!Q31/1000</f>
         <v>5.88</v>
@@ -9668,21 +9731,21 @@
       <c r="E91" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="53" t="s">
+      <c r="F91" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="53"/>
-      <c r="H91" s="23">
+      <c r="G91" s="54"/>
+      <c r="H91" s="18">
         <f>'Teste 1'!Q33/1000</f>
         <v>5.9473000000000003</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J91" s="53" t="s">
+      <c r="J91" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K91" s="53"/>
+      <c r="K91" s="54"/>
       <c r="L91" s="18">
         <f>'Teste 1'!Q33/1000</f>
         <v>5.9473000000000003</v>
@@ -9692,10 +9755,10 @@
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="53"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="18">
         <f>'Teste 1'!Q48/1000</f>
         <v>23.521000000000001</v>
@@ -9703,21 +9766,21 @@
       <c r="E92" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="53" t="s">
+      <c r="F92" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="53"/>
-      <c r="H92" s="23">
+      <c r="G92" s="54"/>
+      <c r="H92" s="18">
         <f>'Teste 1'!Q50/1000</f>
         <v>23.644099999999998</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J92" s="53" t="s">
+      <c r="J92" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="53"/>
+      <c r="K92" s="54"/>
       <c r="L92" s="18">
         <f>'Teste 1'!Q50/1000</f>
         <v>23.644099999999998</v>
@@ -9727,10 +9790,10 @@
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="53"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="18">
         <f>'Teste 1'!Q65/1000/60</f>
         <v>9.7959166666666668</v>
@@ -9738,21 +9801,21 @@
       <c r="E93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="53" t="s">
+      <c r="F93" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="53"/>
-      <c r="H93" s="23">
+      <c r="G93" s="54"/>
+      <c r="H93" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>9.9129483333333344</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J93" s="53" t="s">
+      <c r="J93" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="53"/>
+      <c r="K93" s="54"/>
       <c r="L93" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>9.9129483333333344</v>
@@ -9762,10 +9825,10 @@
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="54"/>
+      <c r="C94" s="55"/>
       <c r="D94" s="19">
         <f>'Teste 1'!Q82/1000/60</f>
         <v>40.053533333333334</v>
@@ -9773,21 +9836,21 @@
       <c r="E94" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="54"/>
-      <c r="H94" s="21">
+      <c r="G94" s="55"/>
+      <c r="H94" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>44.521449999999994</v>
       </c>
       <c r="I94" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J94" s="54" t="s">
+      <c r="J94" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="54"/>
+      <c r="K94" s="55"/>
       <c r="L94" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>44.521449999999994</v>
@@ -9798,6 +9861,471 @@
     </row>
   </sheetData>
   <mergeCells count="480">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="W49:Z49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="O55:P55"/>
     <mergeCell ref="S55:T55"/>
     <mergeCell ref="W55:X55"/>
@@ -9813,471 +10341,6 @@
     <mergeCell ref="O54:P54"/>
     <mergeCell ref="S54:T54"/>
     <mergeCell ref="W54:X54"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planilha de dados.xlsx
+++ b/Planilha de dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22899140\Documents\GitHub\Projeto-II-Estrutura-de-Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eu\Projeto-II-Estrutura-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2632C5-84DD-4CA8-8AD6-5E8D35E93E08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2726DDDE-B87A-4E8B-BBB9-0863F5CDEC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{37BD5372-493E-42B1-801B-B4D1539963C8}"/>
   </bookViews>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="41">
   <si>
     <t>Metodo</t>
   </si>
@@ -137,9 +148,6 @@
   </si>
   <si>
     <t>min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo </t>
   </si>
   <si>
     <t>Bubble</t>
@@ -266,7 +274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -495,28 +503,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,22 +524,34 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,6 +561,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,84 +621,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,60 +952,60 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="34" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="35"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1827,7 +1799,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="12">
@@ -1896,70 +1868,70 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30">
+      <c r="A18" s="40"/>
+      <c r="B18" s="28">
         <f>SUM(B17:C17)</f>
         <v>2131</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30">
+      <c r="C18" s="29"/>
+      <c r="D18" s="28">
         <f>SUM(D17:E17)</f>
         <v>4638</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30">
+      <c r="E18" s="29"/>
+      <c r="F18" s="28">
         <f>SUM(F17:G17)</f>
         <v>16</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30">
+      <c r="G18" s="29"/>
+      <c r="H18" s="28">
         <f>SUM(H17:I17)</f>
         <v>27</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="30">
+      <c r="I18" s="29"/>
+      <c r="J18" s="28">
         <f>SUM(J17:K17)</f>
         <v>1137</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="30">
+      <c r="K18" s="29"/>
+      <c r="L18" s="28">
         <f>SUM(L17:M17)</f>
         <v>20</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="30">
+      <c r="M18" s="29"/>
+      <c r="N18" s="28">
         <f>SUM(N17:O17)</f>
         <v>1096</v>
       </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="30">
+      <c r="O18" s="29"/>
+      <c r="P18" s="28">
         <f>SUM(P17:Q17)</f>
         <v>4345</v>
       </c>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2751,7 +2723,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="12">
@@ -2820,70 +2792,70 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30">
+      <c r="A35" s="40"/>
+      <c r="B35" s="28">
         <f>SUM(B34:C34)</f>
         <v>52956</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30">
+      <c r="C35" s="29"/>
+      <c r="D35" s="28">
         <f>SUM(D34:E34)</f>
         <v>126256</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30">
+      <c r="E35" s="29"/>
+      <c r="F35" s="28">
         <f>SUM(F34:G34)</f>
         <v>127</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="30">
+      <c r="G35" s="29"/>
+      <c r="H35" s="28">
         <f>SUM(H34:I34)</f>
         <v>152</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="30">
+      <c r="I35" s="29"/>
+      <c r="J35" s="28">
         <f>SUM(J34:K34)</f>
         <v>26996</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="30">
+      <c r="K35" s="29"/>
+      <c r="L35" s="28">
         <f>SUM(L34:M34)</f>
         <v>110</v>
       </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="30">
+      <c r="M35" s="29"/>
+      <c r="N35" s="28">
         <f>SUM(N34:O34)</f>
         <v>27044</v>
       </c>
-      <c r="O35" s="31"/>
-      <c r="P35" s="30">
+      <c r="O35" s="29"/>
+      <c r="P35" s="28">
         <f>SUM(P34:Q34)</f>
         <v>113232</v>
       </c>
-      <c r="Q35" s="31"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="40"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -3676,7 +3648,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="12">
@@ -3745,70 +3717,70 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30">
+      <c r="A52" s="40"/>
+      <c r="B52" s="28">
         <f>SUM(B51:C51)</f>
         <v>280650</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="30">
+      <c r="C52" s="29"/>
+      <c r="D52" s="28">
         <f>SUM(D51:E51)</f>
         <v>682022</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="30">
+      <c r="E52" s="29"/>
+      <c r="F52" s="28">
         <f>SUM(F51:G51)</f>
         <v>377</v>
       </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="30">
+      <c r="G52" s="29"/>
+      <c r="H52" s="28">
         <f>SUM(H51:I51)</f>
         <v>307</v>
       </c>
-      <c r="I52" s="31"/>
-      <c r="J52" s="30">
+      <c r="I52" s="29"/>
+      <c r="J52" s="28">
         <f>SUM(J51:K51)</f>
         <v>107649</v>
       </c>
-      <c r="K52" s="31"/>
-      <c r="L52" s="30">
+      <c r="K52" s="29"/>
+      <c r="L52" s="28">
         <f>SUM(L51:M51)</f>
         <v>230</v>
       </c>
-      <c r="M52" s="31"/>
-      <c r="N52" s="30">
+      <c r="M52" s="29"/>
+      <c r="N52" s="28">
         <f>SUM(N51:O51)</f>
         <v>107940</v>
       </c>
-      <c r="O52" s="31"/>
-      <c r="P52" s="30">
+      <c r="O52" s="29"/>
+      <c r="P52" s="28">
         <f>SUM(P51:Q51)</f>
         <v>458150</v>
       </c>
-      <c r="Q52" s="31"/>
+      <c r="Q52" s="29"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="40"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="34"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -4601,7 +4573,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="12">
@@ -4670,70 +4642,70 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30">
+      <c r="A69" s="40"/>
+      <c r="B69" s="28">
         <f>SUM(B68:C68)</f>
         <v>8707945</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="30">
+      <c r="C69" s="29"/>
+      <c r="D69" s="28">
         <f>SUM(D68:E68)</f>
         <v>19413374</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="30">
+      <c r="E69" s="29"/>
+      <c r="F69" s="28">
         <f>SUM(F68:G68)</f>
         <v>2525</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="30">
+      <c r="G69" s="29"/>
+      <c r="H69" s="28">
         <f>SUM(H68:I68)</f>
         <v>1835</v>
       </c>
-      <c r="I69" s="31"/>
-      <c r="J69" s="30">
+      <c r="I69" s="29"/>
+      <c r="J69" s="28">
         <f>SUM(J68:K68)</f>
         <v>2685156</v>
       </c>
-      <c r="K69" s="31"/>
-      <c r="L69" s="30">
+      <c r="K69" s="29"/>
+      <c r="L69" s="28">
         <f>SUM(L68:M68)</f>
         <v>1218</v>
       </c>
-      <c r="M69" s="31"/>
-      <c r="N69" s="30">
+      <c r="M69" s="29"/>
+      <c r="N69" s="28">
         <f>SUM(N68:O68)</f>
         <v>2748813</v>
       </c>
-      <c r="O69" s="31"/>
-      <c r="P69" s="30">
+      <c r="O69" s="29"/>
+      <c r="P69" s="28">
         <f>SUM(P68:Q68)</f>
         <v>11671848</v>
       </c>
-      <c r="Q69" s="31"/>
+      <c r="Q69" s="29"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="40"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="34"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -5526,7 +5498,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="12">
@@ -5595,92 +5567,92 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="30">
+      <c r="A86" s="40"/>
+      <c r="B86" s="28">
         <f>SUM(B85:C85)</f>
         <v>37781303</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="30">
+      <c r="C86" s="29"/>
+      <c r="D86" s="28">
         <f>SUM(D85:E85)</f>
         <v>79313180</v>
       </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="30">
+      <c r="E86" s="29"/>
+      <c r="F86" s="28">
         <f>SUM(F85:G85)</f>
         <v>5568</v>
       </c>
-      <c r="G86" s="31"/>
-      <c r="H86" s="30">
+      <c r="G86" s="29"/>
+      <c r="H86" s="28">
         <f>SUM(H85:I85)</f>
         <v>3746</v>
       </c>
-      <c r="I86" s="31"/>
-      <c r="J86" s="30">
+      <c r="I86" s="29"/>
+      <c r="J86" s="28">
         <f>SUM(J85:K85)</f>
         <v>10602239</v>
       </c>
-      <c r="K86" s="31"/>
-      <c r="L86" s="30">
+      <c r="K86" s="29"/>
+      <c r="L86" s="28">
         <f>SUM(L85:M85)</f>
         <v>2509</v>
       </c>
-      <c r="M86" s="31"/>
-      <c r="N86" s="30">
+      <c r="M86" s="29"/>
+      <c r="N86" s="28">
         <f>SUM(N85:O85)</f>
         <v>10761101</v>
       </c>
-      <c r="O86" s="31"/>
-      <c r="P86" s="30">
+      <c r="O86" s="29"/>
+      <c r="P86" s="28">
         <f>SUM(P85:Q85)</f>
         <v>50426551</v>
       </c>
-      <c r="Q86" s="31"/>
+      <c r="Q86" s="29"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="30">
         <f>SUM(B86+B69+B52+B35+B18)</f>
         <v>46824985</v>
       </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="36">
+      <c r="C87" s="31"/>
+      <c r="D87" s="30">
         <f>SUM(D86+D69+D52+D35+D18)</f>
         <v>99539470</v>
       </c>
-      <c r="E87" s="37"/>
-      <c r="F87" s="36">
+      <c r="E87" s="31"/>
+      <c r="F87" s="30">
         <f>SUM(F86+F69+F52+F35+F18)</f>
         <v>8613</v>
       </c>
-      <c r="G87" s="37"/>
-      <c r="H87" s="36">
+      <c r="G87" s="31"/>
+      <c r="H87" s="30">
         <f>SUM(H86+H69+H52+H35+H18)</f>
         <v>6067</v>
       </c>
-      <c r="I87" s="37"/>
-      <c r="J87" s="36">
+      <c r="I87" s="31"/>
+      <c r="J87" s="30">
         <f>SUM(J86+J69+J52+J35+J18)</f>
         <v>13423177</v>
       </c>
-      <c r="K87" s="37"/>
-      <c r="L87" s="36">
+      <c r="K87" s="31"/>
+      <c r="L87" s="30">
         <f>SUM(L86+L69+L52+L35+L18)</f>
         <v>4087</v>
       </c>
-      <c r="M87" s="37"/>
-      <c r="N87" s="36">
+      <c r="M87" s="31"/>
+      <c r="N87" s="30">
         <f>SUM(N86+N69+N52+N35+N18)</f>
         <v>13645994</v>
       </c>
-      <c r="O87" s="37"/>
-      <c r="P87" s="36">
+      <c r="O87" s="31"/>
+      <c r="P87" s="30">
         <f>SUM(P86+P69+P52+P35+P18)</f>
         <v>62674126</v>
       </c>
-      <c r="Q87" s="37"/>
+      <c r="Q87" s="31"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F89">
@@ -5697,6 +5669,56 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="66">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="P87:Q87"/>
     <mergeCell ref="B2:P2"/>
@@ -5713,56 +5735,6 @@
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H69:I69"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5775,10 +5747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06C49E-93B7-4292-923A-942BC3649656}">
-  <dimension ref="B1:Z94"/>
+  <dimension ref="B1:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O90" sqref="O90"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5792,207 +5764,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="O1" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="O1" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="O2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="38" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="38" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="O2" s="38" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="O3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="38" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="38" t="s">
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="O3" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="47"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="67"/>
+      <c r="J4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="O4" s="50" t="s">
+      <c r="M4" s="67"/>
+      <c r="O4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="50" t="s">
+      <c r="P4" s="65"/>
+      <c r="Q4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="51"/>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="65"/>
+      <c r="S4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="52" t="s">
+      <c r="T4" s="65"/>
+      <c r="U4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="50" t="s">
+      <c r="V4" s="67"/>
+      <c r="W4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="52" t="s">
+      <c r="X4" s="65"/>
+      <c r="Y4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="67"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="20">
-        <f>'Teste 1'!B14</f>
-        <v>68</v>
+      <c r="C5" s="42"/>
+      <c r="D5" s="20" t="e">
+        <f>'Teste 1'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="20">
-        <f>'Teste 1'!B16</f>
-        <v>70.900000000000006</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="58" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="20" t="e">
+        <f>'Teste 1'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="14">
-        <f>'Teste 1'!B15</f>
-        <v>75</v>
+      <c r="K5" s="42"/>
+      <c r="L5" s="20" t="e">
+        <f>'Teste 1'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="46"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="20">
         <f>'Teste 1'!J14</f>
         <v>1</v>
@@ -6000,10 +5956,10 @@
       <c r="R5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="58"/>
+      <c r="T5" s="48"/>
       <c r="U5" s="20">
         <f>'Teste 1'!J16</f>
         <v>1.5</v>
@@ -6011,10 +5967,10 @@
       <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="58" t="s">
+      <c r="W5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="58"/>
+      <c r="X5" s="48"/>
       <c r="Y5" s="20">
         <f>'Teste 1'!J15</f>
         <v>3</v>
@@ -6024,43 +5980,43 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="18">
-        <f>'Teste 1'!B31/1000</f>
-        <v>1.7470000000000001</v>
+        <f>'Teste 1'!D13/1000</f>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="18">
-        <f>'Teste 1'!B33/1000</f>
-        <v>1.7815999999999999</v>
-      </c>
-      <c r="I6" s="24" t="s">
+        <f>'Teste 1'!D15/1000</f>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="54"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="18">
-        <f>'Teste 1'!B32/1000</f>
-        <v>1.84</v>
+        <f>'Teste 1'!D14/1000</f>
+        <v>0.22800000000000001</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="42"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="23">
         <f>'Teste 1'!J31</f>
         <v>7</v>
@@ -6068,10 +6024,10 @@
       <c r="R6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="54"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="23">
         <f>'Teste 1'!J33</f>
         <v>7.4</v>
@@ -6079,10 +6035,10 @@
       <c r="V6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="54" t="s">
+      <c r="W6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="54"/>
+      <c r="X6" s="49"/>
       <c r="Y6" s="23">
         <f>'Teste 1'!J32</f>
         <v>9</v>
@@ -6092,43 +6048,43 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="18">
-        <f>'Teste 1'!B48 /1000</f>
-        <v>6.984</v>
+        <f>'Teste 1'!D30/1000</f>
+        <v>6.8490000000000002</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="18">
-        <f>'Teste 1'!B50/1000</f>
-        <v>7.9418999999999995</v>
-      </c>
-      <c r="I7" s="24" t="s">
+        <f>'Teste 1'!D32 /1000</f>
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="54"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="18">
-        <f>'Teste 1'!B49/1000</f>
-        <v>13.363</v>
+        <f>'Teste 1'!D31 /1000</f>
+        <v>6.7670000000000003</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="42"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="23">
         <f>'Teste 1'!J48</f>
         <v>14</v>
@@ -6136,10 +6092,10 @@
       <c r="R7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="54"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="23">
         <f>'Teste 1'!J50</f>
         <v>15.1</v>
@@ -6147,10 +6103,10 @@
       <c r="V7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="54" t="s">
+      <c r="W7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="54"/>
+      <c r="X7" s="49"/>
       <c r="Y7" s="23">
         <f>'Teste 1'!J49</f>
         <v>16</v>
@@ -6160,43 +6116,43 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="18">
-        <f>'Teste 1'!B65 /1000/60</f>
-        <v>2.8785333333333329</v>
+        <f>'Teste 1'!D47/1000/60</f>
+        <v>0.50911666666666666</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="18">
-        <f>'Teste 1'!B67/1000/60</f>
-        <v>4.8830400000000003</v>
-      </c>
-      <c r="I8" s="24" t="s">
+        <f>'Teste 1'!D49 /1000/60</f>
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="18">
-        <f>'Teste 1'!B66/1000/60</f>
-        <v>5.3099833333333333</v>
+        <f>'Teste 1'!D48 /1000/60</f>
+        <v>0.45173333333333332</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="42"/>
+      <c r="P8" s="44"/>
       <c r="Q8" s="23">
         <f>'Teste 1'!J65</f>
         <v>80</v>
@@ -6204,10 +6160,10 @@
       <c r="R8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="41" t="s">
+      <c r="S8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="54"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="23">
         <f>'Teste 1'!J67</f>
         <v>82.5</v>
@@ -6215,10 +6171,10 @@
       <c r="V8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="54" t="s">
+      <c r="W8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="54"/>
+      <c r="X8" s="49"/>
       <c r="Y8" s="23">
         <f>'Teste 1'!J66</f>
         <v>85</v>
@@ -6228,43 +6184,43 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="19">
-        <f>'Teste 1'!B82/1000/60</f>
-        <v>17.0808</v>
+        <f>'Teste 1'!D64/1000/60</f>
+        <v>15.711916666666667</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="55"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="19">
-        <f>'Teste 1'!B84/1000/60</f>
-        <v>20.564481666666666</v>
-      </c>
-      <c r="I9" s="22" t="s">
+        <f>'Teste 1'!D66/1000/60</f>
+        <v>16.805799999999998</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="19">
-        <f>'Teste 1'!B83/1000/60</f>
-        <v>22.509616666666666</v>
+        <f>'Teste 1'!D65/1000/60</f>
+        <v>15.697833333333334</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="44"/>
+      <c r="P9" s="52"/>
       <c r="Q9" s="21">
         <f>'Teste 1'!J82</f>
         <v>185</v>
@@ -6272,10 +6228,10 @@
       <c r="R9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="43" t="s">
+      <c r="S9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="55"/>
+      <c r="T9" s="50"/>
       <c r="U9" s="21">
         <f>'Teste 1'!J84</f>
         <v>194.7</v>
@@ -6283,10 +6239,10 @@
       <c r="V9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="55" t="s">
+      <c r="W9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="55"/>
+      <c r="X9" s="50"/>
       <c r="Y9" s="21">
         <f>'Teste 1'!J83</f>
         <v>212</v>
@@ -6296,3598 +6252,3715 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="O10" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
+      <c r="B10" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="O10" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="38" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-      <c r="O11" s="38" t="s">
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="O11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="38" t="s">
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="38" t="s">
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="40"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="O12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="49"/>
+      <c r="B12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="67"/>
+      <c r="O12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="65"/>
+      <c r="S12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="65"/>
+      <c r="U12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="67"/>
+      <c r="W12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="67"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="53"/>
-      <c r="O13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" s="51"/>
-      <c r="U13" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="53"/>
-      <c r="W13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="53"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+      <c r="B13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="14">
+      <c r="C13" s="48"/>
+      <c r="D13" s="14">
         <f>'Teste 1'!C14</f>
         <v>138</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="58" t="s">
+      <c r="E13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="20">
+      <c r="G13" s="42"/>
+      <c r="H13" s="20">
         <f>'Teste 1'!C16</f>
         <v>142.19999999999999</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="45" t="s">
+      <c r="I13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="14">
+      <c r="K13" s="42"/>
+      <c r="L13" s="14">
         <f>'Teste 1'!C15</f>
         <v>145</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="45" t="s">
+      <c r="M13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="20">
+      <c r="P13" s="42"/>
+      <c r="Q13" s="20">
         <f>'Teste 1'!K14</f>
         <v>106</v>
       </c>
-      <c r="R14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="45" t="s">
+      <c r="R13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="20">
+      <c r="T13" s="42"/>
+      <c r="U13" s="20">
         <f>'Teste 1'!K16</f>
         <v>112.2</v>
       </c>
-      <c r="V14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W14" s="45" t="s">
+      <c r="V13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="20">
+      <c r="X13" s="42"/>
+      <c r="Y13" s="20">
         <f>'Teste 1'!K15</f>
         <v>131</v>
       </c>
-      <c r="Z14" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="Z13" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="18">
+      <c r="C14" s="49"/>
+      <c r="D14" s="18">
         <f>'Teste 1'!C31/1000</f>
         <v>3.4729999999999999</v>
       </c>
+      <c r="E14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="18">
+        <f>'Teste 1'!C33/1000</f>
+        <v>3.5139999999999998</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="18">
+        <f>'Teste 1'!C32/1000</f>
+        <v>3.5979999999999999</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="18">
+        <f>'Teste 1'!K31/1000</f>
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="44"/>
+      <c r="U14" s="18">
+        <f>'Teste 1'!K33/1000</f>
+        <v>2.6921999999999997</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="18">
+        <f>'Teste 1'!K32/1000</f>
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="18">
+        <f>'Teste 1'!C48/1000</f>
+        <v>13.914</v>
+      </c>
       <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="42"/>
+      <c r="F15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="44"/>
       <c r="H15" s="18">
-        <f>'Teste 1'!C33/1000</f>
-        <v>3.5139999999999998</v>
+        <f>'Teste 1'!C50/1000</f>
+        <v>20.123099999999997</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="42"/>
+      <c r="J15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="44"/>
       <c r="L15" s="18">
-        <f>'Teste 1'!C32/1000</f>
-        <v>3.5979999999999999</v>
+        <f>'Teste 1'!C49/1000</f>
+        <v>27.234999999999999</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="42"/>
+      <c r="O15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="44"/>
       <c r="Q15" s="18">
-        <f>'Teste 1'!K31/1000</f>
-        <v>2.6480000000000001</v>
+        <f>'Teste 1'!K48/1000</f>
+        <v>10.545</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="42"/>
+      <c r="S15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="44"/>
       <c r="U15" s="18">
-        <f>'Teste 1'!K33/1000</f>
-        <v>2.6921999999999997</v>
+        <f>'Teste 1'!K50/1000</f>
+        <v>10.749799999999999</v>
       </c>
       <c r="V15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W15" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="X15" s="42"/>
+      <c r="W15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15" s="44"/>
       <c r="Y15" s="18">
-        <f>'Teste 1'!K32/1000</f>
-        <v>2.7669999999999999</v>
+        <f>'Teste 1'!K49/1000</f>
+        <v>10.956</v>
       </c>
       <c r="Z15" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="54"/>
+      <c r="B16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="18">
-        <f>'Teste 1'!C48/1000</f>
-        <v>13.914</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="18">
-        <f>'Teste 1'!C50/1000</f>
-        <v>20.123099999999997</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="18">
-        <f>'Teste 1'!C49/1000</f>
-        <v>27.234999999999999</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="18">
-        <f>'Teste 1'!K48/1000</f>
-        <v>10.545</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="T16" s="42"/>
-      <c r="U16" s="18">
-        <f>'Teste 1'!K50/1000</f>
-        <v>10.749799999999999</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="W16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="18">
-        <f>'Teste 1'!K49/1000</f>
-        <v>10.956</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="18">
         <f>'Teste 1'!C65/1000/60</f>
         <v>6.6406166666666673</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F16" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="18">
+      <c r="G16" s="44"/>
+      <c r="H16" s="18">
         <f>'Teste 1'!C67/1000/60</f>
         <v>9.6302016666666663</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="18">
+      <c r="K16" s="44"/>
+      <c r="L16" s="18">
         <f>'Teste 1'!C66/1000/60</f>
         <v>11.1181</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="18">
+      <c r="P16" s="44"/>
+      <c r="Q16" s="18">
         <f>'Teste 1'!K65/1000/60</f>
         <v>4.4021999999999997</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="R16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="41" t="s">
+      <c r="S16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="18">
+      <c r="T16" s="44"/>
+      <c r="U16" s="18">
         <f>'Teste 1'!K67/1000/60</f>
         <v>4.4738849999999992</v>
       </c>
-      <c r="V17" s="24" t="s">
+      <c r="V16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="41" t="s">
+      <c r="W16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="18">
+      <c r="X16" s="44"/>
+      <c r="Y16" s="18">
         <f>'Teste 1'!K66/1000/60</f>
         <v>4.5504833333333332</v>
       </c>
-      <c r="Z17" s="16" t="s">
+      <c r="Z16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="19">
+      <c r="C17" s="50"/>
+      <c r="D17" s="19">
         <f>'Teste 1'!C82/1000/60</f>
         <v>39.336366666666663</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="19">
+      <c r="G17" s="52"/>
+      <c r="H17" s="19">
         <f>'Teste 1'!C84/1000/60</f>
         <v>42.404356666666665</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="19">
+      <c r="K17" s="52"/>
+      <c r="L17" s="19">
         <f>'Teste 1'!C83/1000/60</f>
         <v>44.008900000000004</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="43" t="s">
+      <c r="O17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="19">
+      <c r="P17" s="52"/>
+      <c r="Q17" s="19">
         <f>'Teste 1'!K82/1000/60</f>
         <v>17.404783333333334</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="43" t="s">
+      <c r="S17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="44"/>
-      <c r="U18" s="19">
+      <c r="T17" s="52"/>
+      <c r="U17" s="19">
         <f>'Teste 1'!K84/1000/60</f>
         <v>17.667153333333331</v>
       </c>
-      <c r="V18" s="22" t="s">
+      <c r="V17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="43" t="s">
+      <c r="W17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="19">
+      <c r="X17" s="52"/>
+      <c r="Y17" s="19">
         <f>'Teste 1'!K83/1000/60</f>
         <v>18.221783333333335</v>
       </c>
-      <c r="Z18" s="17" t="s">
+      <c r="Z17" s="17" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="O19" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+    </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="O20" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
+      <c r="B20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="O20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="34"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="38" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="O21" s="38" t="s">
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+      <c r="O21" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="38" t="s">
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="38" t="s">
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="40"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
-      <c r="O22" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="49"/>
+      <c r="B22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="67"/>
+      <c r="O22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="65"/>
+      <c r="S22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="65"/>
+      <c r="U22" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" s="67"/>
+      <c r="W22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" s="67"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="53"/>
-      <c r="O23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="51"/>
-      <c r="S23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="53"/>
-      <c r="W23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="53"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
+      <c r="B23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="20">
+      <c r="C23" s="42"/>
+      <c r="D23" s="20">
         <f>'Teste 1'!D14</f>
         <v>228</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="45" t="s">
+      <c r="E23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="20">
+      <c r="G23" s="42"/>
+      <c r="H23" s="20">
         <f>'Teste 1'!D16</f>
         <v>234.7</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="58" t="s">
+      <c r="I23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="20">
+      <c r="K23" s="42"/>
+      <c r="L23" s="20">
         <f>'Teste 1'!D15</f>
         <v>241</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="45" t="s">
+      <c r="M23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="20">
+      <c r="P23" s="42"/>
+      <c r="Q23" s="20">
         <f>'Teste 1'!L14</f>
         <v>1</v>
       </c>
-      <c r="R24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S24" s="45" t="s">
+      <c r="R23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="58"/>
-      <c r="U24" s="20">
+      <c r="T23" s="48"/>
+      <c r="U23" s="20">
         <f>'Teste 1'!L16</f>
         <v>1.5</v>
       </c>
-      <c r="V24" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W24" s="58" t="s">
+      <c r="V23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="20">
+      <c r="X23" s="48"/>
+      <c r="Y23" s="20">
         <f>'Teste 1'!L15</f>
         <v>2</v>
       </c>
-      <c r="Z24" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+      <c r="Z23" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="18">
+      <c r="C24" s="44"/>
+      <c r="D24" s="18">
         <f>'Teste 1'!D31/1000</f>
         <v>6.7670000000000003</v>
       </c>
+      <c r="E24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="18">
+        <f>'Teste 1'!D33/1000</f>
+        <v>6.8606000000000007</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="18">
+        <f>'Teste 1'!D32/1000</f>
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="23">
+        <f>'Teste 1'!L31</f>
+        <v>8</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="49"/>
+      <c r="U24" s="23">
+        <f>'Teste 1'!L33</f>
+        <v>8</v>
+      </c>
+      <c r="V24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="23">
+        <f>'Teste 1'!L32</f>
+        <v>8</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="18">
+        <f>'Teste 1'!D48/1000</f>
+        <v>27.103999999999999</v>
+      </c>
       <c r="E25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="54"/>
+      <c r="F25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="44"/>
       <c r="H25" s="18">
-        <f>'Teste 1'!D33/1000</f>
-        <v>6.8606000000000007</v>
+        <f>'Teste 1'!D50 /1000</f>
+        <v>30.612500000000001</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="54"/>
+      <c r="J25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="44"/>
       <c r="L25" s="18">
-        <f>'Teste 1'!D32/1000</f>
-        <v>6.9619999999999997</v>
+        <f>'Teste 1'!D49 /1000</f>
+        <v>38.634</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="42"/>
+      <c r="O25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="44"/>
       <c r="Q25" s="23">
-        <f>'Teste 1'!L31</f>
-        <v>8</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S25" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="T25" s="54"/>
-      <c r="U25" s="23">
-        <f>'Teste 1'!L33</f>
-        <v>8</v>
-      </c>
-      <c r="V25" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W25" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="23">
-        <f>'Teste 1'!L32</f>
-        <v>8</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="18">
-        <f>'Teste 1'!D48/1000</f>
-        <v>27.103999999999999</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="18">
-        <f>'Teste 1'!D50 /1000</f>
-        <v>30.612500000000001</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="18">
-        <f>'Teste 1'!D49 /1000</f>
-        <v>38.634</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="23">
         <f>'Teste 1'!L48</f>
         <v>16</v>
       </c>
-      <c r="R26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S26" s="41" t="s">
+      <c r="R25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="54"/>
-      <c r="U26" s="23">
+      <c r="T25" s="49"/>
+      <c r="U25" s="23">
         <f>'Teste 1'!L50</f>
         <v>16.8</v>
       </c>
-      <c r="V26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W26" s="54" t="s">
+      <c r="V25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="23">
+      <c r="X25" s="49"/>
+      <c r="Y25" s="23">
         <f>'Teste 1'!L49</f>
         <v>18</v>
       </c>
-      <c r="Z26" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
+      <c r="Z25" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="18">
+      <c r="C26" s="44"/>
+      <c r="D26" s="18">
         <f>'Teste 1'!D65/1000/60</f>
         <v>15.697833333333334</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="18">
+      <c r="G26" s="44"/>
+      <c r="H26" s="18">
         <f>'Teste 1'!D67 /1000/60</f>
         <v>16.148106666666667</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="18">
+      <c r="K26" s="44"/>
+      <c r="L26" s="18">
         <f>'Teste 1'!D66 /1000/60</f>
         <v>16.805799999999998</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="O26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="23">
+      <c r="P26" s="44"/>
+      <c r="Q26" s="23">
         <f>'Teste 1'!L65</f>
         <v>85</v>
       </c>
-      <c r="R27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S27" s="41" t="s">
+      <c r="R26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="54"/>
-      <c r="U27" s="23">
+      <c r="T26" s="49"/>
+      <c r="U26" s="23">
         <f>'Teste 1'!L67</f>
         <v>87.6</v>
       </c>
-      <c r="V27" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W27" s="54" t="s">
+      <c r="V26" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="23">
+      <c r="X26" s="49"/>
+      <c r="Y26" s="23">
         <f>'Teste 1'!L66</f>
         <v>92</v>
       </c>
-      <c r="Z27" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
+      <c r="Z26" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="19">
+      <c r="C27" s="52"/>
+      <c r="D27" s="19">
         <f>'Teste 1'!D82/1000/60</f>
         <v>64.298550000000006</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="19">
+      <c r="G27" s="52"/>
+      <c r="H27" s="19">
         <f>'Teste 1'!D84/1000/60</f>
         <v>65.691495000000003</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I27" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="19">
+      <c r="K27" s="52"/>
+      <c r="L27" s="19">
         <f>'Teste 1'!D83/1000/60</f>
         <v>66.868466666666663</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="43" t="s">
+      <c r="O27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="21">
+      <c r="P27" s="52"/>
+      <c r="Q27" s="21">
         <f>'Teste 1'!L82</f>
         <v>175</v>
       </c>
-      <c r="R28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="S28" s="43" t="s">
+      <c r="R27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="55"/>
-      <c r="U28" s="21">
+      <c r="T27" s="50"/>
+      <c r="U27" s="21">
         <f>'Teste 1'!L84</f>
         <v>179.5</v>
       </c>
-      <c r="V28" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="W28" s="55" t="s">
+      <c r="V27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="21">
+      <c r="X27" s="50"/>
+      <c r="Y27" s="21">
         <f>'Teste 1'!L83</f>
         <v>186</v>
       </c>
-      <c r="Z28" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="Z27" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="O28" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="34"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="O29" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="B29" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
+      <c r="O29" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="40"/>
-      <c r="O30" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40"/>
+      <c r="B30" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="67"/>
+      <c r="J30" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="65"/>
+      <c r="L30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="67"/>
+      <c r="O30" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="65"/>
+      <c r="S30" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" s="65"/>
+      <c r="U30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="67"/>
+      <c r="W30" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z30" s="67"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="O31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="49"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32" s="53"/>
-      <c r="O32" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="R32" s="53"/>
-      <c r="S32" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T32" s="51"/>
-      <c r="U32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="V32" s="53"/>
-      <c r="W32" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z32" s="53"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="45" t="s">
+      <c r="B31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="20">
+      <c r="C31" s="42"/>
+      <c r="D31" s="20">
         <f>'Teste 1'!E14</f>
         <v>220</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="58" t="s">
+      <c r="E31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="20">
+      <c r="G31" s="42"/>
+      <c r="H31" s="20">
         <f>'Teste 1'!E16</f>
         <v>229.1</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="45" t="s">
+      <c r="I31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="20">
+      <c r="K31" s="42"/>
+      <c r="L31" s="20">
         <f>'Teste 1'!E15</f>
         <v>235</v>
       </c>
-      <c r="M33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" s="45" t="s">
+      <c r="M31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="20">
+      <c r="P31" s="42"/>
+      <c r="Q31" s="20">
         <f>'Teste 1'!M14</f>
         <v>0</v>
       </c>
-      <c r="R33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S33" s="45" t="s">
+      <c r="R31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T33" s="46"/>
-      <c r="U33" s="20">
+      <c r="T31" s="42"/>
+      <c r="U31" s="20">
         <f>'Teste 1'!M16</f>
         <v>0.5</v>
       </c>
-      <c r="V33" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W33" s="45" t="s">
+      <c r="V31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="20">
+      <c r="X31" s="42"/>
+      <c r="Y31" s="20">
         <f>'Teste 1'!M15</f>
         <v>1</v>
       </c>
-      <c r="Z33" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
+      <c r="Z31" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="18">
+      <c r="C32" s="44"/>
+      <c r="D32" s="18">
         <f>'Teste 1'!E31/1000</f>
         <v>5.6509999999999998</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="18">
+      <c r="G32" s="44"/>
+      <c r="H32" s="18">
         <f>'Teste 1'!E33/1000</f>
         <v>5.7649999999999997</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="41" t="s">
+      <c r="J32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="18">
+      <c r="K32" s="44"/>
+      <c r="L32" s="18">
         <f>'Teste 1'!E32/1000</f>
         <v>5.9189999999999996</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="41" t="s">
+      <c r="O32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="26">
+      <c r="P32" s="44"/>
+      <c r="Q32" s="26">
         <f>'Teste 1'!M31</f>
         <v>2</v>
       </c>
-      <c r="R34" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" s="41" t="s">
+      <c r="R32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T34" s="42"/>
-      <c r="U34" s="23">
+      <c r="T32" s="44"/>
+      <c r="U32" s="23">
         <f>'Teste 1'!M33</f>
         <v>3</v>
       </c>
-      <c r="V34" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W34" s="41" t="s">
+      <c r="V32" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="23">
+      <c r="X32" s="44"/>
+      <c r="Y32" s="23">
         <f>'Teste 1'!M32</f>
         <v>4</v>
       </c>
-      <c r="Z34" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
+      <c r="Z32" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="18">
+      <c r="C33" s="44"/>
+      <c r="D33" s="18">
         <f>'Teste 1'!E48 /1000</f>
         <v>23.802</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="18">
+      <c r="G33" s="44"/>
+      <c r="H33" s="18">
         <f>'Teste 1'!E50 /1000</f>
         <v>37.589700000000001</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="41" t="s">
+      <c r="J33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="18">
+      <c r="K33" s="44"/>
+      <c r="L33" s="18">
         <f>'Teste 1'!E49 /1000</f>
         <v>42.737000000000002</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="M33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="41" t="s">
+      <c r="O33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="26">
+      <c r="P33" s="44"/>
+      <c r="Q33" s="26">
         <f>'Teste 1'!M48</f>
         <v>6</v>
       </c>
-      <c r="R35" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S35" s="41" t="s">
+      <c r="R33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T35" s="42"/>
-      <c r="U35" s="23">
+      <c r="T33" s="44"/>
+      <c r="U33" s="23">
         <f>'Teste 1'!M50</f>
         <v>6.2</v>
       </c>
-      <c r="V35" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W35" s="41" t="s">
+      <c r="V33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="23">
+      <c r="X33" s="44"/>
+      <c r="Y33" s="23">
         <f>'Teste 1'!M49</f>
         <v>7</v>
       </c>
-      <c r="Z35" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="41" t="s">
+      <c r="Z33" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="18">
+      <c r="C34" s="44"/>
+      <c r="D34" s="18">
         <f>'Teste 1'!E65 /1000/60</f>
         <v>12.9732</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="18">
+      <c r="G34" s="44"/>
+      <c r="H34" s="18">
         <f>'Teste 1'!E67 /1000/60</f>
         <v>16.207516666666667</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="41" t="s">
+      <c r="J34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="18">
+      <c r="K34" s="44"/>
+      <c r="L34" s="18">
         <f>'Teste 1'!E66 /1000/60</f>
         <v>17.46531666666667</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="M34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="41" t="s">
+      <c r="O34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="26">
+      <c r="P34" s="44"/>
+      <c r="Q34" s="26">
         <f>'Teste 1'!M65</f>
         <v>33</v>
       </c>
-      <c r="R36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S36" s="41" t="s">
+      <c r="R34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T36" s="42"/>
-      <c r="U36" s="23">
+      <c r="T34" s="44"/>
+      <c r="U34" s="23">
         <f>'Teste 1'!M67</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="V36" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W36" s="41" t="s">
+      <c r="V34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="23">
+      <c r="X34" s="44"/>
+      <c r="Y34" s="23">
         <f>'Teste 1'!M66</f>
         <v>36</v>
       </c>
-      <c r="Z36" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="Z34" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="19">
+      <c r="C35" s="50"/>
+      <c r="D35" s="19">
         <f>'Teste 1'!E82/1000/60</f>
         <v>59.355533333333334</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F35" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="19">
+      <c r="G35" s="52"/>
+      <c r="H35" s="19">
         <f>'Teste 1'!E84/1000/60</f>
         <v>66.497138333333325</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J35" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="19">
+      <c r="K35" s="52"/>
+      <c r="L35" s="19">
         <f>'Teste 1'!E83/1000/60</f>
         <v>70.216016666666675</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="43" t="s">
+      <c r="O35" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="27">
+      <c r="P35" s="52"/>
+      <c r="Q35" s="27">
         <f>'Teste 1'!M82</f>
         <v>69</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="S37" s="43" t="s">
+      <c r="R35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="44"/>
-      <c r="U37" s="21">
+      <c r="T35" s="52"/>
+      <c r="U35" s="21">
         <f>'Teste 1'!M84</f>
         <v>71.400000000000006</v>
       </c>
-      <c r="V37" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="W37" s="43" t="s">
+      <c r="V35" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="21">
+      <c r="X35" s="52"/>
+      <c r="Y35" s="21">
         <f>'Teste 1'!M83</f>
         <v>74</v>
       </c>
-      <c r="Z37" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="Z35" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="O37" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
+      <c r="O38" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="34"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="O39" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
+      <c r="B39" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+      <c r="O39" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="47"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="40"/>
-      <c r="O40" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="40"/>
+      <c r="B40" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="67"/>
+      <c r="J40" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="65"/>
+      <c r="L40" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="67"/>
+      <c r="O40" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="65"/>
+      <c r="S40" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="65"/>
+      <c r="U40" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40" s="67"/>
+      <c r="W40" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z40" s="67"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B41" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
-      <c r="O41" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="49"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="M42" s="53"/>
-      <c r="O42" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="R42" s="51"/>
-      <c r="S42" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T42" s="51"/>
-      <c r="U42" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="V42" s="53"/>
-      <c r="W42" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z42" s="53"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="59" t="s">
+      <c r="B41" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="20">
+      <c r="C41" s="57"/>
+      <c r="D41" s="20">
         <f>'Teste 1'!H14</f>
         <v>1</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="59" t="s">
+      <c r="E41" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="61"/>
-      <c r="H43" s="20">
+      <c r="G41" s="58"/>
+      <c r="H41" s="20">
         <f>'Teste 1'!H16</f>
         <v>1.7</v>
       </c>
-      <c r="I43" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="61" t="s">
+      <c r="I41" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="61"/>
-      <c r="L43" s="20">
+      <c r="K41" s="58"/>
+      <c r="L41" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
       </c>
-      <c r="M43" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="O43" s="45" t="s">
+      <c r="M41" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="20">
+      <c r="P41" s="42"/>
+      <c r="Q41" s="20">
         <f>'Teste 1'!N14</f>
         <v>1</v>
       </c>
-      <c r="R43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S43" s="45" t="s">
+      <c r="R41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="58"/>
-      <c r="U43" s="20">
+      <c r="T41" s="48"/>
+      <c r="U41" s="20">
         <f>'Teste 1'!N16</f>
         <v>1.5</v>
       </c>
-      <c r="V43" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W43" s="58" t="s">
+      <c r="V41" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W41" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="20">
+      <c r="X41" s="48"/>
+      <c r="Y41" s="20">
         <f>'Teste 1'!N15</f>
         <v>2</v>
       </c>
-      <c r="Z43" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B44" s="62" t="s">
+      <c r="Z41" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="23">
+      <c r="C42" s="54"/>
+      <c r="D42" s="23">
         <f>'Teste 1'!H31</f>
         <v>8</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="62" t="s">
+      <c r="E42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="23">
+      <c r="G42" s="55"/>
+      <c r="H42" s="23">
         <f>'Teste 1'!H33</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="64" t="s">
+      <c r="I42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="64"/>
-      <c r="L44" s="23">
+      <c r="K42" s="55"/>
+      <c r="L42" s="23">
         <f>'Teste 1'!I32</f>
         <v>8</v>
       </c>
-      <c r="M44" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O44" s="41" t="s">
+      <c r="M42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="23">
+      <c r="P42" s="44"/>
+      <c r="Q42" s="23">
         <f>'Teste 1'!N31</f>
         <v>7</v>
       </c>
-      <c r="R44" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S44" s="41" t="s">
+      <c r="R42" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S42" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T44" s="54"/>
-      <c r="U44" s="23">
+      <c r="T42" s="49"/>
+      <c r="U42" s="23">
         <f>'Teste 1'!N33</f>
         <v>7.9</v>
       </c>
-      <c r="V44" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W44" s="54" t="s">
+      <c r="V42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="23">
+      <c r="X42" s="49"/>
+      <c r="Y42" s="23">
         <f>'Teste 1'!N32</f>
         <v>9</v>
       </c>
-      <c r="Z44" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
+      <c r="Z42" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="23">
+      <c r="C43" s="54"/>
+      <c r="D43" s="23">
         <f>'Teste 1'!H48</f>
         <v>18</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="62" t="s">
+      <c r="E43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="64"/>
-      <c r="H45" s="23">
+      <c r="G43" s="55"/>
+      <c r="H43" s="23">
         <f>'Teste 1'!H50</f>
         <v>19.3</v>
       </c>
-      <c r="I45" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="64" t="s">
+      <c r="I43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="64"/>
-      <c r="L45" s="23">
+      <c r="K43" s="55"/>
+      <c r="L43" s="23">
         <f>'Teste 1'!I49</f>
         <v>13</v>
       </c>
-      <c r="M45" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" s="41" t="s">
+      <c r="M43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="23">
+      <c r="P43" s="44"/>
+      <c r="Q43" s="23">
         <f>'Teste 1'!N48</f>
         <v>15</v>
       </c>
-      <c r="R45" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S45" s="41" t="s">
+      <c r="R43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T45" s="54"/>
-      <c r="U45" s="23">
+      <c r="T43" s="49"/>
+      <c r="U43" s="23">
         <f>'Teste 1'!N50</f>
         <v>15.9</v>
       </c>
-      <c r="V45" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W45" s="54" t="s">
+      <c r="V43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W43" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="23">
+      <c r="X43" s="49"/>
+      <c r="Y43" s="23">
         <f>'Teste 1'!N49</f>
         <v>18</v>
       </c>
-      <c r="Z45" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B46" s="62" t="s">
+      <c r="Z43" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="23">
+      <c r="C44" s="54"/>
+      <c r="D44" s="23">
         <f>'Teste 1'!H65</f>
         <v>103</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="62" t="s">
+      <c r="E44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="64"/>
-      <c r="H46" s="23">
+      <c r="G44" s="55"/>
+      <c r="H44" s="23">
         <f>'Teste 1'!H67</f>
         <v>108</v>
       </c>
-      <c r="I46" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="64" t="s">
+      <c r="I44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="64"/>
-      <c r="L46" s="23">
+      <c r="K44" s="55"/>
+      <c r="L44" s="23">
         <f>'Teste 1'!I66</f>
         <v>82</v>
       </c>
-      <c r="M46" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O46" s="41" t="s">
+      <c r="M44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="23">
+      <c r="P44" s="44"/>
+      <c r="Q44" s="23">
         <f>'Teste 1'!N65</f>
         <v>85</v>
       </c>
-      <c r="R46" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="41" t="s">
+      <c r="R44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T46" s="54"/>
-      <c r="U46" s="23">
+      <c r="T44" s="49"/>
+      <c r="U44" s="23">
         <f>'Teste 1'!N67</f>
         <v>87.3</v>
       </c>
-      <c r="V46" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W46" s="54" t="s">
+      <c r="V44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W44" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="23">
+      <c r="X44" s="49"/>
+      <c r="Y44" s="23">
         <f>'Teste 1'!N66</f>
         <v>90</v>
       </c>
-      <c r="Z46" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="65" t="s">
+      <c r="Z44" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="21">
+      <c r="C45" s="60"/>
+      <c r="D45" s="21">
         <f>'Teste 1'!H82</f>
         <v>220</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="65" t="s">
+      <c r="E45" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="67"/>
-      <c r="H47" s="21">
+      <c r="G45" s="61"/>
+      <c r="H45" s="21">
         <f>'Teste 1'!H84</f>
         <v>228.3</v>
       </c>
-      <c r="I47" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="67" t="s">
+      <c r="I45" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="67"/>
-      <c r="L47" s="21">
+      <c r="K45" s="61"/>
+      <c r="L45" s="21">
         <f>'Teste 1'!I83</f>
         <v>154</v>
       </c>
-      <c r="M47" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="O47" s="43" t="s">
+      <c r="M45" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="21">
+      <c r="P45" s="52"/>
+      <c r="Q45" s="21">
         <f>'Teste 1'!N82</f>
         <v>194</v>
       </c>
-      <c r="R47" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="43" t="s">
+      <c r="R45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="55"/>
-      <c r="U47" s="21">
+      <c r="T45" s="50"/>
+      <c r="U45" s="21">
         <f>'Teste 1'!N84</f>
         <v>197.5</v>
       </c>
-      <c r="V47" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="W47" s="55" t="s">
+      <c r="V45" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W45" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="21">
+      <c r="X45" s="50"/>
+      <c r="Y45" s="21">
         <f>'Teste 1'!N83</f>
         <v>203</v>
       </c>
-      <c r="Z47" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="Z45" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="34"/>
+      <c r="O46" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="34"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
+      <c r="O47" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="47"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="O48" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
+      <c r="B48" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="65"/>
+      <c r="D48" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="65"/>
+      <c r="H48" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="67"/>
+      <c r="J48" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="67"/>
+      <c r="O48" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="65"/>
+      <c r="S48" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="65"/>
+      <c r="U48" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="V48" s="67"/>
+      <c r="W48" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z48" s="67"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="72"/>
-      <c r="O49" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="40"/>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="75"/>
-      <c r="O50" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="48"/>
-      <c r="Z50" s="49"/>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="79"/>
-      <c r="F51" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="77"/>
-      <c r="H51" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="79"/>
-      <c r="J51" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="77"/>
-      <c r="L51" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="M51" s="79"/>
-      <c r="O51" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="R51" s="53"/>
-      <c r="S51" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T51" s="51"/>
-      <c r="U51" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="V51" s="53"/>
-      <c r="W51" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z51" s="53"/>
-    </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B52" s="59" t="s">
+      <c r="B49" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="20">
+      <c r="C49" s="58"/>
+      <c r="D49" s="20">
         <f>'Teste 1'!I14</f>
         <v>1</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="61" t="s">
+      <c r="E49" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="60"/>
-      <c r="H52" s="20">
+      <c r="G49" s="57"/>
+      <c r="H49" s="20">
         <f>'Teste 1'!I16</f>
         <v>1</v>
       </c>
-      <c r="I52" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="59" t="s">
+      <c r="I49" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="60"/>
-      <c r="L52" s="20">
+      <c r="K49" s="57"/>
+      <c r="L49" s="20">
         <f>'Teste 1'!I15</f>
         <v>1</v>
       </c>
-      <c r="M52" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="O52" s="45" t="s">
+      <c r="M49" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O49" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="20">
+      <c r="P49" s="42"/>
+      <c r="Q49" s="20">
         <f>'Teste 1'!O14</f>
         <v>107</v>
       </c>
-      <c r="R52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S52" s="45" t="s">
+      <c r="R49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T52" s="46"/>
-      <c r="U52" s="20">
+      <c r="T49" s="42"/>
+      <c r="U49" s="20">
         <f>'Teste 1'!O16</f>
         <v>108.1</v>
       </c>
-      <c r="V52" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W52" s="45" t="s">
+      <c r="V49" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W49" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="20">
+      <c r="X49" s="42"/>
+      <c r="Y49" s="20">
         <f>'Teste 1'!O15</f>
         <v>110</v>
       </c>
-      <c r="Z52" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="62" t="s">
+      <c r="Z49" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="23">
+      <c r="C50" s="55"/>
+      <c r="D50" s="23">
         <f>'Teste 1'!I31</f>
         <v>5</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E50" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F50" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="23">
+      <c r="G50" s="54"/>
+      <c r="H50" s="23">
         <f>'Teste 1'!I33</f>
         <v>6.4</v>
       </c>
-      <c r="I53" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="62" t="s">
+      <c r="I50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="63"/>
-      <c r="L53" s="23">
+      <c r="K50" s="54"/>
+      <c r="L50" s="23">
         <f>'Teste 1'!I32</f>
         <v>8</v>
       </c>
-      <c r="M53" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O53" s="41" t="s">
+      <c r="M50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="18">
+      <c r="P50" s="44"/>
+      <c r="Q50" s="18">
         <f>'Teste 1'!O31/1000</f>
         <v>2.6819999999999999</v>
       </c>
-      <c r="R53" s="16" t="s">
+      <c r="R50" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S53" s="41" t="s">
+      <c r="S50" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T53" s="42"/>
-      <c r="U53" s="18">
+      <c r="T50" s="44"/>
+      <c r="U50" s="18">
         <f>'Teste 1'!O33/1000</f>
         <v>2.6964999999999999</v>
       </c>
-      <c r="V53" s="24" t="s">
+      <c r="V50" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W53" s="41" t="s">
+      <c r="W50" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="18">
+      <c r="X50" s="44"/>
+      <c r="Y50" s="18">
         <f>'Teste 1'!O32/1000</f>
         <v>2.7349999999999999</v>
       </c>
-      <c r="Z53" s="16" t="s">
+      <c r="Z50" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="62" t="s">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="23">
+      <c r="C51" s="55"/>
+      <c r="D51" s="23">
         <f>'Teste 1'!I48</f>
         <v>11</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E51" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F51" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="23">
+      <c r="G51" s="54"/>
+      <c r="H51" s="23">
         <f>'Teste 1'!I50</f>
         <v>11.4</v>
       </c>
-      <c r="I54" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="62" t="s">
+      <c r="I51" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="63"/>
-      <c r="L54" s="23">
+      <c r="K51" s="54"/>
+      <c r="L51" s="23">
         <f>'Teste 1'!I49</f>
         <v>13</v>
       </c>
-      <c r="M54" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O54" s="41" t="s">
+      <c r="M51" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="18">
+      <c r="P51" s="44"/>
+      <c r="Q51" s="18">
         <f>'Teste 1'!O48/1000</f>
         <v>10.738</v>
       </c>
-      <c r="R54" s="16" t="s">
+      <c r="R51" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S54" s="41" t="s">
+      <c r="S51" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T54" s="42"/>
-      <c r="U54" s="18">
+      <c r="T51" s="44"/>
+      <c r="U51" s="18">
         <f>'Teste 1'!O50/1000</f>
         <v>10.7781</v>
       </c>
-      <c r="V54" s="24" t="s">
+      <c r="V51" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="W54" s="41" t="s">
+      <c r="W51" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="18">
+      <c r="X51" s="44"/>
+      <c r="Y51" s="18">
         <f>'Teste 1'!O49/1000</f>
         <v>10.853</v>
       </c>
-      <c r="Z54" s="16" t="s">
+      <c r="Z51" s="16" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="23">
+        <f>'Teste 1'!I65</f>
+        <v>70</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="23">
+        <f>'Teste 1'!I67</f>
+        <v>75.5</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="54"/>
+      <c r="L52" s="23">
+        <f>'Teste 1'!I66</f>
+        <v>82</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="18">
+        <f>'Teste 1'!O65/1000/60</f>
+        <v>4.4697500000000003</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S52" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T52" s="44"/>
+      <c r="U52" s="18">
+        <f>'Teste 1'!O67/1000/60</f>
+        <v>4.5798999999999994</v>
+      </c>
+      <c r="V52" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W52" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="18">
+        <f>'Teste 1'!O66/1000/60</f>
+        <v>4.9193000000000007</v>
+      </c>
+      <c r="Z52" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="61"/>
+      <c r="D53" s="21">
+        <f>'Teste 1'!I82</f>
+        <v>133</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="21">
+        <f>'Teste 1'!I84</f>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="60"/>
+      <c r="L53" s="21">
+        <f>'Teste 1'!I83</f>
+        <v>154</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="19">
+        <f>'Teste 1'!O82/1000/60</f>
+        <v>17.898949999999999</v>
+      </c>
+      <c r="R53" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="52"/>
+      <c r="U53" s="19">
+        <f>'Teste 1'!O84/1000/60</f>
+        <v>17.931876666666668</v>
+      </c>
+      <c r="V53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="19">
+        <f>'Teste 1'!O83/1000/60</f>
+        <v>17.962783333333334</v>
+      </c>
+      <c r="Z53" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="23">
-        <f>'Teste 1'!I65</f>
-        <v>70</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="64" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
       <c r="G55" s="63"/>
-      <c r="H55" s="23">
-        <f>'Teste 1'!I67</f>
-        <v>75.5</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J55" s="62" t="s">
-        <v>19</v>
-      </c>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
       <c r="K55" s="63"/>
-      <c r="L55" s="23">
-        <f>'Teste 1'!I66</f>
-        <v>82</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="O55" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="18">
-        <f>'Teste 1'!O65/1000/60</f>
-        <v>4.4697500000000003</v>
-      </c>
-      <c r="R55" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="S55" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="T55" s="42"/>
-      <c r="U55" s="18">
-        <f>'Teste 1'!O67/1000/60</f>
-        <v>4.5798999999999994</v>
-      </c>
-      <c r="V55" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W55" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="18">
-        <f>'Teste 1'!O66/1000/60</f>
-        <v>4.9193000000000007</v>
-      </c>
-      <c r="Z55" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B56" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="21">
-        <f>'Teste 1'!I82</f>
-        <v>133</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="66"/>
-      <c r="H56" s="21">
-        <f>'Teste 1'!I84</f>
-        <v>146.30000000000001</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="66"/>
-      <c r="L56" s="21">
-        <f>'Teste 1'!I83</f>
-        <v>154</v>
-      </c>
-      <c r="M56" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="O56" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="19">
-        <f>'Teste 1'!O82/1000/60</f>
-        <v>17.898949999999999</v>
-      </c>
-      <c r="R56" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="S56" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="T56" s="44"/>
-      <c r="U56" s="19">
-        <f>'Teste 1'!O84/1000/60</f>
-        <v>17.931876666666668</v>
-      </c>
-      <c r="V56" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="W56" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="19">
-        <f>'Teste 1'!O83/1000/60</f>
-        <v>17.962783333333334</v>
-      </c>
-      <c r="Z56" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="B56" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B57" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="47"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
+      <c r="B58" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="65"/>
+      <c r="F58" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="65"/>
+      <c r="H58" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="67"/>
+      <c r="J58" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="65"/>
+      <c r="L58" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" s="67"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="40"/>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B60" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="49"/>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="51"/>
-      <c r="F61" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="53"/>
-      <c r="J61" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K61" s="51"/>
-      <c r="L61" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="M61" s="53"/>
-    </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="45" t="s">
+      <c r="B59" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="20">
+      <c r="C59" s="42"/>
+      <c r="D59" s="20">
         <f>'Teste 1'!F14</f>
         <v>1</v>
       </c>
-      <c r="E62" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="45" t="s">
+      <c r="E59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="20">
+      <c r="G59" s="48"/>
+      <c r="H59" s="20">
         <f>'Teste 1'!F16</f>
         <v>1.3</v>
       </c>
-      <c r="I62" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J62" s="58" t="s">
+      <c r="I59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="58"/>
-      <c r="L62" s="20">
+      <c r="K59" s="48"/>
+      <c r="L59" s="20">
         <f>'Teste 1'!F15</f>
         <v>2</v>
       </c>
-      <c r="M62" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B63" s="41" t="s">
+      <c r="M59" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B60" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="23">
+      <c r="C60" s="44"/>
+      <c r="D60" s="23">
         <f>'Teste 1'!F31</f>
         <v>9</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="41" t="s">
+      <c r="E60" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="54"/>
-      <c r="H63" s="23">
+      <c r="G60" s="49"/>
+      <c r="H60" s="23">
         <f>'Teste 1'!F33</f>
         <v>9.9</v>
       </c>
-      <c r="I63" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J63" s="54" t="s">
+      <c r="I60" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="54"/>
-      <c r="L63" s="23">
+      <c r="K60" s="49"/>
+      <c r="L60" s="23">
         <f>'Teste 1'!F32</f>
         <v>11</v>
       </c>
-      <c r="M63" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B64" s="41" t="s">
+      <c r="M60" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B61" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="23">
+      <c r="C61" s="44"/>
+      <c r="D61" s="23">
         <f>'Teste 1'!F48</f>
         <v>27</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="41" t="s">
+      <c r="E61" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="54"/>
-      <c r="H64" s="23">
+      <c r="G61" s="49"/>
+      <c r="H61" s="23">
         <f>'Teste 1'!F50</f>
         <v>28.6</v>
       </c>
-      <c r="I64" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J64" s="54" t="s">
+      <c r="I61" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="54"/>
-      <c r="L64" s="23">
+      <c r="K61" s="49"/>
+      <c r="L61" s="23">
         <f>'Teste 1'!F49</f>
         <v>30</v>
       </c>
-      <c r="M64" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="41" t="s">
+      <c r="M61" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B62" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="23">
+      <c r="C62" s="44"/>
+      <c r="D62" s="23">
         <f>'Teste 1'!F65</f>
         <v>184</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="41" t="s">
+      <c r="E62" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="23">
+      <c r="G62" s="49"/>
+      <c r="H62" s="23">
         <f>'Teste 1'!F67</f>
         <v>197.2</v>
       </c>
-      <c r="I65" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J65" s="54" t="s">
+      <c r="I62" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="54"/>
-      <c r="L65" s="23">
+      <c r="K62" s="49"/>
+      <c r="L62" s="23">
         <f>'Teste 1'!F66</f>
         <v>209</v>
       </c>
-      <c r="M65" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="43" t="s">
+      <c r="M62" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B63" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="21">
+      <c r="C63" s="52"/>
+      <c r="D63" s="21">
         <f>'Teste 1'!F82</f>
         <v>422</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="43" t="s">
+      <c r="E63" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="55"/>
-      <c r="H66" s="21">
+      <c r="G63" s="50"/>
+      <c r="H63" s="21">
         <f>'Teste 1'!F84</f>
         <v>435.7</v>
       </c>
-      <c r="I66" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" s="55" t="s">
+      <c r="I63" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="55"/>
-      <c r="L66" s="21">
+      <c r="K63" s="50"/>
+      <c r="L63" s="21">
         <f>'Teste 1'!F83</f>
         <v>454</v>
       </c>
-      <c r="M66" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="M63" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B64" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="47"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="65"/>
+      <c r="D66" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="65"/>
+      <c r="F66" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="65"/>
+      <c r="H66" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="67"/>
+      <c r="J66" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" s="65"/>
+      <c r="L66" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" s="67"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="40"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="49"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="53"/>
-      <c r="F70" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="51"/>
-      <c r="H70" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I70" s="53"/>
-      <c r="J70" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="M70" s="53"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="45" t="s">
+      <c r="B67" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="20">
+      <c r="C67" s="42"/>
+      <c r="D67" s="20">
         <f>'Teste 1'!G14</f>
         <v>0</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="45" t="s">
+      <c r="E67" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="20">
+      <c r="G67" s="48"/>
+      <c r="H67" s="20">
         <f>'Teste 1'!G16</f>
         <v>0.3</v>
       </c>
-      <c r="I71" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" s="58" t="s">
+      <c r="I67" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="58"/>
-      <c r="L71" s="20">
+      <c r="K67" s="48"/>
+      <c r="L67" s="20">
         <f>'Teste 1'!G15</f>
         <v>1</v>
       </c>
-      <c r="M71" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="41" t="s">
+      <c r="M67" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="23">
+      <c r="C68" s="44"/>
+      <c r="D68" s="23">
         <f>'Teste 1'!G31</f>
         <v>2</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="41" t="s">
+      <c r="E68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="54"/>
-      <c r="H72" s="23">
+      <c r="G68" s="49"/>
+      <c r="H68" s="23">
         <f>'Teste 1'!G33</f>
         <v>2.8</v>
       </c>
-      <c r="I72" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J72" s="54" t="s">
+      <c r="I68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="54"/>
-      <c r="L72" s="23">
+      <c r="K68" s="49"/>
+      <c r="L68" s="23">
         <f>'Teste 1'!G32</f>
         <v>4</v>
       </c>
-      <c r="M72" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="41" t="s">
+      <c r="M68" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="23">
+      <c r="C69" s="44"/>
+      <c r="D69" s="23">
         <f>'Teste 1'!G48</f>
         <v>7</v>
       </c>
-      <c r="E73" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="41" t="s">
+      <c r="E69" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="54"/>
-      <c r="H73" s="23">
+      <c r="G69" s="49"/>
+      <c r="H69" s="23">
         <f>'Teste 1'!G50</f>
         <v>9.1</v>
       </c>
-      <c r="I73" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J73" s="54" t="s">
+      <c r="I69" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="23">
+      <c r="K69" s="49"/>
+      <c r="L69" s="23">
         <f>'Teste 1'!G49</f>
         <v>11</v>
       </c>
-      <c r="M73" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="41" t="s">
+      <c r="M69" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="23">
+      <c r="C70" s="44"/>
+      <c r="D70" s="23">
         <f>'Teste 1'!G65</f>
         <v>49</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="41" t="s">
+      <c r="E70" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="54"/>
-      <c r="H74" s="23">
+      <c r="G70" s="49"/>
+      <c r="H70" s="23">
         <f>'Teste 1'!G67</f>
         <v>55.3</v>
       </c>
-      <c r="I74" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J74" s="54" t="s">
+      <c r="I70" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="54"/>
-      <c r="L74" s="23">
+      <c r="K70" s="49"/>
+      <c r="L70" s="23">
         <f>'Teste 1'!G66</f>
         <v>62</v>
       </c>
-      <c r="M74" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="43" t="s">
+      <c r="M70" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="21">
+      <c r="C71" s="52"/>
+      <c r="D71" s="21">
         <f>'Teste 1'!G82</f>
         <v>114</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="43" t="s">
+      <c r="E71" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="55"/>
-      <c r="H75" s="21">
+      <c r="G71" s="50"/>
+      <c r="H71" s="21">
         <f>'Teste 1'!G84</f>
         <v>121.1</v>
       </c>
-      <c r="I75" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J75" s="55" t="s">
+      <c r="I71" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="55"/>
-      <c r="L75" s="21">
+      <c r="K71" s="50"/>
+      <c r="L71" s="21">
         <f>'Teste 1'!G83</f>
         <v>128</v>
       </c>
-      <c r="M75" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="M71" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="34"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="47"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="65"/>
+      <c r="D76" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="65"/>
+      <c r="F76" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="65"/>
+      <c r="H76" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="67"/>
+      <c r="J76" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K76" s="65"/>
+      <c r="L76" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M76" s="67"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" s="57"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="40"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K79" s="48"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="49"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="51"/>
-      <c r="H80" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="53"/>
-      <c r="J80" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K80" s="51"/>
-      <c r="L80" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="M80" s="53"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="45" t="s">
+      <c r="B77" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="20">
+      <c r="C77" s="42"/>
+      <c r="D77" s="20">
         <f>'Teste 1'!P14</f>
         <v>190</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="45" t="s">
+      <c r="E77" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="58"/>
-      <c r="H81" s="20">
+      <c r="G77" s="48"/>
+      <c r="H77" s="20">
         <f>'Teste 1'!P16</f>
         <v>195.7</v>
       </c>
-      <c r="I81" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J81" s="58" t="s">
+      <c r="I77" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="58"/>
-      <c r="L81" s="20">
+      <c r="K77" s="48"/>
+      <c r="L77" s="20">
         <f>'Teste 1'!P15</f>
         <v>206</v>
       </c>
-      <c r="M81" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="41" t="s">
+      <c r="M77" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="42"/>
-      <c r="D82" s="18">
+      <c r="C78" s="44"/>
+      <c r="D78" s="18">
         <f>'Teste 1'!P31/1000</f>
         <v>5.3540000000000001</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E78" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="41" t="s">
+      <c r="F78" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="54"/>
-      <c r="H82" s="18">
+      <c r="G78" s="49"/>
+      <c r="H78" s="18">
         <f>'Teste 1'!P33/1000</f>
         <v>5.3758999999999997</v>
       </c>
-      <c r="I82" s="16" t="s">
+      <c r="I78" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="54" t="s">
+      <c r="J78" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K82" s="54"/>
-      <c r="L82" s="18">
+      <c r="K78" s="49"/>
+      <c r="L78" s="18">
         <f>'Teste 1'!P32/1000</f>
         <v>5.43</v>
       </c>
-      <c r="M82" s="16" t="s">
+      <c r="M78" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="41" t="s">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="18">
+      <c r="C79" s="44"/>
+      <c r="D79" s="18">
         <f>'Teste 1'!P48/1000</f>
         <v>21.995999999999999</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E79" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="41" t="s">
+      <c r="F79" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="54"/>
-      <c r="H83" s="18">
+      <c r="G79" s="49"/>
+      <c r="H79" s="18">
         <f>'Teste 1'!P50/1000</f>
         <v>22.170900000000003</v>
       </c>
-      <c r="I83" s="16" t="s">
+      <c r="I79" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J83" s="54" t="s">
+      <c r="J79" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="54"/>
-      <c r="L83" s="18">
+      <c r="K79" s="49"/>
+      <c r="L79" s="18">
         <f>'Teste 1'!P49/1000</f>
         <v>22.706</v>
       </c>
-      <c r="M83" s="16" t="s">
+      <c r="M79" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="41" t="s">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="42"/>
-      <c r="D84" s="18">
+      <c r="C80" s="44"/>
+      <c r="D80" s="18">
         <f>'Teste 1'!P65/1000/60</f>
         <v>9.341566666666667</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E80" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="F80" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="54"/>
-      <c r="H84" s="18">
+      <c r="G80" s="49"/>
+      <c r="H80" s="18">
         <f>'Teste 1'!P67/1000/60</f>
         <v>9.5401316666666673</v>
       </c>
-      <c r="I84" s="16" t="s">
+      <c r="I80" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="54" t="s">
+      <c r="J80" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="54"/>
-      <c r="L84" s="18">
+      <c r="K80" s="49"/>
+      <c r="L80" s="18">
         <f>'Teste 1'!P66/1000/60</f>
         <v>10.052383333333333</v>
       </c>
-      <c r="M84" s="16" t="s">
+      <c r="M80" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="43" t="s">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="19">
+      <c r="C81" s="52"/>
+      <c r="D81" s="19">
         <f>'Teste 1'!P82/1000/60</f>
         <v>37.625450000000001</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E81" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F85" s="43" t="s">
+      <c r="F81" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="55"/>
-      <c r="H85" s="19">
+      <c r="G81" s="50"/>
+      <c r="H81" s="19">
         <f>'Teste 1'!P84/1000/60</f>
         <v>39.522801666666666</v>
       </c>
-      <c r="I85" s="17" t="s">
+      <c r="I81" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J85" s="55" t="s">
+      <c r="J81" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="55"/>
-      <c r="L85" s="19">
+      <c r="K81" s="50"/>
+      <c r="L81" s="19">
         <f>'Teste 1'!P83/1000/60</f>
         <v>41.662100000000002</v>
       </c>
-      <c r="M85" s="17" t="s">
+      <c r="M81" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="38" t="s">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="34"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="38" t="s">
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="38" t="s">
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="40"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="49"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="50" t="s">
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="47"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="53"/>
-      <c r="F89" s="50" t="s">
+      <c r="C84" s="65"/>
+      <c r="D84" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="65"/>
+      <c r="F84" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G89" s="51"/>
-      <c r="H89" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I89" s="53"/>
-      <c r="J89" s="50" t="s">
+      <c r="G84" s="65"/>
+      <c r="H84" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="67"/>
+      <c r="J84" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="K89" s="51"/>
-      <c r="L89" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="M89" s="53"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="45" t="s">
+      <c r="K84" s="65"/>
+      <c r="L84" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M84" s="67"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="58"/>
-      <c r="D90" s="20">
+      <c r="C85" s="48"/>
+      <c r="D85" s="20">
         <f>'Teste 1'!Q14</f>
         <v>232</v>
       </c>
-      <c r="E90" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F90" s="58" t="s">
+      <c r="E85" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="58"/>
-      <c r="H90" s="20">
+      <c r="G85" s="48"/>
+      <c r="H85" s="20">
         <f>'Teste 1'!Q16</f>
         <v>238.8</v>
       </c>
-      <c r="I90" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J90" s="58" t="s">
+      <c r="I85" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="58"/>
-      <c r="L90" s="20">
+      <c r="K85" s="48"/>
+      <c r="L85" s="20">
         <f>'Teste 1'!Q15</f>
         <v>261</v>
       </c>
-      <c r="M90" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="41" t="s">
+      <c r="M85" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="18">
+      <c r="C86" s="49"/>
+      <c r="D86" s="18">
         <f>'Teste 1'!Q31/1000</f>
         <v>5.88</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="54" t="s">
+      <c r="F86" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="54"/>
-      <c r="H91" s="18">
+      <c r="G86" s="49"/>
+      <c r="H86" s="18">
         <f>'Teste 1'!Q33/1000</f>
         <v>5.9473000000000003</v>
       </c>
-      <c r="I91" s="16" t="s">
+      <c r="I86" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J91" s="54" t="s">
+      <c r="J86" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K91" s="54"/>
-      <c r="L91" s="18">
+      <c r="K86" s="49"/>
+      <c r="L86" s="18">
         <f>'Teste 1'!Q33/1000</f>
         <v>5.9473000000000003</v>
       </c>
-      <c r="M91" s="16" t="s">
+      <c r="M86" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="41" t="s">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="18">
+      <c r="C87" s="49"/>
+      <c r="D87" s="18">
         <f>'Teste 1'!Q48/1000</f>
         <v>23.521000000000001</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F87" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="18">
+      <c r="G87" s="49"/>
+      <c r="H87" s="18">
         <f>'Teste 1'!Q50/1000</f>
         <v>23.644099999999998</v>
       </c>
-      <c r="I92" s="16" t="s">
+      <c r="I87" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J92" s="54" t="s">
+      <c r="J87" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K92" s="54"/>
-      <c r="L92" s="18">
+      <c r="K87" s="49"/>
+      <c r="L87" s="18">
         <f>'Teste 1'!Q50/1000</f>
         <v>23.644099999999998</v>
       </c>
-      <c r="M92" s="16" t="s">
+      <c r="M87" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="41" t="s">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="18">
+      <c r="C88" s="49"/>
+      <c r="D88" s="18">
         <f>'Teste 1'!Q65/1000/60</f>
         <v>9.7959166666666668</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E88" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F88" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="54"/>
-      <c r="H93" s="18">
+      <c r="G88" s="49"/>
+      <c r="H88" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>9.9129483333333344</v>
       </c>
-      <c r="I93" s="16" t="s">
+      <c r="I88" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J93" s="54" t="s">
+      <c r="J88" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="54"/>
-      <c r="L93" s="18">
+      <c r="K88" s="49"/>
+      <c r="L88" s="18">
         <f>'Teste 1'!Q67/1000/60</f>
         <v>9.9129483333333344</v>
       </c>
-      <c r="M93" s="16" t="s">
+      <c r="M88" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="43" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="55"/>
-      <c r="D94" s="19">
+      <c r="C89" s="50"/>
+      <c r="D89" s="19">
         <f>'Teste 1'!Q82/1000/60</f>
         <v>40.053533333333334</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E89" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="55" t="s">
+      <c r="F89" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="55"/>
-      <c r="H94" s="19">
+      <c r="G89" s="50"/>
+      <c r="H89" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>44.521449999999994</v>
       </c>
-      <c r="I94" s="17" t="s">
+      <c r="I89" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J94" s="55" t="s">
+      <c r="J89" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="55"/>
-      <c r="L94" s="19">
+      <c r="K89" s="50"/>
+      <c r="L89" s="19">
         <f>'Teste 1'!Q84/1000/60</f>
         <v>44.521449999999994</v>
       </c>
-      <c r="M94" s="17" t="s">
+      <c r="M89" s="17" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="480">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
+  <mergeCells count="408">
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="W47:Z47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="O46:Z46"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="O38:Z38"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="O37:Z37"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="O28:Z28"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="O19:Z19"/>
+    <mergeCell ref="O20:Z20"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="O10:Z10"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:M82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="B74:M74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="B73:M73"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="B64:M64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="B56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B55:M55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:M11"/>
@@ -9897,450 +9970,27 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="W49:Z49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
